--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,9 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
+  </si>
+  <si>
+    <t>version 1：20240422：backbone只有一个linear层将312特征转化为128维</t>
+  </si>
+  <si>
+    <t>version 1：20240422：backbone只有一个linear层将global feature 728维度转化为128维</t>
   </si>
   <si>
     <t>vit</t>
@@ -64,18 +70,37 @@
     <t>H</t>
   </si>
   <si>
+    <t>MoCo动量参数m</t>
+  </si>
+  <si>
+    <t>分类系数</t>
+  </si>
+  <si>
+    <t>ReZSLloss系数</t>
+  </si>
+  <si>
+    <t>recon_loss系数</t>
+  </si>
+  <si>
+    <t>对比学习loss系数</t>
+  </si>
+  <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>没看到0.68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -687,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,10 +722,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1030,9 +1064,31 @@
     <col min="6" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="32.625" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="18" width="6.375" customWidth="1"/>
+    <col min="19" max="19" width="32.625" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="21" max="21" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="5.375" customWidth="1"/>
+    <col min="24" max="24" width="10.375" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="26" max="26" width="6.375" customWidth="1"/>
+    <col min="27" max="27" width="5.375" customWidth="1"/>
+    <col min="28" max="29" width="6.375" customWidth="1"/>
+    <col min="30" max="30" width="32.625" customWidth="1"/>
+    <col min="31" max="31" width="14.875" customWidth="1"/>
+    <col min="32" max="32" width="9.375" customWidth="1"/>
+    <col min="33" max="33" width="14.875" customWidth="1"/>
+    <col min="34" max="34" width="16" customWidth="1"/>
+    <col min="35" max="35" width="18.25" customWidth="1"/>
+    <col min="36" max="36" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,126 +1100,804 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" ht="14.25" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:36">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8192</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.6715</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>8192</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.7103</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.7145</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="14.25" spans="1:36">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="H4" s="2">
+        <v>8192</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.7143</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8192</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.7</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.002</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.7156</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:36">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="C5" s="3">
+        <v>0.004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H5" s="2">
         <v>8192</v>
       </c>
-      <c r="I3" s="3">
-        <v>0.6715</v>
+      <c r="I5" s="2">
+        <v>0.7164</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.7184</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="23:36">
+      <c r="W6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="AD6" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.7089</v>
+      </c>
+    </row>
+    <row r="7" spans="23:36">
+      <c r="W7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.002</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="Y7" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.7063</v>
+      </c>
+    </row>
+    <row r="8" spans="23:36">
+      <c r="W8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="Y8" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA8" s="1">
         <v>16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="AB8" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="AC8" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="AD8" s="1">
         <v>8192</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.7143</v>
+      <c r="AE8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0.7037</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="23:36">
+      <c r="W9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="AD9" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0.7087</v>
+      </c>
+    </row>
+    <row r="10" spans="23:36">
+      <c r="W10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="Y10" s="4">
         <v>0.004</v>
       </c>
-      <c r="D5" s="3">
+      <c r="Z10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>8192</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="23:36">
+      <c r="W11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="1">
         <v>0.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="Y11" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA11" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="3">
+      <c r="AB11" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="AC11" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="AD11" s="1">
         <v>8192</v>
       </c>
-      <c r="I5" s="3">
-        <v>0.7164</v>
+      <c r="AE11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>0.6748</v>
+      </c>
+    </row>
+    <row r="12" spans="23:36">
+      <c r="W12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4096</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>0.7148</v>
+      </c>
+    </row>
+    <row r="13" spans="23:36">
+      <c r="W13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0.7062</v>
+      </c>
+    </row>
+    <row r="14" spans="23:35">
+      <c r="W14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.0004</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="W1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>version 1：20240422：backbone只有一个linear层将global feature 728维度转化为128维</t>
+  </si>
+  <si>
+    <t>version 2（my_SimCLR）：20240427，从一个batch中选取正负样本的对比学习,用了312个MLP层去将v2s转化为对比学习用的128维特征312-&gt;1024-&gt;2048-&gt;128</t>
   </si>
   <si>
     <t>vit</t>
@@ -85,6 +88,12 @@
     <t>对比学习loss系数</t>
   </si>
   <si>
+    <t>MoCo温度</t>
+  </si>
+  <si>
+    <t>对比学习温度</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -95,12 +104,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -731,10 +741,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1084,11 +1094,24 @@
     <col min="32" max="32" width="9.375" customWidth="1"/>
     <col min="33" max="33" width="14.875" customWidth="1"/>
     <col min="34" max="34" width="16" customWidth="1"/>
-    <col min="35" max="35" width="18.25" customWidth="1"/>
-    <col min="36" max="36" width="11.125" customWidth="1"/>
+    <col min="35" max="36" width="18.25" customWidth="1"/>
+    <col min="37" max="37" width="11.125" customWidth="1"/>
+    <col min="38" max="38" width="6.875" customWidth="1"/>
+    <col min="39" max="39" width="5.375" customWidth="1"/>
+    <col min="40" max="40" width="10.375" customWidth="1"/>
+    <col min="41" max="41" width="9.375" customWidth="1"/>
+    <col min="42" max="42" width="6.375" customWidth="1"/>
+    <col min="43" max="43" width="5.375" customWidth="1"/>
+    <col min="44" max="45" width="6.375" customWidth="1"/>
+    <col min="46" max="46" width="9.375" customWidth="1"/>
+    <col min="47" max="47" width="14.875" customWidth="1"/>
+    <col min="48" max="48" width="16" customWidth="1"/>
+    <col min="49" max="49" width="18.25" customWidth="1"/>
+    <col min="50" max="50" width="13.75" customWidth="1"/>
+    <col min="51" max="51" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,111 +1151,169 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:36">
+    <row r="2" ht="14.25" spans="1:51">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:36">
+    <row r="3" ht="14.25" spans="1:51">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>0.7</v>
@@ -1259,7 +1340,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1289,7 +1370,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X3" s="1">
         <v>0.5</v>
@@ -1328,12 +1409,54 @@
         <v>0.07</v>
       </c>
       <c r="AJ3" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK3" s="1">
         <v>0.7145</v>
       </c>
+      <c r="AM3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>0.715</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:36">
+    <row r="4" ht="14.25" spans="1:51">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0.5</v>
@@ -1360,7 +1483,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
@@ -1387,7 +1510,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X4" s="1">
         <v>0.5</v>
@@ -1422,16 +1545,58 @@
       <c r="AH4" s="1">
         <v>1</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="1">
         <v>0.15</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK4" s="1">
         <v>0.7156</v>
       </c>
+      <c r="AM4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>0.6984</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:36">
+    <row r="5" ht="14.25" spans="1:51">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>0.5</v>
@@ -1458,7 +1623,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X5" s="1">
         <v>0.5</v>
@@ -1496,13 +1661,55 @@
       <c r="AI5" s="5">
         <v>0.2</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK5" s="1">
         <v>0.7184</v>
       </c>
+      <c r="AM5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AY5">
+        <v>0.6984</v>
+      </c>
     </row>
-    <row r="6" spans="23:36">
+    <row r="6" spans="23:51">
       <c r="W6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X6" s="1">
         <v>0.5</v>
@@ -1540,13 +1747,55 @@
       <c r="AI6" s="5">
         <v>0.3</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK6" s="1">
         <v>0.7089</v>
       </c>
+      <c r="AM6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AY6">
+        <v>0.7039</v>
+      </c>
     </row>
-    <row r="7" spans="23:36">
+    <row r="7" spans="23:51">
       <c r="W7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X7" s="1">
         <v>0.5</v>
@@ -1584,13 +1833,55 @@
       <c r="AI7" s="1">
         <v>0.35</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK7" s="1">
         <v>0.7063</v>
       </c>
+      <c r="AM7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AY7">
+        <v>0.7036</v>
+      </c>
     </row>
-    <row r="8" spans="23:36">
+    <row r="8" spans="23:50">
       <c r="W8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X8" s="1">
         <v>0.5</v>
@@ -1625,16 +1916,55 @@
       <c r="AH8" s="1">
         <v>1</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="5">
         <v>0.4</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK8" s="1">
         <v>0.7037</v>
       </c>
+      <c r="AM8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0.003</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="9" spans="23:36">
+    <row r="9" spans="23:37">
       <c r="W9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X9" s="1">
         <v>0.5</v>
@@ -1669,16 +1999,19 @@
       <c r="AH9" s="1">
         <v>1</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="1">
         <v>0.25</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK9" s="1">
         <v>0.7087</v>
       </c>
     </row>
-    <row r="10" spans="23:36">
+    <row r="10" spans="23:37">
       <c r="W10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X10" s="1">
         <v>0.5</v>
@@ -1713,16 +2046,19 @@
       <c r="AH10" s="1">
         <v>1</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="1">
         <v>0.25</v>
       </c>
-      <c r="AJ10" s="6" t="s">
-        <v>18</v>
+      <c r="AJ10" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="23:36">
+    <row r="11" spans="23:37">
       <c r="W11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X11" s="1">
         <v>0.5</v>
@@ -1757,16 +2093,19 @@
       <c r="AH11" s="1">
         <v>2</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="1">
         <v>0.25</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK11" s="1">
         <v>0.6748</v>
       </c>
     </row>
-    <row r="12" spans="23:36">
+    <row r="12" spans="23:37">
       <c r="W12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X12" s="1">
         <v>0.5</v>
@@ -1804,13 +2143,16 @@
       <c r="AI12" s="5">
         <v>0.2</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK12" s="1">
         <v>0.7148</v>
       </c>
     </row>
-    <row r="13" spans="23:36">
+    <row r="13" spans="23:37">
       <c r="W13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X13" s="1">
         <v>0.5</v>
@@ -1848,13 +2190,16 @@
       <c r="AI13" s="5">
         <v>0.2</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK13" s="1">
         <v>0.7062</v>
       </c>
     </row>
-    <row r="14" spans="23:35">
+    <row r="14" spans="23:37">
       <c r="W14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X14" s="1">
         <v>0.1</v>
@@ -1892,12 +2237,439 @@
       <c r="AI14" s="5">
         <v>0.2</v>
       </c>
+      <c r="AJ14" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK14">
+        <v>0.6883</v>
+      </c>
+    </row>
+    <row r="15" spans="23:37">
+      <c r="W15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0.004</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK15">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="16" spans="23:37">
+      <c r="W16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK16">
+        <v>0.7225</v>
+      </c>
+    </row>
+    <row r="17" spans="23:37">
+      <c r="W17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK17">
+        <v>0.7209</v>
+      </c>
+    </row>
+    <row r="18" spans="23:37">
+      <c r="W18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.003</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="AK18">
+        <v>0.7158</v>
+      </c>
+    </row>
+    <row r="19" spans="23:37">
+      <c r="W19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AK19">
+        <v>0.7243</v>
+      </c>
+    </row>
+    <row r="20" spans="23:37">
+      <c r="W20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AK20">
+        <v>0.7191</v>
+      </c>
+    </row>
+    <row r="21" spans="23:37">
+      <c r="W21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="23:37">
+      <c r="W22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>0.7237</v>
+      </c>
+    </row>
+    <row r="23" spans="23:36">
+      <c r="W23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
-    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="AM1:AY1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>version 2（my_SimCLR）：20240427，从一个batch中选取正负样本的对比学习,用了312个MLP层去将v2s转化为对比学习用的128维特征312-&gt;1024-&gt;2048-&gt;128</t>
+  </si>
+  <si>
+    <t>version 2（my_SimCLR2）：20240429，从一个batch中选取正负样本的对比学习,用了2个MLP层去将v2s转化为对比学习用的128维特征312-&gt;1024-&gt;2048-&gt;128</t>
+  </si>
+  <si>
+    <t>version 2（my_SimCLR2）：20240429，更改了mask重构的层数，利用将0到3层的隐藏特征重构112 56 28 14 的图像</t>
+  </si>
+  <si>
+    <t>version3(attentionNet):没有对比学习，更改了mask重构的层数，利用将0到3层的隐藏特征重构112 56 28 14 的图像</t>
   </si>
   <si>
     <t>vit</t>
@@ -94,7 +103,16 @@
     <t>对比学习温度</t>
   </si>
   <si>
+    <t>best epoch/epoch</t>
+  </si>
+  <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>6/15</t>
+  </si>
+  <si>
+    <t>6/13</t>
   </si>
   <si>
     <t>没看到0.68</t>
@@ -722,8 +740,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,6 +766,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:CQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CD3" sqref="CD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1109,1135 +1139,1519 @@
     <col min="49" max="49" width="18.25" customWidth="1"/>
     <col min="50" max="50" width="13.75" customWidth="1"/>
     <col min="51" max="51" width="15.875" customWidth="1"/>
+    <col min="53" max="53" width="4.375" customWidth="1"/>
+    <col min="54" max="54" width="10.375" customWidth="1"/>
+    <col min="55" max="55" width="8.375" customWidth="1"/>
+    <col min="56" max="56" width="6.375" customWidth="1"/>
+    <col min="57" max="57" width="5.375" customWidth="1"/>
+    <col min="58" max="59" width="6.375" customWidth="1"/>
+    <col min="60" max="60" width="9.375" customWidth="1"/>
+    <col min="61" max="61" width="14.875" customWidth="1"/>
+    <col min="62" max="62" width="16" customWidth="1"/>
+    <col min="63" max="63" width="18.25" customWidth="1"/>
+    <col min="64" max="64" width="13.75" customWidth="1"/>
+    <col min="65" max="65" width="7.375" customWidth="1"/>
+    <col min="69" max="69" width="9.375"/>
+    <col min="79" max="79" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:95">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AM1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AM1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="BA1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BO1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="10"/>
+      <c r="CD1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
     </row>
-    <row r="2" ht="14.25" spans="1:51">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="14.25" spans="1:95">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:93">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8192</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.6715</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2">
+        <v>8192</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.7103</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>8192</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.7145</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>0.715</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>0.003</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>16</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="BM3">
+        <v>0.7103</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="BQ3" s="5">
+        <v>0.003</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>32</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CA3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB3">
+        <v>0.7186</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CF3" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>32</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:80">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8192</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.7143</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>8192</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>8192</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.7156</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:51">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="AT4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>0.6984</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>0.003</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>16</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>10</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="BM4">
+        <v>0.7103</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="BQ4" s="5">
         <v>0.002</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8192</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.6715</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.004</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1">
-        <v>8192</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.7103</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0.004</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>8192</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0.7145</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>0.002</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="5">
+      <c r="BR4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>32</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>10</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="6">
         <v>0.2</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="BZ4" s="2">
         <v>0.12</v>
       </c>
-      <c r="AY3" s="7">
-        <v>0.715</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:51">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8192</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.7143</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.004</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1">
-        <v>8192</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0.004</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>8192</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0.7156</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>0.002</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AX4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AY4" s="7">
-        <v>0.6984</v>
+      <c r="CA4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB4">
+        <v>0.7169</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:51">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.004</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="D5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
         <v>8192</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>0.7164</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" s="4">
+      <c r="W5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="1">
+      <c r="Z5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="2">
         <v>8192</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="5">
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="2">
         <v>0.7184</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO5" s="4">
+      <c r="AM5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="5">
         <v>0.002</v>
       </c>
-      <c r="AP5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="1">
+      <c r="AP5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="2">
         <v>5</v>
       </c>
-      <c r="AT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="5">
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="6">
         <v>0.2</v>
       </c>
-      <c r="AX5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AY5">
+      <c r="AX5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AY5" s="9">
         <v>0.6984</v>
       </c>
     </row>
     <row r="6" spans="23:51">
-      <c r="W6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="W6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="1">
+      <c r="Z6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="2">
         <v>8192</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="5">
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="6">
         <v>0.3</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="2">
         <v>0.7089</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO6" s="4">
+      <c r="AM6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO6" s="5">
         <v>0.001</v>
       </c>
-      <c r="AP6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="1">
+      <c r="AP6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="2">
         <v>5</v>
       </c>
-      <c r="AT6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="5">
+      <c r="AT6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="6">
         <v>0.2</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AX6" s="6">
         <v>0.12</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="9">
         <v>0.7039</v>
       </c>
     </row>
     <row r="7" spans="23:51">
-      <c r="W7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="W7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="1">
+      <c r="Z7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="2">
         <v>8192</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1">
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
         <v>0.35</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="2">
         <v>0.7063</v>
       </c>
-      <c r="AM7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO7" s="4">
+      <c r="AM7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="5">
         <v>0.002</v>
       </c>
-      <c r="AP7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS7" s="1">
+      <c r="AP7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="2">
         <v>5</v>
       </c>
-      <c r="AT7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="5">
+      <c r="AT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="6">
         <v>0.2</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AX7" s="6">
         <v>0.12</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="9">
         <v>0.7036</v>
       </c>
     </row>
-    <row r="8" spans="23:50">
-      <c r="W8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y8" s="4">
+    <row r="8" spans="23:51">
+      <c r="W8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="1">
+      <c r="Z8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="2">
         <v>8192</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="5">
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="6">
         <v>0.4</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="2">
         <v>0.7037</v>
       </c>
-      <c r="AM8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO8" s="4">
+      <c r="AM8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="5">
         <v>0.003</v>
       </c>
-      <c r="AP8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="5">
+      <c r="AP8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>16</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="6">
         <v>0.2</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8" s="2">
         <v>0.12</v>
+      </c>
+      <c r="AY8" s="9">
+        <v>0.7104</v>
       </c>
     </row>
     <row r="9" spans="23:37">
-      <c r="W9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y9" s="4">
+      <c r="W9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="1">
+      <c r="Z9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="2">
         <v>8192</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="1">
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
         <v>0.25</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="2">
         <v>0.7087</v>
       </c>
     </row>
     <row r="10" spans="23:37">
-      <c r="W10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="W10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="1">
+      <c r="Z10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="2">
         <v>8192</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1">
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="2">
         <v>300</v>
       </c>
-      <c r="AH10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="1">
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
         <v>0.25</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK10" s="1" t="s">
-        <v>21</v>
+      <c r="AK10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="23:37">
-      <c r="W11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y11" s="4">
+      <c r="W11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="1">
+      <c r="Z11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="2">
         <v>8192</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="1">
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
         <v>300</v>
       </c>
-      <c r="AH11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI11" s="1">
+      <c r="AH11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="2">
         <v>0.25</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="2">
         <v>0.6748</v>
       </c>
     </row>
     <row r="12" spans="23:37">
-      <c r="W12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="4">
+      <c r="W12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="1">
+      <c r="Z12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="2">
         <v>4096</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="5">
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="2">
         <v>0.7148</v>
       </c>
     </row>
     <row r="13" spans="23:37">
-      <c r="W13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y13" s="4">
+      <c r="W13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="1">
+      <c r="Z13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="2">
         <v>2048</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="5">
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="2">
         <v>0.07</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="2">
         <v>0.7062</v>
       </c>
     </row>
     <row r="14" spans="23:37">
-      <c r="W14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y14" s="4">
+      <c r="W14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" s="5">
         <v>0.0004</v>
       </c>
-      <c r="Z14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="1">
+      <c r="Z14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="2">
         <v>2048</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="5">
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="2">
         <v>0.07</v>
       </c>
       <c r="AK14">
@@ -2245,46 +2659,46 @@
       </c>
     </row>
     <row r="15" spans="23:37">
-      <c r="W15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y15" s="4">
+      <c r="W15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" s="5">
         <v>0.004</v>
       </c>
-      <c r="Z15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="1">
+      <c r="Z15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="2">
         <v>2048</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="5">
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="2">
         <v>0.07</v>
       </c>
       <c r="AK15">
@@ -2292,46 +2706,46 @@
       </c>
     </row>
     <row r="16" spans="23:37">
-      <c r="W16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="W16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y16" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="1">
+      <c r="Z16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="2">
         <v>2048</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AE16" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="5">
+      <c r="AF16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="2">
         <v>0.07</v>
       </c>
       <c r="AK16">
@@ -2339,46 +2753,46 @@
       </c>
     </row>
     <row r="17" spans="23:37">
-      <c r="W17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y17" s="4">
+      <c r="W17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y17" s="5">
         <v>0.001</v>
       </c>
-      <c r="Z17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD17" s="1">
+      <c r="Z17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="2">
         <v>2048</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="5">
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="2">
         <v>0.07</v>
       </c>
       <c r="AK17">
@@ -2386,46 +2800,46 @@
       </c>
     </row>
     <row r="18" spans="23:37">
-      <c r="W18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="W18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y18" s="5">
         <v>0.003</v>
       </c>
-      <c r="Z18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="1">
+      <c r="Z18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="2">
         <v>2048</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="5">
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="2">
         <v>0.07</v>
       </c>
       <c r="AK18">
@@ -2433,46 +2847,46 @@
       </c>
     </row>
     <row r="19" spans="23:37">
-      <c r="W19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="W19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y19" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD19" s="1">
+      <c r="Z19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="2">
         <v>2048</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="5">
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AJ19" s="6">
         <v>0.1</v>
       </c>
       <c r="AK19">
@@ -2480,46 +2894,46 @@
       </c>
     </row>
     <row r="20" spans="23:37">
-      <c r="W20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="W20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y20" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD20" s="1">
+      <c r="Z20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="2">
         <v>2048</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="5">
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AJ20" s="6">
         <v>0.15</v>
       </c>
       <c r="AK20">
@@ -2527,149 +2941,152 @@
       </c>
     </row>
     <row r="21" spans="23:37">
-      <c r="W21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y21" s="4">
+      <c r="W21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y21" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="1">
+      <c r="Z21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="2">
         <v>2048</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="5">
+      <c r="AF21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="6">
         <v>0.11</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="7">
         <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="23:37">
-      <c r="W22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="W22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y22" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD22" s="1">
+      <c r="Z22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="2">
         <v>2048</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="5">
+      <c r="AF22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AJ22" s="6">
         <v>0.09</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AK22" s="7">
         <v>0.7237</v>
       </c>
     </row>
     <row r="23" spans="23:36">
-      <c r="W23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y23" s="4">
+      <c r="W23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="5">
         <v>0.002</v>
       </c>
-      <c r="Z23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD23" s="1">
+      <c r="Z23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="2">
         <v>2048</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="5">
+      <c r="AF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="6">
         <v>0.2</v>
       </c>
-      <c r="AJ23" s="5">
+      <c r="AJ23" s="6">
         <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
     <mergeCell ref="AM1:AY1"/>
+    <mergeCell ref="BA1:BM1"/>
+    <mergeCell ref="BO1:CA1"/>
+    <mergeCell ref="CD1:CQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -55,6 +55,12 @@
     <t>version3(attentionNet):没有对比学习，更改了mask重构的层数，利用将0到3层的隐藏特征重构112 56 28 14 的图像</t>
   </si>
   <si>
+    <t>version3(attentionNet):没有对比学习，更改了mask重构的层数，利用将0到3层的隐藏特征重构224 112 56 28 的图像</t>
+  </si>
+  <si>
+    <t>version 2（my_SimCLR2）：20240429，更改了mask重构的层数，利用将0到3层的隐藏特征重构224 112 56 28  的图像</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -106,16 +112,79 @@
     <t>best epoch/epoch</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
     <t>6/15</t>
   </si>
   <si>
+    <t>6/11</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
+    <t>11/40</t>
+  </si>
+  <si>
+    <t>21/400</t>
+  </si>
+  <si>
+    <t>19/203</t>
+  </si>
+  <si>
+    <t>19/33</t>
+  </si>
+  <si>
+    <t>9/141</t>
+  </si>
+  <si>
+    <t>20/33</t>
+  </si>
+  <si>
+    <t>19/28</t>
+  </si>
+  <si>
+    <t>11/1098</t>
+  </si>
+  <si>
+    <t>10/182</t>
+  </si>
+  <si>
+    <t>18/114</t>
+  </si>
+  <si>
+    <t>28/36</t>
+  </si>
+  <si>
+    <t>10/45</t>
+  </si>
+  <si>
     <t>没看到0.68</t>
+  </si>
+  <si>
+    <t>11/215</t>
+  </si>
+  <si>
+    <t>49/98</t>
+  </si>
+  <si>
+    <t>10/33</t>
+  </si>
+  <si>
+    <t>zsl精确率可达0.771</t>
+  </si>
+  <si>
+    <t>11/57</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>17/32</t>
   </si>
 </sst>
 </file>
@@ -768,14 +837,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ23"/>
+  <dimension ref="A1:DX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CD3" sqref="CD3"/>
+    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
+      <selection activeCell="DL6" sqref="DL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1153,9 +1222,25 @@
     <col min="65" max="65" width="7.375" customWidth="1"/>
     <col min="69" max="69" width="9.375"/>
     <col min="79" max="79" width="9" style="1"/>
+    <col min="82" max="82" width="5.375" customWidth="1"/>
+    <col min="83" max="83" width="10.375" customWidth="1"/>
+    <col min="84" max="84" width="9.375" customWidth="1"/>
+    <col min="85" max="85" width="6.375" customWidth="1"/>
+    <col min="86" max="86" width="5.375" customWidth="1"/>
+    <col min="87" max="88" width="6.375" customWidth="1"/>
+    <col min="89" max="89" width="9.375" customWidth="1"/>
+    <col min="90" max="90" width="14.875" customWidth="1"/>
+    <col min="91" max="91" width="16" customWidth="1"/>
+    <col min="92" max="92" width="18.25" customWidth="1"/>
+    <col min="93" max="93" width="13.75" customWidth="1"/>
+    <col min="94" max="94" width="18.25" style="1" customWidth="1"/>
+    <col min="95" max="95" width="8.375" customWidth="1"/>
+    <col min="96" max="96" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="9.375"/>
+    <col min="126" max="126" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:127">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1240,293 +1325,420 @@
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2"/>
-      <c r="CA1" s="10"/>
-      <c r="CD1" s="9" t="s">
+      <c r="CA1" s="9"/>
+      <c r="CD1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="9"/>
-      <c r="CI1" s="9"/>
-      <c r="CJ1" s="9"/>
-      <c r="CK1" s="9"/>
-      <c r="CL1" s="9"/>
-      <c r="CM1" s="9"/>
-      <c r="CN1" s="9"/>
-      <c r="CO1" s="9"/>
-      <c r="CP1" s="9"/>
-      <c r="CQ1" s="9"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CT1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DJ1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:95">
+    <row r="2" ht="14.25" spans="1:128">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="3" t="s">
+      <c r="CR2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DD2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="DE2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="DP2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BA2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH2" s="3" t="s">
+      <c r="DQ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="DS2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DW2" t="s">
         <v>17</v>
       </c>
-      <c r="BI2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>15</v>
+      <c r="DX2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:93">
+    <row r="3" ht="14.25" spans="1:127">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -1553,7 +1765,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -1583,7 +1795,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -1628,7 +1840,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -1667,7 +1879,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -1706,7 +1918,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -1741,14 +1953,14 @@
       <c r="BZ3" s="2">
         <v>0.12</v>
       </c>
-      <c r="CA3" s="11" t="s">
-        <v>25</v>
+      <c r="CA3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -1783,10 +1995,56 @@
       <c r="CO3" s="2">
         <v>0.12</v>
       </c>
+      <c r="CP3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7013</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK3">
+        <v>0.5</v>
+      </c>
+      <c r="DL3" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="DM3">
+        <v>0.9</v>
+      </c>
+      <c r="DN3">
+        <v>16</v>
+      </c>
+      <c r="DO3">
+        <v>2</v>
+      </c>
+      <c r="DP3">
+        <v>3</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+      <c r="DT3">
+        <v>0.2</v>
+      </c>
+      <c r="DU3">
+        <v>0.12</v>
+      </c>
+      <c r="DV3" s="1"/>
+      <c r="DW3">
+        <v>0.7193</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:80">
+    <row r="4" ht="14.25" spans="1:127">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -1813,7 +2071,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -1840,7 +2098,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -1885,7 +2143,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -1924,7 +2182,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -1963,7 +2221,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -1999,15 +2257,96 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
+      <c r="CD4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CF4" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CQ4">
+        <v>0.7068</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK4">
+        <v>0.5</v>
+      </c>
+      <c r="DL4" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="DM4">
+        <v>0.9</v>
+      </c>
+      <c r="DN4">
+        <v>16</v>
+      </c>
+      <c r="DO4">
+        <v>2</v>
+      </c>
+      <c r="DP4">
+        <v>3</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4">
+        <v>1</v>
+      </c>
+      <c r="DT4">
+        <v>0.2</v>
+      </c>
+      <c r="DU4">
+        <v>0.12</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DW4">
+        <v>0.7155</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:51">
+    <row r="5" ht="14.25" spans="1:127">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -2034,7 +2373,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -2079,7 +2418,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -2114,13 +2453,139 @@
       <c r="AX5" s="6">
         <v>0.1</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AY5" s="2">
         <v>0.6984</v>
       </c>
+      <c r="BO5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>16</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB5">
+        <v>0.7163</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CF5" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ5">
+        <v>0.6931</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK5">
+        <v>0.5</v>
+      </c>
+      <c r="DL5" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="DM5">
+        <v>0.9</v>
+      </c>
+      <c r="DN5">
+        <v>16</v>
+      </c>
+      <c r="DO5">
+        <v>2</v>
+      </c>
+      <c r="DP5">
+        <v>3</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+      <c r="DT5">
+        <v>0.2</v>
+      </c>
+      <c r="DU5">
+        <v>0.12</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DW5">
+        <v>0.7214</v>
+      </c>
     </row>
-    <row r="6" spans="23:51">
+    <row r="6" spans="23:127">
       <c r="W6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -2165,7 +2630,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -2200,13 +2665,139 @@
       <c r="AX6" s="6">
         <v>0.12</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY6" s="2">
         <v>0.7039</v>
       </c>
+      <c r="BO6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>16</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB6">
+        <v>0.71</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CF6" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH6" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6989</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK6">
+        <v>0.5</v>
+      </c>
+      <c r="DL6" s="11">
+        <v>0.0009</v>
+      </c>
+      <c r="DM6">
+        <v>0.9</v>
+      </c>
+      <c r="DN6">
+        <v>16</v>
+      </c>
+      <c r="DO6">
+        <v>2</v>
+      </c>
+      <c r="DP6">
+        <v>3</v>
+      </c>
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
+        <v>1</v>
+      </c>
+      <c r="DS6">
+        <v>1</v>
+      </c>
+      <c r="DT6">
+        <v>0.2</v>
+      </c>
+      <c r="DU6">
+        <v>0.12</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DW6">
+        <v>0.7201</v>
+      </c>
     </row>
-    <row r="7" spans="23:51">
+    <row r="7" spans="23:127">
       <c r="W7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -2251,7 +2842,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -2286,13 +2877,139 @@
       <c r="AX7" s="6">
         <v>0.12</v>
       </c>
-      <c r="AY7" s="9">
+      <c r="AY7" s="2">
         <v>0.7036</v>
       </c>
+      <c r="BO7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="BQ7" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>16</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>3</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CB7">
+        <v>0.708</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="CF7" s="5">
+        <v>0.003</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ7">
+        <v>0.7073</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>27</v>
+      </c>
+      <c r="DK7">
+        <v>0.1</v>
+      </c>
+      <c r="DL7" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="DM7">
+        <v>0.9</v>
+      </c>
+      <c r="DN7">
+        <v>16</v>
+      </c>
+      <c r="DO7">
+        <v>2</v>
+      </c>
+      <c r="DP7">
+        <v>3</v>
+      </c>
+      <c r="DQ7">
+        <v>1</v>
+      </c>
+      <c r="DR7">
+        <v>1</v>
+      </c>
+      <c r="DS7">
+        <v>1</v>
+      </c>
+      <c r="DT7">
+        <v>0.2</v>
+      </c>
+      <c r="DU7">
+        <v>0.12</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="DW7">
+        <v>0.7202</v>
+      </c>
     </row>
-    <row r="8" spans="23:51">
+    <row r="8" spans="23:95">
       <c r="W8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -2337,7 +3054,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -2372,13 +3089,55 @@
       <c r="AX8" s="2">
         <v>0.12</v>
       </c>
-      <c r="AY8" s="9">
+      <c r="AY8" s="2">
         <v>0.7104</v>
       </c>
+      <c r="CD8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF8" s="5">
+        <v>0.0004</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH8" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ8">
+        <v>0.6841</v>
+      </c>
     </row>
-    <row r="9" spans="23:37">
+    <row r="9" spans="23:95">
       <c r="W9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -2422,10 +3181,52 @@
       <c r="AK9" s="2">
         <v>0.7087</v>
       </c>
+      <c r="CD9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF9" s="5">
+        <v>0.003</v>
+      </c>
+      <c r="CG9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH9" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CQ9">
+        <v>0.7185</v>
+      </c>
     </row>
-    <row r="10" spans="23:37">
+    <row r="10" spans="23:95">
       <c r="W10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -2467,12 +3268,54 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="CD10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF10" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ10">
+        <v>0.7215</v>
       </c>
     </row>
-    <row r="11" spans="23:37">
+    <row r="11" spans="23:95">
       <c r="W11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -2516,10 +3359,52 @@
       <c r="AK11" s="2">
         <v>0.6748</v>
       </c>
+      <c r="CD11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF11" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="CG11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CH11" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI11" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ11" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ11">
+        <v>0.7167</v>
+      </c>
     </row>
-    <row r="12" spans="23:37">
+    <row r="12" spans="23:95">
       <c r="W12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -2563,10 +3448,52 @@
       <c r="AK12" s="2">
         <v>0.7148</v>
       </c>
+      <c r="CD12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF12" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CH12" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ12" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL12" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CQ12">
+        <v>0.7182</v>
+      </c>
     </row>
-    <row r="13" spans="23:37">
+    <row r="13" spans="23:96">
       <c r="W13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -2610,10 +3537,55 @@
       <c r="AK13" s="2">
         <v>0.7062</v>
       </c>
+      <c r="CD13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF13" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ13" s="7">
+        <v>0.716</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="23:37">
+    <row r="14" spans="23:95">
       <c r="W14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -2657,10 +3629,52 @@
       <c r="AK14">
         <v>0.6883</v>
       </c>
+      <c r="CD14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF14" s="5">
+        <v>0.002</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CQ14">
+        <v>0.7148</v>
+      </c>
     </row>
-    <row r="15" spans="23:37">
+    <row r="15" spans="23:95">
       <c r="W15" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -2704,10 +3718,52 @@
       <c r="AK15">
         <v>0.714</v>
       </c>
+      <c r="CD15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF15" s="5">
+        <v>0.004</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI15" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ15" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO15" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ15">
+        <v>0.7086</v>
+      </c>
     </row>
-    <row r="16" spans="23:37">
+    <row r="16" spans="23:95">
       <c r="W16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -2750,11 +3806,53 @@
       </c>
       <c r="AK16">
         <v>0.7225</v>
+      </c>
+      <c r="CD16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CF16" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="CG16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="CH16" s="2">
+        <v>16</v>
+      </c>
+      <c r="CI16" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ16" s="2">
+        <v>3</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="CO16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="CP16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ16">
+        <v>0.7181</v>
       </c>
     </row>
     <row r="17" spans="23:37">
       <c r="W17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -2801,7 +3899,7 @@
     </row>
     <row r="18" spans="23:37">
       <c r="W18" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -2848,7 +3946,7 @@
     </row>
     <row r="19" spans="23:37">
       <c r="W19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -2895,7 +3993,7 @@
     </row>
     <row r="20" spans="23:37">
       <c r="W20" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -2942,7 +4040,7 @@
     </row>
     <row r="21" spans="23:37">
       <c r="W21" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -2989,7 +4087,7 @@
     </row>
     <row r="22" spans="23:37">
       <c r="W22" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -3036,7 +4134,7 @@
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -3079,14 +4177,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
     <mergeCell ref="AM1:AY1"/>
     <mergeCell ref="BA1:BM1"/>
     <mergeCell ref="BO1:CA1"/>
-    <mergeCell ref="CD1:CQ1"/>
+    <mergeCell ref="CD1:CR1"/>
+    <mergeCell ref="CT1:DH1"/>
+    <mergeCell ref="DJ1:DW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="56">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -61,6 +61,12 @@
     <t>version 2（my_SimCLR2）：20240429，更改了mask重构的层数，利用将0到3层的隐藏特征重构224 112 56 28  的图像</t>
   </si>
   <si>
+    <t>version 2（my_SimCLR2）：20240508，更改了mask重构的层数，利用将0到3层的隐藏特征重构224 112 56 28  的图像,bug修改：resize_img应该在mask之前</t>
+  </si>
+  <si>
+    <t>version 2（my_SimCLR2）：20240508,不mask图片，mask embedding.</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -124,12 +130,18 @@
     <t>6/11</t>
   </si>
   <si>
+    <t>20/135</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
     <t>11/40</t>
   </si>
   <si>
+    <t>19/91</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
   </si>
   <si>
     <t>28/36</t>
+  </si>
+  <si>
+    <t>53/104</t>
   </si>
   <si>
     <t>10/45</t>
@@ -1157,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DX23"/>
+  <dimension ref="A1:FD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DL6" sqref="DL6"/>
+    <sheetView tabSelected="1" topLeftCell="EF1" workbookViewId="0">
+      <selection activeCell="EU14" sqref="EU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1238,9 +1253,10 @@
     <col min="96" max="96" width="19.75" customWidth="1"/>
     <col min="116" max="116" width="9.375"/>
     <col min="126" max="126" width="9.125" style="1"/>
+    <col min="132" max="132" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127">
+    <row r="1" spans="1:160">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1376,369 +1392,492 @@
       <c r="DU1" s="2"/>
       <c r="DV1" s="9"/>
       <c r="DW1" s="2"/>
+      <c r="DZ1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="2"/>
+      <c r="EP1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:128">
+    <row r="2" ht="14.25" spans="1:160">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BO2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CT2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="CY2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG2" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV2" s="3" t="s">
+      <c r="DH2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DT2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="DU2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="ED2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="EE2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EF2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC2" s="3" t="s">
+      <c r="EG2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>19</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="EQ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="EU2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EV2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EW2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EX2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EZ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="FA2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="FC2" t="s">
         <v>19</v>
       </c>
-      <c r="BI2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>26</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="DC2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>26</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="DR2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="DU2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>26</v>
+      <c r="FD2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:127">
+    <row r="3" ht="14.25" spans="1:143">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -1765,7 +1904,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -1795,7 +1934,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -1840,7 +1979,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -1879,7 +2018,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -1918,7 +2057,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -1954,13 +2093,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -1996,13 +2135,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2041,10 +2180,52 @@
       <c r="DW3">
         <v>0.7193</v>
       </c>
+      <c r="DZ3" t="s">
+        <v>29</v>
+      </c>
+      <c r="EA3">
+        <v>0.5</v>
+      </c>
+      <c r="EB3" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="EC3">
+        <v>0.9</v>
+      </c>
+      <c r="ED3">
+        <v>16</v>
+      </c>
+      <c r="EE3">
+        <v>2</v>
+      </c>
+      <c r="EF3">
+        <v>3</v>
+      </c>
+      <c r="EG3">
+        <v>1</v>
+      </c>
+      <c r="EH3">
+        <v>1</v>
+      </c>
+      <c r="EI3">
+        <v>1</v>
+      </c>
+      <c r="EJ3">
+        <v>0.2</v>
+      </c>
+      <c r="EK3">
+        <v>0.12</v>
+      </c>
+      <c r="EL3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="EM3">
+        <v>0.7177</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:127">
+    <row r="4" ht="14.25" spans="1:143">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2071,7 +2252,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2098,7 +2279,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2143,7 +2324,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -2182,7 +2363,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -2221,7 +2402,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -2257,13 +2438,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -2302,7 +2483,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -2338,15 +2519,57 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
+      <c r="DZ4" t="s">
+        <v>29</v>
+      </c>
+      <c r="EA4">
+        <v>0.1</v>
+      </c>
+      <c r="EB4" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="EC4">
+        <v>0.9</v>
+      </c>
+      <c r="ED4">
+        <v>16</v>
+      </c>
+      <c r="EE4">
+        <v>2</v>
+      </c>
+      <c r="EF4">
+        <v>3</v>
+      </c>
+      <c r="EG4">
+        <v>1</v>
+      </c>
+      <c r="EH4">
+        <v>1</v>
+      </c>
+      <c r="EI4">
+        <v>1</v>
+      </c>
+      <c r="EJ4">
+        <v>0.2</v>
+      </c>
+      <c r="EK4">
+        <v>0.12</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>35</v>
+      </c>
+      <c r="EM4">
+        <v>0.7142</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:127">
+    <row r="5" ht="14.25" spans="1:141">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -2373,7 +2596,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -2418,7 +2641,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -2457,7 +2680,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -2493,13 +2716,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -2535,13 +2758,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -2577,15 +2800,51 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>29</v>
+      </c>
+      <c r="EA5">
+        <v>0.1</v>
+      </c>
+      <c r="EB5" s="11">
+        <v>0.0004</v>
+      </c>
+      <c r="EC5">
+        <v>0.9</v>
+      </c>
+      <c r="ED5">
+        <v>16</v>
+      </c>
+      <c r="EE5">
+        <v>2</v>
+      </c>
+      <c r="EF5">
+        <v>3</v>
+      </c>
+      <c r="EG5">
+        <v>1</v>
+      </c>
+      <c r="EH5">
+        <v>1</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EJ5">
+        <v>0.2</v>
+      </c>
+      <c r="EK5">
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="23:127">
       <c r="W6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -2630,7 +2889,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -2669,7 +2928,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -2705,13 +2964,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -2747,13 +3006,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -2789,7 +3048,7 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
@@ -2797,7 +3056,7 @@
     </row>
     <row r="7" spans="23:127">
       <c r="W7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -2842,7 +3101,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -2881,7 +3140,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -2917,13 +3176,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -2959,13 +3218,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -3001,15 +3260,15 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
     </row>
-    <row r="8" spans="23:95">
+    <row r="8" spans="23:127">
       <c r="W8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -3054,7 +3313,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -3093,7 +3352,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -3129,15 +3388,57 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
+      <c r="DJ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="DK8">
+        <v>0.1</v>
+      </c>
+      <c r="DL8" s="11">
+        <v>0.0004</v>
+      </c>
+      <c r="DM8">
+        <v>0.9</v>
+      </c>
+      <c r="DN8">
+        <v>16</v>
+      </c>
+      <c r="DO8">
+        <v>2</v>
+      </c>
+      <c r="DP8">
+        <v>3</v>
+      </c>
+      <c r="DQ8">
+        <v>1</v>
+      </c>
+      <c r="DR8">
+        <v>1</v>
+      </c>
+      <c r="DS8">
+        <v>1</v>
+      </c>
+      <c r="DT8">
+        <v>0.2</v>
+      </c>
+      <c r="DU8">
+        <v>0.12</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DW8">
+        <v>0.7233</v>
+      </c>
     </row>
-    <row r="9" spans="23:95">
+    <row r="9" spans="23:125">
       <c r="W9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -3182,7 +3483,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -3218,15 +3519,51 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>29</v>
+      </c>
+      <c r="DK9">
+        <v>0.1</v>
+      </c>
+      <c r="DL9" s="11">
+        <v>0.0005</v>
+      </c>
+      <c r="DM9">
+        <v>0.9</v>
+      </c>
+      <c r="DN9">
+        <v>16</v>
+      </c>
+      <c r="DO9">
+        <v>2</v>
+      </c>
+      <c r="DP9">
+        <v>3</v>
+      </c>
+      <c r="DQ9">
+        <v>1</v>
+      </c>
+      <c r="DR9">
+        <v>1</v>
+      </c>
+      <c r="DS9">
+        <v>1</v>
+      </c>
+      <c r="DT9">
+        <v>0.2</v>
+      </c>
+      <c r="DU9">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="23:95">
       <c r="W10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -3268,10 +3605,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -3307,7 +3644,7 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
@@ -3315,7 +3652,7 @@
     </row>
     <row r="11" spans="23:95">
       <c r="W11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -3360,7 +3697,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -3396,7 +3733,7 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
@@ -3404,7 +3741,7 @@
     </row>
     <row r="12" spans="23:95">
       <c r="W12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -3449,7 +3786,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -3485,7 +3822,7 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
@@ -3493,7 +3830,7 @@
     </row>
     <row r="13" spans="23:96">
       <c r="W13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -3538,7 +3875,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -3574,18 +3911,18 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="23:95">
       <c r="W14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -3630,7 +3967,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -3666,7 +4003,7 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
@@ -3674,7 +4011,7 @@
     </row>
     <row r="15" spans="23:95">
       <c r="W15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -3719,7 +4056,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -3755,7 +4092,7 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
@@ -3763,7 +4100,7 @@
     </row>
     <row r="16" spans="23:95">
       <c r="W16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -3808,7 +4145,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -3844,7 +4181,7 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
@@ -3852,7 +4189,7 @@
     </row>
     <row r="17" spans="23:37">
       <c r="W17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -3899,7 +4236,7 @@
     </row>
     <row r="18" spans="23:37">
       <c r="W18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -3946,7 +4283,7 @@
     </row>
     <row r="19" spans="23:37">
       <c r="W19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -3993,7 +4330,7 @@
     </row>
     <row r="20" spans="23:37">
       <c r="W20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -4040,7 +4377,7 @@
     </row>
     <row r="21" spans="23:37">
       <c r="W21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -4087,7 +4424,7 @@
     </row>
     <row r="22" spans="23:37">
       <c r="W22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -4134,7 +4471,7 @@
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -4177,7 +4514,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -4187,6 +4524,8 @@
     <mergeCell ref="CD1:CR1"/>
     <mergeCell ref="CT1:DH1"/>
     <mergeCell ref="DJ1:DW1"/>
+    <mergeCell ref="DZ1:EM1"/>
+    <mergeCell ref="EP1:FD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>19/33</t>
+  </si>
+  <si>
+    <t>53/65</t>
+  </si>
+  <si>
+    <t>H应该还能提升一点点，因为比值较大</t>
   </si>
   <si>
     <t>9/141</t>
@@ -1174,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:FD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EF1" workbookViewId="0">
-      <selection activeCell="EU14" sqref="EU14"/>
+    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
+      <selection activeCell="ER10" sqref="ER10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1254,6 +1260,7 @@
     <col min="116" max="116" width="9.375"/>
     <col min="126" max="126" width="9.125" style="1"/>
     <col min="132" max="132" width="9.375"/>
+    <col min="144" max="144" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -1875,7 +1882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:143">
+    <row r="3" ht="14.25" spans="1:157">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2222,6 +2229,42 @@
       <c r="EM3">
         <v>0.7177</v>
       </c>
+      <c r="EP3" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ3">
+        <v>0.1</v>
+      </c>
+      <c r="ER3" s="11">
+        <v>0.0004</v>
+      </c>
+      <c r="ES3">
+        <v>0.9</v>
+      </c>
+      <c r="ET3">
+        <v>16</v>
+      </c>
+      <c r="EU3">
+        <v>2</v>
+      </c>
+      <c r="EV3">
+        <v>3</v>
+      </c>
+      <c r="EW3">
+        <v>1</v>
+      </c>
+      <c r="EX3">
+        <v>1</v>
+      </c>
+      <c r="EY3">
+        <v>1</v>
+      </c>
+      <c r="EZ3">
+        <v>0.2</v>
+      </c>
+      <c r="FA3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4" ht="14.25" spans="1:143">
       <c r="A4" s="3" t="s">
@@ -2567,7 +2610,7 @@
         <v>0.7142</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:141">
+    <row r="5" ht="14.25" spans="1:144">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2840,6 +2883,15 @@
       </c>
       <c r="EK5">
         <v>0.12</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>39</v>
+      </c>
+      <c r="EM5">
+        <v>0.7166</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="23:127">
@@ -2964,7 +3016,7 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
@@ -3006,7 +3058,7 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
@@ -3048,7 +3100,7 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
@@ -3176,7 +3228,7 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
@@ -3218,7 +3270,7 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
@@ -3260,7 +3312,7 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
@@ -3388,7 +3440,7 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
@@ -3430,7 +3482,7 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
@@ -3519,7 +3571,7 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
@@ -3605,7 +3657,7 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CD10" s="2" t="s">
         <v>29</v>
@@ -3644,7 +3696,7 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
@@ -3733,7 +3785,7 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
@@ -3822,7 +3874,7 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
@@ -3911,13 +3963,13 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="23:95">
@@ -4003,7 +4055,7 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
@@ -4092,7 +4144,7 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
@@ -4181,7 +4233,7 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="70">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -133,6 +133,9 @@
     <t>20/135</t>
   </si>
   <si>
+    <t>39/205</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>19/91</t>
   </si>
   <si>
+    <t>19/31</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>H应该还能提升一点点，因为比值较大</t>
   </si>
   <si>
+    <t>17/44</t>
+  </si>
+  <si>
     <t>9/141</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>19/28</t>
   </si>
   <si>
+    <t>13/30</t>
+  </si>
+  <si>
     <t>11/1098</t>
   </si>
   <si>
@@ -175,31 +187,55 @@
     <t>18/114</t>
   </si>
   <si>
+    <t>13/36</t>
+  </si>
+  <si>
     <t>28/36</t>
   </si>
   <si>
     <t>53/104</t>
   </si>
   <si>
+    <t>20/49</t>
+  </si>
+  <si>
     <t>10/45</t>
   </si>
   <si>
+    <t>12/146</t>
+  </si>
+  <si>
     <t>没看到0.68</t>
   </si>
   <si>
     <t>11/215</t>
   </si>
   <si>
+    <t>19/39</t>
+  </si>
+  <si>
+    <t>11/82</t>
+  </si>
+  <si>
     <t>49/98</t>
   </si>
   <si>
+    <t>11/20</t>
+  </si>
+  <si>
     <t>10/33</t>
   </si>
   <si>
     <t>zsl精确率可达0.771</t>
   </si>
   <si>
+    <t>12/162</t>
+  </si>
+  <si>
     <t>11/57</t>
+  </si>
+  <si>
+    <t>27/34</t>
   </si>
   <si>
     <t>6/17</t>
@@ -1181,7 +1217,7 @@
   <dimension ref="A1:FD23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
-      <selection activeCell="ER10" sqref="ER10"/>
+      <selection activeCell="ER19" sqref="ER19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1261,6 +1297,8 @@
     <col min="126" max="126" width="9.125" style="1"/>
     <col min="132" max="132" width="9.375"/>
     <col min="144" max="144" width="34.875" customWidth="1"/>
+    <col min="148" max="148" width="9.375"/>
+    <col min="158" max="158" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -1429,7 +1467,7 @@
       <c r="EY1" s="2"/>
       <c r="EZ1" s="2"/>
       <c r="FA1" s="2"/>
-      <c r="FB1" s="2"/>
+      <c r="FB1" s="9"/>
       <c r="FC1" s="2"/>
       <c r="FD1" s="2"/>
     </row>
@@ -1882,7 +1920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:157">
+    <row r="3" ht="14.25" spans="1:159">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2265,8 +2303,14 @@
       <c r="FA3">
         <v>0.12</v>
       </c>
+      <c r="FB3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="FC3">
+        <v>0.7197</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:143">
+    <row r="4" ht="14.25" spans="1:159">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -2481,7 +2525,7 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
@@ -2562,7 +2606,7 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
@@ -2604,13 +2648,55 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
+      <c r="EP4" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ4">
+        <v>0.1</v>
+      </c>
+      <c r="ER4" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES4">
+        <v>0.1</v>
+      </c>
+      <c r="ET4">
+        <v>16</v>
+      </c>
+      <c r="EU4">
+        <v>2</v>
+      </c>
+      <c r="EV4">
+        <v>10</v>
+      </c>
+      <c r="EW4">
+        <v>1</v>
+      </c>
+      <c r="EX4">
+        <v>1</v>
+      </c>
+      <c r="EY4">
+        <v>1</v>
+      </c>
+      <c r="EZ4">
+        <v>0.2</v>
+      </c>
+      <c r="FA4">
+        <v>0.12</v>
+      </c>
+      <c r="FB4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC4">
+        <v>0.7219</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:144">
+    <row r="5" ht="14.25" spans="1:159">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2845,7 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
@@ -2801,7 +2887,7 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
@@ -2843,7 +2929,7 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
@@ -2885,16 +2971,58 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ5">
+        <v>0.1</v>
+      </c>
+      <c r="ER5" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="ES5">
+        <v>0.1</v>
+      </c>
+      <c r="ET5">
+        <v>16</v>
+      </c>
+      <c r="EU5">
+        <v>2</v>
+      </c>
+      <c r="EV5">
+        <v>10</v>
+      </c>
+      <c r="EW5">
+        <v>1</v>
+      </c>
+      <c r="EX5">
+        <v>1</v>
+      </c>
+      <c r="EY5">
+        <v>1</v>
+      </c>
+      <c r="EZ5">
+        <v>0.2</v>
+      </c>
+      <c r="FA5">
+        <v>0.12</v>
+      </c>
+      <c r="FB5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="FC5">
+        <v>0.7218</v>
       </c>
     </row>
-    <row r="6" spans="23:127">
+    <row r="6" spans="23:159">
       <c r="W6" s="2" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3144,7 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
@@ -3058,7 +3186,7 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
@@ -3100,13 +3228,55 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
+      <c r="EP6" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ6">
+        <v>0.1</v>
+      </c>
+      <c r="ER6" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES6">
+        <v>0.1</v>
+      </c>
+      <c r="ET6">
+        <v>16</v>
+      </c>
+      <c r="EU6">
+        <v>2</v>
+      </c>
+      <c r="EV6">
+        <v>10</v>
+      </c>
+      <c r="EW6">
+        <v>1</v>
+      </c>
+      <c r="EX6">
+        <v>1</v>
+      </c>
+      <c r="EY6">
+        <v>1</v>
+      </c>
+      <c r="EZ6">
+        <v>0.2</v>
+      </c>
+      <c r="FA6">
+        <v>0.12</v>
+      </c>
+      <c r="FB6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="FC6">
+        <v>0.7157</v>
+      </c>
     </row>
-    <row r="7" spans="23:127">
+    <row r="7" spans="23:159">
       <c r="W7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3228,7 +3398,7 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
@@ -3270,7 +3440,7 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
@@ -3312,13 +3482,55 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
+      <c r="EP7" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ7">
+        <v>0.4</v>
+      </c>
+      <c r="ER7" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES7">
+        <v>0.1</v>
+      </c>
+      <c r="ET7">
+        <v>16</v>
+      </c>
+      <c r="EU7">
+        <v>2</v>
+      </c>
+      <c r="EV7">
+        <v>10</v>
+      </c>
+      <c r="EW7">
+        <v>1</v>
+      </c>
+      <c r="EX7">
+        <v>1</v>
+      </c>
+      <c r="EY7">
+        <v>1</v>
+      </c>
+      <c r="EZ7">
+        <v>0.2</v>
+      </c>
+      <c r="FA7">
+        <v>0.12</v>
+      </c>
+      <c r="FB7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="FC7">
+        <v>0.7237</v>
+      </c>
     </row>
-    <row r="8" spans="23:127">
+    <row r="8" spans="23:159">
       <c r="W8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3440,7 +3652,7 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
@@ -3482,13 +3694,55 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
+      <c r="EP8" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ8">
+        <v>0.3</v>
+      </c>
+      <c r="ER8" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES8">
+        <v>0.1</v>
+      </c>
+      <c r="ET8">
+        <v>16</v>
+      </c>
+      <c r="EU8">
+        <v>2</v>
+      </c>
+      <c r="EV8">
+        <v>10</v>
+      </c>
+      <c r="EW8">
+        <v>1</v>
+      </c>
+      <c r="EX8">
+        <v>1</v>
+      </c>
+      <c r="EY8">
+        <v>1</v>
+      </c>
+      <c r="EZ8">
+        <v>0.2</v>
+      </c>
+      <c r="FA8">
+        <v>0.12</v>
+      </c>
+      <c r="FB8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="FC8">
+        <v>0.7146</v>
+      </c>
     </row>
-    <row r="9" spans="23:125">
+    <row r="9" spans="23:159">
       <c r="W9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3571,7 +3825,7 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
@@ -3612,8 +3866,50 @@
       <c r="DU9">
         <v>0.12</v>
       </c>
+      <c r="EP9" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ9">
+        <v>0.5</v>
+      </c>
+      <c r="ER9" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES9">
+        <v>0.1</v>
+      </c>
+      <c r="ET9">
+        <v>16</v>
+      </c>
+      <c r="EU9">
+        <v>2</v>
+      </c>
+      <c r="EV9">
+        <v>10</v>
+      </c>
+      <c r="EW9">
+        <v>1</v>
+      </c>
+      <c r="EX9">
+        <v>1</v>
+      </c>
+      <c r="EY9">
+        <v>1</v>
+      </c>
+      <c r="EZ9">
+        <v>0.2</v>
+      </c>
+      <c r="FA9">
+        <v>0.12</v>
+      </c>
+      <c r="FB9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="FC9">
+        <v>0.7199</v>
+      </c>
     </row>
-    <row r="10" spans="23:95">
+    <row r="10" spans="23:159">
       <c r="W10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3657,7 +3953,7 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="CD10" s="2" t="s">
         <v>29</v>
@@ -3696,13 +3992,55 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
+      <c r="EP10" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ10">
+        <v>0.45</v>
+      </c>
+      <c r="ER10" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES10">
+        <v>0.1</v>
+      </c>
+      <c r="ET10">
+        <v>16</v>
+      </c>
+      <c r="EU10">
+        <v>2</v>
+      </c>
+      <c r="EV10">
+        <v>10</v>
+      </c>
+      <c r="EW10">
+        <v>1</v>
+      </c>
+      <c r="EX10">
+        <v>1</v>
+      </c>
+      <c r="EY10">
+        <v>1</v>
+      </c>
+      <c r="EZ10">
+        <v>0.2</v>
+      </c>
+      <c r="FA10">
+        <v>0.12</v>
+      </c>
+      <c r="FB10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="FC10">
+        <v>0.7159</v>
+      </c>
     </row>
-    <row r="11" spans="23:95">
+    <row r="11" spans="23:159">
       <c r="W11" s="2" t="s">
         <v>29</v>
       </c>
@@ -3785,13 +4123,55 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
+      <c r="EP11" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ11">
+        <v>0.6</v>
+      </c>
+      <c r="ER11" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES11">
+        <v>0.1</v>
+      </c>
+      <c r="ET11">
+        <v>16</v>
+      </c>
+      <c r="EU11">
+        <v>2</v>
+      </c>
+      <c r="EV11">
+        <v>10</v>
+      </c>
+      <c r="EW11">
+        <v>1</v>
+      </c>
+      <c r="EX11">
+        <v>1</v>
+      </c>
+      <c r="EY11">
+        <v>1</v>
+      </c>
+      <c r="EZ11">
+        <v>0.2</v>
+      </c>
+      <c r="FA11">
+        <v>0.12</v>
+      </c>
+      <c r="FB11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="FC11">
+        <v>0.7102</v>
+      </c>
     </row>
-    <row r="12" spans="23:95">
+    <row r="12" spans="23:159">
       <c r="W12" s="2" t="s">
         <v>29</v>
       </c>
@@ -3874,13 +4254,55 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
+      <c r="EP12" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ12">
+        <v>0.7</v>
+      </c>
+      <c r="ER12" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="ES12">
+        <v>0.1</v>
+      </c>
+      <c r="ET12">
+        <v>16</v>
+      </c>
+      <c r="EU12">
+        <v>2</v>
+      </c>
+      <c r="EV12">
+        <v>10</v>
+      </c>
+      <c r="EW12">
+        <v>1</v>
+      </c>
+      <c r="EX12">
+        <v>1</v>
+      </c>
+      <c r="EY12">
+        <v>1</v>
+      </c>
+      <c r="EZ12">
+        <v>0.2</v>
+      </c>
+      <c r="FA12">
+        <v>0.12</v>
+      </c>
+      <c r="FB12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="FC12">
+        <v>0.6887</v>
+      </c>
     </row>
-    <row r="13" spans="23:96">
+    <row r="13" spans="23:159">
       <c r="W13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3963,16 +4385,58 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ13">
+        <v>0.7</v>
+      </c>
+      <c r="ER13" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="ES13">
+        <v>0.1</v>
+      </c>
+      <c r="ET13">
+        <v>16</v>
+      </c>
+      <c r="EU13">
+        <v>2</v>
+      </c>
+      <c r="EV13">
+        <v>10</v>
+      </c>
+      <c r="EW13">
+        <v>1</v>
+      </c>
+      <c r="EX13">
+        <v>1</v>
+      </c>
+      <c r="EY13">
+        <v>1</v>
+      </c>
+      <c r="EZ13">
+        <v>0.2</v>
+      </c>
+      <c r="FA13">
+        <v>0.12</v>
+      </c>
+      <c r="FB13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="FC13">
+        <v>0.6945</v>
       </c>
     </row>
-    <row r="14" spans="23:95">
+    <row r="14" spans="23:159">
       <c r="W14" s="2" t="s">
         <v>29</v>
       </c>
@@ -4055,13 +4519,55 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
+      <c r="EP14" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ14">
+        <v>0.7</v>
+      </c>
+      <c r="ER14" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES14">
+        <v>0.1</v>
+      </c>
+      <c r="ET14">
+        <v>16</v>
+      </c>
+      <c r="EU14">
+        <v>2</v>
+      </c>
+      <c r="EV14">
+        <v>10</v>
+      </c>
+      <c r="EW14">
+        <v>1</v>
+      </c>
+      <c r="EX14">
+        <v>1</v>
+      </c>
+      <c r="EY14">
+        <v>1</v>
+      </c>
+      <c r="EZ14">
+        <v>0.2</v>
+      </c>
+      <c r="FA14">
+        <v>0.12</v>
+      </c>
+      <c r="FB14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="FC14">
+        <v>0.6785</v>
+      </c>
     </row>
-    <row r="15" spans="23:95">
+    <row r="15" spans="23:157">
       <c r="W15" s="2" t="s">
         <v>29</v>
       </c>
@@ -4144,10 +4650,46 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ15">
+        <v>0.3</v>
+      </c>
+      <c r="ER15" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES15">
+        <v>0.1</v>
+      </c>
+      <c r="ET15">
+        <v>16</v>
+      </c>
+      <c r="EU15">
+        <v>2</v>
+      </c>
+      <c r="EV15">
+        <v>10</v>
+      </c>
+      <c r="EW15">
+        <v>1</v>
+      </c>
+      <c r="EX15">
+        <v>1</v>
+      </c>
+      <c r="EY15">
+        <v>1</v>
+      </c>
+      <c r="EZ15">
+        <v>0.2</v>
+      </c>
+      <c r="FA15">
+        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="23:95">
@@ -4233,7 +4775,7 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="15990" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -67,6 +67,9 @@
     <t>version 2（my_SimCLR2）：20240508,不mask图片，mask embedding.</t>
   </si>
   <si>
+    <t>version 3（my_SimCLR3）：20240514,增加part contrastive learning</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>partCL系数</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>39/205</t>
   </si>
   <si>
+    <t>18/233</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -241,7 +250,22 @@
     <t>6/17</t>
   </si>
   <si>
+    <t>23/41</t>
+  </si>
+  <si>
     <t>17/32</t>
+  </si>
+  <si>
+    <t>16/39</t>
+  </si>
+  <si>
+    <t>19/173</t>
+  </si>
+  <si>
+    <t>18/43</t>
+  </si>
+  <si>
+    <t>29/74</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FD23"/>
+  <dimension ref="A1:FU23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
-      <selection activeCell="ER19" sqref="ER19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="ES1" workbookViewId="0">
+      <selection activeCell="FO28" sqref="FO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1299,9 +1323,23 @@
     <col min="144" max="144" width="34.875" customWidth="1"/>
     <col min="148" max="148" width="9.375"/>
     <col min="158" max="158" width="9.125" style="1"/>
+    <col min="162" max="162" width="4.375" customWidth="1"/>
+    <col min="163" max="163" width="10.375" customWidth="1"/>
+    <col min="164" max="164" width="8.375" customWidth="1"/>
+    <col min="165" max="165" width="6.375" customWidth="1"/>
+    <col min="166" max="166" width="5.375" customWidth="1"/>
+    <col min="167" max="168" width="6.375" customWidth="1"/>
+    <col min="169" max="169" width="9.375" customWidth="1"/>
+    <col min="170" max="170" width="14.875" customWidth="1"/>
+    <col min="171" max="171" width="16" customWidth="1"/>
+    <col min="172" max="172" width="18.25" customWidth="1"/>
+    <col min="173" max="173" width="13.75" customWidth="1"/>
+    <col min="174" max="175" width="18.25" customWidth="1"/>
+    <col min="176" max="176" width="7.375" customWidth="1"/>
+    <col min="177" max="177" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160">
+    <row r="1" spans="1:177">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1470,459 +1508,525 @@
       <c r="FB1" s="9"/>
       <c r="FC1" s="2"/>
       <c r="FD1" s="2"/>
+      <c r="FF1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:160">
+    <row r="2" ht="14.25" spans="1:177">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BP2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CT2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BT2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BU2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DD2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="DE2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="CB2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CE2" s="3" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>29</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="DK2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="DL2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CI2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DO2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CK2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="CL2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CO2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DT2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="DU2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="DV2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CT2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CU2" s="3" t="s">
+      <c r="DW2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>29</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="EB2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="EC2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CY2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="ED2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EE2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DA2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="DB2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="EG2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="EH2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="EI2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DE2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EJ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="EK2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DG2" t="s">
-        <v>19</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="EL2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="DK2" s="3" t="s">
+      <c r="EM2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>29</v>
+      </c>
+      <c r="EP2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="EQ2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DO2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DP2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EU2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DQ2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="DR2" s="3" t="s">
+      <c r="EV2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="EW2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="EY2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="FA2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DW2" t="s">
-        <v>19</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="FB2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="DZ2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="EA2" s="3" t="s">
+      <c r="FC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="FF2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="FG2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="FH2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="FI2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="EE2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EF2" s="3" t="s">
+      <c r="FJ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FK2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EG2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="EH2" s="3" t="s">
+      <c r="FL2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="EK2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="EM2" t="s">
-        <v>19</v>
-      </c>
-      <c r="EN2" t="s">
+      <c r="FR2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="FS2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="ET2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EV2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="EW2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="EX2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="EZ2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="FA2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>19</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>28</v>
+      <c r="FT2" t="s">
+        <v>20</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:159">
+    <row r="3" ht="14.25" spans="1:176">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -1949,7 +2053,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -1979,7 +2083,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2024,7 +2128,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2063,7 +2167,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2102,7 +2206,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2138,13 +2242,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2180,13 +2284,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2221,12 +2325,11 @@
       <c r="DU3">
         <v>0.12</v>
       </c>
-      <c r="DV3" s="1"/>
       <c r="DW3">
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2262,13 +2365,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2304,15 +2407,60 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
+      <c r="FF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="FG3">
+        <v>0.3</v>
+      </c>
+      <c r="FH3" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI3">
+        <v>0.1</v>
+      </c>
+      <c r="FJ3">
+        <v>16</v>
+      </c>
+      <c r="FK3">
+        <v>2</v>
+      </c>
+      <c r="FL3">
+        <v>100</v>
+      </c>
+      <c r="FM3">
+        <v>1</v>
+      </c>
+      <c r="FN3">
+        <v>1</v>
+      </c>
+      <c r="FO3">
+        <v>1</v>
+      </c>
+      <c r="FP3">
+        <v>0.2</v>
+      </c>
+      <c r="FQ3">
+        <v>0.12</v>
+      </c>
+      <c r="FR3">
+        <v>0.0001</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="FT3">
+        <v>0.7142</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:159">
+    <row r="4" ht="14.25" spans="1:174">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2339,7 +2487,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2366,7 +2514,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2411,7 +2559,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -2450,7 +2598,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -2489,7 +2637,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -2525,13 +2673,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -2570,7 +2718,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -2606,13 +2754,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -2648,13 +2796,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -2690,15 +2838,54 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="FG4">
+        <v>0.3</v>
+      </c>
+      <c r="FH4" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI4">
+        <v>0.1</v>
+      </c>
+      <c r="FJ4">
+        <v>16</v>
+      </c>
+      <c r="FK4">
+        <v>2</v>
+      </c>
+      <c r="FL4">
+        <v>10</v>
+      </c>
+      <c r="FM4">
+        <v>1</v>
+      </c>
+      <c r="FN4">
+        <v>1</v>
+      </c>
+      <c r="FO4">
+        <v>1</v>
+      </c>
+      <c r="FP4">
+        <v>0.2</v>
+      </c>
+      <c r="FQ4">
+        <v>0.12</v>
+      </c>
+      <c r="FR4">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:159">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -2725,7 +2912,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -2770,7 +2957,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -2809,7 +2996,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -2845,13 +3032,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -2887,13 +3074,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -2929,13 +3116,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -2971,16 +3158,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="EP5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3016,7 +3203,7 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
@@ -3024,7 +3211,7 @@
     </row>
     <row r="6" spans="23:159">
       <c r="W6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3069,7 +3256,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -3108,7 +3295,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -3144,13 +3331,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -3186,13 +3373,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -3228,13 +3415,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -3270,7 +3457,7 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
@@ -3278,7 +3465,7 @@
     </row>
     <row r="7" spans="23:159">
       <c r="W7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -3323,7 +3510,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -3362,7 +3549,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -3398,13 +3585,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -3440,13 +3627,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -3482,13 +3669,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -3524,7 +3711,7 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
@@ -3532,7 +3719,7 @@
     </row>
     <row r="8" spans="23:159">
       <c r="W8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -3577,7 +3764,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -3616,7 +3803,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -3652,13 +3839,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -3694,13 +3881,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -3736,7 +3923,7 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
@@ -3744,7 +3931,7 @@
     </row>
     <row r="9" spans="23:159">
       <c r="W9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -3789,7 +3976,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -3825,13 +4012,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -3867,7 +4054,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -3903,7 +4090,7 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
@@ -3911,7 +4098,7 @@
     </row>
     <row r="10" spans="23:159">
       <c r="W10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -3953,10 +4140,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -3992,13 +4179,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -4034,7 +4221,7 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
@@ -4042,7 +4229,7 @@
     </row>
     <row r="11" spans="23:159">
       <c r="W11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -4087,7 +4274,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -4123,13 +4310,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -4165,7 +4352,7 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
@@ -4173,7 +4360,7 @@
     </row>
     <row r="12" spans="23:159">
       <c r="W12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -4218,7 +4405,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -4254,13 +4441,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -4296,7 +4483,7 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
@@ -4304,7 +4491,7 @@
     </row>
     <row r="13" spans="23:159">
       <c r="W13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -4349,7 +4536,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -4385,16 +4572,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="EP13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -4430,7 +4617,7 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
@@ -4438,7 +4625,7 @@
     </row>
     <row r="14" spans="23:159">
       <c r="W14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -4483,7 +4670,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -4519,13 +4706,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -4561,15 +4748,15 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
       </c>
     </row>
-    <row r="15" spans="23:157">
+    <row r="15" spans="23:159">
       <c r="W15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -4614,7 +4801,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -4650,13 +4837,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -4691,10 +4878,16 @@
       <c r="FA15">
         <v>0.12</v>
       </c>
+      <c r="FB15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="FC15">
+        <v>0.7274</v>
+      </c>
     </row>
-    <row r="16" spans="23:95">
+    <row r="16" spans="23:159">
       <c r="W16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -4739,7 +4932,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -4775,15 +4968,57 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
+      <c r="EP16" t="s">
+        <v>31</v>
+      </c>
+      <c r="EQ16">
+        <v>0.3</v>
+      </c>
+      <c r="ER16" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="ES16">
+        <v>0.1</v>
+      </c>
+      <c r="ET16">
+        <v>16</v>
+      </c>
+      <c r="EU16">
+        <v>2</v>
+      </c>
+      <c r="EV16">
+        <v>10</v>
+      </c>
+      <c r="EW16">
+        <v>1</v>
+      </c>
+      <c r="EX16">
+        <v>1</v>
+      </c>
+      <c r="EY16">
+        <v>1</v>
+      </c>
+      <c r="EZ16">
+        <v>0.2</v>
+      </c>
+      <c r="FA16">
+        <v>0.12</v>
+      </c>
+      <c r="FB16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="FC16">
+        <v>0.7217</v>
+      </c>
     </row>
-    <row r="17" spans="23:37">
+    <row r="17" spans="23:159">
       <c r="W17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -4827,10 +5062,52 @@
       <c r="AK17">
         <v>0.7209</v>
       </c>
+      <c r="EP17" t="s">
+        <v>31</v>
+      </c>
+      <c r="EQ17">
+        <v>0.3</v>
+      </c>
+      <c r="ER17" s="11">
+        <v>0.0015</v>
+      </c>
+      <c r="ES17">
+        <v>0.1</v>
+      </c>
+      <c r="ET17">
+        <v>16</v>
+      </c>
+      <c r="EU17">
+        <v>2</v>
+      </c>
+      <c r="EV17">
+        <v>10</v>
+      </c>
+      <c r="EW17">
+        <v>1</v>
+      </c>
+      <c r="EX17">
+        <v>1</v>
+      </c>
+      <c r="EY17">
+        <v>1</v>
+      </c>
+      <c r="EZ17">
+        <v>0.2</v>
+      </c>
+      <c r="FA17">
+        <v>0.12</v>
+      </c>
+      <c r="FB17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="FC17">
+        <v>0.7184</v>
+      </c>
     </row>
-    <row r="18" spans="23:37">
+    <row r="18" spans="23:159">
       <c r="W18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -4874,10 +5151,52 @@
       <c r="AK18">
         <v>0.7158</v>
       </c>
+      <c r="EP18" t="s">
+        <v>31</v>
+      </c>
+      <c r="EQ18">
+        <v>0.3</v>
+      </c>
+      <c r="ER18" s="11">
+        <v>0.00095</v>
+      </c>
+      <c r="ES18">
+        <v>0.1</v>
+      </c>
+      <c r="ET18">
+        <v>16</v>
+      </c>
+      <c r="EU18">
+        <v>2</v>
+      </c>
+      <c r="EV18">
+        <v>10</v>
+      </c>
+      <c r="EW18">
+        <v>1</v>
+      </c>
+      <c r="EX18">
+        <v>1</v>
+      </c>
+      <c r="EY18">
+        <v>1</v>
+      </c>
+      <c r="EZ18">
+        <v>0.2</v>
+      </c>
+      <c r="FA18">
+        <v>0.12</v>
+      </c>
+      <c r="FB18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="FC18">
+        <v>0.7232</v>
+      </c>
     </row>
-    <row r="19" spans="23:37">
+    <row r="19" spans="23:159">
       <c r="W19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -4920,11 +5239,53 @@
       </c>
       <c r="AK19">
         <v>0.7243</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>31</v>
+      </c>
+      <c r="EQ19">
+        <v>0.3</v>
+      </c>
+      <c r="ER19" s="11">
+        <v>0.0009</v>
+      </c>
+      <c r="ES19">
+        <v>0.1</v>
+      </c>
+      <c r="ET19">
+        <v>16</v>
+      </c>
+      <c r="EU19">
+        <v>2</v>
+      </c>
+      <c r="EV19">
+        <v>10</v>
+      </c>
+      <c r="EW19">
+        <v>1</v>
+      </c>
+      <c r="EX19">
+        <v>1</v>
+      </c>
+      <c r="EY19">
+        <v>1</v>
+      </c>
+      <c r="EZ19">
+        <v>0.2</v>
+      </c>
+      <c r="FA19">
+        <v>0.12</v>
+      </c>
+      <c r="FB19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FC19">
+        <v>0.7176</v>
       </c>
     </row>
     <row r="20" spans="23:37">
       <c r="W20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -4971,7 +5332,7 @@
     </row>
     <row r="21" spans="23:37">
       <c r="W21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -5018,7 +5379,7 @@
     </row>
     <row r="22" spans="23:37">
       <c r="W22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -5065,7 +5426,7 @@
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -5108,7 +5469,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -5120,6 +5481,7 @@
     <mergeCell ref="DJ1:DW1"/>
     <mergeCell ref="DZ1:EM1"/>
     <mergeCell ref="EP1:FD1"/>
+    <mergeCell ref="FF1:FU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="9705"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="91">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -70,6 +70,9 @@
     <t>version 3（my_SimCLR3）：20240514,增加part contrastive learning</t>
   </si>
   <si>
+    <t>version 3（attentionNet2）：20240517,根据vit最后一层的注意力图提取出最后一层的feature进行语义重构。</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>18/233</t>
   </si>
   <si>
+    <t>24/184</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
     <t>19/31</t>
   </si>
   <si>
+    <t>22/41</t>
+  </si>
+  <si>
+    <t>10/16</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>17/44</t>
   </si>
   <si>
+    <t>18/31</t>
+  </si>
+  <si>
     <t>9/141</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t>13/30</t>
   </si>
   <si>
+    <t>18/247</t>
+  </si>
+  <si>
     <t>11/1098</t>
   </si>
   <si>
@@ -199,6 +217,9 @@
     <t>13/36</t>
   </si>
   <si>
+    <t>13/57</t>
+  </si>
+  <si>
     <t>28/36</t>
   </si>
   <si>
@@ -208,12 +229,18 @@
     <t>20/49</t>
   </si>
   <si>
+    <t>19/45</t>
+  </si>
+  <si>
     <t>10/45</t>
   </si>
   <si>
     <t>12/146</t>
   </si>
   <si>
+    <t>18/26</t>
+  </si>
+  <si>
     <t>没看到0.68</t>
   </si>
   <si>
@@ -223,6 +250,9 @@
     <t>19/39</t>
   </si>
   <si>
+    <t>20/34</t>
+  </si>
+  <si>
     <t>11/82</t>
   </si>
   <si>
@@ -266,6 +296,15 @@
   </si>
   <si>
     <t>29/74</t>
+  </si>
+  <si>
+    <t>50/49</t>
+  </si>
+  <si>
+    <t>19/35</t>
+  </si>
+  <si>
+    <t>等待测试</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FU23"/>
+  <dimension ref="A1:GL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="ES1" workbookViewId="0">
-      <selection activeCell="FO28" sqref="FO28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="FK1" workbookViewId="0">
+      <selection activeCell="FY8" sqref="FY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1337,9 +1376,11 @@
     <col min="174" max="175" width="18.25" customWidth="1"/>
     <col min="176" max="176" width="7.375" customWidth="1"/>
     <col min="177" max="177" width="5.125" customWidth="1"/>
+    <col min="181" max="181" width="9.375"/>
+    <col min="192" max="192" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177">
+    <row r="1" spans="1:194">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,507 +1567,573 @@
       <c r="FS1" s="9"/>
       <c r="FT1" s="2"/>
       <c r="FU1" s="2"/>
+      <c r="FW1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="9"/>
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:177">
+    <row r="2" ht="14.25" spans="1:194">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CD2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CK2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BL2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BS2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BT2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CX2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="CY2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DD2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="DE2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="CB2" t="s">
-        <v>20</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CE2" s="3" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>21</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="DK2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="DL2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CH2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CI2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DN2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CK2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="CL2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DT2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="DU2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>20</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="DV2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="CT2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CU2" s="3" t="s">
+      <c r="DW2" t="s">
+        <v>21</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="EB2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CX2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CY2" s="3" t="s">
+      <c r="EC2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ED2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="EE2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DA2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="DB2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="EG2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="EH2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="EI2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DE2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EJ2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="DG2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="EL2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="DK2" s="3" t="s">
+      <c r="EM2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>30</v>
+      </c>
+      <c r="EP2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="EQ2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DN2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DO2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ET2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="EU2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DQ2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="DR2" s="3" t="s">
+      <c r="EV2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="EW2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="EY2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DU2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="FA2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="DW2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="FB2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="EA2" s="3" t="s">
+      <c r="FC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>30</v>
+      </c>
+      <c r="FF2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="FG2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="FH2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="ED2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EE2" s="3" t="s">
+      <c r="FI2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FJ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="FK2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="EG2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="EH2" s="3" t="s">
+      <c r="FL2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="EK2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="EM2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EN2" t="s">
+      <c r="FR2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="FS2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="EP2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
+      <c r="FT2" t="s">
+        <v>21</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>30</v>
+      </c>
+      <c r="FW2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="ER2" s="3" t="s">
+      <c r="FX2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="ES2" s="3" t="s">
+      <c r="FY2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="ET2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EU2" s="3" t="s">
+      <c r="FZ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="GA2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EV2" s="3" t="s">
+      <c r="GB2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="EW2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="EX2" s="3" t="s">
+      <c r="GC2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="GD2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="GE2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="EZ2" s="3" t="s">
+      <c r="GF2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="FA2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GG2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="GH2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="FC2" t="s">
-        <v>20</v>
-      </c>
-      <c r="FD2" t="s">
+      <c r="GI2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="FF2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="FG2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="FJ2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FL2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="FM2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="FN2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="FO2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="FP2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="FQ2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="FR2" s="1" t="s">
+      <c r="GK2" t="s">
+        <v>21</v>
+      </c>
+      <c r="GL2" t="s">
         <v>30</v>
       </c>
-      <c r="FS2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>20</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:176">
+    <row r="3" ht="14.25" spans="1:193">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -2053,7 +2160,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -2083,7 +2190,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2128,7 +2235,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2167,7 +2274,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2206,7 +2313,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2242,13 +2349,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2284,13 +2391,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2329,7 +2436,7 @@
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2365,13 +2472,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2407,13 +2514,13 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
       <c r="FF3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FG3">
         <v>0.3</v>
@@ -2452,15 +2559,51 @@
         <v>0.0001</v>
       </c>
       <c r="FS3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FT3">
         <v>0.7142</v>
       </c>
+      <c r="FW3" t="s">
+        <v>32</v>
+      </c>
+      <c r="FX3">
+        <v>0.25</v>
+      </c>
+      <c r="FY3" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FZ3">
+        <v>0.1</v>
+      </c>
+      <c r="GA3">
+        <v>16</v>
+      </c>
+      <c r="GB3">
+        <v>2</v>
+      </c>
+      <c r="GC3">
+        <v>10</v>
+      </c>
+      <c r="GD3">
+        <v>1</v>
+      </c>
+      <c r="GE3">
+        <v>1</v>
+      </c>
+      <c r="GF3">
+        <v>1</v>
+      </c>
+      <c r="GJ3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="GK3">
+        <v>0.7041</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:174">
+    <row r="4" ht="14.25" spans="1:193">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2487,7 +2630,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2514,7 +2657,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2559,7 +2702,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -2598,7 +2741,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -2637,7 +2780,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -2673,13 +2816,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -2718,7 +2861,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -2754,13 +2897,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -2796,13 +2939,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -2838,13 +2981,13 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
       </c>
       <c r="FF4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="FG4">
         <v>0.3</v>
@@ -2882,10 +3025,52 @@
       <c r="FR4">
         <v>0.0001</v>
       </c>
+      <c r="FS4" t="s">
+        <v>43</v>
+      </c>
+      <c r="FT4">
+        <v>0.7118</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>32</v>
+      </c>
+      <c r="FX4">
+        <v>0.25</v>
+      </c>
+      <c r="FY4" s="11">
+        <v>0.0009</v>
+      </c>
+      <c r="FZ4">
+        <v>0.1</v>
+      </c>
+      <c r="GA4">
+        <v>16</v>
+      </c>
+      <c r="GB4">
+        <v>2</v>
+      </c>
+      <c r="GC4">
+        <v>10</v>
+      </c>
+      <c r="GD4">
+        <v>1</v>
+      </c>
+      <c r="GE4">
+        <v>1</v>
+      </c>
+      <c r="GF4">
+        <v>1</v>
+      </c>
+      <c r="GJ4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="GK4">
+        <v>0.6975</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:159">
+    <row r="5" ht="14.25" spans="1:176">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -2912,7 +3097,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -2957,7 +3142,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -2996,7 +3181,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -3032,13 +3217,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -3074,13 +3259,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -3116,13 +3301,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -3158,16 +3343,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="EP5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3203,15 +3388,60 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
       </c>
+      <c r="FF5" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG5">
+        <v>0.3</v>
+      </c>
+      <c r="FH5" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="FI5">
+        <v>0.1</v>
+      </c>
+      <c r="FJ5">
+        <v>16</v>
+      </c>
+      <c r="FK5">
+        <v>2</v>
+      </c>
+      <c r="FL5">
+        <v>10</v>
+      </c>
+      <c r="FM5">
+        <v>1</v>
+      </c>
+      <c r="FN5">
+        <v>1</v>
+      </c>
+      <c r="FO5">
+        <v>1</v>
+      </c>
+      <c r="FP5">
+        <v>0.2</v>
+      </c>
+      <c r="FQ5">
+        <v>0.12</v>
+      </c>
+      <c r="FR5">
+        <v>0.0001</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>51</v>
+      </c>
+      <c r="FT5">
+        <v>0.7172</v>
+      </c>
     </row>
-    <row r="6" spans="23:159">
+    <row r="6" spans="23:176">
       <c r="W6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3256,7 +3486,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -3295,7 +3525,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -3331,13 +3561,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -3373,13 +3603,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -3415,13 +3645,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -3457,15 +3687,60 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
       </c>
+      <c r="FF6" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG6">
+        <v>0.3</v>
+      </c>
+      <c r="FH6" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="FI6">
+        <v>0.1</v>
+      </c>
+      <c r="FJ6">
+        <v>16</v>
+      </c>
+      <c r="FK6">
+        <v>2</v>
+      </c>
+      <c r="FL6">
+        <v>10</v>
+      </c>
+      <c r="FM6">
+        <v>1</v>
+      </c>
+      <c r="FN6">
+        <v>1</v>
+      </c>
+      <c r="FO6">
+        <v>1</v>
+      </c>
+      <c r="FP6">
+        <v>0.2</v>
+      </c>
+      <c r="FQ6">
+        <v>0.12</v>
+      </c>
+      <c r="FR6">
+        <v>0.0001</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="FT6">
+        <v>0.7095</v>
+      </c>
     </row>
-    <row r="7" spans="23:159">
+    <row r="7" spans="23:176">
       <c r="W7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -3510,7 +3785,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -3549,7 +3824,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -3585,13 +3860,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -3627,13 +3902,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -3669,13 +3944,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -3711,15 +3986,60 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
       </c>
+      <c r="FF7" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG7">
+        <v>0.3</v>
+      </c>
+      <c r="FH7" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI7">
+        <v>0.1</v>
+      </c>
+      <c r="FJ7">
+        <v>16</v>
+      </c>
+      <c r="FK7">
+        <v>2</v>
+      </c>
+      <c r="FL7">
+        <v>10</v>
+      </c>
+      <c r="FM7">
+        <v>1</v>
+      </c>
+      <c r="FN7">
+        <v>1</v>
+      </c>
+      <c r="FO7">
+        <v>1</v>
+      </c>
+      <c r="FP7">
+        <v>0.2</v>
+      </c>
+      <c r="FQ7">
+        <v>0.12</v>
+      </c>
+      <c r="FR7">
+        <v>1e-5</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>61</v>
+      </c>
+      <c r="FT7">
+        <v>0.7065</v>
+      </c>
     </row>
-    <row r="8" spans="23:159">
+    <row r="8" spans="23:176">
       <c r="W8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -3764,7 +4084,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -3803,7 +4123,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -3839,13 +4159,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -3881,13 +4201,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -3923,15 +4243,60 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
       </c>
+      <c r="FF8" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG8">
+        <v>0.3</v>
+      </c>
+      <c r="FH8" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI8">
+        <v>0.1</v>
+      </c>
+      <c r="FJ8">
+        <v>16</v>
+      </c>
+      <c r="FK8">
+        <v>2</v>
+      </c>
+      <c r="FL8">
+        <v>10</v>
+      </c>
+      <c r="FM8">
+        <v>1</v>
+      </c>
+      <c r="FN8">
+        <v>1</v>
+      </c>
+      <c r="FO8">
+        <v>1</v>
+      </c>
+      <c r="FP8">
+        <v>0.2</v>
+      </c>
+      <c r="FQ8">
+        <v>0.12</v>
+      </c>
+      <c r="FR8">
+        <v>0.001</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>65</v>
+      </c>
+      <c r="FT8">
+        <v>0.7033</v>
+      </c>
     </row>
-    <row r="9" spans="23:159">
+    <row r="9" spans="23:176">
       <c r="W9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -3976,7 +4341,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -4012,13 +4377,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -4054,7 +4419,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -4090,15 +4455,60 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
       </c>
+      <c r="FF9" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG9">
+        <v>0.5</v>
+      </c>
+      <c r="FH9" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI9">
+        <v>0.1</v>
+      </c>
+      <c r="FJ9">
+        <v>16</v>
+      </c>
+      <c r="FK9">
+        <v>2</v>
+      </c>
+      <c r="FL9">
+        <v>10</v>
+      </c>
+      <c r="FM9">
+        <v>1</v>
+      </c>
+      <c r="FN9">
+        <v>1</v>
+      </c>
+      <c r="FO9">
+        <v>1</v>
+      </c>
+      <c r="FP9">
+        <v>0.2</v>
+      </c>
+      <c r="FQ9">
+        <v>0.12</v>
+      </c>
+      <c r="FR9">
+        <v>0.001</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>68</v>
+      </c>
+      <c r="FT9">
+        <v>0.6922</v>
+      </c>
     </row>
-    <row r="10" spans="23:159">
+    <row r="10" spans="23:176">
       <c r="W10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -4140,10 +4550,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -4179,13 +4589,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -4221,15 +4631,60 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>32</v>
+      </c>
+      <c r="FG10">
+        <v>0.3</v>
+      </c>
+      <c r="FH10" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="FI10">
+        <v>0.1</v>
+      </c>
+      <c r="FJ10">
+        <v>16</v>
+      </c>
+      <c r="FK10">
+        <v>2</v>
+      </c>
+      <c r="FL10">
+        <v>10</v>
+      </c>
+      <c r="FM10">
+        <v>1</v>
+      </c>
+      <c r="FN10">
+        <v>1</v>
+      </c>
+      <c r="FO10">
+        <v>1</v>
+      </c>
+      <c r="FP10">
+        <v>0.2</v>
+      </c>
+      <c r="FQ10">
+        <v>0.12</v>
+      </c>
+      <c r="FR10">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>72</v>
+      </c>
+      <c r="FT10">
+        <v>0.7077</v>
       </c>
     </row>
     <row r="11" spans="23:159">
       <c r="W11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -4274,7 +4729,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -4310,13 +4765,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -4352,7 +4807,7 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
@@ -4360,7 +4815,7 @@
     </row>
     <row r="12" spans="23:159">
       <c r="W12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -4405,7 +4860,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -4441,13 +4896,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -4483,7 +4938,7 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
@@ -4491,7 +4946,7 @@
     </row>
     <row r="13" spans="23:159">
       <c r="W13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -4536,7 +4991,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -4572,16 +5027,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="EP13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -4617,7 +5072,7 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
@@ -4625,7 +5080,7 @@
     </row>
     <row r="14" spans="23:159">
       <c r="W14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -4670,7 +5125,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -4706,13 +5161,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -4748,7 +5203,7 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
@@ -4756,7 +5211,7 @@
     </row>
     <row r="15" spans="23:159">
       <c r="W15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -4801,7 +5256,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -4837,13 +5292,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -4879,7 +5334,7 @@
         <v>0.12</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="FC15">
         <v>0.7274</v>
@@ -4887,7 +5342,7 @@
     </row>
     <row r="16" spans="23:159">
       <c r="W16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -4932,7 +5387,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -4968,13 +5423,13 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
       <c r="EP16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ16">
         <v>0.3</v>
@@ -5010,7 +5465,7 @@
         <v>0.12</v>
       </c>
       <c r="FB16" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="FC16">
         <v>0.7217</v>
@@ -5018,7 +5473,7 @@
     </row>
     <row r="17" spans="23:159">
       <c r="W17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -5063,7 +5518,7 @@
         <v>0.7209</v>
       </c>
       <c r="EP17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ17">
         <v>0.3</v>
@@ -5099,7 +5554,7 @@
         <v>0.12</v>
       </c>
       <c r="FB17" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="FC17">
         <v>0.7184</v>
@@ -5107,7 +5562,7 @@
     </row>
     <row r="18" spans="23:159">
       <c r="W18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -5152,7 +5607,7 @@
         <v>0.7158</v>
       </c>
       <c r="EP18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ18">
         <v>0.3</v>
@@ -5188,7 +5643,7 @@
         <v>0.12</v>
       </c>
       <c r="FB18" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="FC18">
         <v>0.7232</v>
@@ -5196,7 +5651,7 @@
     </row>
     <row r="19" spans="23:159">
       <c r="W19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -5241,7 +5696,7 @@
         <v>0.7243</v>
       </c>
       <c r="EP19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="EQ19">
         <v>0.3</v>
@@ -5277,15 +5732,15 @@
         <v>0.12</v>
       </c>
       <c r="FB19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="FC19">
         <v>0.7176</v>
       </c>
     </row>
-    <row r="20" spans="23:37">
+    <row r="20" spans="23:159">
       <c r="W20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -5329,10 +5784,52 @@
       <c r="AK20">
         <v>0.7191</v>
       </c>
+      <c r="EP20" t="s">
+        <v>32</v>
+      </c>
+      <c r="EQ20">
+        <v>0.35</v>
+      </c>
+      <c r="ER20" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES20">
+        <v>0.1</v>
+      </c>
+      <c r="ET20">
+        <v>16</v>
+      </c>
+      <c r="EU20">
+        <v>2</v>
+      </c>
+      <c r="EV20">
+        <v>10</v>
+      </c>
+      <c r="EW20">
+        <v>1</v>
+      </c>
+      <c r="EX20">
+        <v>1</v>
+      </c>
+      <c r="EY20">
+        <v>1</v>
+      </c>
+      <c r="EZ20">
+        <v>0.2</v>
+      </c>
+      <c r="FA20">
+        <v>0.12</v>
+      </c>
+      <c r="FB20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="FC20">
+        <v>0.7282</v>
+      </c>
     </row>
-    <row r="21" spans="23:37">
+    <row r="21" spans="23:159">
       <c r="W21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -5376,10 +5873,52 @@
       <c r="AK21" s="7">
         <v>0.72</v>
       </c>
+      <c r="EP21" t="s">
+        <v>32</v>
+      </c>
+      <c r="EQ21">
+        <v>0.4</v>
+      </c>
+      <c r="ER21" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES21">
+        <v>0.1</v>
+      </c>
+      <c r="ET21">
+        <v>16</v>
+      </c>
+      <c r="EU21">
+        <v>2</v>
+      </c>
+      <c r="EV21">
+        <v>10</v>
+      </c>
+      <c r="EW21">
+        <v>1</v>
+      </c>
+      <c r="EX21">
+        <v>1</v>
+      </c>
+      <c r="EY21">
+        <v>1</v>
+      </c>
+      <c r="EZ21">
+        <v>0.2</v>
+      </c>
+      <c r="FA21">
+        <v>0.12</v>
+      </c>
+      <c r="FB21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="FC21">
+        <v>0.7256</v>
+      </c>
     </row>
-    <row r="22" spans="23:37">
+    <row r="22" spans="23:160">
       <c r="W22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -5422,11 +5961,50 @@
       </c>
       <c r="AK22" s="7">
         <v>0.7237</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>32</v>
+      </c>
+      <c r="EQ22">
+        <v>0.25</v>
+      </c>
+      <c r="ER22" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="ES22">
+        <v>0.1</v>
+      </c>
+      <c r="ET22">
+        <v>16</v>
+      </c>
+      <c r="EU22">
+        <v>2</v>
+      </c>
+      <c r="EV22">
+        <v>10</v>
+      </c>
+      <c r="EW22">
+        <v>1</v>
+      </c>
+      <c r="EX22">
+        <v>1</v>
+      </c>
+      <c r="EY22">
+        <v>1</v>
+      </c>
+      <c r="EZ22">
+        <v>0.2</v>
+      </c>
+      <c r="FA22">
+        <v>0.12</v>
+      </c>
+      <c r="FD22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -5469,7 +6047,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -5482,6 +6060,7 @@
     <mergeCell ref="DZ1:EM1"/>
     <mergeCell ref="EP1:FD1"/>
     <mergeCell ref="FF1:FU1"/>
+    <mergeCell ref="FW1:GL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="94">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -70,7 +70,10 @@
     <t>version 3（my_SimCLR3）：20240514,增加part contrastive learning</t>
   </si>
   <si>
-    <t>version 3（attentionNet2）：20240517,根据vit最后一层的注意力图提取出最后一层的feature进行语义重构。</t>
+    <t>version 4（attentionNet2）：20240517,根据vit最后一层的注意力图提取出最后一层的feature进行语义重构。</t>
+  </si>
+  <si>
+    <t>version 5（attentionNet2）：20240517,根据vit最后一层的注意力图提取出倒数第二层的feature进行语义重构。</t>
   </si>
   <si>
     <t>vit</t>
@@ -190,6 +193,9 @@
     <t>18/31</t>
   </si>
   <si>
+    <t>10/76</t>
+  </si>
+  <si>
     <t>9/141</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
   </si>
   <si>
     <t>18/247</t>
+  </si>
+  <si>
+    <t>12/19</t>
   </si>
   <si>
     <t>11/1098</t>
@@ -1277,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GL23"/>
+  <dimension ref="A1:HC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="FK1" workbookViewId="0">
-      <selection activeCell="FY8" sqref="FY8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="FX1" workbookViewId="0">
+      <selection activeCell="HA3" sqref="HA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,9 +1387,10 @@
     <col min="177" max="177" width="5.125" customWidth="1"/>
     <col min="181" max="181" width="9.375"/>
     <col min="192" max="192" width="9.125" style="1"/>
+    <col min="198" max="198" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:194">
+    <row r="1" spans="1:211">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,555 +1595,621 @@
       <c r="GJ1" s="9"/>
       <c r="GK1" s="2"/>
       <c r="GL1" s="2"/>
+      <c r="GN1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:194">
+    <row r="2" ht="14.25" spans="1:211">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BL2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CT2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CW2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="CY2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DD2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DE2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CB2" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE2" s="3" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="DK2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CG2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CH2" s="3" t="s">
+      <c r="DL2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DM2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CK2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="CL2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="CO2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DT2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DU2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>21</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="DV2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU2" s="3" t="s">
+      <c r="DW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CW2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CX2" s="3" t="s">
+      <c r="EB2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EC2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="ED2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="EE2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DA2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="DB2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="EG2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="EH2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="EI2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DE2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EJ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="EK2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="DG2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="EL2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK2" s="3" t="s">
+      <c r="EM2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EP2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="EQ2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DM2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DN2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ES2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="EU2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DQ2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="DR2" s="3" t="s">
+      <c r="EV2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="EW2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="EY2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DU2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="FA2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="DW2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="FB2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DZ2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="EA2" s="3" t="s">
+      <c r="FC2" t="s">
+        <v>22</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FF2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="FG2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="ED2" s="3" t="s">
+      <c r="FH2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FI2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" s="3" t="s">
+      <c r="FJ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="FK2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="EH2" s="3" t="s">
+      <c r="FL2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="EK2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="EM2" t="s">
-        <v>21</v>
-      </c>
-      <c r="EN2" t="s">
+      <c r="FR2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="FS2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="EP2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
+      <c r="FT2" t="s">
+        <v>22</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FW2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" s="3" t="s">
+      <c r="FX2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="ET2" s="3" t="s">
+      <c r="FY2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" s="3" t="s">
+      <c r="GA2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" s="3" t="s">
+      <c r="GB2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="EX2" s="3" t="s">
+      <c r="GC2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="GD2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="GE2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="EZ2" s="3" t="s">
+      <c r="GF2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="FA2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GG2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="GH2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="FC2" t="s">
-        <v>21</v>
-      </c>
-      <c r="FD2" t="s">
+      <c r="GI2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="FF2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="FG2" s="3" t="s">
+      <c r="GK2" t="s">
+        <v>22</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GN2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="FH2" s="3" t="s">
+      <c r="GO2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="FI2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="FJ2" s="3" t="s">
+      <c r="GP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="GQ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="FK2" s="3" t="s">
+      <c r="GR2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="FL2" s="3" t="s">
+      <c r="GS2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="FM2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="FN2" s="3" t="s">
+      <c r="GT2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="GU2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" s="3" t="s">
+      <c r="GV2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" s="3" t="s">
+      <c r="GW2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="FR2" s="1" t="s">
+      <c r="GX2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="GY2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HC2" t="s">
         <v>31</v>
       </c>
-      <c r="FS2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>21</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>30</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="GF2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="GG2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="GH2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>21</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:193">
+    <row r="3" ht="14.25" spans="1:205">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -2160,7 +2236,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -2190,7 +2266,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2235,7 +2311,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2274,7 +2350,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2313,7 +2389,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2349,13 +2425,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2391,13 +2467,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2436,7 +2512,7 @@
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2472,13 +2548,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2514,13 +2590,13 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
       <c r="FF3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG3">
         <v>0.3</v>
@@ -2559,13 +2635,13 @@
         <v>0.0001</v>
       </c>
       <c r="FS3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="FT3">
         <v>0.7142</v>
       </c>
       <c r="FW3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FX3">
         <v>0.25</v>
@@ -2595,15 +2671,45 @@
         <v>1</v>
       </c>
       <c r="GJ3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="GK3">
         <v>0.7041</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="GO3">
+        <v>0.25</v>
+      </c>
+      <c r="GP3" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="GQ3">
+        <v>0.1</v>
+      </c>
+      <c r="GR3">
+        <v>16</v>
+      </c>
+      <c r="GS3">
+        <v>2</v>
+      </c>
+      <c r="GT3">
+        <v>10</v>
+      </c>
+      <c r="GU3">
+        <v>1</v>
+      </c>
+      <c r="GV3">
+        <v>1</v>
+      </c>
+      <c r="GW3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:193">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2630,7 +2736,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2657,7 +2763,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2702,7 +2808,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -2741,7 +2847,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -2780,7 +2886,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -2816,13 +2922,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -2861,7 +2967,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -2897,13 +3003,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -2939,13 +3045,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -2981,13 +3087,13 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
       </c>
       <c r="FF4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG4">
         <v>0.3</v>
@@ -3026,13 +3132,13 @@
         <v>0.0001</v>
       </c>
       <c r="FS4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="FT4">
         <v>0.7118</v>
       </c>
       <c r="FW4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FX4">
         <v>0.25</v>
@@ -3062,15 +3168,15 @@
         <v>1</v>
       </c>
       <c r="GJ4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="GK4">
         <v>0.6975</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:176">
+    <row r="5" ht="14.25" spans="1:193">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -3097,7 +3203,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -3142,7 +3248,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -3181,7 +3287,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -3217,13 +3323,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -3259,13 +3365,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -3301,13 +3407,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -3343,16 +3449,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="EP5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3388,13 +3494,13 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
       </c>
       <c r="FF5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG5">
         <v>0.3</v>
@@ -3433,15 +3539,51 @@
         <v>0.0001</v>
       </c>
       <c r="FS5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="FT5">
         <v>0.7172</v>
       </c>
+      <c r="FW5" t="s">
+        <v>33</v>
+      </c>
+      <c r="FX5">
+        <v>0.25</v>
+      </c>
+      <c r="FY5" s="11">
+        <v>0.003</v>
+      </c>
+      <c r="FZ5">
+        <v>0.1</v>
+      </c>
+      <c r="GA5">
+        <v>16</v>
+      </c>
+      <c r="GB5">
+        <v>2</v>
+      </c>
+      <c r="GC5">
+        <v>10</v>
+      </c>
+      <c r="GD5">
+        <v>1</v>
+      </c>
+      <c r="GE5">
+        <v>1</v>
+      </c>
+      <c r="GF5">
+        <v>1</v>
+      </c>
+      <c r="GJ5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="GK5" s="7">
+        <v>0.705</v>
+      </c>
     </row>
-    <row r="6" spans="23:176">
+    <row r="6" spans="23:193">
       <c r="W6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3486,7 +3628,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -3525,7 +3667,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -3561,13 +3703,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -3603,13 +3745,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -3645,13 +3787,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -3687,13 +3829,13 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
       </c>
       <c r="FF6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG6">
         <v>0.3</v>
@@ -3732,15 +3874,51 @@
         <v>0.0001</v>
       </c>
       <c r="FS6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="FT6">
         <v>0.7095</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FX6">
+        <v>0.25</v>
+      </c>
+      <c r="FY6" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="FZ6">
+        <v>0.1</v>
+      </c>
+      <c r="GA6">
+        <v>16</v>
+      </c>
+      <c r="GB6">
+        <v>2</v>
+      </c>
+      <c r="GC6">
+        <v>10</v>
+      </c>
+      <c r="GD6">
+        <v>1</v>
+      </c>
+      <c r="GE6">
+        <v>1</v>
+      </c>
+      <c r="GF6">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="GK6">
+        <v>0.6841</v>
       </c>
     </row>
     <row r="7" spans="23:176">
       <c r="W7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -3785,7 +3963,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -3824,7 +4002,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -3860,13 +4038,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -3902,13 +4080,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -3944,13 +4122,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -3986,13 +4164,13 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
       </c>
       <c r="FF7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG7">
         <v>0.3</v>
@@ -4031,7 +4209,7 @@
         <v>1e-5</v>
       </c>
       <c r="FS7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="FT7">
         <v>0.7065</v>
@@ -4039,7 +4217,7 @@
     </row>
     <row r="8" spans="23:176">
       <c r="W8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -4084,7 +4262,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -4123,7 +4301,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -4159,13 +4337,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -4201,13 +4379,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -4243,13 +4421,13 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
       </c>
       <c r="FF8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG8">
         <v>0.3</v>
@@ -4288,7 +4466,7 @@
         <v>0.001</v>
       </c>
       <c r="FS8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="FT8">
         <v>0.7033</v>
@@ -4296,7 +4474,7 @@
     </row>
     <row r="9" spans="23:176">
       <c r="W9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -4341,7 +4519,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -4377,13 +4555,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -4419,7 +4597,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -4455,13 +4633,13 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
       </c>
       <c r="FF9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG9">
         <v>0.5</v>
@@ -4500,7 +4678,7 @@
         <v>0.001</v>
       </c>
       <c r="FS9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="FT9">
         <v>0.6922</v>
@@ -4508,7 +4686,7 @@
     </row>
     <row r="10" spans="23:176">
       <c r="W10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -4550,10 +4728,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -4589,13 +4767,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -4631,13 +4809,13 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
       </c>
       <c r="FF10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="FG10">
         <v>0.3</v>
@@ -4676,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="FS10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="FT10">
         <v>0.7077</v>
@@ -4684,7 +4862,7 @@
     </row>
     <row r="11" spans="23:159">
       <c r="W11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -4729,7 +4907,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -4765,13 +4943,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -4807,7 +4985,7 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
@@ -4815,7 +4993,7 @@
     </row>
     <row r="12" spans="23:159">
       <c r="W12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -4860,7 +5038,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -4896,13 +5074,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -4938,7 +5116,7 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
@@ -4946,7 +5124,7 @@
     </row>
     <row r="13" spans="23:159">
       <c r="W13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -4991,7 +5169,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -5027,16 +5205,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="EP13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -5072,7 +5250,7 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
@@ -5080,7 +5258,7 @@
     </row>
     <row r="14" spans="23:159">
       <c r="W14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -5125,7 +5303,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -5161,13 +5339,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -5203,7 +5381,7 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
@@ -5211,7 +5389,7 @@
     </row>
     <row r="15" spans="23:159">
       <c r="W15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -5256,7 +5434,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -5292,13 +5470,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -5334,7 +5512,7 @@
         <v>0.12</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="FC15">
         <v>0.7274</v>
@@ -5342,7 +5520,7 @@
     </row>
     <row r="16" spans="23:159">
       <c r="W16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -5387,7 +5565,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -5423,13 +5601,13 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
       <c r="EP16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ16">
         <v>0.3</v>
@@ -5465,7 +5643,7 @@
         <v>0.12</v>
       </c>
       <c r="FB16" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="FC16">
         <v>0.7217</v>
@@ -5473,7 +5651,7 @@
     </row>
     <row r="17" spans="23:159">
       <c r="W17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -5518,7 +5696,7 @@
         <v>0.7209</v>
       </c>
       <c r="EP17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ17">
         <v>0.3</v>
@@ -5554,7 +5732,7 @@
         <v>0.12</v>
       </c>
       <c r="FB17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="FC17">
         <v>0.7184</v>
@@ -5562,7 +5740,7 @@
     </row>
     <row r="18" spans="23:159">
       <c r="W18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -5607,7 +5785,7 @@
         <v>0.7158</v>
       </c>
       <c r="EP18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ18">
         <v>0.3</v>
@@ -5643,7 +5821,7 @@
         <v>0.12</v>
       </c>
       <c r="FB18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="FC18">
         <v>0.7232</v>
@@ -5651,7 +5829,7 @@
     </row>
     <row r="19" spans="23:159">
       <c r="W19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -5696,7 +5874,7 @@
         <v>0.7243</v>
       </c>
       <c r="EP19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ19">
         <v>0.3</v>
@@ -5732,7 +5910,7 @@
         <v>0.12</v>
       </c>
       <c r="FB19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="FC19">
         <v>0.7176</v>
@@ -5740,7 +5918,7 @@
     </row>
     <row r="20" spans="23:159">
       <c r="W20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -5785,7 +5963,7 @@
         <v>0.7191</v>
       </c>
       <c r="EP20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ20">
         <v>0.35</v>
@@ -5821,7 +5999,7 @@
         <v>0.12</v>
       </c>
       <c r="FB20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="FC20">
         <v>0.7282</v>
@@ -5829,7 +6007,7 @@
     </row>
     <row r="21" spans="23:159">
       <c r="W21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -5874,7 +6052,7 @@
         <v>0.72</v>
       </c>
       <c r="EP21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ21">
         <v>0.4</v>
@@ -5910,7 +6088,7 @@
         <v>0.12</v>
       </c>
       <c r="FB21" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="FC21">
         <v>0.7256</v>
@@ -5918,7 +6096,7 @@
     </row>
     <row r="22" spans="23:160">
       <c r="W22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -5963,7 +6141,7 @@
         <v>0.7237</v>
       </c>
       <c r="EP22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="EQ22">
         <v>0.25</v>
@@ -5999,12 +6177,12 @@
         <v>0.12</v>
       </c>
       <c r="FD22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -6047,7 +6225,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -6061,6 +6239,7 @@
     <mergeCell ref="EP1:FD1"/>
     <mergeCell ref="FF1:FU1"/>
     <mergeCell ref="FW1:GL1"/>
+    <mergeCell ref="GN1:HC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -76,6 +76,9 @@
     <t>version 5（attentionNet2）：20240517,根据vit最后一层的注意力图提取出倒数第二层的feature进行语义重构。</t>
   </si>
   <si>
+    <t>version 6（my_SimCLR4）：20240517,将part_contrastive_learning 所用的特征由726降为128,将对比学习中的ReLU激活函数更改为LeakyReLU，添加layerNorm</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>partCL系数</t>
   </si>
   <si>
+    <t>指数移动平均指数decay</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>24/184</t>
   </si>
   <si>
+    <t>19/103</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>10/16</t>
   </si>
   <si>
+    <t>27/40</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>10/76</t>
   </si>
   <si>
+    <t>18/20</t>
+  </si>
+  <si>
     <t>9/141</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
     <t>12/19</t>
   </si>
   <si>
+    <t>27/35</t>
+  </si>
+  <si>
     <t>11/1098</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>13/57</t>
   </si>
   <si>
+    <t>10/79</t>
+  </si>
+  <si>
     <t>28/36</t>
   </si>
   <si>
@@ -241,6 +262,9 @@
     <t>19/45</t>
   </si>
   <si>
+    <t>18/38</t>
+  </si>
+  <si>
     <t>10/45</t>
   </si>
   <si>
@@ -250,6 +274,9 @@
     <t>18/26</t>
   </si>
   <si>
+    <t>10/51</t>
+  </si>
+  <si>
     <t>没看到0.68</t>
   </si>
   <si>
@@ -265,10 +292,16 @@
     <t>11/82</t>
   </si>
   <si>
+    <t>10/32</t>
+  </si>
+  <si>
     <t>49/98</t>
   </si>
   <si>
     <t>11/20</t>
+  </si>
+  <si>
+    <t>19/24</t>
   </si>
   <si>
     <t>10/33</t>
@@ -938,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1006,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:HC23"/>
+  <dimension ref="A1:HV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="FX1" workbookViewId="0">
-      <selection activeCell="HA3" sqref="HA3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="GT1" workbookViewId="0">
+      <selection activeCell="HF15" sqref="HF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1382,15 +1418,16 @@
     <col min="171" max="171" width="16" customWidth="1"/>
     <col min="172" max="172" width="18.25" customWidth="1"/>
     <col min="173" max="173" width="13.75" customWidth="1"/>
-    <col min="174" max="175" width="18.25" customWidth="1"/>
-    <col min="176" max="176" width="7.375" customWidth="1"/>
-    <col min="177" max="177" width="5.125" customWidth="1"/>
-    <col min="181" max="181" width="9.375"/>
-    <col min="192" max="192" width="9.125" style="1"/>
-    <col min="198" max="198" width="9.375"/>
+    <col min="174" max="176" width="18.25" customWidth="1"/>
+    <col min="177" max="177" width="7.375" customWidth="1"/>
+    <col min="178" max="178" width="5.125" customWidth="1"/>
+    <col min="182" max="182" width="9.375"/>
+    <col min="193" max="193" width="9.125" style="1"/>
+    <col min="199" max="199" width="9.375"/>
+    <col min="216" max="216" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211">
+    <row r="1" spans="1:230">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,12 +1612,12 @@
       <c r="FQ1" s="2"/>
       <c r="FR1" s="9"/>
       <c r="FS1" s="9"/>
-      <c r="FT1" s="2"/>
+      <c r="FT1" s="9"/>
       <c r="FU1" s="2"/>
-      <c r="FW1" s="2" t="s">
+      <c r="FV1" s="2"/>
+      <c r="FX1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="FX1" s="2"/>
       <c r="FY1" s="2"/>
       <c r="FZ1" s="2"/>
       <c r="GA1" s="2"/>
@@ -1591,14 +1628,14 @@
       <c r="GF1" s="2"/>
       <c r="GG1" s="2"/>
       <c r="GH1" s="2"/>
-      <c r="GI1" s="9"/>
+      <c r="GI1" s="2"/>
       <c r="GJ1" s="9"/>
-      <c r="GK1" s="2"/>
+      <c r="GK1" s="9"/>
       <c r="GL1" s="2"/>
-      <c r="GN1" s="2" t="s">
+      <c r="GM1" s="2"/>
+      <c r="GO1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="GO1" s="2"/>
       <c r="GP1" s="2"/>
       <c r="GQ1" s="2"/>
       <c r="GR1" s="2"/>
@@ -1609,509 +1646,529 @@
       <c r="GW1" s="2"/>
       <c r="GX1" s="2"/>
       <c r="GY1" s="2"/>
-      <c r="GZ1" s="9"/>
+      <c r="GZ1" s="2"/>
       <c r="HA1" s="9"/>
-      <c r="HB1" s="2"/>
+      <c r="HB1" s="9"/>
       <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
+      <c r="HF1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="9"/>
+      <c r="HS1" s="9"/>
+      <c r="HT1" s="9"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:211">
+    <row r="2" ht="14.25" spans="1:230">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CK2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BL2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="BP2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BQ2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="CY2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="DE2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE2" s="3" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CF2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CG2" s="3" t="s">
+      <c r="DK2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DL2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="CK2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="CL2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="CO2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DT2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>22</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="DV2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CT2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="CU2" s="3" t="s">
+      <c r="DW2" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CV2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CW2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EB2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="EC2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="ED2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="EE2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="DA2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="DB2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EG2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="EH2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="EI2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DE2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EJ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="EK2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="DG2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="EL2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="DK2" s="3" t="s">
+      <c r="EM2" t="s">
+        <v>23</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EP2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DM2" s="3" t="s">
+      <c r="EQ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ER2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="EU2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="DR2" s="3" t="s">
+      <c r="EV2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="EY2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DU2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="FA2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="DW2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="FB2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="DZ2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="EA2" s="3" t="s">
+      <c r="FC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FF2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="EB2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EC2" s="3" t="s">
+      <c r="FG2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FH2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="FI2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="EE2" s="3" t="s">
+      <c r="FJ2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="FK2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="EG2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="EH2" s="3" t="s">
+      <c r="FL2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="EK2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="EM2" t="s">
-        <v>22</v>
-      </c>
-      <c r="EN2" t="s">
+      <c r="FR2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="FT2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="EP2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="ET2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="EV2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="EW2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="EX2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="EZ2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="FA2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>22</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>31</v>
-      </c>
-      <c r="FF2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="FG2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FJ2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="FL2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="FM2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="FN2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="FO2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="FP2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="FQ2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="FR2" s="1" t="s">
+      <c r="FU2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FV2" t="s">
         <v>32</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>22</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>31</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="FX2" s="3" t="s">
         <v>15</v>
@@ -2132,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="GD2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="GE2" s="3" t="s">
         <v>25</v>
@@ -2144,22 +2201,22 @@
         <v>27</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="GI2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="GI2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>23</v>
+      </c>
+      <c r="GM2" t="s">
         <v>32</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>22</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>31</v>
-      </c>
-      <c r="GN2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="GO2" s="3" t="s">
         <v>15</v>
@@ -2180,7 +2237,7 @@
         <v>20</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="GV2" s="3" t="s">
         <v>25</v>
@@ -2192,24 +2249,78 @@
         <v>27</v>
       </c>
       <c r="GY2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="GZ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HD2" t="s">
         <v>32</v>
       </c>
-      <c r="HA2" s="1" t="s">
+      <c r="HF2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="HG2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="HH2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="HI2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="HJ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="HK2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="HL2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="HM2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="HN2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="HO2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="HP2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="HQ2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="HB2" t="s">
-        <v>22</v>
-      </c>
-      <c r="HC2" t="s">
+      <c r="HR2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="HT2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="HU2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:205">
+    <row r="3" ht="14.25" spans="1:229">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -2236,7 +2347,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -2266,7 +2377,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2311,7 +2422,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2350,7 +2461,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2389,7 +2500,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2425,13 +2536,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2467,13 +2578,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2512,7 +2623,7 @@
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2548,13 +2659,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2590,13 +2701,13 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
       <c r="FF3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG3">
         <v>0.3</v>
@@ -2634,35 +2745,35 @@
       <c r="FR3">
         <v>0.0001</v>
       </c>
-      <c r="FS3" t="s">
-        <v>38</v>
-      </c>
-      <c r="FT3">
+      <c r="FS3">
+        <v>0.9</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>40</v>
+      </c>
+      <c r="FU3">
         <v>0.7142</v>
       </c>
-      <c r="FW3" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX3">
+      <c r="FX3" t="s">
+        <v>35</v>
+      </c>
+      <c r="FY3">
         <v>0.25</v>
       </c>
-      <c r="FY3" s="11">
+      <c r="FZ3" s="11">
         <v>0.001</v>
       </c>
-      <c r="FZ3">
-        <v>0.1</v>
-      </c>
       <c r="GA3">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GB3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GC3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GD3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GE3">
         <v>1</v>
@@ -2670,35 +2781,35 @@
       <c r="GF3">
         <v>1</v>
       </c>
-      <c r="GJ3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="GK3">
+      <c r="GG3">
+        <v>1</v>
+      </c>
+      <c r="GK3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="GL3">
         <v>0.7041</v>
       </c>
-      <c r="GN3" t="s">
-        <v>33</v>
-      </c>
-      <c r="GO3">
+      <c r="GO3" t="s">
+        <v>35</v>
+      </c>
+      <c r="GP3">
         <v>0.25</v>
       </c>
-      <c r="GP3" s="11">
+      <c r="GQ3" s="11">
         <v>0.001</v>
       </c>
-      <c r="GQ3">
-        <v>0.1</v>
-      </c>
       <c r="GR3">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GS3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GT3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GV3">
         <v>1</v>
@@ -2706,10 +2817,61 @@
       <c r="GW3">
         <v>1</v>
       </c>
+      <c r="GX3">
+        <v>1</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG3">
+        <v>0.25</v>
+      </c>
+      <c r="HH3" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="HI3">
+        <v>0.1</v>
+      </c>
+      <c r="HJ3">
+        <v>16</v>
+      </c>
+      <c r="HK3">
+        <v>2</v>
+      </c>
+      <c r="HL3">
+        <v>10</v>
+      </c>
+      <c r="HM3">
+        <v>1</v>
+      </c>
+      <c r="HN3">
+        <v>1</v>
+      </c>
+      <c r="HO3">
+        <v>1</v>
+      </c>
+      <c r="HP3">
+        <v>0.2</v>
+      </c>
+      <c r="HQ3">
+        <v>0.12</v>
+      </c>
+      <c r="HR3">
+        <v>1</v>
+      </c>
+      <c r="HS3">
+        <v>0.8</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>42</v>
+      </c>
+      <c r="HU3">
+        <v>0.6957</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:193">
+    <row r="4" ht="14.25" spans="1:229">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2736,7 +2898,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2763,7 +2925,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2808,7 +2970,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -2847,7 +3009,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -2886,7 +3048,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -2922,13 +3084,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -2967,7 +3129,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -3003,13 +3165,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -3045,13 +3207,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -3087,13 +3249,13 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
       </c>
       <c r="FF4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG4">
         <v>0.3</v>
@@ -3131,35 +3293,35 @@
       <c r="FR4">
         <v>0.0001</v>
       </c>
-      <c r="FS4" t="s">
-        <v>44</v>
-      </c>
-      <c r="FT4">
+      <c r="FS4">
+        <v>0.9</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>47</v>
+      </c>
+      <c r="FU4">
         <v>0.7118</v>
       </c>
-      <c r="FW4" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX4">
+      <c r="FX4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FY4">
         <v>0.25</v>
       </c>
-      <c r="FY4" s="11">
+      <c r="FZ4" s="11">
         <v>0.0009</v>
       </c>
-      <c r="FZ4">
-        <v>0.1</v>
-      </c>
       <c r="GA4">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GB4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GC4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GD4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GE4">
         <v>1</v>
@@ -3167,16 +3329,67 @@
       <c r="GF4">
         <v>1</v>
       </c>
-      <c r="GJ4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="GK4">
+      <c r="GG4">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="GL4">
         <v>0.6975</v>
       </c>
+      <c r="HF4" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG4">
+        <v>0.25</v>
+      </c>
+      <c r="HH4" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="HI4">
+        <v>0.1</v>
+      </c>
+      <c r="HJ4">
+        <v>16</v>
+      </c>
+      <c r="HK4">
+        <v>2</v>
+      </c>
+      <c r="HL4">
+        <v>10</v>
+      </c>
+      <c r="HM4">
+        <v>1</v>
+      </c>
+      <c r="HN4">
+        <v>1</v>
+      </c>
+      <c r="HO4">
+        <v>1</v>
+      </c>
+      <c r="HP4">
+        <v>0.2</v>
+      </c>
+      <c r="HQ4">
+        <v>0.12</v>
+      </c>
+      <c r="HR4">
+        <v>0.2</v>
+      </c>
+      <c r="HS4">
+        <v>0.8</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>49</v>
+      </c>
+      <c r="HU4">
+        <v>0.7096</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:193">
+    <row r="5" ht="14.25" spans="1:229">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -3203,7 +3416,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -3248,7 +3461,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -3287,7 +3500,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -3323,13 +3536,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -3365,13 +3578,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -3407,13 +3620,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -3449,16 +3662,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="EP5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3494,13 +3707,13 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
       </c>
       <c r="FF5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG5">
         <v>0.3</v>
@@ -3538,35 +3751,35 @@
       <c r="FR5">
         <v>0.0001</v>
       </c>
-      <c r="FS5" t="s">
-        <v>52</v>
-      </c>
-      <c r="FT5">
+      <c r="FS5">
+        <v>0.9</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>56</v>
+      </c>
+      <c r="FU5">
         <v>0.7172</v>
       </c>
-      <c r="FW5" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX5">
+      <c r="FX5" t="s">
+        <v>35</v>
+      </c>
+      <c r="FY5">
         <v>0.25</v>
       </c>
-      <c r="FY5" s="11">
+      <c r="FZ5" s="11">
         <v>0.003</v>
       </c>
-      <c r="FZ5">
-        <v>0.1</v>
-      </c>
       <c r="GA5">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GB5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GC5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GD5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GE5">
         <v>1</v>
@@ -3574,16 +3787,67 @@
       <c r="GF5">
         <v>1</v>
       </c>
-      <c r="GJ5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="GK5" s="7">
+      <c r="GG5">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="GL5" s="7">
         <v>0.705</v>
       </c>
+      <c r="HF5" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG5">
+        <v>0.25</v>
+      </c>
+      <c r="HH5" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI5">
+        <v>0.1</v>
+      </c>
+      <c r="HJ5">
+        <v>16</v>
+      </c>
+      <c r="HK5">
+        <v>2</v>
+      </c>
+      <c r="HL5">
+        <v>10</v>
+      </c>
+      <c r="HM5">
+        <v>1</v>
+      </c>
+      <c r="HN5">
+        <v>1</v>
+      </c>
+      <c r="HO5">
+        <v>1</v>
+      </c>
+      <c r="HP5">
+        <v>0.2</v>
+      </c>
+      <c r="HQ5">
+        <v>0.12</v>
+      </c>
+      <c r="HR5">
+        <v>0.2</v>
+      </c>
+      <c r="HS5">
+        <v>0.8</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>58</v>
+      </c>
+      <c r="HU5" s="7">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="6" spans="23:193">
+    <row r="6" spans="23:229">
       <c r="W6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3628,7 +3892,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -3667,7 +3931,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -3703,13 +3967,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -3745,13 +4009,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -3787,13 +4051,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -3829,13 +4093,13 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
       </c>
       <c r="FF6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG6">
         <v>0.3</v>
@@ -3873,35 +4137,35 @@
       <c r="FR6">
         <v>0.0001</v>
       </c>
-      <c r="FS6" t="s">
-        <v>58</v>
-      </c>
-      <c r="FT6">
+      <c r="FS6">
+        <v>0.9</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>63</v>
+      </c>
+      <c r="FU6">
         <v>0.7095</v>
       </c>
-      <c r="FW6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FX6">
+      <c r="FX6" t="s">
+        <v>35</v>
+      </c>
+      <c r="FY6">
         <v>0.25</v>
       </c>
-      <c r="FY6" s="11">
+      <c r="FZ6" s="11">
         <v>0.02</v>
       </c>
-      <c r="FZ6">
-        <v>0.1</v>
-      </c>
       <c r="GA6">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GB6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GC6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GD6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GE6">
         <v>1</v>
@@ -3909,16 +4173,67 @@
       <c r="GF6">
         <v>1</v>
       </c>
-      <c r="GJ6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="GK6">
+      <c r="GG6">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="GL6">
         <v>0.6841</v>
       </c>
+      <c r="HF6" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG6">
+        <v>0.25</v>
+      </c>
+      <c r="HH6" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI6">
+        <v>0.1</v>
+      </c>
+      <c r="HJ6">
+        <v>16</v>
+      </c>
+      <c r="HK6">
+        <v>2</v>
+      </c>
+      <c r="HL6">
+        <v>10</v>
+      </c>
+      <c r="HM6">
+        <v>1</v>
+      </c>
+      <c r="HN6">
+        <v>1</v>
+      </c>
+      <c r="HO6">
+        <v>1</v>
+      </c>
+      <c r="HP6">
+        <v>0.2</v>
+      </c>
+      <c r="HQ6">
+        <v>0.12</v>
+      </c>
+      <c r="HR6">
+        <v>0.2</v>
+      </c>
+      <c r="HS6">
+        <v>0.8</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>65</v>
+      </c>
+      <c r="HU6">
+        <v>0.7261</v>
+      </c>
     </row>
-    <row r="7" spans="23:176">
+    <row r="7" spans="23:229">
       <c r="W7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -3963,7 +4278,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -4002,7 +4317,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -4038,13 +4353,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -4080,13 +4395,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -4122,13 +4437,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -4164,13 +4479,13 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
       </c>
       <c r="FF7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG7">
         <v>0.3</v>
@@ -4208,16 +4523,67 @@
       <c r="FR7">
         <v>1e-5</v>
       </c>
-      <c r="FS7" t="s">
-        <v>64</v>
-      </c>
-      <c r="FT7">
+      <c r="FS7">
+        <v>0.9</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>70</v>
+      </c>
+      <c r="FU7">
         <v>0.7065</v>
       </c>
+      <c r="HF7" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG7">
+        <v>0.25</v>
+      </c>
+      <c r="HH7" s="11">
+        <v>0.0025</v>
+      </c>
+      <c r="HI7">
+        <v>0.1</v>
+      </c>
+      <c r="HJ7">
+        <v>16</v>
+      </c>
+      <c r="HK7">
+        <v>2</v>
+      </c>
+      <c r="HL7">
+        <v>10</v>
+      </c>
+      <c r="HM7">
+        <v>1</v>
+      </c>
+      <c r="HN7">
+        <v>1</v>
+      </c>
+      <c r="HO7">
+        <v>1</v>
+      </c>
+      <c r="HP7">
+        <v>0.2</v>
+      </c>
+      <c r="HQ7">
+        <v>0.12</v>
+      </c>
+      <c r="HR7">
+        <v>0.2</v>
+      </c>
+      <c r="HS7">
+        <v>0.8</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>71</v>
+      </c>
+      <c r="HU7">
+        <v>0.7191</v>
+      </c>
     </row>
-    <row r="8" spans="23:176">
+    <row r="8" spans="23:229">
       <c r="W8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -4262,7 +4628,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -4301,7 +4667,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -4337,13 +4703,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -4379,13 +4745,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -4421,13 +4787,13 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
       </c>
       <c r="FF8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG8">
         <v>0.3</v>
@@ -4465,16 +4831,67 @@
       <c r="FR8">
         <v>0.001</v>
       </c>
-      <c r="FS8" t="s">
-        <v>68</v>
-      </c>
-      <c r="FT8">
+      <c r="FS8">
+        <v>0.9</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="FU8">
         <v>0.7033</v>
       </c>
+      <c r="HF8" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG8">
+        <v>0.25</v>
+      </c>
+      <c r="HH8" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI8">
+        <v>0.1</v>
+      </c>
+      <c r="HJ8">
+        <v>16</v>
+      </c>
+      <c r="HK8">
+        <v>2</v>
+      </c>
+      <c r="HL8">
+        <v>15</v>
+      </c>
+      <c r="HM8">
+        <v>1</v>
+      </c>
+      <c r="HN8">
+        <v>1</v>
+      </c>
+      <c r="HO8">
+        <v>1</v>
+      </c>
+      <c r="HP8">
+        <v>0.2</v>
+      </c>
+      <c r="HQ8">
+        <v>0.12</v>
+      </c>
+      <c r="HR8">
+        <v>0.2</v>
+      </c>
+      <c r="HS8">
+        <v>0.8</v>
+      </c>
+      <c r="HT8" t="s">
+        <v>76</v>
+      </c>
+      <c r="HU8">
+        <v>0.7166</v>
+      </c>
     </row>
-    <row r="9" spans="23:176">
+    <row r="9" spans="23:229">
       <c r="W9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -4519,7 +4936,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -4555,13 +4972,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -4597,7 +5014,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -4633,13 +5050,13 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
       </c>
       <c r="FF9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG9">
         <v>0.5</v>
@@ -4677,16 +5094,67 @@
       <c r="FR9">
         <v>0.001</v>
       </c>
-      <c r="FS9" t="s">
-        <v>71</v>
-      </c>
-      <c r="FT9">
+      <c r="FS9">
+        <v>0.9</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>79</v>
+      </c>
+      <c r="FU9">
         <v>0.6922</v>
       </c>
+      <c r="HF9" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="HH9" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI9">
+        <v>0.1</v>
+      </c>
+      <c r="HJ9">
+        <v>16</v>
+      </c>
+      <c r="HK9">
+        <v>2</v>
+      </c>
+      <c r="HL9">
+        <v>10</v>
+      </c>
+      <c r="HM9">
+        <v>1</v>
+      </c>
+      <c r="HN9">
+        <v>1</v>
+      </c>
+      <c r="HO9">
+        <v>1</v>
+      </c>
+      <c r="HP9">
+        <v>0.2</v>
+      </c>
+      <c r="HQ9">
+        <v>0.12</v>
+      </c>
+      <c r="HR9">
+        <v>0.2</v>
+      </c>
+      <c r="HS9">
+        <v>0.8</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>80</v>
+      </c>
+      <c r="HU9">
+        <v>0.7142</v>
+      </c>
     </row>
-    <row r="10" spans="23:176">
+    <row r="10" spans="23:229">
       <c r="W10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -4728,10 +5196,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -4767,13 +5235,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -4809,13 +5277,13 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
       </c>
       <c r="FF10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FG10">
         <v>0.3</v>
@@ -4853,16 +5321,67 @@
       <c r="FR10">
         <v>0</v>
       </c>
-      <c r="FS10" t="s">
-        <v>75</v>
-      </c>
-      <c r="FT10">
+      <c r="FS10">
+        <v>0.9</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>84</v>
+      </c>
+      <c r="FU10">
         <v>0.7077</v>
       </c>
+      <c r="HF10" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG10" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="HH10" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI10">
+        <v>0.1</v>
+      </c>
+      <c r="HJ10">
+        <v>16</v>
+      </c>
+      <c r="HK10">
+        <v>2</v>
+      </c>
+      <c r="HL10">
+        <v>10</v>
+      </c>
+      <c r="HM10">
+        <v>1</v>
+      </c>
+      <c r="HN10">
+        <v>1</v>
+      </c>
+      <c r="HO10">
+        <v>1</v>
+      </c>
+      <c r="HP10">
+        <v>0.2</v>
+      </c>
+      <c r="HQ10">
+        <v>0.12</v>
+      </c>
+      <c r="HR10">
+        <v>0.2</v>
+      </c>
+      <c r="HS10">
+        <v>0.8</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>46</v>
+      </c>
+      <c r="HU10">
+        <v>0.7179</v>
+      </c>
     </row>
-    <row r="11" spans="23:159">
+    <row r="11" spans="23:229">
       <c r="W11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -4907,7 +5426,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -4943,13 +5462,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -4985,15 +5504,63 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
       </c>
+      <c r="HF11" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="HH11" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="HI11">
+        <v>0.1</v>
+      </c>
+      <c r="HJ11">
+        <v>16</v>
+      </c>
+      <c r="HK11">
+        <v>2</v>
+      </c>
+      <c r="HL11">
+        <v>10</v>
+      </c>
+      <c r="HM11">
+        <v>1</v>
+      </c>
+      <c r="HN11">
+        <v>1</v>
+      </c>
+      <c r="HO11">
+        <v>1</v>
+      </c>
+      <c r="HP11">
+        <v>0.2</v>
+      </c>
+      <c r="HQ11">
+        <v>0.12</v>
+      </c>
+      <c r="HR11">
+        <v>0.2</v>
+      </c>
+      <c r="HS11">
+        <v>0.8</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>86</v>
+      </c>
+      <c r="HU11">
+        <v>0.7165</v>
+      </c>
     </row>
-    <row r="12" spans="23:159">
+    <row r="12" spans="23:229">
       <c r="W12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -5038,7 +5605,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -5074,13 +5641,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -5116,15 +5683,63 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
       </c>
+      <c r="HF12" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="HH12" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="HI12">
+        <v>0.1</v>
+      </c>
+      <c r="HJ12">
+        <v>16</v>
+      </c>
+      <c r="HK12">
+        <v>2</v>
+      </c>
+      <c r="HL12">
+        <v>10</v>
+      </c>
+      <c r="HM12">
+        <v>1</v>
+      </c>
+      <c r="HN12">
+        <v>1</v>
+      </c>
+      <c r="HO12">
+        <v>1</v>
+      </c>
+      <c r="HP12">
+        <v>0.2</v>
+      </c>
+      <c r="HQ12">
+        <v>0.12</v>
+      </c>
+      <c r="HR12">
+        <v>0.2</v>
+      </c>
+      <c r="HS12">
+        <v>0.8</v>
+      </c>
+      <c r="HT12" t="s">
+        <v>89</v>
+      </c>
+      <c r="HU12">
+        <v>0.7104</v>
+      </c>
     </row>
-    <row r="13" spans="23:159">
+    <row r="13" spans="23:227">
       <c r="W13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -5169,7 +5784,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -5205,16 +5820,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="EP13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -5250,15 +5865,57 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
+      </c>
+      <c r="HF13" t="s">
+        <v>35</v>
+      </c>
+      <c r="HG13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="HH13" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="HI13">
+        <v>0.1</v>
+      </c>
+      <c r="HJ13">
+        <v>16</v>
+      </c>
+      <c r="HK13">
+        <v>2</v>
+      </c>
+      <c r="HL13">
+        <v>10</v>
+      </c>
+      <c r="HM13">
+        <v>1</v>
+      </c>
+      <c r="HN13">
+        <v>1</v>
+      </c>
+      <c r="HO13">
+        <v>1</v>
+      </c>
+      <c r="HP13">
+        <v>0.2</v>
+      </c>
+      <c r="HQ13">
+        <v>0.12</v>
+      </c>
+      <c r="HR13">
+        <v>0.2</v>
+      </c>
+      <c r="HS13">
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="23:159">
       <c r="W14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -5303,7 +5960,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -5339,13 +5996,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -5381,7 +6038,7 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
@@ -5389,7 +6046,7 @@
     </row>
     <row r="15" spans="23:159">
       <c r="W15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -5434,7 +6091,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -5470,13 +6127,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -5512,7 +6169,7 @@
         <v>0.12</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="FC15">
         <v>0.7274</v>
@@ -5520,7 +6177,7 @@
     </row>
     <row r="16" spans="23:159">
       <c r="W16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -5565,7 +6222,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -5601,13 +6258,13 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
       <c r="EP16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ16">
         <v>0.3</v>
@@ -5643,7 +6300,7 @@
         <v>0.12</v>
       </c>
       <c r="FB16" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="FC16">
         <v>0.7217</v>
@@ -5651,7 +6308,7 @@
     </row>
     <row r="17" spans="23:159">
       <c r="W17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -5696,7 +6353,7 @@
         <v>0.7209</v>
       </c>
       <c r="EP17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ17">
         <v>0.3</v>
@@ -5732,7 +6389,7 @@
         <v>0.12</v>
       </c>
       <c r="FB17" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="FC17">
         <v>0.7184</v>
@@ -5740,7 +6397,7 @@
     </row>
     <row r="18" spans="23:159">
       <c r="W18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -5785,7 +6442,7 @@
         <v>0.7158</v>
       </c>
       <c r="EP18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ18">
         <v>0.3</v>
@@ -5821,7 +6478,7 @@
         <v>0.12</v>
       </c>
       <c r="FB18" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="FC18">
         <v>0.7232</v>
@@ -5829,7 +6486,7 @@
     </row>
     <row r="19" spans="23:159">
       <c r="W19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -5874,7 +6531,7 @@
         <v>0.7243</v>
       </c>
       <c r="EP19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ19">
         <v>0.3</v>
@@ -5910,7 +6567,7 @@
         <v>0.12</v>
       </c>
       <c r="FB19" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="FC19">
         <v>0.7176</v>
@@ -5918,7 +6575,7 @@
     </row>
     <row r="20" spans="23:159">
       <c r="W20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -5963,7 +6620,7 @@
         <v>0.7191</v>
       </c>
       <c r="EP20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ20">
         <v>0.35</v>
@@ -5999,7 +6656,7 @@
         <v>0.12</v>
       </c>
       <c r="FB20" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="FC20">
         <v>0.7282</v>
@@ -6007,7 +6664,7 @@
     </row>
     <row r="21" spans="23:159">
       <c r="W21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -6052,7 +6709,7 @@
         <v>0.72</v>
       </c>
       <c r="EP21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ21">
         <v>0.4</v>
@@ -6088,7 +6745,7 @@
         <v>0.12</v>
       </c>
       <c r="FB21" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="FC21">
         <v>0.7256</v>
@@ -6096,7 +6753,7 @@
     </row>
     <row r="22" spans="23:160">
       <c r="W22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -6141,7 +6798,7 @@
         <v>0.7237</v>
       </c>
       <c r="EP22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EQ22">
         <v>0.25</v>
@@ -6177,12 +6834,12 @@
         <v>0.12</v>
       </c>
       <c r="FD22" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="23:36">
       <c r="W23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -6225,7 +6882,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -6237,9 +6894,10 @@
     <mergeCell ref="DJ1:DW1"/>
     <mergeCell ref="DZ1:EM1"/>
     <mergeCell ref="EP1:FD1"/>
-    <mergeCell ref="FF1:FU1"/>
-    <mergeCell ref="FW1:GL1"/>
-    <mergeCell ref="GN1:HC1"/>
+    <mergeCell ref="FF1:FV1"/>
+    <mergeCell ref="FX1:GM1"/>
+    <mergeCell ref="GO1:HD1"/>
+    <mergeCell ref="HF1:HV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="130">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -139,6 +139,9 @@
     <t>指数移动平均指数decay</t>
   </si>
   <si>
+    <t>n_batch</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>24/184</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>19/103</t>
   </si>
   <si>
@@ -313,31 +319,100 @@
     <t>12/162</t>
   </si>
   <si>
+    <t>10/46</t>
+  </si>
+  <si>
     <t>11/57</t>
   </si>
   <si>
     <t>27/34</t>
   </si>
   <si>
+    <t>10/22</t>
+  </si>
+  <si>
     <t>6/17</t>
   </si>
   <si>
     <t>23/41</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9/21</t>
+  </si>
+  <si>
+    <t>0.7037</t>
+  </si>
+  <si>
     <t>17/32</t>
   </si>
   <si>
     <t>16/39</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>26/31</t>
+  </si>
+  <si>
+    <t>0.7126</t>
+  </si>
+  <si>
     <t>19/173</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>35/36</t>
+  </si>
+  <si>
+    <t>0.7115</t>
+  </si>
+  <si>
     <t>18/43</t>
   </si>
   <si>
+    <t>0.7178</t>
+  </si>
+  <si>
     <t>29/74</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
   <si>
     <t>50/49</t>
@@ -971,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,9 +1081,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,10 +1394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:HV23"/>
+  <dimension ref="A1:HX40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="GT1" workbookViewId="0">
-      <selection activeCell="HF15" sqref="HF15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="GY1" workbookViewId="0">
+      <selection activeCell="HR27" sqref="HR27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1424,10 +1496,25 @@
     <col min="182" max="182" width="9.375"/>
     <col min="193" max="193" width="9.125" style="1"/>
     <col min="199" max="199" width="9.375"/>
-    <col min="216" max="216" width="9.375"/>
+    <col min="214" max="214" width="6.375" customWidth="1"/>
+    <col min="215" max="215" width="10.375" customWidth="1"/>
+    <col min="216" max="216" width="8.375" customWidth="1"/>
+    <col min="217" max="217" width="6.375" customWidth="1"/>
+    <col min="218" max="218" width="8.375" customWidth="1"/>
+    <col min="219" max="219" width="5.375" customWidth="1"/>
+    <col min="220" max="221" width="6.375" customWidth="1"/>
+    <col min="222" max="222" width="9.375" customWidth="1"/>
+    <col min="223" max="223" width="14.875" customWidth="1"/>
+    <col min="224" max="224" width="16" customWidth="1"/>
+    <col min="225" max="225" width="18.25" customWidth="1"/>
+    <col min="226" max="226" width="13.75" customWidth="1"/>
+    <col min="227" max="227" width="11.25" customWidth="1"/>
+    <col min="228" max="228" width="22.625" customWidth="1"/>
+    <col min="229" max="229" width="18.25" customWidth="1"/>
+    <col min="230" max="230" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:230">
+    <row r="1" spans="1:231">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1665,13 +1752,14 @@
       <c r="HO1" s="2"/>
       <c r="HP1" s="2"/>
       <c r="HQ1" s="2"/>
-      <c r="HR1" s="9"/>
+      <c r="HR1" s="2"/>
       <c r="HS1" s="9"/>
       <c r="HT1" s="9"/>
-      <c r="HU1" s="2"/>
+      <c r="HU1" s="9"/>
       <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:230">
+    <row r="2" ht="14.25" spans="1:232">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2266,61 +2354,65 @@
       <c r="HD2" t="s">
         <v>32</v>
       </c>
-      <c r="HF2" s="3" t="s">
+      <c r="HF2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="HH2" s="3" t="s">
+      <c r="HG2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="HH2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" s="3" t="s">
+      <c r="HI2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" s="3" t="s">
+      <c r="HJ2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="HK2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" s="3" t="s">
+      <c r="HL2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" s="3" t="s">
+      <c r="HM2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" s="3" t="s">
+      <c r="HN2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="HN2" s="3" t="s">
+      <c r="HO2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="HO2" s="3" t="s">
+      <c r="HP2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="HP2" s="3" t="s">
+      <c r="HQ2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="HQ2" s="3" t="s">
+      <c r="HR2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="HR2" s="1" t="s">
+      <c r="HS2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="HS2" s="1" t="s">
+      <c r="HT2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="HT2" s="1" t="s">
+      <c r="HU2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="HV2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="HW2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="HX2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:229">
+    <row r="3" ht="14.25" spans="1:232">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -2347,7 +2439,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -2377,7 +2469,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2422,7 +2514,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2461,7 +2553,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2500,7 +2592,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2536,13 +2628,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2578,13 +2670,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2623,7 +2715,7 @@
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2659,13 +2751,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2701,13 +2793,13 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
       <c r="FF3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG3">
         <v>0.3</v>
@@ -2749,13 +2841,13 @@
         <v>0.9</v>
       </c>
       <c r="FT3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="FU3">
         <v>0.7142</v>
       </c>
       <c r="FX3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FY3">
         <v>0.25</v>
@@ -2785,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="GL3">
         <v>0.7041</v>
       </c>
       <c r="GO3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="GP3">
         <v>0.25</v>
@@ -2820,58 +2912,63 @@
       <c r="GX3">
         <v>1</v>
       </c>
-      <c r="HF3" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG3">
+      <c r="HF3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG3" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH3" s="11">
+      <c r="HH3" s="1">
         <v>0.001</v>
       </c>
-      <c r="HI3">
-        <v>0.1</v>
-      </c>
-      <c r="HJ3">
-        <v>16</v>
-      </c>
-      <c r="HK3">
-        <v>2</v>
-      </c>
-      <c r="HL3">
-        <v>10</v>
-      </c>
-      <c r="HM3">
-        <v>1</v>
-      </c>
-      <c r="HN3">
-        <v>1</v>
-      </c>
-      <c r="HO3">
-        <v>1</v>
-      </c>
-      <c r="HP3">
-        <v>0.2</v>
-      </c>
-      <c r="HQ3">
+      <c r="HI3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK3" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM3" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR3" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR3">
-        <v>1</v>
-      </c>
-      <c r="HS3">
+      <c r="HS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="HT3" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT3" t="s">
-        <v>42</v>
-      </c>
-      <c r="HU3">
+      <c r="HU3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="HV3" s="1">
         <v>0.6957</v>
       </c>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:229">
+    <row r="4" ht="14.25" spans="1:232">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2898,7 +2995,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -2925,7 +3022,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -2970,7 +3067,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -3009,7 +3106,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -3048,7 +3145,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -3084,13 +3181,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -3129,7 +3226,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -3165,13 +3262,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -3207,13 +3304,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -3249,13 +3346,13 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
       </c>
       <c r="FF4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG4">
         <v>0.3</v>
@@ -3297,13 +3394,13 @@
         <v>0.9</v>
       </c>
       <c r="FT4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="FU4">
         <v>0.7118</v>
       </c>
       <c r="FX4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FY4">
         <v>0.25</v>
@@ -3333,63 +3430,68 @@
         <v>1</v>
       </c>
       <c r="GK4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="GL4">
         <v>0.6975</v>
       </c>
-      <c r="HF4" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG4">
+      <c r="HF4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG4" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH4" s="11">
+      <c r="HH4" s="1">
         <v>0.001</v>
       </c>
-      <c r="HI4">
-        <v>0.1</v>
-      </c>
-      <c r="HJ4">
-        <v>16</v>
-      </c>
-      <c r="HK4">
-        <v>2</v>
-      </c>
-      <c r="HL4">
-        <v>10</v>
-      </c>
-      <c r="HM4">
-        <v>1</v>
-      </c>
-      <c r="HN4">
-        <v>1</v>
-      </c>
-      <c r="HO4">
-        <v>1</v>
-      </c>
-      <c r="HP4">
-        <v>0.2</v>
-      </c>
-      <c r="HQ4">
+      <c r="HI4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK4" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL4" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM4" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR4" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR4">
-        <v>0.2</v>
-      </c>
-      <c r="HS4">
+      <c r="HS4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT4" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT4" t="s">
-        <v>49</v>
-      </c>
-      <c r="HU4">
+      <c r="HU4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HV4" s="1">
         <v>0.7096</v>
       </c>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
     </row>
-    <row r="5" ht="14.25" spans="1:229">
+    <row r="5" ht="14.25" spans="1:232">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -3416,7 +3518,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -3461,7 +3563,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -3500,7 +3602,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -3536,13 +3638,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -3578,13 +3680,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -3620,13 +3722,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -3662,16 +3764,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="EP5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3707,13 +3809,13 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
       </c>
       <c r="FF5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG5">
         <v>0.3</v>
@@ -3755,13 +3857,13 @@
         <v>0.9</v>
       </c>
       <c r="FT5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="FU5">
         <v>0.7172</v>
       </c>
       <c r="FX5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FY5">
         <v>0.25</v>
@@ -3791,63 +3893,68 @@
         <v>1</v>
       </c>
       <c r="GK5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="GL5" s="7">
         <v>0.705</v>
       </c>
-      <c r="HF5" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG5">
+      <c r="HF5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG5" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH5" s="11">
+      <c r="HH5" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI5">
-        <v>0.1</v>
-      </c>
-      <c r="HJ5">
-        <v>16</v>
-      </c>
-      <c r="HK5">
-        <v>2</v>
-      </c>
-      <c r="HL5">
-        <v>10</v>
-      </c>
-      <c r="HM5">
-        <v>1</v>
-      </c>
-      <c r="HN5">
-        <v>1</v>
-      </c>
-      <c r="HO5">
-        <v>1</v>
-      </c>
-      <c r="HP5">
-        <v>0.2</v>
-      </c>
-      <c r="HQ5">
+      <c r="HI5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK5" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM5" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR5" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR5">
-        <v>0.2</v>
-      </c>
-      <c r="HS5">
+      <c r="HS5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT5" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT5" t="s">
-        <v>58</v>
-      </c>
-      <c r="HU5" s="7">
+      <c r="HU5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="HV5" s="1">
         <v>0.72</v>
       </c>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
     </row>
-    <row r="6" spans="23:229">
+    <row r="6" spans="23:232">
       <c r="W6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3892,7 +3999,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -3931,7 +4038,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -3967,13 +4074,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -4009,13 +4116,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -4051,13 +4158,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -4093,13 +4200,13 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
       </c>
       <c r="FF6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG6">
         <v>0.3</v>
@@ -4141,13 +4248,13 @@
         <v>0.9</v>
       </c>
       <c r="FT6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="FU6">
         <v>0.7095</v>
       </c>
       <c r="FX6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FY6">
         <v>0.25</v>
@@ -4177,63 +4284,68 @@
         <v>1</v>
       </c>
       <c r="GK6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="GL6">
         <v>0.6841</v>
       </c>
-      <c r="HF6" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG6">
+      <c r="HF6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG6" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH6" s="11">
+      <c r="HH6" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI6">
-        <v>0.1</v>
-      </c>
-      <c r="HJ6">
-        <v>16</v>
-      </c>
-      <c r="HK6">
-        <v>2</v>
-      </c>
-      <c r="HL6">
-        <v>10</v>
-      </c>
-      <c r="HM6">
-        <v>1</v>
-      </c>
-      <c r="HN6">
-        <v>1</v>
-      </c>
-      <c r="HO6">
-        <v>1</v>
-      </c>
-      <c r="HP6">
-        <v>0.2</v>
-      </c>
-      <c r="HQ6">
+      <c r="HI6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK6" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL6" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM6" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR6" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR6">
-        <v>0.2</v>
-      </c>
-      <c r="HS6">
+      <c r="HS6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT6" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT6" t="s">
-        <v>65</v>
-      </c>
-      <c r="HU6">
+      <c r="HU6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="HV6" s="1">
         <v>0.7261</v>
       </c>
+      <c r="HW6" s="1"/>
+      <c r="HX6" s="1"/>
     </row>
-    <row r="7" spans="23:229">
+    <row r="7" spans="23:232">
       <c r="W7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -4278,7 +4390,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -4317,7 +4429,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -4353,13 +4465,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -4395,13 +4507,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -4437,13 +4549,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -4479,13 +4591,13 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
       </c>
       <c r="FF7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG7">
         <v>0.3</v>
@@ -4527,63 +4639,68 @@
         <v>0.9</v>
       </c>
       <c r="FT7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="FU7">
         <v>0.7065</v>
       </c>
-      <c r="HF7" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG7">
+      <c r="HF7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG7" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH7" s="11">
+      <c r="HH7" s="1">
         <v>0.0025</v>
       </c>
-      <c r="HI7">
-        <v>0.1</v>
-      </c>
-      <c r="HJ7">
-        <v>16</v>
-      </c>
-      <c r="HK7">
-        <v>2</v>
-      </c>
-      <c r="HL7">
-        <v>10</v>
-      </c>
-      <c r="HM7">
-        <v>1</v>
-      </c>
-      <c r="HN7">
-        <v>1</v>
-      </c>
-      <c r="HO7">
-        <v>1</v>
-      </c>
-      <c r="HP7">
-        <v>0.2</v>
-      </c>
-      <c r="HQ7">
+      <c r="HI7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK7" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL7" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM7" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR7" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR7">
-        <v>0.2</v>
-      </c>
-      <c r="HS7">
+      <c r="HS7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT7" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT7" t="s">
-        <v>71</v>
-      </c>
-      <c r="HU7">
+      <c r="HU7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="HV7" s="1">
         <v>0.7191</v>
       </c>
+      <c r="HW7" s="1"/>
+      <c r="HX7" s="1"/>
     </row>
-    <row r="8" spans="23:229">
+    <row r="8" spans="23:232">
       <c r="W8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -4628,7 +4745,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -4667,7 +4784,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -4703,13 +4820,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -4745,13 +4862,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -4787,13 +4904,13 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
       </c>
       <c r="FF8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG8">
         <v>0.3</v>
@@ -4835,63 +4952,68 @@
         <v>0.9</v>
       </c>
       <c r="FT8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="FU8">
         <v>0.7033</v>
       </c>
-      <c r="HF8" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG8">
+      <c r="HF8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG8" s="1">
         <v>0.25</v>
       </c>
-      <c r="HH8" s="11">
+      <c r="HH8" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI8">
-        <v>0.1</v>
-      </c>
-      <c r="HJ8">
-        <v>16</v>
-      </c>
-      <c r="HK8">
-        <v>2</v>
-      </c>
-      <c r="HL8">
+      <c r="HI8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK8" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL8" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM8" s="1">
         <v>15</v>
       </c>
-      <c r="HM8">
-        <v>1</v>
-      </c>
-      <c r="HN8">
-        <v>1</v>
-      </c>
-      <c r="HO8">
-        <v>1</v>
-      </c>
-      <c r="HP8">
-        <v>0.2</v>
-      </c>
-      <c r="HQ8">
+      <c r="HN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR8" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR8">
-        <v>0.2</v>
-      </c>
-      <c r="HS8">
+      <c r="HS8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT8" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT8" t="s">
-        <v>76</v>
-      </c>
-      <c r="HU8">
+      <c r="HU8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="HV8" s="1">
         <v>0.7166</v>
       </c>
+      <c r="HW8" s="1"/>
+      <c r="HX8" s="1"/>
     </row>
-    <row r="9" spans="23:229">
+    <row r="9" spans="23:232">
       <c r="W9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -4936,7 +5058,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -4972,13 +5094,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -5014,7 +5136,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -5050,13 +5172,13 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
       </c>
       <c r="FF9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG9">
         <v>0.5</v>
@@ -5098,63 +5220,68 @@
         <v>0.9</v>
       </c>
       <c r="FT9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="FU9">
         <v>0.6922</v>
       </c>
-      <c r="HF9" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG9" s="12">
+      <c r="HF9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG9" s="1">
         <v>0.3</v>
       </c>
-      <c r="HH9" s="11">
+      <c r="HH9" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI9">
-        <v>0.1</v>
-      </c>
-      <c r="HJ9">
-        <v>16</v>
-      </c>
-      <c r="HK9">
-        <v>2</v>
-      </c>
-      <c r="HL9">
-        <v>10</v>
-      </c>
-      <c r="HM9">
-        <v>1</v>
-      </c>
-      <c r="HN9">
-        <v>1</v>
-      </c>
-      <c r="HO9">
-        <v>1</v>
-      </c>
-      <c r="HP9">
-        <v>0.2</v>
-      </c>
-      <c r="HQ9">
+      <c r="HI9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK9" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL9" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM9" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR9" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR9">
-        <v>0.2</v>
-      </c>
-      <c r="HS9">
+      <c r="HS9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT9" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT9" t="s">
-        <v>80</v>
-      </c>
-      <c r="HU9">
+      <c r="HU9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="HV9" s="1">
         <v>0.7142</v>
       </c>
+      <c r="HW9" s="1"/>
+      <c r="HX9" s="1"/>
     </row>
-    <row r="10" spans="23:229">
+    <row r="10" spans="23:232">
       <c r="W10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -5196,10 +5323,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -5235,13 +5362,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -5277,13 +5404,13 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
       </c>
       <c r="FF10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="FG10">
         <v>0.3</v>
@@ -5325,63 +5452,68 @@
         <v>0.9</v>
       </c>
       <c r="FT10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="FU10">
         <v>0.7077</v>
       </c>
-      <c r="HF10" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG10" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="HH10" s="11">
+      <c r="HF10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HH10" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI10">
-        <v>0.1</v>
-      </c>
-      <c r="HJ10">
-        <v>16</v>
-      </c>
-      <c r="HK10">
-        <v>2</v>
-      </c>
-      <c r="HL10">
-        <v>10</v>
-      </c>
-      <c r="HM10">
-        <v>1</v>
-      </c>
-      <c r="HN10">
-        <v>1</v>
-      </c>
-      <c r="HO10">
-        <v>1</v>
-      </c>
-      <c r="HP10">
-        <v>0.2</v>
-      </c>
-      <c r="HQ10">
+      <c r="HI10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK10" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL10" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM10" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR10" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR10">
-        <v>0.2</v>
-      </c>
-      <c r="HS10">
+      <c r="HS10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT10" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT10" t="s">
-        <v>46</v>
-      </c>
-      <c r="HU10">
+      <c r="HU10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="HV10" s="1">
         <v>0.7179</v>
       </c>
+      <c r="HW10" s="1"/>
+      <c r="HX10" s="1"/>
     </row>
-    <row r="11" spans="23:229">
+    <row r="11" spans="23:232">
       <c r="W11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -5426,7 +5558,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -5462,13 +5594,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -5504,63 +5636,68 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
       </c>
-      <c r="HF11" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="HH11" s="11">
+      <c r="HF11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HH11" s="1">
         <v>0.001</v>
       </c>
-      <c r="HI11">
-        <v>0.1</v>
-      </c>
-      <c r="HJ11">
-        <v>16</v>
-      </c>
-      <c r="HK11">
-        <v>2</v>
-      </c>
-      <c r="HL11">
-        <v>10</v>
-      </c>
-      <c r="HM11">
-        <v>1</v>
-      </c>
-      <c r="HN11">
-        <v>1</v>
-      </c>
-      <c r="HO11">
-        <v>1</v>
-      </c>
-      <c r="HP11">
-        <v>0.2</v>
-      </c>
-      <c r="HQ11">
+      <c r="HI11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK11" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL11" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM11" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR11" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR11">
-        <v>0.2</v>
-      </c>
-      <c r="HS11">
+      <c r="HS11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT11" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT11" t="s">
-        <v>86</v>
-      </c>
-      <c r="HU11">
+      <c r="HU11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="HV11" s="1">
         <v>0.7165</v>
       </c>
+      <c r="HW11" s="1"/>
+      <c r="HX11" s="1"/>
     </row>
-    <row r="12" spans="23:229">
+    <row r="12" spans="23:232">
       <c r="W12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -5605,7 +5742,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -5641,13 +5778,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -5683,63 +5820,68 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
       </c>
-      <c r="HF12" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG12" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="HH12" s="11">
+      <c r="HF12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HH12" s="1">
         <v>0.001</v>
       </c>
-      <c r="HI12">
-        <v>0.1</v>
-      </c>
-      <c r="HJ12">
-        <v>16</v>
-      </c>
-      <c r="HK12">
-        <v>2</v>
-      </c>
-      <c r="HL12">
-        <v>10</v>
-      </c>
-      <c r="HM12">
-        <v>1</v>
-      </c>
-      <c r="HN12">
-        <v>1</v>
-      </c>
-      <c r="HO12">
-        <v>1</v>
-      </c>
-      <c r="HP12">
-        <v>0.2</v>
-      </c>
-      <c r="HQ12">
+      <c r="HI12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK12" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL12" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM12" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR12" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR12">
-        <v>0.2</v>
-      </c>
-      <c r="HS12">
+      <c r="HS12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT12" s="1">
         <v>0.8</v>
       </c>
-      <c r="HT12" t="s">
-        <v>89</v>
-      </c>
-      <c r="HU12">
+      <c r="HU12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="HV12" s="1">
         <v>0.7104</v>
       </c>
+      <c r="HW12" s="1"/>
+      <c r="HX12" s="1"/>
     </row>
-    <row r="13" spans="23:227">
+    <row r="13" spans="23:232">
       <c r="W13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -5784,7 +5926,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -5820,16 +5962,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="EP13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -5865,57 +6007,68 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
       </c>
-      <c r="HF13" t="s">
-        <v>35</v>
-      </c>
-      <c r="HG13" s="12">
+      <c r="HF13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG13" s="1">
         <v>0.5</v>
       </c>
-      <c r="HH13" s="11">
+      <c r="HH13" s="1">
         <v>0.002</v>
       </c>
-      <c r="HI13">
-        <v>0.1</v>
-      </c>
-      <c r="HJ13">
-        <v>16</v>
-      </c>
-      <c r="HK13">
-        <v>2</v>
-      </c>
-      <c r="HL13">
-        <v>10</v>
-      </c>
-      <c r="HM13">
-        <v>1</v>
-      </c>
-      <c r="HN13">
-        <v>1</v>
-      </c>
-      <c r="HO13">
-        <v>1</v>
-      </c>
-      <c r="HP13">
-        <v>0.2</v>
-      </c>
-      <c r="HQ13">
+      <c r="HI13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK13" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL13" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM13" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR13" s="1">
         <v>0.12</v>
       </c>
-      <c r="HR13">
-        <v>0.2</v>
-      </c>
-      <c r="HS13">
+      <c r="HS13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT13" s="1">
         <v>0.8</v>
       </c>
+      <c r="HU13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="HV13" s="1">
+        <v>0.7004</v>
+      </c>
+      <c r="HW13" s="1"/>
+      <c r="HX13" s="1"/>
     </row>
-    <row r="14" spans="23:159">
+    <row r="14" spans="23:232">
       <c r="W14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -5960,7 +6113,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -5996,13 +6149,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -6038,15 +6191,68 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
       </c>
+      <c r="HF14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="HH14" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="HI14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK14" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL14" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM14" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="HS14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="HU14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="HV14" s="1">
+        <v>0.7054</v>
+      </c>
+      <c r="HW14" s="1"/>
+      <c r="HX14" s="1"/>
     </row>
-    <row r="15" spans="23:159">
+    <row r="15" spans="23:232">
       <c r="W15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -6091,7 +6297,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -6127,13 +6333,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -6169,15 +6375,68 @@
         <v>0.12</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="FC15">
         <v>0.7274</v>
       </c>
+      <c r="HF15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="HH15" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="HI15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK15" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL15" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="HN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="HS15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="HU15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="HV15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="HW15" s="1"/>
+      <c r="HX15" s="1"/>
     </row>
-    <row r="16" spans="23:159">
+    <row r="16" spans="23:232">
       <c r="W16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -6222,7 +6481,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -6258,13 +6517,13 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
       <c r="EP16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ16">
         <v>0.3</v>
@@ -6300,15 +6559,68 @@
         <v>0.12</v>
       </c>
       <c r="FB16" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="FC16">
         <v>0.7217</v>
       </c>
+      <c r="HF16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="HH16" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="HI16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="HL16" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM16" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN16" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP16" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="HS16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="HU16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="HV16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="HW16" s="1"/>
+      <c r="HX16" s="1"/>
     </row>
-    <row r="17" spans="23:159">
+    <row r="17" spans="23:232">
       <c r="W17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -6353,7 +6665,7 @@
         <v>0.7209</v>
       </c>
       <c r="EP17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ17">
         <v>0.3</v>
@@ -6389,15 +6701,68 @@
         <v>0.12</v>
       </c>
       <c r="FB17" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="FC17">
         <v>0.7184</v>
       </c>
+      <c r="HF17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="HH17" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="HI17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="HK17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="HL17" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM17" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="HS17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="HU17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="HV17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="HW17" s="1"/>
+      <c r="HX17" s="1"/>
     </row>
-    <row r="18" spans="23:159">
+    <row r="18" spans="23:232">
       <c r="W18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -6442,7 +6807,7 @@
         <v>0.7158</v>
       </c>
       <c r="EP18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ18">
         <v>0.3</v>
@@ -6478,15 +6843,68 @@
         <v>0.12</v>
       </c>
       <c r="FB18" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="FC18">
         <v>0.7232</v>
       </c>
+      <c r="HF18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HG18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="HH18" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="HI18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HJ18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK18" s="1">
+        <v>16</v>
+      </c>
+      <c r="HL18" s="1">
+        <v>2</v>
+      </c>
+      <c r="HM18" s="1">
+        <v>10</v>
+      </c>
+      <c r="HN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="HO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="HQ18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HR18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="HS18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HT18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="HU18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="HV18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="HW18" s="1"/>
+      <c r="HX18" s="1"/>
     </row>
-    <row r="19" spans="23:159">
+    <row r="19" spans="23:232">
       <c r="W19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -6531,7 +6949,7 @@
         <v>0.7243</v>
       </c>
       <c r="EP19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ19">
         <v>0.3</v>
@@ -6567,15 +6985,64 @@
         <v>0.12</v>
       </c>
       <c r="FB19" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="FC19">
         <v>0.7176</v>
       </c>
+      <c r="HF19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="HG19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="HH19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="HI19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="HJ19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HK19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="HL19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="HM19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="HN19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="HO19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="HP19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="HQ19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="HR19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="HS19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="HT19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="HU19" s="1"/>
+      <c r="HV19" s="1"/>
+      <c r="HW19" s="1"/>
+      <c r="HX19" s="1"/>
     </row>
-    <row r="20" spans="23:159">
+    <row r="20" spans="23:232">
       <c r="W20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -6620,7 +7087,7 @@
         <v>0.7191</v>
       </c>
       <c r="EP20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ20">
         <v>0.35</v>
@@ -6656,15 +7123,34 @@
         <v>0.12</v>
       </c>
       <c r="FB20" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="FC20">
         <v>0.7282</v>
       </c>
+      <c r="HF20" s="1"/>
+      <c r="HG20" s="1"/>
+      <c r="HH20" s="1"/>
+      <c r="HI20" s="1"/>
+      <c r="HJ20" s="1"/>
+      <c r="HK20" s="1"/>
+      <c r="HL20" s="1"/>
+      <c r="HM20" s="1"/>
+      <c r="HN20" s="1"/>
+      <c r="HO20" s="1"/>
+      <c r="HP20" s="1"/>
+      <c r="HQ20" s="1"/>
+      <c r="HR20" s="1"/>
+      <c r="HS20" s="1"/>
+      <c r="HT20" s="1"/>
+      <c r="HU20" s="1"/>
+      <c r="HV20" s="1"/>
+      <c r="HW20" s="1"/>
+      <c r="HX20" s="1"/>
     </row>
-    <row r="21" spans="23:159">
+    <row r="21" spans="23:232">
       <c r="W21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -6709,7 +7195,7 @@
         <v>0.72</v>
       </c>
       <c r="EP21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ21">
         <v>0.4</v>
@@ -6745,15 +7231,34 @@
         <v>0.12</v>
       </c>
       <c r="FB21" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="FC21">
         <v>0.7256</v>
       </c>
+      <c r="HF21" s="1"/>
+      <c r="HG21" s="1"/>
+      <c r="HH21" s="1"/>
+      <c r="HI21" s="1"/>
+      <c r="HJ21" s="1"/>
+      <c r="HK21" s="1"/>
+      <c r="HL21" s="1"/>
+      <c r="HM21" s="1"/>
+      <c r="HN21" s="1"/>
+      <c r="HO21" s="1"/>
+      <c r="HP21" s="1"/>
+      <c r="HQ21" s="1"/>
+      <c r="HR21" s="1"/>
+      <c r="HS21" s="1"/>
+      <c r="HT21" s="1"/>
+      <c r="HU21" s="1"/>
+      <c r="HV21" s="1"/>
+      <c r="HW21" s="1"/>
+      <c r="HX21" s="1"/>
     </row>
-    <row r="22" spans="23:160">
+    <row r="22" spans="23:232">
       <c r="W22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -6798,7 +7303,7 @@
         <v>0.7237</v>
       </c>
       <c r="EP22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="EQ22">
         <v>0.25</v>
@@ -6834,12 +7339,31 @@
         <v>0.12</v>
       </c>
       <c r="FD22" t="s">
-        <v>104</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="HF22" s="1"/>
+      <c r="HG22" s="1"/>
+      <c r="HH22" s="1"/>
+      <c r="HI22" s="1"/>
+      <c r="HJ22" s="1"/>
+      <c r="HK22" s="1"/>
+      <c r="HL22" s="1"/>
+      <c r="HM22" s="1"/>
+      <c r="HN22" s="1"/>
+      <c r="HO22" s="1"/>
+      <c r="HP22" s="1"/>
+      <c r="HQ22" s="1"/>
+      <c r="HR22" s="1"/>
+      <c r="HS22" s="1"/>
+      <c r="HT22" s="1"/>
+      <c r="HU22" s="1"/>
+      <c r="HV22" s="1"/>
+      <c r="HW22" s="1"/>
+      <c r="HX22" s="1"/>
     </row>
-    <row r="23" spans="23:36">
+    <row r="23" spans="23:232">
       <c r="W23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -6880,6 +7404,382 @@
       <c r="AJ23" s="6">
         <v>0.09</v>
       </c>
+      <c r="HF23" s="1"/>
+      <c r="HG23" s="1"/>
+      <c r="HH23" s="1"/>
+      <c r="HI23" s="1"/>
+      <c r="HJ23" s="1"/>
+      <c r="HK23" s="1"/>
+      <c r="HL23" s="1"/>
+      <c r="HM23" s="1"/>
+      <c r="HN23" s="1"/>
+      <c r="HO23" s="1"/>
+      <c r="HP23" s="1"/>
+      <c r="HQ23" s="1"/>
+      <c r="HR23" s="1"/>
+      <c r="HS23" s="1"/>
+      <c r="HT23" s="1"/>
+      <c r="HU23" s="1"/>
+      <c r="HV23" s="1"/>
+      <c r="HW23" s="1"/>
+      <c r="HX23" s="1"/>
+    </row>
+    <row r="24" spans="214:232">
+      <c r="HF24" s="1"/>
+      <c r="HG24" s="1"/>
+      <c r="HH24" s="1"/>
+      <c r="HI24" s="1"/>
+      <c r="HJ24" s="1"/>
+      <c r="HK24" s="1"/>
+      <c r="HL24" s="1"/>
+      <c r="HM24" s="1"/>
+      <c r="HN24" s="1"/>
+      <c r="HO24" s="1"/>
+      <c r="HP24" s="1"/>
+      <c r="HQ24" s="1"/>
+      <c r="HR24" s="1"/>
+      <c r="HS24" s="1"/>
+      <c r="HT24" s="1"/>
+      <c r="HU24" s="1"/>
+      <c r="HV24" s="1"/>
+      <c r="HW24" s="1"/>
+      <c r="HX24" s="1"/>
+    </row>
+    <row r="25" spans="214:232">
+      <c r="HF25" s="1"/>
+      <c r="HG25" s="1"/>
+      <c r="HH25" s="1"/>
+      <c r="HI25" s="1"/>
+      <c r="HJ25" s="1"/>
+      <c r="HK25" s="1"/>
+      <c r="HL25" s="1"/>
+      <c r="HM25" s="1"/>
+      <c r="HN25" s="1"/>
+      <c r="HO25" s="1"/>
+      <c r="HP25" s="1"/>
+      <c r="HQ25" s="1"/>
+      <c r="HR25" s="1"/>
+      <c r="HS25" s="1"/>
+      <c r="HT25" s="1"/>
+      <c r="HU25" s="1"/>
+      <c r="HV25" s="1"/>
+      <c r="HW25" s="1"/>
+      <c r="HX25" s="1"/>
+    </row>
+    <row r="26" spans="214:232">
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="1"/>
+      <c r="HL26" s="1"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="1"/>
+      <c r="HS26" s="1"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+    </row>
+    <row r="27" spans="214:232">
+      <c r="HF27" s="1"/>
+      <c r="HG27" s="1"/>
+      <c r="HH27" s="1"/>
+      <c r="HI27" s="1"/>
+      <c r="HJ27" s="1"/>
+      <c r="HK27" s="1"/>
+      <c r="HL27" s="1"/>
+      <c r="HM27" s="1"/>
+      <c r="HN27" s="1"/>
+      <c r="HO27" s="1"/>
+      <c r="HP27" s="1"/>
+      <c r="HQ27" s="1"/>
+      <c r="HR27" s="1"/>
+      <c r="HS27" s="1"/>
+      <c r="HT27" s="1"/>
+      <c r="HU27" s="1"/>
+      <c r="HV27" s="1"/>
+      <c r="HW27" s="1"/>
+      <c r="HX27" s="1"/>
+    </row>
+    <row r="28" spans="214:232">
+      <c r="HF28" s="1"/>
+      <c r="HG28" s="1"/>
+      <c r="HH28" s="1"/>
+      <c r="HI28" s="1"/>
+      <c r="HJ28" s="1"/>
+      <c r="HK28" s="1"/>
+      <c r="HL28" s="1"/>
+      <c r="HM28" s="1"/>
+      <c r="HN28" s="1"/>
+      <c r="HO28" s="1"/>
+      <c r="HP28" s="1"/>
+      <c r="HQ28" s="1"/>
+      <c r="HR28" s="1"/>
+      <c r="HS28" s="1"/>
+      <c r="HT28" s="1"/>
+      <c r="HU28" s="1"/>
+      <c r="HV28" s="1"/>
+      <c r="HW28" s="1"/>
+      <c r="HX28" s="1"/>
+    </row>
+    <row r="29" spans="214:232">
+      <c r="HF29" s="1"/>
+      <c r="HG29" s="1"/>
+      <c r="HH29" s="1"/>
+      <c r="HI29" s="1"/>
+      <c r="HJ29" s="1"/>
+      <c r="HK29" s="1"/>
+      <c r="HL29" s="1"/>
+      <c r="HM29" s="1"/>
+      <c r="HN29" s="1"/>
+      <c r="HO29" s="1"/>
+      <c r="HP29" s="1"/>
+      <c r="HQ29" s="1"/>
+      <c r="HR29" s="1"/>
+      <c r="HS29" s="1"/>
+      <c r="HT29" s="1"/>
+      <c r="HU29" s="1"/>
+      <c r="HV29" s="1"/>
+      <c r="HW29" s="1"/>
+      <c r="HX29" s="1"/>
+    </row>
+    <row r="30" spans="214:232">
+      <c r="HF30" s="1"/>
+      <c r="HG30" s="1"/>
+      <c r="HH30" s="1"/>
+      <c r="HI30" s="1"/>
+      <c r="HJ30" s="1"/>
+      <c r="HK30" s="1"/>
+      <c r="HL30" s="1"/>
+      <c r="HM30" s="1"/>
+      <c r="HN30" s="1"/>
+      <c r="HO30" s="1"/>
+      <c r="HP30" s="1"/>
+      <c r="HQ30" s="1"/>
+      <c r="HR30" s="1"/>
+      <c r="HS30" s="1"/>
+      <c r="HT30" s="1"/>
+      <c r="HU30" s="1"/>
+      <c r="HV30" s="1"/>
+      <c r="HW30" s="1"/>
+      <c r="HX30" s="1"/>
+    </row>
+    <row r="31" spans="214:232">
+      <c r="HF31" s="1"/>
+      <c r="HG31" s="1"/>
+      <c r="HH31" s="1"/>
+      <c r="HI31" s="1"/>
+      <c r="HJ31" s="1"/>
+      <c r="HK31" s="1"/>
+      <c r="HL31" s="1"/>
+      <c r="HM31" s="1"/>
+      <c r="HN31" s="1"/>
+      <c r="HO31" s="1"/>
+      <c r="HP31" s="1"/>
+      <c r="HQ31" s="1"/>
+      <c r="HR31" s="1"/>
+      <c r="HS31" s="1"/>
+      <c r="HT31" s="1"/>
+      <c r="HU31" s="1"/>
+      <c r="HV31" s="1"/>
+      <c r="HW31" s="1"/>
+      <c r="HX31" s="1"/>
+    </row>
+    <row r="32" spans="214:232">
+      <c r="HF32" s="1"/>
+      <c r="HG32" s="1"/>
+      <c r="HH32" s="1"/>
+      <c r="HI32" s="1"/>
+      <c r="HJ32" s="1"/>
+      <c r="HK32" s="1"/>
+      <c r="HL32" s="1"/>
+      <c r="HM32" s="1"/>
+      <c r="HN32" s="1"/>
+      <c r="HO32" s="1"/>
+      <c r="HP32" s="1"/>
+      <c r="HQ32" s="1"/>
+      <c r="HR32" s="1"/>
+      <c r="HS32" s="1"/>
+      <c r="HT32" s="1"/>
+      <c r="HU32" s="1"/>
+      <c r="HV32" s="1"/>
+      <c r="HW32" s="1"/>
+      <c r="HX32" s="1"/>
+    </row>
+    <row r="33" spans="214:232">
+      <c r="HF33" s="1"/>
+      <c r="HG33" s="1"/>
+      <c r="HH33" s="1"/>
+      <c r="HI33" s="1"/>
+      <c r="HJ33" s="1"/>
+      <c r="HK33" s="1"/>
+      <c r="HL33" s="1"/>
+      <c r="HM33" s="1"/>
+      <c r="HN33" s="1"/>
+      <c r="HO33" s="1"/>
+      <c r="HP33" s="1"/>
+      <c r="HQ33" s="1"/>
+      <c r="HR33" s="1"/>
+      <c r="HS33" s="1"/>
+      <c r="HT33" s="1"/>
+      <c r="HU33" s="1"/>
+      <c r="HV33" s="1"/>
+      <c r="HW33" s="1"/>
+      <c r="HX33" s="1"/>
+    </row>
+    <row r="34" spans="214:232">
+      <c r="HF34" s="1"/>
+      <c r="HG34" s="1"/>
+      <c r="HH34" s="1"/>
+      <c r="HI34" s="1"/>
+      <c r="HJ34" s="1"/>
+      <c r="HK34" s="1"/>
+      <c r="HL34" s="1"/>
+      <c r="HM34" s="1"/>
+      <c r="HN34" s="1"/>
+      <c r="HO34" s="1"/>
+      <c r="HP34" s="1"/>
+      <c r="HQ34" s="1"/>
+      <c r="HR34" s="1"/>
+      <c r="HS34" s="1"/>
+      <c r="HT34" s="1"/>
+      <c r="HU34" s="1"/>
+      <c r="HV34" s="1"/>
+      <c r="HW34" s="1"/>
+      <c r="HX34" s="1"/>
+    </row>
+    <row r="35" spans="214:232">
+      <c r="HF35" s="1"/>
+      <c r="HG35" s="1"/>
+      <c r="HH35" s="1"/>
+      <c r="HI35" s="1"/>
+      <c r="HJ35" s="1"/>
+      <c r="HK35" s="1"/>
+      <c r="HL35" s="1"/>
+      <c r="HM35" s="1"/>
+      <c r="HN35" s="1"/>
+      <c r="HO35" s="1"/>
+      <c r="HP35" s="1"/>
+      <c r="HQ35" s="1"/>
+      <c r="HR35" s="1"/>
+      <c r="HS35" s="1"/>
+      <c r="HT35" s="1"/>
+      <c r="HU35" s="1"/>
+      <c r="HV35" s="1"/>
+      <c r="HW35" s="1"/>
+      <c r="HX35" s="1"/>
+    </row>
+    <row r="36" spans="214:232">
+      <c r="HF36" s="1"/>
+      <c r="HG36" s="1"/>
+      <c r="HH36" s="1"/>
+      <c r="HI36" s="1"/>
+      <c r="HJ36" s="1"/>
+      <c r="HK36" s="1"/>
+      <c r="HL36" s="1"/>
+      <c r="HM36" s="1"/>
+      <c r="HN36" s="1"/>
+      <c r="HO36" s="1"/>
+      <c r="HP36" s="1"/>
+      <c r="HQ36" s="1"/>
+      <c r="HR36" s="1"/>
+      <c r="HS36" s="1"/>
+      <c r="HT36" s="1"/>
+      <c r="HU36" s="1"/>
+      <c r="HV36" s="1"/>
+      <c r="HW36" s="1"/>
+      <c r="HX36" s="1"/>
+    </row>
+    <row r="37" spans="214:232">
+      <c r="HF37" s="1"/>
+      <c r="HG37" s="1"/>
+      <c r="HH37" s="1"/>
+      <c r="HI37" s="1"/>
+      <c r="HJ37" s="1"/>
+      <c r="HK37" s="1"/>
+      <c r="HL37" s="1"/>
+      <c r="HM37" s="1"/>
+      <c r="HN37" s="1"/>
+      <c r="HO37" s="1"/>
+      <c r="HP37" s="1"/>
+      <c r="HQ37" s="1"/>
+      <c r="HR37" s="1"/>
+      <c r="HS37" s="1"/>
+      <c r="HT37" s="1"/>
+      <c r="HU37" s="1"/>
+      <c r="HV37" s="1"/>
+      <c r="HW37" s="1"/>
+      <c r="HX37" s="1"/>
+    </row>
+    <row r="38" spans="214:232">
+      <c r="HF38" s="1"/>
+      <c r="HG38" s="1"/>
+      <c r="HH38" s="1"/>
+      <c r="HI38" s="1"/>
+      <c r="HJ38" s="1"/>
+      <c r="HK38" s="1"/>
+      <c r="HL38" s="1"/>
+      <c r="HM38" s="1"/>
+      <c r="HN38" s="1"/>
+      <c r="HO38" s="1"/>
+      <c r="HP38" s="1"/>
+      <c r="HQ38" s="1"/>
+      <c r="HR38" s="1"/>
+      <c r="HS38" s="1"/>
+      <c r="HT38" s="1"/>
+      <c r="HU38" s="1"/>
+      <c r="HV38" s="1"/>
+      <c r="HW38" s="1"/>
+      <c r="HX38" s="1"/>
+    </row>
+    <row r="39" spans="214:232">
+      <c r="HF39" s="1"/>
+      <c r="HG39" s="1"/>
+      <c r="HH39" s="1"/>
+      <c r="HI39" s="1"/>
+      <c r="HJ39" s="1"/>
+      <c r="HK39" s="1"/>
+      <c r="HL39" s="1"/>
+      <c r="HM39" s="1"/>
+      <c r="HN39" s="1"/>
+      <c r="HO39" s="1"/>
+      <c r="HP39" s="1"/>
+      <c r="HQ39" s="1"/>
+      <c r="HR39" s="1"/>
+      <c r="HS39" s="1"/>
+      <c r="HT39" s="1"/>
+      <c r="HU39" s="1"/>
+      <c r="HV39" s="1"/>
+      <c r="HW39" s="1"/>
+      <c r="HX39" s="1"/>
+    </row>
+    <row r="40" spans="214:232">
+      <c r="HF40" s="1"/>
+      <c r="HG40" s="1"/>
+      <c r="HH40" s="1"/>
+      <c r="HI40" s="1"/>
+      <c r="HJ40" s="1"/>
+      <c r="HK40" s="1"/>
+      <c r="HL40" s="1"/>
+      <c r="HM40" s="1"/>
+      <c r="HN40" s="1"/>
+      <c r="HO40" s="1"/>
+      <c r="HP40" s="1"/>
+      <c r="HQ40" s="1"/>
+      <c r="HR40" s="1"/>
+      <c r="HS40" s="1"/>
+      <c r="HT40" s="1"/>
+      <c r="HU40" s="1"/>
+      <c r="HV40" s="1"/>
+      <c r="HW40" s="1"/>
+      <c r="HX40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6897,11 +7797,14 @@
     <mergeCell ref="FF1:FV1"/>
     <mergeCell ref="FX1:GM1"/>
     <mergeCell ref="GO1:HD1"/>
-    <mergeCell ref="HF1:HV1"/>
+    <mergeCell ref="HF1:HW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="HV15 HM15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
   <si>
     <t>version 1：20240422：backbone只有一个linear层将312+1特征转化为128维</t>
   </si>
@@ -79,6 +79,9 @@
     <t>version 6（my_SimCLR4）：20240517,将part_contrastive_learning 所用的特征由726降为128,将对比学习中的ReLU激活函数更改为LeakyReLU，添加layerNorm</t>
   </si>
   <si>
+    <t>version 6（my_SimCLR5）：20240523,基于simCLR3，使用256维的part feature来对比学习 ，更改得到part_feature的形式。结果不可复现，part_contrastive_learning 有问题</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -169,6 +172,42 @@
     <t>19/103</t>
   </si>
   <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>20/204</t>
+  </si>
+  <si>
+    <t>0.7018</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -190,6 +229,15 @@
     <t>27/40</t>
   </si>
   <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>10/26</t>
+  </si>
+  <si>
+    <t>0.7055</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -388,31 +436,7 @@
     <t>large</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>0.2</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.8</t>
   </si>
   <si>
     <t>50/49</t>
@@ -1394,10 +1418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:HX40"/>
+  <dimension ref="A1:IP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="GY1" workbookViewId="0">
-      <selection activeCell="HR27" sqref="HR27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="IK11" sqref="IK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1514,7 +1538,7 @@
     <col min="230" max="230" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:231">
+    <row r="1" spans="1:250">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,661 +1782,735 @@
       <c r="HU1" s="9"/>
       <c r="HV1" s="2"/>
       <c r="HW1" s="2"/>
+      <c r="HY1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="9"/>
+      <c r="IM1" s="9"/>
+      <c r="IN1" s="9"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:232">
+    <row r="2" ht="14.25" spans="1:250">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BL2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CU2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="CY2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DA2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BZ2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="DE2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CB2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CF2" s="3" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="DL2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="CL2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="CO2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DT2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="DU2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="DV2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CT2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CV2" s="3" t="s">
+      <c r="DW2" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EA2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="EB2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="EC2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="ED2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="EE2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="DA2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="DB2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="EH2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="EI2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="DE2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EJ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="EK2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="DG2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="EL2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DL2" s="3" t="s">
+      <c r="EM2" t="s">
+        <v>24</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>33</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="EU2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="DQ2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="DR2" s="3" t="s">
+      <c r="EV2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="EY2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="DU2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="DV2" s="1" t="s">
+      <c r="EZ2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="FA2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="DW2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="FB2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="DZ2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="EA2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EB2" s="3" t="s">
+      <c r="FC2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FF2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FG2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="FH2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="FI2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="EE2" s="3" t="s">
+      <c r="FJ2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="FK2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="EG2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="EH2" s="3" t="s">
+      <c r="FL2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="EK2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="EL2" s="1" t="s">
+      <c r="FP2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="FQ2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="EM2" t="s">
-        <v>23</v>
-      </c>
-      <c r="EN2" t="s">
+      <c r="FR2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="FT2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="EP2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="ER2" s="3" t="s">
+      <c r="FU2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FY2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="ES2" s="3" t="s">
+      <c r="FZ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="ET2" s="3" t="s">
+      <c r="GA2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="EU2" s="3" t="s">
+      <c r="GB2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="EV2" s="3" t="s">
+      <c r="GC2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="EW2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="EX2" s="3" t="s">
+      <c r="GD2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="GE2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="GF2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="EZ2" s="3" t="s">
+      <c r="GG2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="FA2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GI2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="FC2" t="s">
-        <v>23</v>
-      </c>
-      <c r="FD2" t="s">
+      <c r="GJ2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="GK2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="FF2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="FG2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="FH2" s="3" t="s">
+      <c r="GL2" t="s">
+        <v>24</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GO2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="GP2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="FI2" s="3" t="s">
+      <c r="GQ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="FJ2" s="3" t="s">
+      <c r="GR2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="FK2" s="3" t="s">
+      <c r="GS2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="FL2" s="3" t="s">
+      <c r="GT2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="FM2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="FN2" s="3" t="s">
+      <c r="GU2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="GV2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="FO2" s="3" t="s">
+      <c r="GW2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="FP2" s="3" t="s">
+      <c r="GX2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="FQ2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="FR2" s="1" t="s">
+      <c r="GY2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GZ2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HD2" t="s">
         <v>33</v>
       </c>
-      <c r="FS2" s="1" t="s">
+      <c r="HF2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="HG2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="HH2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="HI2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="HJ2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="HK2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="HL2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="HM2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="HN2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="HO2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="HP2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="HQ2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="HR2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="HS2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="FT2" s="1" t="s">
+      <c r="HT2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="HW2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="HZ2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="IA2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="IB2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="IC2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="ID2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="IE2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="IF2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="IG2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="IH2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="II2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="IJ2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="IK2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="FU2" t="s">
-        <v>23</v>
-      </c>
-      <c r="FV2" t="s">
+      <c r="IL2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="IM2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="IN2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="FX2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="GF2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="GG2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="GH2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="GI2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
+      <c r="IO2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="IP2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="GK2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>23</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>32</v>
-      </c>
-      <c r="GO2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="GP2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="GQ2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="GR2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="GS2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="GT2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="GU2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="GV2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="GW2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="GX2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="GY2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="GZ2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>23</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>32</v>
-      </c>
-      <c r="HF2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="HG2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="HH2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="HI2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="HJ2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="HK2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="HL2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="HM2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="HN2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="HO2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="HP2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="HQ2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="HR2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="HS2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="HT2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="HU2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="HV2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="HW2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="HX2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:232">
+    <row r="3" ht="14.25" spans="1:250">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3">
         <v>0.7</v>
@@ -2439,7 +2537,7 @@
         <v>0.6715</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2">
         <v>0.5</v>
@@ -2469,7 +2567,7 @@
         <v>0.7103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" s="2">
         <v>0.5</v>
@@ -2514,7 +2612,7 @@
         <v>0.7145</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN3" s="2">
         <v>0.5</v>
@@ -2553,7 +2651,7 @@
         <v>0.715</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BB3" s="2">
         <v>0.5</v>
@@ -2592,7 +2690,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BP3" s="2">
         <v>0.5</v>
@@ -2628,13 +2726,13 @@
         <v>0.12</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CB3">
         <v>0.7186</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE3" s="2">
         <v>0.5</v>
@@ -2670,13 +2768,13 @@
         <v>0.12</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CQ3">
         <v>0.7013</v>
       </c>
       <c r="DJ3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK3">
         <v>0.5</v>
@@ -2715,7 +2813,7 @@
         <v>0.7193</v>
       </c>
       <c r="DZ3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EA3">
         <v>0.5</v>
@@ -2751,13 +2849,13 @@
         <v>0.12</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="EM3">
         <v>0.7177</v>
       </c>
       <c r="EP3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ3">
         <v>0.1</v>
@@ -2793,13 +2891,13 @@
         <v>0.12</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="FC3">
         <v>0.7197</v>
       </c>
       <c r="FF3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG3">
         <v>0.3</v>
@@ -2841,13 +2939,13 @@
         <v>0.9</v>
       </c>
       <c r="FT3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="FU3">
         <v>0.7142</v>
       </c>
       <c r="FX3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FY3">
         <v>0.25</v>
@@ -2877,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="GK3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="GL3">
         <v>0.7041</v>
       </c>
       <c r="GO3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="GP3">
         <v>0.25</v>
@@ -2913,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="HF3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG3" s="1">
         <v>0.25</v>
@@ -2925,7 +3023,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK3" s="1">
         <v>16</v>
@@ -2958,17 +3056,69 @@
         <v>0.8</v>
       </c>
       <c r="HU3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="HV3" s="1">
         <v>0.6957</v>
       </c>
       <c r="HW3" s="1"/>
       <c r="HX3" s="1"/>
+      <c r="HY3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="HZ3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="IA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="IB3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="IC3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="ID3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="IE3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="IF3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IH3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="II3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IJ3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="IK3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="IL3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="IM3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="IN3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="IO3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="IP3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:232">
+    <row r="4" ht="14.25" spans="1:250">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -2995,7 +3145,7 @@
         <v>0.7143</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2">
         <v>0.5</v>
@@ -3022,7 +3172,7 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
@@ -3067,7 +3217,7 @@
         <v>0.7156</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN4" s="2">
         <v>0.5</v>
@@ -3106,7 +3256,7 @@
         <v>0.6984</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BB4" s="2">
         <v>0.5</v>
@@ -3145,7 +3295,7 @@
         <v>0.7103</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BP4" s="2">
         <v>0.5</v>
@@ -3181,13 +3331,13 @@
         <v>0.12</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="CB4">
         <v>0.7169</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE4" s="2">
         <v>0.5</v>
@@ -3226,7 +3376,7 @@
         <v>0.7068</v>
       </c>
       <c r="DJ4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK4">
         <v>0.5</v>
@@ -3262,13 +3412,13 @@
         <v>0.12</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="DW4">
         <v>0.7155</v>
       </c>
       <c r="DZ4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EA4">
         <v>0.1</v>
@@ -3304,13 +3454,13 @@
         <v>0.12</v>
       </c>
       <c r="EL4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="EM4">
         <v>0.7142</v>
       </c>
       <c r="EP4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ4">
         <v>0.1</v>
@@ -3346,13 +3496,13 @@
         <v>0.12</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="FC4">
         <v>0.7219</v>
       </c>
       <c r="FF4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG4">
         <v>0.3</v>
@@ -3394,13 +3544,13 @@
         <v>0.9</v>
       </c>
       <c r="FT4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="FU4">
         <v>0.7118</v>
       </c>
       <c r="FX4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FY4">
         <v>0.25</v>
@@ -3430,13 +3580,13 @@
         <v>1</v>
       </c>
       <c r="GK4" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="GL4">
         <v>0.6975</v>
       </c>
       <c r="HF4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG4" s="1">
         <v>0.25</v>
@@ -3448,7 +3598,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK4" s="1">
         <v>16</v>
@@ -3481,17 +3631,69 @@
         <v>0.8</v>
       </c>
       <c r="HU4" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="HV4" s="1">
         <v>0.7096</v>
       </c>
       <c r="HW4" s="1"/>
       <c r="HX4" s="1"/>
+      <c r="HY4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="HZ4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="IA4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="IB4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="IC4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="ID4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="IE4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="IF4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="IG4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IH4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="II4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IJ4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="IK4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="IL4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="IM4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="IN4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IO4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IP4" s="1"/>
     </row>
-    <row r="5" ht="14.25" spans="1:232">
+    <row r="5" ht="14.25" spans="1:250">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -3518,7 +3720,7 @@
         <v>0.7164</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" s="2">
         <v>0.5</v>
@@ -3563,7 +3765,7 @@
         <v>0.7184</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN5" s="2">
         <v>0.5</v>
@@ -3602,7 +3804,7 @@
         <v>0.6984</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BP5" s="2">
         <v>0.1</v>
@@ -3638,13 +3840,13 @@
         <v>0.12</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="CB5">
         <v>0.7163</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE5" s="2">
         <v>0.5</v>
@@ -3680,13 +3882,13 @@
         <v>0.12</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="CQ5">
         <v>0.6931</v>
       </c>
       <c r="DJ5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK5">
         <v>0.5</v>
@@ -3722,13 +3924,13 @@
         <v>0.12</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="DW5">
         <v>0.7214</v>
       </c>
       <c r="DZ5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EA5">
         <v>0.1</v>
@@ -3764,16 +3966,16 @@
         <v>0.12</v>
       </c>
       <c r="EL5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="EM5">
         <v>0.7166</v>
       </c>
       <c r="EN5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="EP5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ5">
         <v>0.1</v>
@@ -3809,13 +4011,13 @@
         <v>0.12</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="FC5">
         <v>0.7218</v>
       </c>
       <c r="FF5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG5">
         <v>0.3</v>
@@ -3857,13 +4059,13 @@
         <v>0.9</v>
       </c>
       <c r="FT5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="FU5">
         <v>0.7172</v>
       </c>
       <c r="FX5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FY5">
         <v>0.25</v>
@@ -3893,13 +4095,13 @@
         <v>1</v>
       </c>
       <c r="GK5" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="GL5" s="7">
         <v>0.705</v>
       </c>
       <c r="HF5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG5" s="1">
         <v>0.25</v>
@@ -3911,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK5" s="1">
         <v>16</v>
@@ -3944,17 +4146,35 @@
         <v>0.8</v>
       </c>
       <c r="HU5" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="HV5" s="1">
         <v>0.72</v>
       </c>
       <c r="HW5" s="1"/>
       <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
     </row>
-    <row r="6" spans="23:232">
+    <row r="6" spans="23:250">
       <c r="W6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X6" s="2">
         <v>0.5</v>
@@ -3999,7 +4219,7 @@
         <v>0.7089</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN6" s="2">
         <v>0.5</v>
@@ -4038,7 +4258,7 @@
         <v>0.7039</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BP6" s="2">
         <v>0.1</v>
@@ -4074,13 +4294,13 @@
         <v>0.12</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="CB6">
         <v>0.71</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE6" s="2">
         <v>0.5</v>
@@ -4116,13 +4336,13 @@
         <v>0.12</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="CQ6">
         <v>0.6989</v>
       </c>
       <c r="DJ6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK6">
         <v>0.5</v>
@@ -4158,13 +4378,13 @@
         <v>0.12</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="DW6">
         <v>0.7201</v>
       </c>
       <c r="EP6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ6">
         <v>0.1</v>
@@ -4200,13 +4420,13 @@
         <v>0.12</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="FC6">
         <v>0.7157</v>
       </c>
       <c r="FF6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG6">
         <v>0.3</v>
@@ -4248,13 +4468,13 @@
         <v>0.9</v>
       </c>
       <c r="FT6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="FU6">
         <v>0.7095</v>
       </c>
       <c r="FX6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FY6">
         <v>0.25</v>
@@ -4284,13 +4504,13 @@
         <v>1</v>
       </c>
       <c r="GK6" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="GL6">
         <v>0.6841</v>
       </c>
       <c r="HF6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG6" s="1">
         <v>0.25</v>
@@ -4302,7 +4522,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK6" s="1">
         <v>16</v>
@@ -4335,17 +4555,35 @@
         <v>0.8</v>
       </c>
       <c r="HU6" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="HV6" s="1">
         <v>0.7261</v>
       </c>
       <c r="HW6" s="1"/>
       <c r="HX6" s="1"/>
+      <c r="HY6" s="1"/>
+      <c r="HZ6" s="1"/>
+      <c r="IA6" s="1"/>
+      <c r="IB6" s="1"/>
+      <c r="IC6" s="1"/>
+      <c r="ID6" s="1"/>
+      <c r="IE6" s="1"/>
+      <c r="IF6" s="1"/>
+      <c r="IG6" s="1"/>
+      <c r="IH6" s="1"/>
+      <c r="II6" s="1"/>
+      <c r="IJ6" s="1"/>
+      <c r="IK6" s="1"/>
+      <c r="IL6" s="1"/>
+      <c r="IM6" s="1"/>
+      <c r="IN6" s="1"/>
+      <c r="IO6" s="1"/>
+      <c r="IP6" s="1"/>
     </row>
-    <row r="7" spans="23:232">
+    <row r="7" spans="23:250">
       <c r="W7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" s="2">
         <v>0.5</v>
@@ -4390,7 +4628,7 @@
         <v>0.7063</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN7" s="2">
         <v>0.5</v>
@@ -4429,7 +4667,7 @@
         <v>0.7036</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BP7" s="2">
         <v>0.5</v>
@@ -4465,13 +4703,13 @@
         <v>0.12</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="CB7">
         <v>0.708</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE7" s="2">
         <v>0.5</v>
@@ -4507,13 +4745,13 @@
         <v>0.12</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="CQ7">
         <v>0.7073</v>
       </c>
       <c r="DJ7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK7">
         <v>0.1</v>
@@ -4549,13 +4787,13 @@
         <v>0.12</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="DW7">
         <v>0.7202</v>
       </c>
       <c r="EP7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ7">
         <v>0.4</v>
@@ -4591,13 +4829,13 @@
         <v>0.12</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="FC7">
         <v>0.7237</v>
       </c>
       <c r="FF7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG7">
         <v>0.3</v>
@@ -4639,13 +4877,13 @@
         <v>0.9</v>
       </c>
       <c r="FT7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="FU7">
         <v>0.7065</v>
       </c>
       <c r="HF7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG7" s="1">
         <v>0.25</v>
@@ -4657,7 +4895,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK7" s="1">
         <v>16</v>
@@ -4690,17 +4928,35 @@
         <v>0.8</v>
       </c>
       <c r="HU7" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="HV7" s="1">
         <v>0.7191</v>
       </c>
       <c r="HW7" s="1"/>
       <c r="HX7" s="1"/>
+      <c r="HY7" s="1"/>
+      <c r="HZ7" s="1"/>
+      <c r="IA7" s="1"/>
+      <c r="IB7" s="1"/>
+      <c r="IC7" s="1"/>
+      <c r="ID7" s="1"/>
+      <c r="IE7" s="1"/>
+      <c r="IF7" s="1"/>
+      <c r="IG7" s="1"/>
+      <c r="IH7" s="1"/>
+      <c r="II7" s="1"/>
+      <c r="IJ7" s="1"/>
+      <c r="IK7" s="1"/>
+      <c r="IL7" s="1"/>
+      <c r="IM7" s="1"/>
+      <c r="IN7" s="1"/>
+      <c r="IO7" s="1"/>
+      <c r="IP7" s="1"/>
     </row>
-    <row r="8" spans="23:232">
+    <row r="8" spans="23:250">
       <c r="W8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" s="2">
         <v>0.5</v>
@@ -4745,7 +5001,7 @@
         <v>0.7037</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN8" s="2">
         <v>0.5</v>
@@ -4784,7 +5040,7 @@
         <v>0.7104</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE8" s="2">
         <v>0.1</v>
@@ -4820,13 +5076,13 @@
         <v>0.12</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="CQ8">
         <v>0.6841</v>
       </c>
       <c r="DJ8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK8">
         <v>0.1</v>
@@ -4862,13 +5118,13 @@
         <v>0.12</v>
       </c>
       <c r="DV8" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="DW8">
         <v>0.7233</v>
       </c>
       <c r="EP8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ8">
         <v>0.3</v>
@@ -4904,13 +5160,13 @@
         <v>0.12</v>
       </c>
       <c r="FB8" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="FC8">
         <v>0.7146</v>
       </c>
       <c r="FF8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG8">
         <v>0.3</v>
@@ -4952,13 +5208,13 @@
         <v>0.9</v>
       </c>
       <c r="FT8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="FU8">
         <v>0.7033</v>
       </c>
       <c r="HF8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG8" s="1">
         <v>0.25</v>
@@ -4970,7 +5226,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK8" s="1">
         <v>16</v>
@@ -5003,17 +5259,35 @@
         <v>0.8</v>
       </c>
       <c r="HU8" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="HV8" s="1">
         <v>0.7166</v>
       </c>
       <c r="HW8" s="1"/>
       <c r="HX8" s="1"/>
+      <c r="HY8" s="1"/>
+      <c r="HZ8" s="1"/>
+      <c r="IA8" s="1"/>
+      <c r="IB8" s="1"/>
+      <c r="IC8" s="1"/>
+      <c r="ID8" s="1"/>
+      <c r="IE8" s="1"/>
+      <c r="IF8" s="1"/>
+      <c r="IG8" s="1"/>
+      <c r="IH8" s="1"/>
+      <c r="II8" s="1"/>
+      <c r="IJ8" s="1"/>
+      <c r="IK8" s="1"/>
+      <c r="IL8" s="1"/>
+      <c r="IM8" s="1"/>
+      <c r="IN8" s="1"/>
+      <c r="IO8" s="1"/>
+      <c r="IP8" s="1"/>
     </row>
-    <row r="9" spans="23:232">
+    <row r="9" spans="23:250">
       <c r="W9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" s="2">
         <v>0.5</v>
@@ -5058,7 +5332,7 @@
         <v>0.7087</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE9" s="2">
         <v>0.1</v>
@@ -5094,13 +5368,13 @@
         <v>0.12</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="CQ9">
         <v>0.7185</v>
       </c>
       <c r="DJ9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DK9">
         <v>0.1</v>
@@ -5136,7 +5410,7 @@
         <v>0.12</v>
       </c>
       <c r="EP9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ9">
         <v>0.5</v>
@@ -5172,13 +5446,13 @@
         <v>0.12</v>
       </c>
       <c r="FB9" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="FC9">
         <v>0.7199</v>
       </c>
       <c r="FF9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG9">
         <v>0.5</v>
@@ -5220,13 +5494,13 @@
         <v>0.9</v>
       </c>
       <c r="FT9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="FU9">
         <v>0.6922</v>
       </c>
       <c r="HF9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG9" s="1">
         <v>0.3</v>
@@ -5238,7 +5512,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK9" s="1">
         <v>16</v>
@@ -5271,17 +5545,35 @@
         <v>0.8</v>
       </c>
       <c r="HU9" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="HV9" s="1">
         <v>0.7142</v>
       </c>
       <c r="HW9" s="1"/>
       <c r="HX9" s="1"/>
+      <c r="HY9" s="1"/>
+      <c r="HZ9" s="1"/>
+      <c r="IA9" s="1"/>
+      <c r="IB9" s="1"/>
+      <c r="IC9" s="1"/>
+      <c r="ID9" s="1"/>
+      <c r="IE9" s="1"/>
+      <c r="IF9" s="1"/>
+      <c r="IG9" s="1"/>
+      <c r="IH9" s="1"/>
+      <c r="II9" s="1"/>
+      <c r="IJ9" s="1"/>
+      <c r="IK9" s="1"/>
+      <c r="IL9" s="1"/>
+      <c r="IM9" s="1"/>
+      <c r="IN9" s="1"/>
+      <c r="IO9" s="1"/>
+      <c r="IP9" s="1"/>
     </row>
-    <row r="10" spans="23:232">
+    <row r="10" spans="23:250">
       <c r="W10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X10" s="2">
         <v>0.5</v>
@@ -5323,10 +5615,10 @@
         <v>0.07</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE10" s="2">
         <v>0.1</v>
@@ -5362,13 +5654,13 @@
         <v>0.12</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="CQ10">
         <v>0.7215</v>
       </c>
       <c r="EP10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ10">
         <v>0.45</v>
@@ -5404,13 +5696,13 @@
         <v>0.12</v>
       </c>
       <c r="FB10" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="FC10">
         <v>0.7159</v>
       </c>
       <c r="FF10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="FG10">
         <v>0.3</v>
@@ -5452,13 +5744,13 @@
         <v>0.9</v>
       </c>
       <c r="FT10" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="FU10">
         <v>0.7077</v>
       </c>
       <c r="HF10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG10" s="1">
         <v>0.2</v>
@@ -5470,7 +5762,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK10" s="1">
         <v>16</v>
@@ -5503,17 +5795,35 @@
         <v>0.8</v>
       </c>
       <c r="HU10" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="HV10" s="1">
         <v>0.7179</v>
       </c>
       <c r="HW10" s="1"/>
       <c r="HX10" s="1"/>
+      <c r="HY10" s="1"/>
+      <c r="HZ10" s="1"/>
+      <c r="IA10" s="1"/>
+      <c r="IB10" s="1"/>
+      <c r="IC10" s="1"/>
+      <c r="ID10" s="1"/>
+      <c r="IE10" s="1"/>
+      <c r="IF10" s="1"/>
+      <c r="IG10" s="1"/>
+      <c r="IH10" s="1"/>
+      <c r="II10" s="1"/>
+      <c r="IJ10" s="1"/>
+      <c r="IK10" s="1"/>
+      <c r="IL10" s="1"/>
+      <c r="IM10" s="1"/>
+      <c r="IN10" s="1"/>
+      <c r="IO10" s="1"/>
+      <c r="IP10" s="1"/>
     </row>
-    <row r="11" spans="23:232">
+    <row r="11" spans="23:250">
       <c r="W11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X11" s="2">
         <v>0.5</v>
@@ -5558,7 +5868,7 @@
         <v>0.6748</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE11" s="2">
         <v>0.1</v>
@@ -5594,13 +5904,13 @@
         <v>0.12</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="CQ11">
         <v>0.7167</v>
       </c>
       <c r="EP11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ11">
         <v>0.6</v>
@@ -5636,13 +5946,13 @@
         <v>0.12</v>
       </c>
       <c r="FB11" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="FC11">
         <v>0.7102</v>
       </c>
       <c r="HF11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG11" s="1">
         <v>0.1</v>
@@ -5654,7 +5964,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK11" s="1">
         <v>16</v>
@@ -5687,17 +5997,35 @@
         <v>0.8</v>
       </c>
       <c r="HU11" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="HV11" s="1">
         <v>0.7165</v>
       </c>
       <c r="HW11" s="1"/>
       <c r="HX11" s="1"/>
+      <c r="HY11" s="1"/>
+      <c r="HZ11" s="1"/>
+      <c r="IA11" s="1"/>
+      <c r="IB11" s="1"/>
+      <c r="IC11" s="1"/>
+      <c r="ID11" s="1"/>
+      <c r="IE11" s="1"/>
+      <c r="IF11" s="1"/>
+      <c r="IG11" s="1"/>
+      <c r="IH11" s="1"/>
+      <c r="II11" s="1"/>
+      <c r="IJ11" s="1"/>
+      <c r="IK11" s="1"/>
+      <c r="IL11" s="1"/>
+      <c r="IM11" s="1"/>
+      <c r="IN11" s="1"/>
+      <c r="IO11" s="1"/>
+      <c r="IP11" s="1"/>
     </row>
-    <row r="12" spans="23:232">
+    <row r="12" spans="23:250">
       <c r="W12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X12" s="2">
         <v>0.5</v>
@@ -5742,7 +6070,7 @@
         <v>0.7148</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE12" s="2">
         <v>0.1</v>
@@ -5778,13 +6106,13 @@
         <v>0.12</v>
       </c>
       <c r="CP12" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="CQ12">
         <v>0.7182</v>
       </c>
       <c r="EP12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ12">
         <v>0.7</v>
@@ -5820,13 +6148,13 @@
         <v>0.12</v>
       </c>
       <c r="FB12" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="FC12">
         <v>0.6887</v>
       </c>
       <c r="HF12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG12" s="1">
         <v>0.1</v>
@@ -5838,7 +6166,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK12" s="1">
         <v>16</v>
@@ -5871,17 +6199,35 @@
         <v>0.8</v>
       </c>
       <c r="HU12" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="HV12" s="1">
         <v>0.7104</v>
       </c>
       <c r="HW12" s="1"/>
       <c r="HX12" s="1"/>
+      <c r="HY12" s="1"/>
+      <c r="HZ12" s="1"/>
+      <c r="IA12" s="1"/>
+      <c r="IB12" s="1"/>
+      <c r="IC12" s="1"/>
+      <c r="ID12" s="1"/>
+      <c r="IE12" s="1"/>
+      <c r="IF12" s="1"/>
+      <c r="IG12" s="1"/>
+      <c r="IH12" s="1"/>
+      <c r="II12" s="1"/>
+      <c r="IJ12" s="1"/>
+      <c r="IK12" s="1"/>
+      <c r="IL12" s="1"/>
+      <c r="IM12" s="1"/>
+      <c r="IN12" s="1"/>
+      <c r="IO12" s="1"/>
+      <c r="IP12" s="1"/>
     </row>
-    <row r="13" spans="23:232">
+    <row r="13" spans="23:250">
       <c r="W13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X13" s="2">
         <v>0.5</v>
@@ -5926,7 +6272,7 @@
         <v>0.7062</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE13" s="2">
         <v>0.1</v>
@@ -5962,16 +6308,16 @@
         <v>0.12</v>
       </c>
       <c r="CP13" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="CQ13" s="7">
         <v>0.716</v>
       </c>
       <c r="CR13" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="EP13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ13">
         <v>0.7</v>
@@ -6007,13 +6353,13 @@
         <v>0.12</v>
       </c>
       <c r="FB13" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="FC13">
         <v>0.6945</v>
       </c>
       <c r="HF13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG13" s="1">
         <v>0.5</v>
@@ -6025,7 +6371,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK13" s="1">
         <v>16</v>
@@ -6058,17 +6404,35 @@
         <v>0.8</v>
       </c>
       <c r="HU13" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="HV13" s="1">
         <v>0.7004</v>
       </c>
       <c r="HW13" s="1"/>
       <c r="HX13" s="1"/>
+      <c r="HY13" s="1"/>
+      <c r="HZ13" s="1"/>
+      <c r="IA13" s="1"/>
+      <c r="IB13" s="1"/>
+      <c r="IC13" s="1"/>
+      <c r="ID13" s="1"/>
+      <c r="IE13" s="1"/>
+      <c r="IF13" s="1"/>
+      <c r="IG13" s="1"/>
+      <c r="IH13" s="1"/>
+      <c r="II13" s="1"/>
+      <c r="IJ13" s="1"/>
+      <c r="IK13" s="1"/>
+      <c r="IL13" s="1"/>
+      <c r="IM13" s="1"/>
+      <c r="IN13" s="1"/>
+      <c r="IO13" s="1"/>
+      <c r="IP13" s="1"/>
     </row>
-    <row r="14" spans="23:232">
+    <row r="14" spans="23:250">
       <c r="W14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2">
         <v>0.1</v>
@@ -6113,7 +6477,7 @@
         <v>0.6883</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE14" s="2">
         <v>0.1</v>
@@ -6149,13 +6513,13 @@
         <v>0.12</v>
       </c>
       <c r="CP14" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="CQ14">
         <v>0.7148</v>
       </c>
       <c r="EP14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ14">
         <v>0.7</v>
@@ -6191,13 +6555,13 @@
         <v>0.12</v>
       </c>
       <c r="FB14" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="FC14">
         <v>0.6785</v>
       </c>
       <c r="HF14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG14" s="1">
         <v>0.5</v>
@@ -6209,7 +6573,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK14" s="1">
         <v>16</v>
@@ -6242,17 +6606,35 @@
         <v>0.8</v>
       </c>
       <c r="HU14" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="HV14" s="1">
         <v>0.7054</v>
       </c>
       <c r="HW14" s="1"/>
       <c r="HX14" s="1"/>
+      <c r="HY14" s="1"/>
+      <c r="HZ14" s="1"/>
+      <c r="IA14" s="1"/>
+      <c r="IB14" s="1"/>
+      <c r="IC14" s="1"/>
+      <c r="ID14" s="1"/>
+      <c r="IE14" s="1"/>
+      <c r="IF14" s="1"/>
+      <c r="IG14" s="1"/>
+      <c r="IH14" s="1"/>
+      <c r="II14" s="1"/>
+      <c r="IJ14" s="1"/>
+      <c r="IK14" s="1"/>
+      <c r="IL14" s="1"/>
+      <c r="IM14" s="1"/>
+      <c r="IN14" s="1"/>
+      <c r="IO14" s="1"/>
+      <c r="IP14" s="1"/>
     </row>
-    <row r="15" spans="23:232">
+    <row r="15" spans="23:250">
       <c r="W15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X15" s="2">
         <v>0.1</v>
@@ -6297,7 +6679,7 @@
         <v>0.714</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE15" s="2">
         <v>0.1</v>
@@ -6333,13 +6715,13 @@
         <v>0.12</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="CQ15">
         <v>0.7086</v>
       </c>
       <c r="EP15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ15">
         <v>0.3</v>
@@ -6375,13 +6757,13 @@
         <v>0.12</v>
       </c>
       <c r="FB15" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="FC15">
         <v>0.7274</v>
       </c>
       <c r="HF15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG15" s="1">
         <v>0.5</v>
@@ -6393,7 +6775,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK15" s="1">
         <v>16</v>
@@ -6402,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="HM15" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="HN15" s="1">
         <v>1</v>
@@ -6426,17 +6808,35 @@
         <v>0.8</v>
       </c>
       <c r="HU15" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="HV15" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="HW15" s="1"/>
       <c r="HX15" s="1"/>
+      <c r="HY15" s="1"/>
+      <c r="HZ15" s="1"/>
+      <c r="IA15" s="1"/>
+      <c r="IB15" s="1"/>
+      <c r="IC15" s="1"/>
+      <c r="ID15" s="1"/>
+      <c r="IE15" s="1"/>
+      <c r="IF15" s="1"/>
+      <c r="IG15" s="1"/>
+      <c r="IH15" s="1"/>
+      <c r="II15" s="1"/>
+      <c r="IJ15" s="1"/>
+      <c r="IK15" s="1"/>
+      <c r="IL15" s="1"/>
+      <c r="IM15" s="1"/>
+      <c r="IN15" s="1"/>
+      <c r="IO15" s="1"/>
+      <c r="IP15" s="1"/>
     </row>
-    <row r="16" spans="23:232">
+    <row r="16" spans="23:250">
       <c r="W16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X16" s="2">
         <v>0.1</v>
@@ -6481,7 +6881,7 @@
         <v>0.7225</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CE16" s="2">
         <v>0.1</v>
@@ -6517,13 +6917,13 @@
         <v>0.12</v>
       </c>
       <c r="CP16" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="CQ16">
         <v>0.7181</v>
       </c>
       <c r="EP16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ16">
         <v>0.3</v>
@@ -6559,13 +6959,13 @@
         <v>0.12</v>
       </c>
       <c r="FB16" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="FC16">
         <v>0.7217</v>
       </c>
       <c r="HF16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG16" s="1">
         <v>0.25</v>
@@ -6577,10 +6977,10 @@
         <v>0.1</v>
       </c>
       <c r="HJ16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK16" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="HL16" s="1">
         <v>2</v>
@@ -6610,17 +7010,35 @@
         <v>0.8</v>
       </c>
       <c r="HU16" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="HV16" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="HW16" s="1"/>
       <c r="HX16" s="1"/>
+      <c r="HY16" s="1"/>
+      <c r="HZ16" s="1"/>
+      <c r="IA16" s="1"/>
+      <c r="IB16" s="1"/>
+      <c r="IC16" s="1"/>
+      <c r="ID16" s="1"/>
+      <c r="IE16" s="1"/>
+      <c r="IF16" s="1"/>
+      <c r="IG16" s="1"/>
+      <c r="IH16" s="1"/>
+      <c r="II16" s="1"/>
+      <c r="IJ16" s="1"/>
+      <c r="IK16" s="1"/>
+      <c r="IL16" s="1"/>
+      <c r="IM16" s="1"/>
+      <c r="IN16" s="1"/>
+      <c r="IO16" s="1"/>
+      <c r="IP16" s="1"/>
     </row>
-    <row r="17" spans="23:232">
+    <row r="17" spans="23:250">
       <c r="W17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X17" s="2">
         <v>0.1</v>
@@ -6665,7 +7083,7 @@
         <v>0.7209</v>
       </c>
       <c r="EP17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ17">
         <v>0.3</v>
@@ -6701,13 +7119,13 @@
         <v>0.12</v>
       </c>
       <c r="FB17" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="FC17">
         <v>0.7184</v>
       </c>
       <c r="HF17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG17" s="1">
         <v>0.25</v>
@@ -6719,10 +7137,10 @@
         <v>0.1</v>
       </c>
       <c r="HJ17" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="HK17" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="HL17" s="1">
         <v>2</v>
@@ -6752,17 +7170,35 @@
         <v>0.8</v>
       </c>
       <c r="HU17" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="HV17" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="HW17" s="1"/>
       <c r="HX17" s="1"/>
+      <c r="HY17" s="1"/>
+      <c r="HZ17" s="1"/>
+      <c r="IA17" s="1"/>
+      <c r="IB17" s="1"/>
+      <c r="IC17" s="1"/>
+      <c r="ID17" s="1"/>
+      <c r="IE17" s="1"/>
+      <c r="IF17" s="1"/>
+      <c r="IG17" s="1"/>
+      <c r="IH17" s="1"/>
+      <c r="II17" s="1"/>
+      <c r="IJ17" s="1"/>
+      <c r="IK17" s="1"/>
+      <c r="IL17" s="1"/>
+      <c r="IM17" s="1"/>
+      <c r="IN17" s="1"/>
+      <c r="IO17" s="1"/>
+      <c r="IP17" s="1"/>
     </row>
-    <row r="18" spans="23:232">
+    <row r="18" spans="23:250">
       <c r="W18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X18" s="2">
         <v>0.1</v>
@@ -6807,7 +7243,7 @@
         <v>0.7158</v>
       </c>
       <c r="EP18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ18">
         <v>0.3</v>
@@ -6843,13 +7279,13 @@
         <v>0.12</v>
       </c>
       <c r="FB18" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="FC18">
         <v>0.7232</v>
       </c>
       <c r="HF18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="HG18" s="1">
         <v>0.25</v>
@@ -6861,7 +7297,7 @@
         <v>0.1</v>
       </c>
       <c r="HJ18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK18" s="1">
         <v>16</v>
@@ -6894,17 +7330,35 @@
         <v>0.8</v>
       </c>
       <c r="HU18" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="HV18" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="HW18" s="1"/>
       <c r="HX18" s="1"/>
+      <c r="HY18" s="1"/>
+      <c r="HZ18" s="1"/>
+      <c r="IA18" s="1"/>
+      <c r="IB18" s="1"/>
+      <c r="IC18" s="1"/>
+      <c r="ID18" s="1"/>
+      <c r="IE18" s="1"/>
+      <c r="IF18" s="1"/>
+      <c r="IG18" s="1"/>
+      <c r="IH18" s="1"/>
+      <c r="II18" s="1"/>
+      <c r="IJ18" s="1"/>
+      <c r="IK18" s="1"/>
+      <c r="IL18" s="1"/>
+      <c r="IM18" s="1"/>
+      <c r="IN18" s="1"/>
+      <c r="IO18" s="1"/>
+      <c r="IP18" s="1"/>
     </row>
-    <row r="19" spans="23:232">
+    <row r="19" spans="23:250">
       <c r="W19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X19" s="2">
         <v>0.1</v>
@@ -6949,7 +7403,7 @@
         <v>0.7243</v>
       </c>
       <c r="EP19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ19">
         <v>0.3</v>
@@ -6985,64 +7439,82 @@
         <v>0.12</v>
       </c>
       <c r="FB19" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="FC19">
         <v>0.7176</v>
       </c>
       <c r="HF19" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="HG19" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="HH19" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="HI19" s="1" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="HJ19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="HK19" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="HL19" s="1" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="HM19" s="1" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="HN19" s="1" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="HO19" s="1" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="HP19" s="1" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="HQ19" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="HR19" s="1" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="HS19" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="HT19" s="1" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="HU19" s="1"/>
       <c r="HV19" s="1"/>
       <c r="HW19" s="1"/>
       <c r="HX19" s="1"/>
+      <c r="HY19" s="1"/>
+      <c r="HZ19" s="1"/>
+      <c r="IA19" s="1"/>
+      <c r="IB19" s="1"/>
+      <c r="IC19" s="1"/>
+      <c r="ID19" s="1"/>
+      <c r="IE19" s="1"/>
+      <c r="IF19" s="1"/>
+      <c r="IG19" s="1"/>
+      <c r="IH19" s="1"/>
+      <c r="II19" s="1"/>
+      <c r="IJ19" s="1"/>
+      <c r="IK19" s="1"/>
+      <c r="IL19" s="1"/>
+      <c r="IM19" s="1"/>
+      <c r="IN19" s="1"/>
+      <c r="IO19" s="1"/>
+      <c r="IP19" s="1"/>
     </row>
-    <row r="20" spans="23:232">
+    <row r="20" spans="23:250">
       <c r="W20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X20" s="2">
         <v>0.1</v>
@@ -7087,7 +7559,7 @@
         <v>0.7191</v>
       </c>
       <c r="EP20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ20">
         <v>0.35</v>
@@ -7123,7 +7595,7 @@
         <v>0.12</v>
       </c>
       <c r="FB20" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="FC20">
         <v>0.7282</v>
@@ -7147,10 +7619,28 @@
       <c r="HV20" s="1"/>
       <c r="HW20" s="1"/>
       <c r="HX20" s="1"/>
+      <c r="HY20" s="1"/>
+      <c r="HZ20" s="1"/>
+      <c r="IA20" s="1"/>
+      <c r="IB20" s="1"/>
+      <c r="IC20" s="1"/>
+      <c r="ID20" s="1"/>
+      <c r="IE20" s="1"/>
+      <c r="IF20" s="1"/>
+      <c r="IG20" s="1"/>
+      <c r="IH20" s="1"/>
+      <c r="II20" s="1"/>
+      <c r="IJ20" s="1"/>
+      <c r="IK20" s="1"/>
+      <c r="IL20" s="1"/>
+      <c r="IM20" s="1"/>
+      <c r="IN20" s="1"/>
+      <c r="IO20" s="1"/>
+      <c r="IP20" s="1"/>
     </row>
-    <row r="21" spans="23:232">
+    <row r="21" spans="23:250">
       <c r="W21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X21" s="2">
         <v>0.1</v>
@@ -7195,7 +7685,7 @@
         <v>0.72</v>
       </c>
       <c r="EP21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ21">
         <v>0.4</v>
@@ -7231,7 +7721,7 @@
         <v>0.12</v>
       </c>
       <c r="FB21" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="FC21">
         <v>0.7256</v>
@@ -7255,10 +7745,28 @@
       <c r="HV21" s="1"/>
       <c r="HW21" s="1"/>
       <c r="HX21" s="1"/>
+      <c r="HY21" s="1"/>
+      <c r="HZ21" s="1"/>
+      <c r="IA21" s="1"/>
+      <c r="IB21" s="1"/>
+      <c r="IC21" s="1"/>
+      <c r="ID21" s="1"/>
+      <c r="IE21" s="1"/>
+      <c r="IF21" s="1"/>
+      <c r="IG21" s="1"/>
+      <c r="IH21" s="1"/>
+      <c r="II21" s="1"/>
+      <c r="IJ21" s="1"/>
+      <c r="IK21" s="1"/>
+      <c r="IL21" s="1"/>
+      <c r="IM21" s="1"/>
+      <c r="IN21" s="1"/>
+      <c r="IO21" s="1"/>
+      <c r="IP21" s="1"/>
     </row>
-    <row r="22" spans="23:232">
+    <row r="22" spans="23:250">
       <c r="W22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X22" s="2">
         <v>0.1</v>
@@ -7303,7 +7811,7 @@
         <v>0.7237</v>
       </c>
       <c r="EP22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="EQ22">
         <v>0.25</v>
@@ -7339,7 +7847,7 @@
         <v>0.12</v>
       </c>
       <c r="FD22" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="HF22" s="1"/>
       <c r="HG22" s="1"/>
@@ -7360,10 +7868,28 @@
       <c r="HV22" s="1"/>
       <c r="HW22" s="1"/>
       <c r="HX22" s="1"/>
+      <c r="HY22" s="1"/>
+      <c r="HZ22" s="1"/>
+      <c r="IA22" s="1"/>
+      <c r="IB22" s="1"/>
+      <c r="IC22" s="1"/>
+      <c r="ID22" s="1"/>
+      <c r="IE22" s="1"/>
+      <c r="IF22" s="1"/>
+      <c r="IG22" s="1"/>
+      <c r="IH22" s="1"/>
+      <c r="II22" s="1"/>
+      <c r="IJ22" s="1"/>
+      <c r="IK22" s="1"/>
+      <c r="IL22" s="1"/>
+      <c r="IM22" s="1"/>
+      <c r="IN22" s="1"/>
+      <c r="IO22" s="1"/>
+      <c r="IP22" s="1"/>
     </row>
-    <row r="23" spans="23:232">
+    <row r="23" spans="23:250">
       <c r="W23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X23" s="2">
         <v>0.5</v>
@@ -7423,8 +7949,26 @@
       <c r="HV23" s="1"/>
       <c r="HW23" s="1"/>
       <c r="HX23" s="1"/>
+      <c r="HY23" s="1"/>
+      <c r="HZ23" s="1"/>
+      <c r="IA23" s="1"/>
+      <c r="IB23" s="1"/>
+      <c r="IC23" s="1"/>
+      <c r="ID23" s="1"/>
+      <c r="IE23" s="1"/>
+      <c r="IF23" s="1"/>
+      <c r="IG23" s="1"/>
+      <c r="IH23" s="1"/>
+      <c r="II23" s="1"/>
+      <c r="IJ23" s="1"/>
+      <c r="IK23" s="1"/>
+      <c r="IL23" s="1"/>
+      <c r="IM23" s="1"/>
+      <c r="IN23" s="1"/>
+      <c r="IO23" s="1"/>
+      <c r="IP23" s="1"/>
     </row>
-    <row r="24" spans="214:232">
+    <row r="24" spans="214:250">
       <c r="HF24" s="1"/>
       <c r="HG24" s="1"/>
       <c r="HH24" s="1"/>
@@ -7444,8 +7988,26 @@
       <c r="HV24" s="1"/>
       <c r="HW24" s="1"/>
       <c r="HX24" s="1"/>
+      <c r="HY24" s="1"/>
+      <c r="HZ24" s="1"/>
+      <c r="IA24" s="1"/>
+      <c r="IB24" s="1"/>
+      <c r="IC24" s="1"/>
+      <c r="ID24" s="1"/>
+      <c r="IE24" s="1"/>
+      <c r="IF24" s="1"/>
+      <c r="IG24" s="1"/>
+      <c r="IH24" s="1"/>
+      <c r="II24" s="1"/>
+      <c r="IJ24" s="1"/>
+      <c r="IK24" s="1"/>
+      <c r="IL24" s="1"/>
+      <c r="IM24" s="1"/>
+      <c r="IN24" s="1"/>
+      <c r="IO24" s="1"/>
+      <c r="IP24" s="1"/>
     </row>
-    <row r="25" spans="214:232">
+    <row r="25" spans="214:250">
       <c r="HF25" s="1"/>
       <c r="HG25" s="1"/>
       <c r="HH25" s="1"/>
@@ -7465,8 +8027,26 @@
       <c r="HV25" s="1"/>
       <c r="HW25" s="1"/>
       <c r="HX25" s="1"/>
+      <c r="HY25" s="1"/>
+      <c r="HZ25" s="1"/>
+      <c r="IA25" s="1"/>
+      <c r="IB25" s="1"/>
+      <c r="IC25" s="1"/>
+      <c r="ID25" s="1"/>
+      <c r="IE25" s="1"/>
+      <c r="IF25" s="1"/>
+      <c r="IG25" s="1"/>
+      <c r="IH25" s="1"/>
+      <c r="II25" s="1"/>
+      <c r="IJ25" s="1"/>
+      <c r="IK25" s="1"/>
+      <c r="IL25" s="1"/>
+      <c r="IM25" s="1"/>
+      <c r="IN25" s="1"/>
+      <c r="IO25" s="1"/>
+      <c r="IP25" s="1"/>
     </row>
-    <row r="26" spans="214:232">
+    <row r="26" spans="214:250">
       <c r="HF26" s="1"/>
       <c r="HG26" s="1"/>
       <c r="HH26" s="1"/>
@@ -7486,8 +8066,26 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
       <c r="HX26" s="1"/>
+      <c r="HY26" s="1"/>
+      <c r="HZ26" s="1"/>
+      <c r="IA26" s="1"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="1"/>
+      <c r="IG26" s="1"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="1"/>
+      <c r="IN26" s="1"/>
+      <c r="IO26" s="1"/>
+      <c r="IP26" s="1"/>
     </row>
-    <row r="27" spans="214:232">
+    <row r="27" spans="214:250">
       <c r="HF27" s="1"/>
       <c r="HG27" s="1"/>
       <c r="HH27" s="1"/>
@@ -7507,8 +8105,26 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
       <c r="HX27" s="1"/>
+      <c r="HY27" s="1"/>
+      <c r="HZ27" s="1"/>
+      <c r="IA27" s="1"/>
+      <c r="IB27" s="1"/>
+      <c r="IC27" s="1"/>
+      <c r="ID27" s="1"/>
+      <c r="IE27" s="1"/>
+      <c r="IF27" s="1"/>
+      <c r="IG27" s="1"/>
+      <c r="IH27" s="1"/>
+      <c r="II27" s="1"/>
+      <c r="IJ27" s="1"/>
+      <c r="IK27" s="1"/>
+      <c r="IL27" s="1"/>
+      <c r="IM27" s="1"/>
+      <c r="IN27" s="1"/>
+      <c r="IO27" s="1"/>
+      <c r="IP27" s="1"/>
     </row>
-    <row r="28" spans="214:232">
+    <row r="28" spans="214:250">
       <c r="HF28" s="1"/>
       <c r="HG28" s="1"/>
       <c r="HH28" s="1"/>
@@ -7528,8 +8144,26 @@
       <c r="HV28" s="1"/>
       <c r="HW28" s="1"/>
       <c r="HX28" s="1"/>
+      <c r="HY28" s="1"/>
+      <c r="HZ28" s="1"/>
+      <c r="IA28" s="1"/>
+      <c r="IB28" s="1"/>
+      <c r="IC28" s="1"/>
+      <c r="ID28" s="1"/>
+      <c r="IE28" s="1"/>
+      <c r="IF28" s="1"/>
+      <c r="IG28" s="1"/>
+      <c r="IH28" s="1"/>
+      <c r="II28" s="1"/>
+      <c r="IJ28" s="1"/>
+      <c r="IK28" s="1"/>
+      <c r="IL28" s="1"/>
+      <c r="IM28" s="1"/>
+      <c r="IN28" s="1"/>
+      <c r="IO28" s="1"/>
+      <c r="IP28" s="1"/>
     </row>
-    <row r="29" spans="214:232">
+    <row r="29" spans="214:250">
       <c r="HF29" s="1"/>
       <c r="HG29" s="1"/>
       <c r="HH29" s="1"/>
@@ -7549,6 +8183,24 @@
       <c r="HV29" s="1"/>
       <c r="HW29" s="1"/>
       <c r="HX29" s="1"/>
+      <c r="HY29" s="1"/>
+      <c r="HZ29" s="1"/>
+      <c r="IA29" s="1"/>
+      <c r="IB29" s="1"/>
+      <c r="IC29" s="1"/>
+      <c r="ID29" s="1"/>
+      <c r="IE29" s="1"/>
+      <c r="IF29" s="1"/>
+      <c r="IG29" s="1"/>
+      <c r="IH29" s="1"/>
+      <c r="II29" s="1"/>
+      <c r="IJ29" s="1"/>
+      <c r="IK29" s="1"/>
+      <c r="IL29" s="1"/>
+      <c r="IM29" s="1"/>
+      <c r="IN29" s="1"/>
+      <c r="IO29" s="1"/>
+      <c r="IP29" s="1"/>
     </row>
     <row r="30" spans="214:232">
       <c r="HF30" s="1"/>
@@ -7782,7 +8434,7 @@
       <c r="HX40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AK1"/>
@@ -7798,12 +8450,13 @@
     <mergeCell ref="FX1:GM1"/>
     <mergeCell ref="GO1:HD1"/>
     <mergeCell ref="HF1:HW1"/>
+    <mergeCell ref="HY1:IP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="HV15 HM15" numberStoredAsText="1"/>
+    <ignoredError sqref="HM15 HV15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="181">
   <si>
     <t>原始ReZSL</t>
   </si>
@@ -88,6 +88,12 @@
     <t>version 7（my_SimCLR5）：20240523 修复bug，使得结果可以复现。（由重复写入导入的错误！）</t>
   </si>
   <si>
+    <t>version 8（my_SimCLR6）：20240531 修改获取part_feature的方法</t>
+  </si>
+  <si>
+    <t>version 9（my_SimCLR6）：20240531 在CLleanring中获取对比学习用的特征的MLP层中使用了leakyReLU</t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
     <t>指数移动平均指数decay</t>
   </si>
   <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -229,6 +241,12 @@
     <t>ReLU激活函数</t>
   </si>
   <si>
+    <t>cub</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -265,6 +283,12 @@
     <t>使用leakyRELU并且只是用一层MLP层获取对比学习的特征</t>
   </si>
   <si>
+    <t>7/15</t>
+  </si>
+  <si>
+    <t>修改了fuse模块中MLP层的深度，由单一一个线性层加深。</t>
+  </si>
+  <si>
     <t>21/400</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>20/25</t>
   </si>
   <si>
+    <t>8/9</t>
+  </si>
+  <si>
     <t>11/1098</t>
   </si>
   <si>
@@ -379,6 +406,9 @@
     <t>best: ep: 1,zsl: 0.5518, gzsl: seen=0.7974, unseen=0.5024, h=0.6165, AUSUC=0.4929</t>
   </si>
   <si>
+    <t>13/20</t>
+  </si>
+  <si>
     <t>没看到0.68</t>
   </si>
   <si>
@@ -394,6 +424,9 @@
     <t>11/17</t>
   </si>
   <si>
+    <t>13/272</t>
+  </si>
+  <si>
     <t>11/82</t>
   </si>
   <si>
@@ -412,6 +445,9 @@
     <t>19/24</t>
   </si>
   <si>
+    <t>21/296</t>
+  </si>
+  <si>
     <t>10/33</t>
   </si>
   <si>
@@ -424,6 +460,9 @@
     <t>10/46</t>
   </si>
   <si>
+    <t>19/76</t>
+  </si>
+  <si>
     <t>11/57</t>
   </si>
   <si>
@@ -431,6 +470,9 @@
   </si>
   <si>
     <t>10/22</t>
+  </si>
+  <si>
+    <t>13/13</t>
   </si>
   <si>
     <t>6/17</t>
@@ -1520,147 +1562,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:JV42"/>
+  <dimension ref="A1:LP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="EZ1" sqref="EZ1:FP1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="ER1" workbookViewId="0">
+      <selection activeCell="FO20" sqref="FO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.2592592592593" customWidth="1"/>
-    <col min="3" max="3" width="9.37962962962963"/>
+    <col min="1" max="1" width="24.2583333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.38333333333333"/>
     <col min="8" max="8" width="9.66666666666667" style="1"/>
-    <col min="11" max="11" width="5.37962962962963" customWidth="1"/>
-    <col min="12" max="12" width="10.3796296296296" customWidth="1"/>
-    <col min="13" max="13" width="9.37962962962963" customWidth="1"/>
-    <col min="14" max="14" width="6.37962962962963" customWidth="1"/>
-    <col min="15" max="15" width="5.37962962962963" customWidth="1"/>
-    <col min="16" max="17" width="6.37962962962963" customWidth="1"/>
-    <col min="18" max="18" width="32.6296296296296" customWidth="1"/>
-    <col min="19" max="19" width="10.3796296296296" customWidth="1"/>
-    <col min="22" max="22" width="5.37962962962963" customWidth="1"/>
-    <col min="23" max="23" width="10.3796296296296" customWidth="1"/>
-    <col min="24" max="24" width="9.37962962962963" customWidth="1"/>
-    <col min="25" max="25" width="6.37962962962963" customWidth="1"/>
-    <col min="26" max="26" width="5.37962962962963" customWidth="1"/>
-    <col min="27" max="28" width="6.37962962962963" customWidth="1"/>
-    <col min="29" max="29" width="32.6296296296296" customWidth="1"/>
-    <col min="30" max="30" width="14.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="5.38333333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.3833333333333" customWidth="1"/>
+    <col min="13" max="13" width="9.38333333333333" customWidth="1"/>
+    <col min="14" max="14" width="6.38333333333333" customWidth="1"/>
+    <col min="15" max="15" width="5.38333333333333" customWidth="1"/>
+    <col min="16" max="17" width="6.38333333333333" customWidth="1"/>
+    <col min="18" max="18" width="32.6333333333333" customWidth="1"/>
+    <col min="19" max="19" width="10.3833333333333" customWidth="1"/>
+    <col min="22" max="22" width="5.38333333333333" customWidth="1"/>
+    <col min="23" max="23" width="10.3833333333333" customWidth="1"/>
+    <col min="24" max="24" width="9.38333333333333" customWidth="1"/>
+    <col min="25" max="25" width="6.38333333333333" customWidth="1"/>
+    <col min="26" max="26" width="5.38333333333333" customWidth="1"/>
+    <col min="27" max="28" width="6.38333333333333" customWidth="1"/>
+    <col min="29" max="29" width="32.6333333333333" customWidth="1"/>
+    <col min="30" max="30" width="14.8833333333333" customWidth="1"/>
     <col min="31" max="31" width="8.5" customWidth="1"/>
-    <col min="33" max="33" width="5.37962962962963" customWidth="1"/>
-    <col min="34" max="34" width="10.3796296296296" customWidth="1"/>
-    <col min="35" max="35" width="9.37962962962963" customWidth="1"/>
-    <col min="36" max="36" width="6.37962962962963" customWidth="1"/>
-    <col min="37" max="37" width="5.37962962962963" customWidth="1"/>
-    <col min="38" max="39" width="6.37962962962963" customWidth="1"/>
-    <col min="40" max="40" width="32.6296296296296" customWidth="1"/>
-    <col min="41" max="41" width="14.8796296296296" customWidth="1"/>
-    <col min="42" max="42" width="9.37962962962963" customWidth="1"/>
-    <col min="43" max="43" width="14.8796296296296" customWidth="1"/>
+    <col min="33" max="33" width="5.38333333333333" customWidth="1"/>
+    <col min="34" max="34" width="10.3833333333333" customWidth="1"/>
+    <col min="35" max="35" width="9.38333333333333" customWidth="1"/>
+    <col min="36" max="36" width="6.38333333333333" customWidth="1"/>
+    <col min="37" max="37" width="5.38333333333333" customWidth="1"/>
+    <col min="38" max="39" width="6.38333333333333" customWidth="1"/>
+    <col min="40" max="40" width="32.6333333333333" customWidth="1"/>
+    <col min="41" max="41" width="14.8833333333333" customWidth="1"/>
+    <col min="42" max="42" width="9.38333333333333" customWidth="1"/>
+    <col min="43" max="43" width="14.8833333333333" customWidth="1"/>
     <col min="44" max="44" width="16" customWidth="1"/>
     <col min="45" max="46" width="18.25" customWidth="1"/>
-    <col min="47" max="47" width="11.1296296296296" customWidth="1"/>
-    <col min="48" max="48" width="6.87962962962963" customWidth="1"/>
-    <col min="49" max="49" width="5.37962962962963" customWidth="1"/>
-    <col min="50" max="50" width="10.3796296296296" customWidth="1"/>
-    <col min="51" max="51" width="9.37962962962963" customWidth="1"/>
-    <col min="52" max="52" width="6.37962962962963" customWidth="1"/>
-    <col min="53" max="53" width="5.37962962962963" customWidth="1"/>
-    <col min="54" max="55" width="6.37962962962963" customWidth="1"/>
-    <col min="56" max="56" width="9.37962962962963" customWidth="1"/>
-    <col min="57" max="57" width="14.8796296296296" customWidth="1"/>
+    <col min="47" max="47" width="11.1333333333333" customWidth="1"/>
+    <col min="48" max="48" width="6.88333333333333" customWidth="1"/>
+    <col min="49" max="49" width="5.38333333333333" customWidth="1"/>
+    <col min="50" max="50" width="10.3833333333333" customWidth="1"/>
+    <col min="51" max="51" width="9.38333333333333" customWidth="1"/>
+    <col min="52" max="52" width="6.38333333333333" customWidth="1"/>
+    <col min="53" max="53" width="5.38333333333333" customWidth="1"/>
+    <col min="54" max="55" width="6.38333333333333" customWidth="1"/>
+    <col min="56" max="56" width="9.38333333333333" customWidth="1"/>
+    <col min="57" max="57" width="14.8833333333333" customWidth="1"/>
     <col min="58" max="58" width="16" customWidth="1"/>
     <col min="59" max="59" width="18.25" customWidth="1"/>
     <col min="60" max="60" width="13.75" customWidth="1"/>
-    <col min="61" max="61" width="15.8796296296296" customWidth="1"/>
-    <col min="63" max="63" width="4.37962962962963" customWidth="1"/>
-    <col min="64" max="64" width="10.3796296296296" customWidth="1"/>
-    <col min="65" max="65" width="8.37962962962963" customWidth="1"/>
-    <col min="66" max="66" width="6.37962962962963" customWidth="1"/>
-    <col min="67" max="67" width="5.37962962962963" customWidth="1"/>
-    <col min="68" max="69" width="6.37962962962963" customWidth="1"/>
-    <col min="70" max="70" width="9.37962962962963" customWidth="1"/>
-    <col min="71" max="71" width="14.8796296296296" customWidth="1"/>
+    <col min="61" max="61" width="15.8833333333333" customWidth="1"/>
+    <col min="63" max="63" width="4.38333333333333" customWidth="1"/>
+    <col min="64" max="64" width="10.3833333333333" customWidth="1"/>
+    <col min="65" max="65" width="8.38333333333333" customWidth="1"/>
+    <col min="66" max="66" width="6.38333333333333" customWidth="1"/>
+    <col min="67" max="67" width="5.38333333333333" customWidth="1"/>
+    <col min="68" max="69" width="6.38333333333333" customWidth="1"/>
+    <col min="70" max="70" width="9.38333333333333" customWidth="1"/>
+    <col min="71" max="71" width="14.8833333333333" customWidth="1"/>
     <col min="72" max="72" width="16" customWidth="1"/>
     <col min="73" max="73" width="18.25" customWidth="1"/>
     <col min="74" max="74" width="13.75" customWidth="1"/>
-    <col min="75" max="75" width="7.37962962962963" customWidth="1"/>
-    <col min="79" max="79" width="9.37962962962963"/>
+    <col min="75" max="75" width="7.38333333333333" customWidth="1"/>
+    <col min="79" max="79" width="9.38333333333333"/>
     <col min="89" max="89" width="9" style="1"/>
-    <col min="92" max="92" width="5.37962962962963" customWidth="1"/>
-    <col min="93" max="93" width="10.3796296296296" customWidth="1"/>
-    <col min="94" max="94" width="9.37962962962963" customWidth="1"/>
-    <col min="95" max="95" width="6.37962962962963" customWidth="1"/>
-    <col min="96" max="96" width="5.37962962962963" customWidth="1"/>
-    <col min="97" max="98" width="6.37962962962963" customWidth="1"/>
-    <col min="99" max="99" width="9.37962962962963" customWidth="1"/>
-    <col min="100" max="100" width="14.8796296296296" customWidth="1"/>
+    <col min="92" max="92" width="5.38333333333333" customWidth="1"/>
+    <col min="93" max="93" width="10.3833333333333" customWidth="1"/>
+    <col min="94" max="94" width="9.38333333333333" customWidth="1"/>
+    <col min="95" max="95" width="6.38333333333333" customWidth="1"/>
+    <col min="96" max="96" width="5.38333333333333" customWidth="1"/>
+    <col min="97" max="98" width="6.38333333333333" customWidth="1"/>
+    <col min="99" max="99" width="9.38333333333333" customWidth="1"/>
+    <col min="100" max="100" width="14.8833333333333" customWidth="1"/>
     <col min="101" max="101" width="16" customWidth="1"/>
     <col min="102" max="102" width="18.25" customWidth="1"/>
     <col min="103" max="103" width="13.75" customWidth="1"/>
     <col min="104" max="104" width="18.25" style="1" customWidth="1"/>
-    <col min="105" max="105" width="8.37962962962963" customWidth="1"/>
+    <col min="105" max="105" width="8.38333333333333" customWidth="1"/>
     <col min="106" max="106" width="19.75" customWidth="1"/>
-    <col min="126" max="126" width="9.37962962962963"/>
-    <col min="136" max="136" width="9.12962962962963" style="1"/>
-    <col min="142" max="142" width="9.37962962962963"/>
-    <col min="154" max="154" width="34.8796296296296" customWidth="1"/>
-    <col min="159" max="159" width="9.37962962962963"/>
-    <col min="170" max="170" width="9.12962962962963" style="1"/>
-    <col min="174" max="174" width="4.37962962962963" customWidth="1"/>
-    <col min="175" max="175" width="10.3796296296296" customWidth="1"/>
-    <col min="176" max="176" width="8.37962962962963" customWidth="1"/>
-    <col min="177" max="177" width="6.37962962962963" customWidth="1"/>
-    <col min="178" max="178" width="5.37962962962963" customWidth="1"/>
-    <col min="179" max="180" width="6.37962962962963" customWidth="1"/>
-    <col min="181" max="181" width="9.37962962962963" customWidth="1"/>
-    <col min="182" max="182" width="14.8796296296296" customWidth="1"/>
+    <col min="126" max="126" width="9.38333333333333"/>
+    <col min="136" max="136" width="9.13333333333333" style="1"/>
+    <col min="142" max="142" width="9.38333333333333"/>
+    <col min="154" max="154" width="34.8833333333333" customWidth="1"/>
+    <col min="159" max="159" width="9.38333333333333"/>
+    <col min="170" max="170" width="9.13333333333333" style="1"/>
+    <col min="174" max="174" width="4.38333333333333" customWidth="1"/>
+    <col min="175" max="175" width="10.3833333333333" customWidth="1"/>
+    <col min="176" max="176" width="8.38333333333333" customWidth="1"/>
+    <col min="177" max="177" width="6.38333333333333" customWidth="1"/>
+    <col min="178" max="178" width="5.38333333333333" customWidth="1"/>
+    <col min="179" max="180" width="6.38333333333333" customWidth="1"/>
+    <col min="181" max="181" width="9.38333333333333" customWidth="1"/>
+    <col min="182" max="182" width="14.8833333333333" customWidth="1"/>
     <col min="183" max="183" width="16" customWidth="1"/>
     <col min="184" max="184" width="18.25" customWidth="1"/>
     <col min="185" max="185" width="13.75" customWidth="1"/>
     <col min="186" max="188" width="18.25" customWidth="1"/>
-    <col min="189" max="189" width="7.37962962962963" customWidth="1"/>
-    <col min="190" max="190" width="5.12962962962963" customWidth="1"/>
-    <col min="194" max="194" width="9.37962962962963"/>
-    <col min="205" max="205" width="9.12962962962963" style="1"/>
-    <col min="211" max="211" width="9.37962962962963"/>
-    <col min="226" max="226" width="6.37962962962963" customWidth="1"/>
-    <col min="227" max="227" width="10.3796296296296" customWidth="1"/>
-    <col min="228" max="228" width="8.37962962962963" customWidth="1"/>
-    <col min="229" max="229" width="6.37962962962963" customWidth="1"/>
-    <col min="230" max="230" width="8.37962962962963" customWidth="1"/>
-    <col min="231" max="231" width="5.37962962962963" customWidth="1"/>
-    <col min="232" max="233" width="6.37962962962963" customWidth="1"/>
-    <col min="234" max="234" width="9.37962962962963" customWidth="1"/>
-    <col min="235" max="235" width="14.8796296296296" customWidth="1"/>
+    <col min="189" max="189" width="7.38333333333333" customWidth="1"/>
+    <col min="190" max="190" width="5.13333333333333" customWidth="1"/>
+    <col min="194" max="194" width="9.38333333333333"/>
+    <col min="205" max="205" width="9.13333333333333" style="1"/>
+    <col min="211" max="211" width="9.38333333333333"/>
+    <col min="226" max="226" width="6.38333333333333" customWidth="1"/>
+    <col min="227" max="227" width="10.3833333333333" customWidth="1"/>
+    <col min="228" max="228" width="8.38333333333333" customWidth="1"/>
+    <col min="229" max="229" width="6.38333333333333" customWidth="1"/>
+    <col min="230" max="230" width="8.38333333333333" customWidth="1"/>
+    <col min="231" max="231" width="5.38333333333333" customWidth="1"/>
+    <col min="232" max="233" width="6.38333333333333" customWidth="1"/>
+    <col min="234" max="234" width="9.38333333333333" customWidth="1"/>
+    <col min="235" max="235" width="14.8833333333333" customWidth="1"/>
     <col min="236" max="236" width="16" customWidth="1"/>
     <col min="237" max="237" width="18.25" customWidth="1"/>
     <col min="238" max="238" width="13.75" customWidth="1"/>
     <col min="239" max="239" width="11.25" customWidth="1"/>
-    <col min="240" max="240" width="22.6296296296296" customWidth="1"/>
+    <col min="240" max="240" width="22.6333333333333" customWidth="1"/>
     <col min="241" max="241" width="18.25" customWidth="1"/>
-    <col min="242" max="242" width="7.37962962962963" customWidth="1"/>
-    <col min="264" max="265" width="5.37962962962963" customWidth="1"/>
-    <col min="266" max="266" width="10.3796296296296" customWidth="1"/>
-    <col min="267" max="267" width="9.37962962962963" customWidth="1"/>
-    <col min="268" max="268" width="6.37962962962963" customWidth="1"/>
-    <col min="269" max="269" width="8.37962962962963" customWidth="1"/>
-    <col min="270" max="270" width="5.37962962962963" customWidth="1"/>
-    <col min="271" max="272" width="6.37962962962963" customWidth="1"/>
-    <col min="273" max="273" width="9.37962962962963" customWidth="1"/>
-    <col min="274" max="274" width="14.8796296296296" customWidth="1"/>
+    <col min="242" max="242" width="7.38333333333333" customWidth="1"/>
+    <col min="264" max="265" width="5.38333333333333" customWidth="1"/>
+    <col min="266" max="266" width="10.3833333333333" customWidth="1"/>
+    <col min="267" max="267" width="9.38333333333333" customWidth="1"/>
+    <col min="268" max="268" width="6.38333333333333" customWidth="1"/>
+    <col min="269" max="269" width="8.38333333333333" customWidth="1"/>
+    <col min="270" max="270" width="5.38333333333333" customWidth="1"/>
+    <col min="271" max="272" width="6.38333333333333" customWidth="1"/>
+    <col min="273" max="273" width="9.38333333333333" customWidth="1"/>
+    <col min="274" max="274" width="14.8833333333333" customWidth="1"/>
     <col min="275" max="275" width="16" customWidth="1"/>
     <col min="276" max="276" width="18.25" customWidth="1"/>
     <col min="277" max="277" width="13.75" customWidth="1"/>
     <col min="278" max="278" width="11.25" customWidth="1"/>
-    <col min="279" max="279" width="22.6296296296296" customWidth="1"/>
+    <col min="279" max="279" width="22.6333333333333" customWidth="1"/>
     <col min="280" max="280" width="18.25" style="1" customWidth="1"/>
-    <col min="281" max="281" width="7.37962962962963" customWidth="1"/>
-    <col min="282" max="282" width="90.3796296296296" customWidth="1"/>
+    <col min="281" max="281" width="7.38333333333333" customWidth="1"/>
+    <col min="282" max="282" width="90.3833333333333" customWidth="1"/>
+    <col min="286" max="286" width="5.375" customWidth="1"/>
+    <col min="287" max="287" width="7.375" customWidth="1"/>
+    <col min="288" max="288" width="10.375" customWidth="1"/>
+    <col min="289" max="289" width="8.375" customWidth="1"/>
+    <col min="290" max="290" width="6.375" customWidth="1"/>
+    <col min="291" max="291" width="8.375" customWidth="1"/>
+    <col min="292" max="292" width="5.375" customWidth="1"/>
+    <col min="293" max="294" width="6.375" customWidth="1"/>
+    <col min="295" max="295" width="9.375" customWidth="1"/>
+    <col min="296" max="296" width="14.875" customWidth="1"/>
+    <col min="297" max="297" width="16" customWidth="1"/>
+    <col min="298" max="298" width="18.25" customWidth="1"/>
+    <col min="299" max="299" width="13.75" customWidth="1"/>
+    <col min="300" max="300" width="11.25" customWidth="1"/>
+    <col min="301" max="302" width="22.625" customWidth="1"/>
+    <col min="303" max="303" width="18.25" style="1" customWidth="1"/>
+    <col min="304" max="304" width="8.81666666666667" customWidth="1"/>
+    <col min="305" max="305" width="54" customWidth="1"/>
+    <col min="306" max="308" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:282">
+    <row r="1" spans="1:328">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1958,804 +2019,970 @@
       <c r="JT1" s="3"/>
       <c r="JU1" s="2"/>
       <c r="JV1" s="2"/>
+      <c r="JZ1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="KA1" s="2"/>
+      <c r="KB1" s="2"/>
+      <c r="KC1" s="2"/>
+      <c r="KD1" s="2"/>
+      <c r="KE1" s="2"/>
+      <c r="KF1" s="2"/>
+      <c r="KG1" s="2"/>
+      <c r="KH1" s="2"/>
+      <c r="KI1" s="2"/>
+      <c r="KJ1" s="2"/>
+      <c r="KK1" s="2"/>
+      <c r="KL1" s="2"/>
+      <c r="KM1" s="2"/>
+      <c r="KN1" s="3"/>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3"/>
+      <c r="KQ1" s="3"/>
+      <c r="KR1" s="2"/>
+      <c r="KS1" s="2"/>
+      <c r="KT1" s="2"/>
+      <c r="KU1" s="2"/>
+      <c r="KV1" s="2"/>
+      <c r="KX1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="KY1" s="2"/>
+      <c r="KZ1" s="2"/>
+      <c r="LA1" s="2"/>
+      <c r="LB1" s="2"/>
+      <c r="LC1" s="2"/>
+      <c r="LD1" s="2"/>
+      <c r="LE1" s="2"/>
+      <c r="LF1" s="2"/>
+      <c r="LG1" s="2"/>
+      <c r="LH1" s="2"/>
+      <c r="LI1" s="2"/>
+      <c r="LJ1" s="2"/>
+      <c r="LK1" s="2"/>
+      <c r="LL1" s="3"/>
+      <c r="LM1" s="3"/>
+      <c r="LN1" s="3"/>
+      <c r="LO1" s="2"/>
+      <c r="LP1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:282">
+    <row r="2" ht="14.25" spans="1:328">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="CB2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="CE2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="CF2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
         <v>27</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR2" s="4" t="s">
+      <c r="CN2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CU2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="CV2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="CW2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="CX2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY2" s="4" t="s">
+      <c r="DJ2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DT2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="DU2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="DV2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="DW2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="DX2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF2" s="4" t="s">
+      <c r="DY2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DZ2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EA2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="EB2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="EC2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="ED2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="EE2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="EJ2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="EK2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EL2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="EN2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="EO2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM2" s="4" t="s">
+      <c r="EP2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EQ2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="ES2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="EU2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>27</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="FA2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="FB2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="FC2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="FD2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="FE2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BR2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BT2" s="4" t="s">
+      <c r="FF2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="FG2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="FH2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="FI2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="FJ2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="FK2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="FL2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BW2" s="4" t="s">
+      <c r="FM2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>27</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FR2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="FS2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="FT2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="FU2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="FV2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="FW2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BY2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CA2" s="4" t="s">
+      <c r="FX2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="FY2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="FZ2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="GA2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="GB2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="GC2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GJ2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="GK2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="GL2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="GM2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="GN2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="CH2" s="4" t="s">
+      <c r="GO2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="GP2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="GQ2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="GR2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CJ2" s="4" t="s">
+      <c r="GS2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="GT2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CL2" t="s">
+      <c r="GU2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>37</v>
+      </c>
+      <c r="HA2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="HB2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="HC2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="HD2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="HE2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="HF2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="CN2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP2" s="4" t="s">
+      <c r="HG2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="HH2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="HI2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="HJ2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="HK2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="HL2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="HR2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CQ2" s="4" t="s">
+      <c r="HS2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="HT2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CS2" s="4" t="s">
+      <c r="HU2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CT2" s="4" t="s">
+      <c r="HV2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="HW2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CU2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="CW2" s="4" t="s">
+      <c r="HX2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="HY2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="HZ2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CX2" s="4" t="s">
+      <c r="IA2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="CY2" s="4" t="s">
+      <c r="IB2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="IC2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="CZ2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>25</v>
-      </c>
-      <c r="DB2" t="s">
+      <c r="ID2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="DD2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="DF2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="DG2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="DH2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="DI2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="DJ2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="DK2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="DL2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="DO2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>25</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DT2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="DU2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="DV2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="DW2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="DX2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="DY2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="DZ2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="EA2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="EB2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="EC2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="ED2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="EE2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>25</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>35</v>
-      </c>
-      <c r="EJ2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="EK2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="EL2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="EM2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="EN2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="EO2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="EP2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="EQ2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="ER2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="ES2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="EU2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>25</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>35</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="FA2" s="4" t="s">
+      <c r="IE2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="IF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="IG2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="FB2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="FC2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="FD2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="FE2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="FF2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="FG2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="FH2" s="4" t="s">
+      <c r="IH2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="II2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="FI2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="FK2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="FL2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="FM2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>25</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>35</v>
-      </c>
-      <c r="FR2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="FS2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="FT2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="FU2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="FV2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="FW2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="FX2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="FY2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="FZ2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="GA2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="GB2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="GC2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>35</v>
-      </c>
-      <c r="GJ2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="GK2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="GL2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="GM2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="GN2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="GO2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="GP2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="GQ2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="GR2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="GS2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="GT2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="GU2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>35</v>
-      </c>
-      <c r="HA2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="HB2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="HC2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="HD2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="HE2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="HF2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="HG2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="HH2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="HI2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="HJ2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="HK2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="HL2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="HM2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="HN2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>35</v>
-      </c>
-      <c r="HR2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="HS2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="HT2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="HU2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="HV2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="HW2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="HX2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="HY2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="HZ2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="IA2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="IB2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="IC2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="ID2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="IE2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="IF2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="IG2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="IH2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="II2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="IJ2" s="1"/>
       <c r="IK2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="IL2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="IM2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="IN2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="IO2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="IP2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="IQ2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="IR2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="IS2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="IT2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="IU2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="IV2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="IW2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="IX2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="IY2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="IZ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="JA2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="JB2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="JD2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="IN2" s="5" t="s">
+      <c r="JE2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="JF2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="IO2" s="5" t="s">
+      <c r="JG2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="JH2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="JI2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="JJ2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="JK2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="JL2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="JM2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="JN2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="JO2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="JP2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="JQ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="JR2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="JS2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="JT2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="JU2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="JV2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="IP2" s="5" t="s">
+      <c r="JZ2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="KA2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="KB2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="KC2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="IQ2" s="5" t="s">
+      <c r="KD2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="IR2" s="5" t="s">
+      <c r="KE2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="KF2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="IS2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="IT2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="IU2" s="5" t="s">
+      <c r="KG2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="KH2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="KI2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="IV2" s="5" t="s">
+      <c r="KJ2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="IW2" s="5" t="s">
+      <c r="KK2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="IX2" s="1" t="s">
+      <c r="KM2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="KN2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="KO2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="KP2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="KQ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="KR2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="KS2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="KT2" s="1"/>
+      <c r="KU2" s="1"/>
+      <c r="KV2" s="1"/>
+      <c r="KX2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="KY2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="IY2" s="1" t="s">
+      <c r="KZ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="LA2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="LB2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="LC2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="IZ2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="JA2" s="1" t="s">
+      <c r="LD2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="LE2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="JB2" s="1" t="s">
+      <c r="LF2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="LG2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="LH2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="LI2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="LJ2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="LK2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="JD2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="JE2" s="5" t="s">
+      <c r="LL2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="LM2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="LN2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="JF2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="JG2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="JH2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="JI2" s="5" t="s">
+      <c r="LO2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="LP2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="JJ2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="JK2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="JL2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="JM2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="JN2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="JO2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="JP2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="JQ2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="JR2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="JS2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="JT2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="JU2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="JV2" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" ht="15.6" spans="1:282">
+    <row r="3" ht="14.25" spans="1:325">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2776,13 +3003,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>0.7156</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L3" s="4">
         <v>0.7</v>
@@ -2809,7 +3036,7 @@
         <v>0.6715</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W3" s="2">
         <v>0.5</v>
@@ -2839,7 +3066,7 @@
         <v>0.7103</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH3" s="2">
         <v>0.5</v>
@@ -2884,7 +3111,7 @@
         <v>0.7145</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX3" s="2">
         <v>0.5</v>
@@ -2923,7 +3150,7 @@
         <v>0.715</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BL3" s="2">
         <v>0.5</v>
@@ -2962,7 +3189,7 @@
         <v>0.7103</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BZ3" s="2">
         <v>0.5</v>
@@ -2998,13 +3225,13 @@
         <v>0.12</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CL3">
         <v>0.7186</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO3" s="2">
         <v>0.5</v>
@@ -3040,13 +3267,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="DA3">
         <v>0.7013</v>
       </c>
       <c r="DT3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU3">
         <v>0.5</v>
@@ -3085,7 +3312,7 @@
         <v>0.7193</v>
       </c>
       <c r="EJ3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="EK3">
         <v>0.5</v>
@@ -3121,16 +3348,16 @@
         <v>0.12</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="EW3">
         <v>0.7177</v>
       </c>
       <c r="EZ3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB3">
         <v>0.1</v>
@@ -3169,13 +3396,13 @@
         <v>0.12</v>
       </c>
       <c r="FN3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="FO3">
         <v>0.7197</v>
       </c>
       <c r="FR3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS3">
         <v>0.3</v>
@@ -3217,13 +3444,13 @@
         <v>0.9</v>
       </c>
       <c r="GF3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="GG3">
         <v>0.7142</v>
       </c>
       <c r="GJ3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="GK3">
         <v>0.25</v>
@@ -3253,13 +3480,13 @@
         <v>1</v>
       </c>
       <c r="GW3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="GX3">
         <v>0.7041</v>
       </c>
       <c r="HA3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HB3">
         <v>0.25</v>
@@ -3289,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="HR3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS3" s="1">
         <v>0.25</v>
@@ -3301,7 +3528,7 @@
         <v>0.1</v>
       </c>
       <c r="HV3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW3" s="1">
         <v>16</v>
@@ -3334,7 +3561,7 @@
         <v>0.8</v>
       </c>
       <c r="IG3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="IH3" s="1">
         <v>0.6957</v>
@@ -3342,62 +3569,62 @@
       <c r="II3" s="1"/>
       <c r="IJ3" s="1"/>
       <c r="IK3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="IL3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="IM3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="IN3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="IO3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="IO3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="IP3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="IQ3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="IR3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="IS3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IT3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IU3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IV3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="IW3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="IX3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="IY3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="IZ3" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="JA3" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="JB3" s="1"/>
       <c r="JD3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF3">
         <v>0.25</v>
@@ -3442,18 +3669,123 @@
         <v>0.8</v>
       </c>
       <c r="JT3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="JU3">
         <v>0.7042</v>
       </c>
       <c r="JV3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB3">
+        <v>0.6</v>
+      </c>
+      <c r="KC3" s="6">
+        <v>0.0003</v>
+      </c>
+      <c r="KD3">
+        <v>0.1</v>
+      </c>
+      <c r="KE3">
+        <v>300</v>
+      </c>
+      <c r="KF3">
+        <v>16</v>
+      </c>
+      <c r="KG3">
+        <v>2</v>
+      </c>
+      <c r="KH3">
+        <v>10</v>
+      </c>
+      <c r="KI3">
+        <v>1</v>
+      </c>
+      <c r="KJ3">
+        <v>1</v>
+      </c>
+      <c r="KK3">
+        <v>1</v>
+      </c>
+      <c r="KL3">
+        <v>0.2</v>
+      </c>
+      <c r="KM3">
+        <v>0.12</v>
+      </c>
+      <c r="KN3">
+        <v>0.2</v>
+      </c>
+      <c r="KO3">
+        <v>0.99</v>
+      </c>
+      <c r="KP3">
+        <v>1</v>
+      </c>
+      <c r="KQ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="KR3">
+        <v>0.6429</v>
+      </c>
+      <c r="KX3" t="s">
+        <v>44</v>
+      </c>
+      <c r="KY3" t="s">
+        <v>69</v>
+      </c>
+      <c r="KZ3">
+        <v>0.35</v>
+      </c>
+      <c r="LA3" s="6">
+        <v>0.001</v>
+      </c>
+      <c r="LB3">
+        <v>0.1</v>
+      </c>
+      <c r="LC3">
+        <v>300</v>
+      </c>
+      <c r="LD3">
+        <v>16</v>
+      </c>
+      <c r="LE3">
+        <v>2</v>
+      </c>
+      <c r="LF3">
+        <v>10</v>
+      </c>
+      <c r="LG3">
+        <v>1</v>
+      </c>
+      <c r="LH3">
+        <v>1</v>
+      </c>
+      <c r="LI3">
+        <v>1</v>
+      </c>
+      <c r="LJ3">
+        <v>0.2</v>
+      </c>
+      <c r="LK3">
+        <v>0.12</v>
+      </c>
+      <c r="LL3">
+        <v>0.2</v>
+      </c>
+      <c r="LM3">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="11:282">
+    <row r="4" ht="14.25" spans="11:305">
       <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L4" s="4">
         <v>0.5</v>
@@ -3480,7 +3812,7 @@
         <v>0.7143</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2">
         <v>0.5</v>
@@ -3507,7 +3839,7 @@
         <v>0.9</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH4" s="2">
         <v>0.5</v>
@@ -3552,7 +3884,7 @@
         <v>0.7156</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX4" s="2">
         <v>0.5</v>
@@ -3591,7 +3923,7 @@
         <v>0.6984</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BL4" s="2">
         <v>0.5</v>
@@ -3630,7 +3962,7 @@
         <v>0.7103</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BZ4" s="2">
         <v>0.5</v>
@@ -3666,13 +3998,13 @@
         <v>0.12</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="CL4">
         <v>0.7169</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO4" s="2">
         <v>0.5</v>
@@ -3711,7 +4043,7 @@
         <v>0.7068</v>
       </c>
       <c r="DT4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU4">
         <v>0.5</v>
@@ -3747,13 +4079,13 @@
         <v>0.12</v>
       </c>
       <c r="EF4" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="EG4">
         <v>0.7155</v>
       </c>
       <c r="EJ4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="EK4">
         <v>0.1</v>
@@ -3789,16 +4121,16 @@
         <v>0.12</v>
       </c>
       <c r="EV4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="EW4">
         <v>0.7142</v>
       </c>
       <c r="EZ4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB4">
         <v>0.1</v>
@@ -3837,13 +4169,13 @@
         <v>0.12</v>
       </c>
       <c r="FN4" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="FO4">
         <v>0.7219</v>
       </c>
       <c r="FR4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS4">
         <v>0.3</v>
@@ -3885,13 +4217,13 @@
         <v>0.9</v>
       </c>
       <c r="GF4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="GG4">
         <v>0.7118</v>
       </c>
       <c r="GJ4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="GK4">
         <v>0.25</v>
@@ -3921,13 +4253,13 @@
         <v>1</v>
       </c>
       <c r="GW4" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="GX4">
         <v>0.6975</v>
       </c>
       <c r="HR4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS4" s="1">
         <v>0.25</v>
@@ -3939,7 +4271,7 @@
         <v>0.1</v>
       </c>
       <c r="HV4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW4" s="1">
         <v>16</v>
@@ -3972,7 +4304,7 @@
         <v>0.8</v>
       </c>
       <c r="IG4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="IH4" s="1">
         <v>0.7096</v>
@@ -3980,62 +4312,62 @@
       <c r="II4" s="1"/>
       <c r="IJ4" s="1"/>
       <c r="IK4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="IL4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="IM4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="IN4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="IO4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="IO4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="IP4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="IQ4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="IR4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="IS4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IT4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IU4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IV4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="IW4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="IX4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="IY4" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="IZ4" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="JA4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="JB4" s="1"/>
       <c r="JD4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF4">
         <v>0.25</v>
@@ -4080,18 +4412,78 @@
         <v>0.8</v>
       </c>
       <c r="JT4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="JU4">
         <v>0.7138</v>
       </c>
       <c r="JV4" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB4">
+        <v>0.6</v>
+      </c>
+      <c r="KC4" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD4">
+        <v>0.1</v>
+      </c>
+      <c r="KE4">
+        <v>300</v>
+      </c>
+      <c r="KF4">
+        <v>16</v>
+      </c>
+      <c r="KG4">
+        <v>2</v>
+      </c>
+      <c r="KH4">
+        <v>10</v>
+      </c>
+      <c r="KI4">
+        <v>1</v>
+      </c>
+      <c r="KJ4">
+        <v>1</v>
+      </c>
+      <c r="KK4">
+        <v>1</v>
+      </c>
+      <c r="KL4">
+        <v>0.2</v>
+      </c>
+      <c r="KM4">
+        <v>0.12</v>
+      </c>
+      <c r="KN4">
+        <v>0.2</v>
+      </c>
+      <c r="KO4">
+        <v>0.99</v>
+      </c>
+      <c r="KP4">
+        <v>1</v>
+      </c>
+      <c r="KQ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="KR4">
+        <v>0.6824</v>
+      </c>
+      <c r="KS4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="11:281">
+    <row r="5" ht="14.25" spans="11:304">
       <c r="K5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L5" s="4">
         <v>0.5</v>
@@ -4118,7 +4510,7 @@
         <v>0.7164</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH5" s="2">
         <v>0.5</v>
@@ -4163,7 +4555,7 @@
         <v>0.7184</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX5" s="2">
         <v>0.5</v>
@@ -4202,7 +4594,7 @@
         <v>0.6984</v>
       </c>
       <c r="BY5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BZ5" s="2">
         <v>0.1</v>
@@ -4238,13 +4630,13 @@
         <v>0.12</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="CL5">
         <v>0.7163</v>
       </c>
       <c r="CN5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO5" s="2">
         <v>0.5</v>
@@ -4280,13 +4672,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="DA5">
         <v>0.6931</v>
       </c>
       <c r="DT5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU5">
         <v>0.5</v>
@@ -4322,13 +4714,13 @@
         <v>0.12</v>
       </c>
       <c r="EF5" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="EG5">
         <v>0.7214</v>
       </c>
       <c r="EJ5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="EK5">
         <v>0.1</v>
@@ -4364,19 +4756,19 @@
         <v>0.12</v>
       </c>
       <c r="EV5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="EW5">
         <v>0.7166</v>
       </c>
       <c r="EX5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="EZ5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB5">
         <v>0.1</v>
@@ -4415,13 +4807,13 @@
         <v>0.12</v>
       </c>
       <c r="FN5" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="FO5">
         <v>0.7218</v>
       </c>
       <c r="FR5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS5">
         <v>0.3</v>
@@ -4463,13 +4855,13 @@
         <v>0.9</v>
       </c>
       <c r="GF5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="GG5">
         <v>0.7172</v>
       </c>
       <c r="GJ5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="GK5">
         <v>0.25</v>
@@ -4499,13 +4891,13 @@
         <v>1</v>
       </c>
       <c r="GW5" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="GX5" s="10">
         <v>0.705</v>
       </c>
       <c r="HR5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS5" s="1">
         <v>0.25</v>
@@ -4517,7 +4909,7 @@
         <v>0.1</v>
       </c>
       <c r="HV5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW5" s="1">
         <v>16</v>
@@ -4550,7 +4942,7 @@
         <v>0.8</v>
       </c>
       <c r="IG5" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="IH5" s="1">
         <v>0.72</v>
@@ -4576,10 +4968,10 @@
       <c r="JA5" s="1"/>
       <c r="JB5" s="1"/>
       <c r="JD5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF5">
         <v>0.25</v>
@@ -4624,15 +5016,72 @@
         <v>0.8</v>
       </c>
       <c r="JT5" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="JU5" s="10">
         <v>0.009</v>
       </c>
+      <c r="JZ5" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB5">
+        <v>0.3</v>
+      </c>
+      <c r="KC5" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD5">
+        <v>0.1</v>
+      </c>
+      <c r="KE5">
+        <v>300</v>
+      </c>
+      <c r="KF5">
+        <v>16</v>
+      </c>
+      <c r="KG5">
+        <v>2</v>
+      </c>
+      <c r="KH5">
+        <v>10</v>
+      </c>
+      <c r="KI5">
+        <v>1</v>
+      </c>
+      <c r="KJ5">
+        <v>1</v>
+      </c>
+      <c r="KK5">
+        <v>1</v>
+      </c>
+      <c r="KL5">
+        <v>0.2</v>
+      </c>
+      <c r="KM5">
+        <v>0.12</v>
+      </c>
+      <c r="KN5">
+        <v>0.2</v>
+      </c>
+      <c r="KO5">
+        <v>0.99</v>
+      </c>
+      <c r="KP5">
+        <v>1</v>
+      </c>
+      <c r="KQ5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="KR5">
+        <v>0.7067</v>
+      </c>
     </row>
-    <row r="6" spans="33:281">
+    <row r="6" spans="33:304">
       <c r="AG6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH6" s="2">
         <v>0.5</v>
@@ -4677,7 +5126,7 @@
         <v>0.7089</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX6" s="2">
         <v>0.5</v>
@@ -4716,7 +5165,7 @@
         <v>0.7039</v>
       </c>
       <c r="BY6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BZ6" s="2">
         <v>0.1</v>
@@ -4752,13 +5201,13 @@
         <v>0.12</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="CL6">
         <v>0.71</v>
       </c>
       <c r="CN6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO6" s="2">
         <v>0.5</v>
@@ -4794,13 +5243,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="DA6">
         <v>0.6989</v>
       </c>
       <c r="DT6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU6">
         <v>0.5</v>
@@ -4836,16 +5285,16 @@
         <v>0.12</v>
       </c>
       <c r="EF6" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="EG6">
         <v>0.7201</v>
       </c>
       <c r="EZ6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB6">
         <v>0.1</v>
@@ -4884,13 +5333,13 @@
         <v>0.12</v>
       </c>
       <c r="FN6" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="FO6">
         <v>0.7157</v>
       </c>
       <c r="FR6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS6">
         <v>0.3</v>
@@ -4932,13 +5381,13 @@
         <v>0.9</v>
       </c>
       <c r="GF6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="GG6">
         <v>0.7095</v>
       </c>
       <c r="GJ6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="GK6">
         <v>0.25</v>
@@ -4968,13 +5417,13 @@
         <v>1</v>
       </c>
       <c r="GW6" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="GX6">
         <v>0.6841</v>
       </c>
       <c r="HR6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS6" s="1">
         <v>0.25</v>
@@ -4986,7 +5435,7 @@
         <v>0.1</v>
       </c>
       <c r="HV6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW6" s="1">
         <v>16</v>
@@ -5019,7 +5468,7 @@
         <v>0.8</v>
       </c>
       <c r="IG6" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="IH6" s="1">
         <v>0.7261</v>
@@ -5045,10 +5494,10 @@
       <c r="JA6" s="1"/>
       <c r="JB6" s="1"/>
       <c r="JD6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF6">
         <v>0.3</v>
@@ -5093,15 +5542,72 @@
         <v>0.8</v>
       </c>
       <c r="JT6" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="JU6" s="10">
         <v>0.711</v>
       </c>
+      <c r="JZ6" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA6" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB6">
+        <v>0.35</v>
+      </c>
+      <c r="KC6" s="6">
+        <v>0.001</v>
+      </c>
+      <c r="KD6">
+        <v>0.1</v>
+      </c>
+      <c r="KE6">
+        <v>300</v>
+      </c>
+      <c r="KF6">
+        <v>16</v>
+      </c>
+      <c r="KG6">
+        <v>2</v>
+      </c>
+      <c r="KH6">
+        <v>10</v>
+      </c>
+      <c r="KI6">
+        <v>1</v>
+      </c>
+      <c r="KJ6">
+        <v>1</v>
+      </c>
+      <c r="KK6">
+        <v>1</v>
+      </c>
+      <c r="KL6">
+        <v>0.2</v>
+      </c>
+      <c r="KM6">
+        <v>0.12</v>
+      </c>
+      <c r="KN6">
+        <v>0.2</v>
+      </c>
+      <c r="KO6">
+        <v>0.99</v>
+      </c>
+      <c r="KP6">
+        <v>1</v>
+      </c>
+      <c r="KQ6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="KR6">
+        <v>0.5687</v>
+      </c>
     </row>
-    <row r="7" spans="33:281">
+    <row r="7" spans="33:302">
       <c r="AG7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH7" s="2">
         <v>0.5</v>
@@ -5146,7 +5652,7 @@
         <v>0.7063</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX7" s="2">
         <v>0.5</v>
@@ -5185,7 +5691,7 @@
         <v>0.7036</v>
       </c>
       <c r="BY7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BZ7" s="2">
         <v>0.5</v>
@@ -5221,13 +5727,13 @@
         <v>0.12</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="CL7">
         <v>0.708</v>
       </c>
       <c r="CN7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO7" s="2">
         <v>0.5</v>
@@ -5263,13 +5769,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="DA7">
         <v>0.7073</v>
       </c>
       <c r="DT7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU7">
         <v>0.1</v>
@@ -5305,16 +5811,16 @@
         <v>0.12</v>
       </c>
       <c r="EF7" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="EG7">
         <v>0.7202</v>
       </c>
       <c r="EZ7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB7">
         <v>0.4</v>
@@ -5353,13 +5859,13 @@
         <v>0.12</v>
       </c>
       <c r="FN7" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="FO7">
         <v>0.7237</v>
       </c>
       <c r="FR7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS7">
         <v>0.3</v>
@@ -5401,13 +5907,13 @@
         <v>0.9</v>
       </c>
       <c r="GF7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="GG7">
         <v>0.7065</v>
       </c>
       <c r="HR7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS7" s="1">
         <v>0.25</v>
@@ -5419,7 +5925,7 @@
         <v>0.1</v>
       </c>
       <c r="HV7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW7" s="1">
         <v>16</v>
@@ -5452,7 +5958,7 @@
         <v>0.8</v>
       </c>
       <c r="IG7" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="IH7" s="1">
         <v>0.7191</v>
@@ -5478,10 +5984,10 @@
       <c r="JA7" s="1"/>
       <c r="JB7" s="1"/>
       <c r="JD7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF7">
         <v>0.4</v>
@@ -5526,15 +6032,66 @@
         <v>0.8</v>
       </c>
       <c r="JT7" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="JU7">
         <v>0.7145</v>
       </c>
+      <c r="JZ7" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA7" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB7">
+        <v>0.35</v>
+      </c>
+      <c r="KC7" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD7">
+        <v>0.1</v>
+      </c>
+      <c r="KE7">
+        <v>300</v>
+      </c>
+      <c r="KF7">
+        <v>16</v>
+      </c>
+      <c r="KG7">
+        <v>2</v>
+      </c>
+      <c r="KH7">
+        <v>10</v>
+      </c>
+      <c r="KI7">
+        <v>1</v>
+      </c>
+      <c r="KJ7">
+        <v>1</v>
+      </c>
+      <c r="KK7">
+        <v>1</v>
+      </c>
+      <c r="KL7">
+        <v>0.2</v>
+      </c>
+      <c r="KM7">
+        <v>0.12</v>
+      </c>
+      <c r="KN7">
+        <v>0.1</v>
+      </c>
+      <c r="KO7">
+        <v>0.99</v>
+      </c>
+      <c r="KP7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="33:281">
+    <row r="8" spans="33:304">
       <c r="AG8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH8" s="2">
         <v>0.5</v>
@@ -5579,7 +6136,7 @@
         <v>0.7037</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX8" s="2">
         <v>0.5</v>
@@ -5618,7 +6175,7 @@
         <v>0.7104</v>
       </c>
       <c r="CN8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO8" s="2">
         <v>0.1</v>
@@ -5654,13 +6211,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ8" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="DA8">
         <v>0.6841</v>
       </c>
       <c r="DT8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU8">
         <v>0.1</v>
@@ -5696,16 +6253,16 @@
         <v>0.12</v>
       </c>
       <c r="EF8" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="EG8">
         <v>0.7233</v>
       </c>
       <c r="EZ8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB8">
         <v>0.3</v>
@@ -5744,13 +6301,13 @@
         <v>0.12</v>
       </c>
       <c r="FN8" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="FO8">
         <v>0.7146</v>
       </c>
       <c r="FR8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS8">
         <v>0.3</v>
@@ -5792,13 +6349,13 @@
         <v>0.9</v>
       </c>
       <c r="GF8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="GG8">
         <v>0.7033</v>
       </c>
       <c r="HR8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS8" s="1">
         <v>0.25</v>
@@ -5810,7 +6367,7 @@
         <v>0.1</v>
       </c>
       <c r="HV8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW8" s="1">
         <v>16</v>
@@ -5843,7 +6400,7 @@
         <v>0.8</v>
       </c>
       <c r="IG8" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="IH8" s="1">
         <v>0.7166</v>
@@ -5869,10 +6426,10 @@
       <c r="JA8" s="1"/>
       <c r="JB8" s="1"/>
       <c r="JD8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="JF8">
         <v>0.4</v>
@@ -5917,15 +6474,72 @@
         <v>0.8</v>
       </c>
       <c r="JT8" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="JU8">
         <v>0.7101</v>
       </c>
+      <c r="JZ8" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB8">
+        <v>0.35</v>
+      </c>
+      <c r="KC8" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD8">
+        <v>0.1</v>
+      </c>
+      <c r="KE8">
+        <v>300</v>
+      </c>
+      <c r="KF8">
+        <v>16</v>
+      </c>
+      <c r="KG8">
+        <v>2</v>
+      </c>
+      <c r="KH8">
+        <v>10</v>
+      </c>
+      <c r="KI8">
+        <v>1</v>
+      </c>
+      <c r="KJ8">
+        <v>1</v>
+      </c>
+      <c r="KK8">
+        <v>1</v>
+      </c>
+      <c r="KL8">
+        <v>0.2</v>
+      </c>
+      <c r="KM8">
+        <v>0.12</v>
+      </c>
+      <c r="KN8">
+        <v>0.1</v>
+      </c>
+      <c r="KO8">
+        <v>0.99</v>
+      </c>
+      <c r="KP8">
+        <v>0.5</v>
+      </c>
+      <c r="KQ8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="KR8">
+        <v>0.6959</v>
+      </c>
     </row>
-    <row r="9" spans="33:282">
+    <row r="9" spans="33:304">
       <c r="AG9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH9" s="2">
         <v>0.5</v>
@@ -5970,7 +6584,7 @@
         <v>0.7087</v>
       </c>
       <c r="CN9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO9" s="2">
         <v>0.1</v>
@@ -6006,13 +6620,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ9" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="DA9">
         <v>0.7185</v>
       </c>
       <c r="DT9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DU9">
         <v>0.1</v>
@@ -6048,10 +6662,10 @@
         <v>0.12</v>
       </c>
       <c r="EZ9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB9">
         <v>0.5</v>
@@ -6090,13 +6704,13 @@
         <v>0.12</v>
       </c>
       <c r="FN9" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="FO9">
         <v>0.7199</v>
       </c>
       <c r="FR9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS9">
         <v>0.5</v>
@@ -6138,13 +6752,13 @@
         <v>0.9</v>
       </c>
       <c r="GF9" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="GG9">
         <v>0.6922</v>
       </c>
       <c r="HR9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS9" s="1">
         <v>0.3</v>
@@ -6156,7 +6770,7 @@
         <v>0.1</v>
       </c>
       <c r="HV9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW9" s="1">
         <v>16</v>
@@ -6189,7 +6803,7 @@
         <v>0.8</v>
       </c>
       <c r="IG9" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="IH9" s="1">
         <v>0.7142</v>
@@ -6215,10 +6829,10 @@
       <c r="JA9" s="1"/>
       <c r="JB9" s="1"/>
       <c r="JD9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="JF9">
         <v>0.4</v>
@@ -6263,18 +6877,75 @@
         <v>0.8</v>
       </c>
       <c r="JT9" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="JU9">
         <v>0.6701</v>
       </c>
       <c r="JV9" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB9">
+        <v>0.35</v>
+      </c>
+      <c r="KC9" s="6">
+        <v>0.001</v>
+      </c>
+      <c r="KD9">
+        <v>0.1</v>
+      </c>
+      <c r="KE9">
+        <v>300</v>
+      </c>
+      <c r="KF9">
+        <v>16</v>
+      </c>
+      <c r="KG9">
+        <v>2</v>
+      </c>
+      <c r="KH9">
+        <v>10</v>
+      </c>
+      <c r="KI9">
+        <v>1</v>
+      </c>
+      <c r="KJ9">
+        <v>1</v>
+      </c>
+      <c r="KK9">
+        <v>1</v>
+      </c>
+      <c r="KL9">
+        <v>0.2</v>
+      </c>
+      <c r="KM9">
+        <v>0.12</v>
+      </c>
+      <c r="KN9">
+        <v>0.001</v>
+      </c>
+      <c r="KO9">
+        <v>0.99</v>
+      </c>
+      <c r="KP9">
+        <v>0.5</v>
+      </c>
+      <c r="KQ9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="KR9">
+        <v>0.7176</v>
       </c>
     </row>
-    <row r="10" spans="33:281">
+    <row r="10" spans="33:304">
       <c r="AG10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH10" s="2">
         <v>0.5</v>
@@ -6316,10 +6987,10 @@
         <v>0.07</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="CN10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO10" s="2">
         <v>0.1</v>
@@ -6355,16 +7026,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ10" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="DA10">
         <v>0.7215</v>
       </c>
       <c r="EZ10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB10">
         <v>0.45</v>
@@ -6403,13 +7074,13 @@
         <v>0.12</v>
       </c>
       <c r="FN10" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="FO10">
         <v>0.7159</v>
       </c>
       <c r="FR10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FS10">
         <v>0.3</v>
@@ -6451,13 +7122,13 @@
         <v>0.9</v>
       </c>
       <c r="GF10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="GG10">
         <v>0.7077</v>
       </c>
       <c r="HR10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS10" s="1">
         <v>0.2</v>
@@ -6469,7 +7140,7 @@
         <v>0.1</v>
       </c>
       <c r="HV10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW10" s="1">
         <v>16</v>
@@ -6502,7 +7173,7 @@
         <v>0.8</v>
       </c>
       <c r="IG10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="IH10" s="1">
         <v>0.7179</v>
@@ -6528,10 +7199,10 @@
       <c r="JA10" s="1"/>
       <c r="JB10" s="1"/>
       <c r="JD10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="JF10">
         <v>0.4</v>
@@ -6576,15 +7247,72 @@
         <v>0.8</v>
       </c>
       <c r="JT10" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="JU10">
         <v>0.6532</v>
       </c>
+      <c r="JZ10" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA10" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB10">
+        <v>0.25</v>
+      </c>
+      <c r="KC10" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD10">
+        <v>0.1</v>
+      </c>
+      <c r="KE10">
+        <v>300</v>
+      </c>
+      <c r="KF10">
+        <v>16</v>
+      </c>
+      <c r="KG10">
+        <v>2</v>
+      </c>
+      <c r="KH10">
+        <v>10</v>
+      </c>
+      <c r="KI10">
+        <v>1</v>
+      </c>
+      <c r="KJ10">
+        <v>1</v>
+      </c>
+      <c r="KK10">
+        <v>1</v>
+      </c>
+      <c r="KL10">
+        <v>0.2</v>
+      </c>
+      <c r="KM10">
+        <v>0.12</v>
+      </c>
+      <c r="KN10">
+        <v>0.001</v>
+      </c>
+      <c r="KO10">
+        <v>0.99</v>
+      </c>
+      <c r="KP10">
+        <v>0.5</v>
+      </c>
+      <c r="KQ10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="KR10">
+        <v>0.7205</v>
+      </c>
     </row>
-    <row r="11" spans="33:280">
+    <row r="11" spans="33:304">
       <c r="AG11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH11" s="2">
         <v>0.5</v>
@@ -6629,7 +7357,7 @@
         <v>0.6748</v>
       </c>
       <c r="CN11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO11" s="2">
         <v>0.1</v>
@@ -6665,16 +7393,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ11" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="DA11">
         <v>0.7167</v>
       </c>
       <c r="EZ11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB11">
         <v>0.6</v>
@@ -6713,13 +7441,13 @@
         <v>0.12</v>
       </c>
       <c r="FN11" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="FO11">
         <v>0.7102</v>
       </c>
       <c r="HR11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS11" s="1">
         <v>0.1</v>
@@ -6731,7 +7459,7 @@
         <v>0.1</v>
       </c>
       <c r="HV11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW11" s="1">
         <v>16</v>
@@ -6764,7 +7492,7 @@
         <v>0.8</v>
       </c>
       <c r="IG11" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="IH11" s="1">
         <v>0.7165</v>
@@ -6790,10 +7518,10 @@
       <c r="JA11" s="1"/>
       <c r="JB11" s="1"/>
       <c r="JD11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="JF11">
         <v>0.4</v>
@@ -6838,12 +7566,69 @@
         <v>0.8</v>
       </c>
       <c r="JT11" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB11">
+        <v>0.2</v>
+      </c>
+      <c r="KC11" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KD11">
+        <v>0.1</v>
+      </c>
+      <c r="KE11">
+        <v>300</v>
+      </c>
+      <c r="KF11">
+        <v>16</v>
+      </c>
+      <c r="KG11">
+        <v>2</v>
+      </c>
+      <c r="KH11">
+        <v>10</v>
+      </c>
+      <c r="KI11">
+        <v>1</v>
+      </c>
+      <c r="KJ11">
+        <v>1</v>
+      </c>
+      <c r="KK11">
+        <v>1</v>
+      </c>
+      <c r="KL11">
+        <v>0.2</v>
+      </c>
+      <c r="KM11">
+        <v>0.12</v>
+      </c>
+      <c r="KN11">
+        <v>0.001</v>
+      </c>
+      <c r="KO11">
+        <v>0.99</v>
+      </c>
+      <c r="KP11">
+        <v>0.5</v>
+      </c>
+      <c r="KQ11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="KR11">
+        <v>0.7108</v>
       </c>
     </row>
-    <row r="12" spans="33:280">
+    <row r="12" spans="33:304">
       <c r="AG12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH12" s="2">
         <v>0.5</v>
@@ -6888,7 +7673,7 @@
         <v>0.7148</v>
       </c>
       <c r="CN12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO12" s="2">
         <v>0.1</v>
@@ -6924,16 +7709,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ12" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="DA12">
         <v>0.7182</v>
       </c>
       <c r="EZ12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB12">
         <v>0.7</v>
@@ -6972,13 +7757,13 @@
         <v>0.12</v>
       </c>
       <c r="FN12" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="FO12">
         <v>0.6887</v>
       </c>
       <c r="HR12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS12" s="1">
         <v>0.1</v>
@@ -6990,7 +7775,7 @@
         <v>0.1</v>
       </c>
       <c r="HV12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW12" s="1">
         <v>16</v>
@@ -7023,7 +7808,7 @@
         <v>0.8</v>
       </c>
       <c r="IG12" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="IH12" s="1">
         <v>0.7104</v>
@@ -7049,10 +7834,10 @@
       <c r="JA12" s="1"/>
       <c r="JB12" s="1"/>
       <c r="JD12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="JE12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="JF12">
         <v>0.4</v>
@@ -7097,12 +7882,69 @@
         <v>0.8</v>
       </c>
       <c r="JT12" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="JZ12" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA12" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB12">
+        <v>0.25</v>
+      </c>
+      <c r="KC12" s="6">
+        <v>0.002</v>
+      </c>
+      <c r="KD12">
+        <v>0.1</v>
+      </c>
+      <c r="KE12">
+        <v>300</v>
+      </c>
+      <c r="KF12">
+        <v>16</v>
+      </c>
+      <c r="KG12">
+        <v>2</v>
+      </c>
+      <c r="KH12">
+        <v>10</v>
+      </c>
+      <c r="KI12">
+        <v>1</v>
+      </c>
+      <c r="KJ12">
+        <v>1</v>
+      </c>
+      <c r="KK12">
+        <v>1</v>
+      </c>
+      <c r="KL12">
+        <v>0.2</v>
+      </c>
+      <c r="KM12">
+        <v>0.12</v>
+      </c>
+      <c r="KN12">
+        <v>0.001</v>
+      </c>
+      <c r="KO12">
+        <v>0.99</v>
+      </c>
+      <c r="KP12">
+        <v>0.5</v>
+      </c>
+      <c r="KQ12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="KR12" s="10">
+        <v>0.721</v>
       </c>
     </row>
-    <row r="13" spans="33:262">
+    <row r="13" spans="33:304">
       <c r="AG13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH13" s="2">
         <v>0.5</v>
@@ -7147,7 +7989,7 @@
         <v>0.7062</v>
       </c>
       <c r="CN13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO13" s="2">
         <v>0.1</v>
@@ -7183,19 +8025,19 @@
         <v>0.12</v>
       </c>
       <c r="CZ13" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="DA13" s="10">
         <v>0.716</v>
       </c>
       <c r="DB13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="EZ13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB13">
         <v>0.7</v>
@@ -7234,13 +8076,13 @@
         <v>0.12</v>
       </c>
       <c r="FN13" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="FO13">
         <v>0.6945</v>
       </c>
       <c r="HR13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS13" s="1">
         <v>0.5</v>
@@ -7252,7 +8094,7 @@
         <v>0.1</v>
       </c>
       <c r="HV13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW13" s="1">
         <v>16</v>
@@ -7285,7 +8127,7 @@
         <v>0.8</v>
       </c>
       <c r="IG13" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="IH13" s="1">
         <v>0.7004</v>
@@ -7310,10 +8152,67 @@
       <c r="IZ13" s="1"/>
       <c r="JA13" s="1"/>
       <c r="JB13" s="1"/>
+      <c r="JZ13" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA13" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB13">
+        <v>0.25</v>
+      </c>
+      <c r="KC13" s="6">
+        <v>0.001</v>
+      </c>
+      <c r="KD13">
+        <v>0.1</v>
+      </c>
+      <c r="KE13">
+        <v>300</v>
+      </c>
+      <c r="KF13">
+        <v>16</v>
+      </c>
+      <c r="KG13">
+        <v>2</v>
+      </c>
+      <c r="KH13">
+        <v>10</v>
+      </c>
+      <c r="KI13">
+        <v>1</v>
+      </c>
+      <c r="KJ13">
+        <v>1</v>
+      </c>
+      <c r="KK13">
+        <v>1</v>
+      </c>
+      <c r="KL13">
+        <v>0.2</v>
+      </c>
+      <c r="KM13">
+        <v>0.12</v>
+      </c>
+      <c r="KN13">
+        <v>0.001</v>
+      </c>
+      <c r="KO13">
+        <v>0.99</v>
+      </c>
+      <c r="KP13">
+        <v>0.5</v>
+      </c>
+      <c r="KQ13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="KR13">
+        <v>0.7216</v>
+      </c>
     </row>
-    <row r="14" spans="33:262">
+    <row r="14" spans="33:304">
       <c r="AG14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH14" s="2">
         <v>0.1</v>
@@ -7358,7 +8257,7 @@
         <v>0.6883</v>
       </c>
       <c r="CN14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO14" s="2">
         <v>0.1</v>
@@ -7394,16 +8293,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ14" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="DA14">
         <v>0.7148</v>
       </c>
       <c r="EZ14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB14">
         <v>0.7</v>
@@ -7442,13 +8341,13 @@
         <v>0.12</v>
       </c>
       <c r="FN14" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="FO14">
         <v>0.6785</v>
       </c>
       <c r="HR14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS14" s="1">
         <v>0.5</v>
@@ -7460,7 +8359,7 @@
         <v>0.1</v>
       </c>
       <c r="HV14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW14" s="1">
         <v>16</v>
@@ -7493,7 +8392,7 @@
         <v>0.8</v>
       </c>
       <c r="IG14" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="IH14" s="1">
         <v>0.7054</v>
@@ -7518,10 +8417,64 @@
       <c r="IZ14" s="1"/>
       <c r="JA14" s="1"/>
       <c r="JB14" s="1"/>
+      <c r="JZ14" t="s">
+        <v>44</v>
+      </c>
+      <c r="KA14" t="s">
+        <v>69</v>
+      </c>
+      <c r="KB14">
+        <v>0.25</v>
+      </c>
+      <c r="KD14">
+        <v>0.1</v>
+      </c>
+      <c r="KE14">
+        <v>300</v>
+      </c>
+      <c r="KF14">
+        <v>16</v>
+      </c>
+      <c r="KG14">
+        <v>2</v>
+      </c>
+      <c r="KH14">
+        <v>10</v>
+      </c>
+      <c r="KI14">
+        <v>1</v>
+      </c>
+      <c r="KJ14">
+        <v>1</v>
+      </c>
+      <c r="KK14">
+        <v>1</v>
+      </c>
+      <c r="KL14">
+        <v>0.1</v>
+      </c>
+      <c r="KM14">
+        <v>0.12</v>
+      </c>
+      <c r="KN14">
+        <v>0.1</v>
+      </c>
+      <c r="KO14">
+        <v>0.99</v>
+      </c>
+      <c r="KP14">
+        <v>0.5</v>
+      </c>
+      <c r="KQ14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="KR14">
+        <v>0.6263</v>
+      </c>
     </row>
     <row r="15" spans="33:262">
       <c r="AG15" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH15" s="2">
         <v>0.1</v>
@@ -7566,7 +8519,7 @@
         <v>0.714</v>
       </c>
       <c r="CN15" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO15" s="2">
         <v>0.1</v>
@@ -7602,16 +8555,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ15" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="DA15">
         <v>0.7086</v>
       </c>
       <c r="EZ15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB15">
         <v>0.3</v>
@@ -7650,13 +8603,13 @@
         <v>0.12</v>
       </c>
       <c r="FN15" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="FO15">
         <v>0.7274</v>
       </c>
       <c r="HR15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS15" s="1">
         <v>0.5</v>
@@ -7668,7 +8621,7 @@
         <v>0.1</v>
       </c>
       <c r="HV15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW15" s="1">
         <v>16</v>
@@ -7677,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="HY15" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="HZ15" s="1">
         <v>1</v>
@@ -7701,10 +8654,10 @@
         <v>0.8</v>
       </c>
       <c r="IG15" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="IH15" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="II15" s="1"/>
       <c r="IJ15" s="1"/>
@@ -7729,7 +8682,7 @@
     </row>
     <row r="16" spans="33:262">
       <c r="AG16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH16" s="2">
         <v>0.1</v>
@@ -7774,7 +8727,7 @@
         <v>0.7225</v>
       </c>
       <c r="CN16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CO16" s="2">
         <v>0.1</v>
@@ -7810,16 +8763,16 @@
         <v>0.12</v>
       </c>
       <c r="CZ16" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="DA16">
         <v>0.7181</v>
       </c>
       <c r="EZ16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB16">
         <v>0.3</v>
@@ -7858,13 +8811,13 @@
         <v>0.12</v>
       </c>
       <c r="FN16" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="FO16">
         <v>0.7217</v>
       </c>
       <c r="HR16" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS16" s="1">
         <v>0.25</v>
@@ -7876,10 +8829,10 @@
         <v>0.1</v>
       </c>
       <c r="HV16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW16" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="HX16" s="1">
         <v>2</v>
@@ -7909,10 +8862,10 @@
         <v>0.8</v>
       </c>
       <c r="IG16" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="IH16" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="II16" s="1"/>
       <c r="IJ16" s="1"/>
@@ -7937,7 +8890,7 @@
     </row>
     <row r="17" spans="33:262">
       <c r="AG17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH17" s="2">
         <v>0.1</v>
@@ -7982,10 +8935,10 @@
         <v>0.7209</v>
       </c>
       <c r="EZ17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB17">
         <v>0.3</v>
@@ -8024,13 +8977,13 @@
         <v>0.12</v>
       </c>
       <c r="FN17" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="FO17">
         <v>0.7184</v>
       </c>
       <c r="HR17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS17" s="1">
         <v>0.25</v>
@@ -8042,10 +8995,10 @@
         <v>0.1</v>
       </c>
       <c r="HV17" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="HW17" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="HX17" s="1">
         <v>2</v>
@@ -8075,10 +9028,10 @@
         <v>0.8</v>
       </c>
       <c r="IG17" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="IH17" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="II17" s="1"/>
       <c r="IJ17" s="1"/>
@@ -8103,7 +9056,7 @@
     </row>
     <row r="18" spans="33:262">
       <c r="AG18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH18" s="2">
         <v>0.1</v>
@@ -8148,10 +9101,10 @@
         <v>0.7158</v>
       </c>
       <c r="EZ18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB18">
         <v>0.3</v>
@@ -8190,13 +9143,13 @@
         <v>0.12</v>
       </c>
       <c r="FN18" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="FO18">
         <v>0.7232</v>
       </c>
       <c r="HR18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="HS18" s="1">
         <v>0.25</v>
@@ -8208,7 +9161,7 @@
         <v>0.1</v>
       </c>
       <c r="HV18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="HW18" s="1">
         <v>16</v>
@@ -8241,10 +9194,10 @@
         <v>0.8</v>
       </c>
       <c r="IG18" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="IH18" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="II18" s="1"/>
       <c r="IJ18" s="1"/>
@@ -8269,7 +9222,7 @@
     </row>
     <row r="19" spans="33:262">
       <c r="AG19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH19" s="2">
         <v>0.1</v>
@@ -8314,10 +9267,10 @@
         <v>0.7243</v>
       </c>
       <c r="EZ19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB19">
         <v>0.3</v>
@@ -8356,55 +9309,55 @@
         <v>0.12</v>
       </c>
       <c r="FN19" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="FO19">
         <v>0.7176</v>
       </c>
       <c r="HR19" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="HS19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="HT19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="HU19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="HV19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="HV19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="HW19" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="HX19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="HY19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="HZ19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IA19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IB19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="IC19" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="ID19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="IE19" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="IF19" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="IG19" s="1"/>
       <c r="IH19" s="1"/>
@@ -8431,7 +9384,7 @@
     </row>
     <row r="20" spans="33:262">
       <c r="AG20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH20" s="2">
         <v>0.1</v>
@@ -8476,10 +9429,10 @@
         <v>0.7191</v>
       </c>
       <c r="EZ20" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA20" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB20" s="12">
         <v>0.35</v>
@@ -8518,7 +9471,7 @@
         <v>0.12</v>
       </c>
       <c r="FN20" s="14" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="FO20" s="12">
         <v>0.7282</v>
@@ -8563,7 +9516,7 @@
     </row>
     <row r="21" spans="33:262">
       <c r="AG21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH21" s="2">
         <v>0.1</v>
@@ -8608,10 +9561,10 @@
         <v>0.72</v>
       </c>
       <c r="EZ21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB21">
         <v>0.4</v>
@@ -8650,7 +9603,7 @@
         <v>0.12</v>
       </c>
       <c r="FN21" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="FO21">
         <v>0.7256</v>
@@ -8695,7 +9648,7 @@
     </row>
     <row r="22" spans="33:262">
       <c r="AG22" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH22" s="2">
         <v>0.1</v>
@@ -8740,10 +9693,10 @@
         <v>0.7237</v>
       </c>
       <c r="EZ22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB22">
         <v>0.25</v>
@@ -8782,13 +9735,13 @@
         <v>0.12</v>
       </c>
       <c r="FN22" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="FO22">
         <v>0.7188</v>
       </c>
       <c r="FP22" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="HR22" s="1"/>
       <c r="HS22" s="1"/>
@@ -8830,7 +9783,7 @@
     </row>
     <row r="23" spans="33:262">
       <c r="AG23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AH23" s="2">
         <v>0.5</v>
@@ -8872,10 +9825,10 @@
         <v>0.09</v>
       </c>
       <c r="EZ23" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="FA23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB23">
         <v>0.35</v>
@@ -8914,7 +9867,7 @@
         <v>0.12</v>
       </c>
       <c r="FN23" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="FO23">
         <v>0.6817</v>
@@ -8959,10 +9912,10 @@
     </row>
     <row r="24" spans="156:262">
       <c r="EZ24" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="FA24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB24">
         <v>0.35</v>
@@ -9001,7 +9954,7 @@
         <v>0.12</v>
       </c>
       <c r="FN24" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="FO24">
         <v>0.6134</v>
@@ -9046,10 +9999,10 @@
     </row>
     <row r="25" spans="156:262">
       <c r="EZ25" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="FA25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB25">
         <v>0.35</v>
@@ -9088,7 +10041,7 @@
         <v>0.12</v>
       </c>
       <c r="FN25" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="FO25">
         <v>0.6824</v>
@@ -9133,10 +10086,10 @@
     </row>
     <row r="26" spans="156:262">
       <c r="EZ26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="FB26">
         <v>0.25</v>
@@ -9175,7 +10128,7 @@
         <v>0.12</v>
       </c>
       <c r="FN26" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="FO26">
         <v>0.7188</v>
@@ -9220,10 +10173,10 @@
     </row>
     <row r="27" spans="156:262">
       <c r="EZ27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB27">
         <v>0.4</v>
@@ -9262,7 +10215,7 @@
         <v>0.12</v>
       </c>
       <c r="FN27" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="FO27">
         <v>0.6726</v>
@@ -9307,10 +10260,10 @@
     </row>
     <row r="28" spans="156:262">
       <c r="EZ28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA28" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB28">
         <v>0.2</v>
@@ -9349,7 +10302,7 @@
         <v>0.12</v>
       </c>
       <c r="FN28" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="FO28">
         <v>0.7051</v>
@@ -9394,10 +10347,10 @@
     </row>
     <row r="29" spans="156:262">
       <c r="EZ29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA29" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB29">
         <v>0.1</v>
@@ -9436,7 +10389,7 @@
         <v>0.12</v>
       </c>
       <c r="FN29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="FO29">
         <v>0.7053</v>
@@ -9481,10 +10434,10 @@
     </row>
     <row r="30" spans="156:244">
       <c r="EZ30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB30">
         <v>0.1</v>
@@ -9523,7 +10476,7 @@
         <v>0.12</v>
       </c>
       <c r="FN30" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="FO30">
         <v>0.7055</v>
@@ -9550,10 +10503,10 @@
     </row>
     <row r="31" spans="156:244">
       <c r="EZ31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB31">
         <v>0.1</v>
@@ -9592,7 +10545,7 @@
         <v>0.12</v>
       </c>
       <c r="FN31" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="FO31">
         <v>0.7095</v>
@@ -9619,10 +10572,10 @@
     </row>
     <row r="32" spans="156:244">
       <c r="EZ32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA32" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB32">
         <v>0.1</v>
@@ -9808,7 +10761,7 @@
     </row>
     <row r="39" spans="156:244">
       <c r="EZ39" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="FA39" s="2"/>
       <c r="FB39" s="2"/>
@@ -9847,10 +10800,10 @@
     </row>
     <row r="40" spans="156:244">
       <c r="EZ40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA40" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB40">
         <v>0.25</v>
@@ -9889,7 +10842,7 @@
         <v>0.12</v>
       </c>
       <c r="FN40" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="FO40">
         <v>0.6582</v>
@@ -9916,10 +10869,10 @@
     </row>
     <row r="41" spans="156:171">
       <c r="EZ41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA41" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB41">
         <v>0.25</v>
@@ -9958,7 +10911,7 @@
         <v>0.12</v>
       </c>
       <c r="FN41" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="FO41">
         <v>0.6801</v>
@@ -9966,10 +10919,10 @@
     </row>
     <row r="42" spans="156:171">
       <c r="EZ42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="FA42" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="FB42">
         <v>0.25</v>
@@ -10008,14 +10961,14 @@
         <v>0.12</v>
       </c>
       <c r="FN42" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="FO42">
         <v>0.6931</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="V1:AE1"/>
@@ -10034,6 +10987,8 @@
     <mergeCell ref="HR1:II1"/>
     <mergeCell ref="IK1:JB1"/>
     <mergeCell ref="JD1:JV1"/>
+    <mergeCell ref="JZ1:KS1"/>
+    <mergeCell ref="KX1:LP1"/>
     <mergeCell ref="EZ39:FO39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10054,7 +11009,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10071,7 +11026,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="191">
   <si>
     <t>原始ReZSL</t>
   </si>
@@ -94,6 +94,9 @@
     <t>version 9（my_SimCLR6）：20240531 在CLleanring中获取对比学习用的特征的MLP层中使用了leakyReLU</t>
   </si>
   <si>
+    <t xml:space="preserve">version 10 ：attentionNet 3 </t>
+  </si>
+  <si>
     <t>vit</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>数据集</t>
   </si>
   <si>
+    <t>数据集分割</t>
+  </si>
+  <si>
     <t>n_batch</t>
   </si>
   <si>
@@ -166,6 +172,24 @@
     <t>T2</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>mask_rate</t>
+  </si>
+  <si>
+    <t>Lcls系数</t>
+  </si>
+  <si>
+    <t>Lreg系数1</t>
+  </si>
+  <si>
+    <t>reconstruct_loss系数</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -247,6 +271,9 @@
     <t>12/14</t>
   </si>
   <si>
+    <t>large</t>
+  </si>
+  <si>
     <t>6/13</t>
   </si>
   <si>
@@ -529,9 +556,6 @@
     <t>29/74</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -556,6 +580,9 @@
     <t>11/12</t>
   </si>
   <si>
+    <t>DUET</t>
+  </si>
+  <si>
     <t>16/30</t>
   </si>
   <si>
@@ -566,6 +593,9 @@
   </si>
   <si>
     <t>17/30</t>
+  </si>
+  <si>
+    <t>19/49</t>
   </si>
   <si>
     <t>20240526：attention+mae</t>
@@ -1205,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1279,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,10 +1595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:LP42"/>
+  <dimension ref="A1:MG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="ER1" workbookViewId="0">
-      <selection activeCell="FO20" sqref="FO20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="LD1" workbookViewId="0">
+      <selection activeCell="LS3" sqref="LS1:MG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1648,80 +1681,81 @@
     <col min="136" max="136" width="9.13333333333333" style="1"/>
     <col min="142" max="142" width="9.38333333333333"/>
     <col min="154" max="154" width="34.8833333333333" customWidth="1"/>
-    <col min="159" max="159" width="9.38333333333333"/>
-    <col min="170" max="170" width="9.13333333333333" style="1"/>
-    <col min="174" max="174" width="4.38333333333333" customWidth="1"/>
-    <col min="175" max="175" width="10.3833333333333" customWidth="1"/>
-    <col min="176" max="176" width="8.38333333333333" customWidth="1"/>
-    <col min="177" max="177" width="6.38333333333333" customWidth="1"/>
-    <col min="178" max="178" width="5.38333333333333" customWidth="1"/>
-    <col min="179" max="180" width="6.38333333333333" customWidth="1"/>
-    <col min="181" max="181" width="9.38333333333333" customWidth="1"/>
-    <col min="182" max="182" width="14.8833333333333" customWidth="1"/>
-    <col min="183" max="183" width="16" customWidth="1"/>
-    <col min="184" max="184" width="18.25" customWidth="1"/>
-    <col min="185" max="185" width="13.75" customWidth="1"/>
-    <col min="186" max="188" width="18.25" customWidth="1"/>
-    <col min="189" max="189" width="7.38333333333333" customWidth="1"/>
-    <col min="190" max="190" width="5.13333333333333" customWidth="1"/>
-    <col min="194" max="194" width="9.38333333333333"/>
-    <col min="205" max="205" width="9.13333333333333" style="1"/>
-    <col min="211" max="211" width="9.38333333333333"/>
-    <col min="226" max="226" width="6.38333333333333" customWidth="1"/>
-    <col min="227" max="227" width="10.3833333333333" customWidth="1"/>
-    <col min="228" max="228" width="8.38333333333333" customWidth="1"/>
-    <col min="229" max="229" width="6.38333333333333" customWidth="1"/>
-    <col min="230" max="230" width="8.38333333333333" customWidth="1"/>
-    <col min="231" max="231" width="5.38333333333333" customWidth="1"/>
-    <col min="232" max="233" width="6.38333333333333" customWidth="1"/>
-    <col min="234" max="234" width="9.38333333333333" customWidth="1"/>
-    <col min="235" max="235" width="14.8833333333333" customWidth="1"/>
-    <col min="236" max="236" width="16" customWidth="1"/>
-    <col min="237" max="237" width="18.25" customWidth="1"/>
-    <col min="238" max="238" width="13.75" customWidth="1"/>
-    <col min="239" max="239" width="11.25" customWidth="1"/>
-    <col min="240" max="240" width="22.6333333333333" customWidth="1"/>
-    <col min="241" max="241" width="18.25" customWidth="1"/>
-    <col min="242" max="242" width="7.38333333333333" customWidth="1"/>
-    <col min="264" max="265" width="5.38333333333333" customWidth="1"/>
-    <col min="266" max="266" width="10.3833333333333" customWidth="1"/>
-    <col min="267" max="267" width="9.38333333333333" customWidth="1"/>
-    <col min="268" max="268" width="6.38333333333333" customWidth="1"/>
-    <col min="269" max="269" width="8.38333333333333" customWidth="1"/>
-    <col min="270" max="270" width="5.38333333333333" customWidth="1"/>
-    <col min="271" max="272" width="6.38333333333333" customWidth="1"/>
-    <col min="273" max="273" width="9.38333333333333" customWidth="1"/>
-    <col min="274" max="274" width="14.8833333333333" customWidth="1"/>
-    <col min="275" max="275" width="16" customWidth="1"/>
-    <col min="276" max="276" width="18.25" customWidth="1"/>
-    <col min="277" max="277" width="13.75" customWidth="1"/>
-    <col min="278" max="278" width="11.25" customWidth="1"/>
-    <col min="279" max="279" width="22.6333333333333" customWidth="1"/>
-    <col min="280" max="280" width="18.25" style="1" customWidth="1"/>
-    <col min="281" max="281" width="7.38333333333333" customWidth="1"/>
-    <col min="282" max="282" width="90.3833333333333" customWidth="1"/>
-    <col min="286" max="286" width="5.375" customWidth="1"/>
-    <col min="287" max="287" width="7.375" customWidth="1"/>
-    <col min="288" max="288" width="10.375" customWidth="1"/>
-    <col min="289" max="289" width="8.375" customWidth="1"/>
-    <col min="290" max="290" width="6.375" customWidth="1"/>
-    <col min="291" max="291" width="8.375" customWidth="1"/>
-    <col min="292" max="292" width="5.375" customWidth="1"/>
-    <col min="293" max="294" width="6.375" customWidth="1"/>
-    <col min="295" max="295" width="9.375" customWidth="1"/>
-    <col min="296" max="296" width="14.875" customWidth="1"/>
-    <col min="297" max="297" width="16" customWidth="1"/>
-    <col min="298" max="298" width="18.25" customWidth="1"/>
-    <col min="299" max="299" width="13.75" customWidth="1"/>
-    <col min="300" max="300" width="11.25" customWidth="1"/>
-    <col min="301" max="302" width="22.625" customWidth="1"/>
-    <col min="303" max="303" width="18.25" style="1" customWidth="1"/>
-    <col min="304" max="304" width="8.81666666666667" customWidth="1"/>
-    <col min="305" max="305" width="54" customWidth="1"/>
-    <col min="306" max="308" width="5.125" customWidth="1"/>
+    <col min="160" max="160" width="9.38333333333333"/>
+    <col min="171" max="171" width="9.13333333333333" style="1"/>
+    <col min="173" max="173" width="14.5"/>
+    <col min="175" max="175" width="4.38333333333333" customWidth="1"/>
+    <col min="176" max="176" width="10.3833333333333" customWidth="1"/>
+    <col min="177" max="177" width="8.38333333333333" customWidth="1"/>
+    <col min="178" max="178" width="6.38333333333333" customWidth="1"/>
+    <col min="179" max="179" width="5.38333333333333" customWidth="1"/>
+    <col min="180" max="181" width="6.38333333333333" customWidth="1"/>
+    <col min="182" max="182" width="9.38333333333333" customWidth="1"/>
+    <col min="183" max="183" width="14.8833333333333" customWidth="1"/>
+    <col min="184" max="184" width="16" customWidth="1"/>
+    <col min="185" max="185" width="18.25" customWidth="1"/>
+    <col min="186" max="186" width="13.75" customWidth="1"/>
+    <col min="187" max="189" width="18.25" customWidth="1"/>
+    <col min="190" max="190" width="7.38333333333333" customWidth="1"/>
+    <col min="191" max="191" width="5.13333333333333" customWidth="1"/>
+    <col min="195" max="195" width="9.38333333333333"/>
+    <col min="206" max="206" width="9.13333333333333" style="1"/>
+    <col min="212" max="212" width="9.38333333333333"/>
+    <col min="227" max="227" width="6.38333333333333" customWidth="1"/>
+    <col min="228" max="228" width="10.3833333333333" customWidth="1"/>
+    <col min="229" max="229" width="8.38333333333333" customWidth="1"/>
+    <col min="230" max="230" width="6.38333333333333" customWidth="1"/>
+    <col min="231" max="231" width="8.38333333333333" customWidth="1"/>
+    <col min="232" max="232" width="5.38333333333333" customWidth="1"/>
+    <col min="233" max="234" width="6.38333333333333" customWidth="1"/>
+    <col min="235" max="235" width="9.38333333333333" customWidth="1"/>
+    <col min="236" max="236" width="14.8833333333333" customWidth="1"/>
+    <col min="237" max="237" width="16" customWidth="1"/>
+    <col min="238" max="238" width="18.25" customWidth="1"/>
+    <col min="239" max="239" width="13.75" customWidth="1"/>
+    <col min="240" max="240" width="11.25" customWidth="1"/>
+    <col min="241" max="241" width="22.6333333333333" customWidth="1"/>
+    <col min="242" max="242" width="18.25" customWidth="1"/>
+    <col min="243" max="243" width="7.38333333333333" customWidth="1"/>
+    <col min="265" max="266" width="5.38333333333333" customWidth="1"/>
+    <col min="267" max="267" width="10.3833333333333" customWidth="1"/>
+    <col min="268" max="268" width="9.38333333333333" customWidth="1"/>
+    <col min="269" max="269" width="6.38333333333333" customWidth="1"/>
+    <col min="270" max="270" width="8.38333333333333" customWidth="1"/>
+    <col min="271" max="271" width="5.38333333333333" customWidth="1"/>
+    <col min="272" max="273" width="6.38333333333333" customWidth="1"/>
+    <col min="274" max="274" width="9.38333333333333" customWidth="1"/>
+    <col min="275" max="275" width="14.8833333333333" customWidth="1"/>
+    <col min="276" max="276" width="16" customWidth="1"/>
+    <col min="277" max="277" width="18.25" customWidth="1"/>
+    <col min="278" max="278" width="13.75" customWidth="1"/>
+    <col min="279" max="279" width="11.25" customWidth="1"/>
+    <col min="280" max="280" width="22.6333333333333" customWidth="1"/>
+    <col min="281" max="281" width="18.25" style="1" customWidth="1"/>
+    <col min="282" max="282" width="7.38333333333333" customWidth="1"/>
+    <col min="283" max="283" width="90.3833333333333" customWidth="1"/>
+    <col min="287" max="287" width="5.375" customWidth="1"/>
+    <col min="288" max="288" width="7.375" customWidth="1"/>
+    <col min="289" max="289" width="10.375" customWidth="1"/>
+    <col min="290" max="290" width="8.375" customWidth="1"/>
+    <col min="291" max="291" width="6.375" customWidth="1"/>
+    <col min="292" max="292" width="8.375" customWidth="1"/>
+    <col min="293" max="293" width="5.375" customWidth="1"/>
+    <col min="294" max="295" width="6.375" customWidth="1"/>
+    <col min="296" max="296" width="9.375" customWidth="1"/>
+    <col min="297" max="297" width="14.875" customWidth="1"/>
+    <col min="298" max="298" width="16" customWidth="1"/>
+    <col min="299" max="299" width="18.25" customWidth="1"/>
+    <col min="300" max="300" width="13.75" customWidth="1"/>
+    <col min="301" max="301" width="11.25" customWidth="1"/>
+    <col min="302" max="303" width="22.625" customWidth="1"/>
+    <col min="304" max="304" width="18.25" style="1" customWidth="1"/>
+    <col min="305" max="305" width="8.81666666666667" customWidth="1"/>
+    <col min="306" max="306" width="54" customWidth="1"/>
+    <col min="307" max="309" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328">
+    <row r="1" spans="1:345">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1900,13 +1934,13 @@
       <c r="FK1" s="2"/>
       <c r="FL1" s="2"/>
       <c r="FM1" s="2"/>
-      <c r="FN1" s="3"/>
-      <c r="FO1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="3"/>
       <c r="FP1" s="2"/>
-      <c r="FR1" s="2" t="s">
+      <c r="FQ1" s="2"/>
+      <c r="FS1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="FS1" s="2"/>
       <c r="FT1" s="2"/>
       <c r="FU1" s="2"/>
       <c r="FV1" s="2"/>
@@ -1917,15 +1951,15 @@
       <c r="GA1" s="2"/>
       <c r="GB1" s="2"/>
       <c r="GC1" s="2"/>
-      <c r="GD1" s="3"/>
+      <c r="GD1" s="2"/>
       <c r="GE1" s="3"/>
       <c r="GF1" s="3"/>
-      <c r="GG1" s="2"/>
+      <c r="GG1" s="3"/>
       <c r="GH1" s="2"/>
-      <c r="GJ1" s="2" t="s">
+      <c r="GI1" s="2"/>
+      <c r="GK1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="GK1" s="2"/>
       <c r="GL1" s="2"/>
       <c r="GM1" s="2"/>
       <c r="GN1" s="2"/>
@@ -1936,14 +1970,14 @@
       <c r="GS1" s="2"/>
       <c r="GT1" s="2"/>
       <c r="GU1" s="2"/>
-      <c r="GV1" s="3"/>
+      <c r="GV1" s="2"/>
       <c r="GW1" s="3"/>
-      <c r="GX1" s="2"/>
+      <c r="GX1" s="3"/>
       <c r="GY1" s="2"/>
-      <c r="HA1" s="2" t="s">
+      <c r="GZ1" s="2"/>
+      <c r="HB1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="HB1" s="2"/>
       <c r="HC1" s="2"/>
       <c r="HD1" s="2"/>
       <c r="HE1" s="2"/>
@@ -1954,14 +1988,14 @@
       <c r="HJ1" s="2"/>
       <c r="HK1" s="2"/>
       <c r="HL1" s="2"/>
-      <c r="HM1" s="3"/>
+      <c r="HM1" s="2"/>
       <c r="HN1" s="3"/>
-      <c r="HO1" s="2"/>
+      <c r="HO1" s="3"/>
       <c r="HP1" s="2"/>
-      <c r="HR1" s="2" t="s">
+      <c r="HQ1" s="2"/>
+      <c r="HS1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="HS1" s="2"/>
       <c r="HT1" s="2"/>
       <c r="HU1" s="2"/>
       <c r="HV1" s="2"/>
@@ -1973,15 +2007,15 @@
       <c r="IB1" s="2"/>
       <c r="IC1" s="2"/>
       <c r="ID1" s="2"/>
-      <c r="IE1" s="3"/>
+      <c r="IE1" s="2"/>
       <c r="IF1" s="3"/>
       <c r="IG1" s="3"/>
-      <c r="IH1" s="2"/>
+      <c r="IH1" s="3"/>
       <c r="II1" s="2"/>
-      <c r="IK1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="IL1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IL1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="IM1" s="2"/>
       <c r="IN1" s="2"/>
       <c r="IO1" s="2"/>
@@ -1993,15 +2027,15 @@
       <c r="IU1" s="2"/>
       <c r="IV1" s="2"/>
       <c r="IW1" s="2"/>
-      <c r="IX1" s="3"/>
+      <c r="IX1" s="2"/>
       <c r="IY1" s="3"/>
       <c r="IZ1" s="3"/>
-      <c r="JA1" s="2"/>
+      <c r="JA1" s="3"/>
       <c r="JB1" s="2"/>
-      <c r="JD1" s="2" t="s">
+      <c r="JC1" s="2"/>
+      <c r="JE1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="JE1" s="2"/>
       <c r="JF1" s="2"/>
       <c r="JG1" s="2"/>
       <c r="JH1" s="2"/>
@@ -2014,15 +2048,15 @@
       <c r="JO1" s="2"/>
       <c r="JP1" s="2"/>
       <c r="JQ1" s="2"/>
-      <c r="JR1" s="3"/>
+      <c r="JR1" s="2"/>
       <c r="JS1" s="3"/>
       <c r="JT1" s="3"/>
-      <c r="JU1" s="2"/>
+      <c r="JU1" s="3"/>
       <c r="JV1" s="2"/>
-      <c r="JZ1" s="2" t="s">
+      <c r="JW1" s="2"/>
+      <c r="KA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="KA1" s="2"/>
       <c r="KB1" s="2"/>
       <c r="KC1" s="2"/>
       <c r="KD1" s="2"/>
@@ -2035,19 +2069,19 @@
       <c r="KK1" s="2"/>
       <c r="KL1" s="2"/>
       <c r="KM1" s="2"/>
-      <c r="KN1" s="3"/>
+      <c r="KN1" s="2"/>
       <c r="KO1" s="3"/>
       <c r="KP1" s="3"/>
       <c r="KQ1" s="3"/>
-      <c r="KR1" s="2"/>
+      <c r="KR1" s="3"/>
       <c r="KS1" s="2"/>
       <c r="KT1" s="2"/>
       <c r="KU1" s="2"/>
       <c r="KV1" s="2"/>
-      <c r="KX1" s="2" t="s">
+      <c r="KW1" s="2"/>
+      <c r="KY1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="KY1" s="2"/>
       <c r="KZ1" s="2"/>
       <c r="LA1" s="2"/>
       <c r="LB1" s="2"/>
@@ -2060,449 +2094,467 @@
       <c r="LI1" s="2"/>
       <c r="LJ1" s="2"/>
       <c r="LK1" s="2"/>
-      <c r="LL1" s="3"/>
+      <c r="LL1" s="2"/>
       <c r="LM1" s="3"/>
       <c r="LN1" s="3"/>
-      <c r="LO1" s="2"/>
+      <c r="LO1" s="3"/>
       <c r="LP1" s="2"/>
+      <c r="LQ1" s="2"/>
+      <c r="LS1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="LT1" s="2"/>
+      <c r="LU1" s="2"/>
+      <c r="LV1" s="2"/>
+      <c r="LW1" s="2"/>
+      <c r="LX1" s="2"/>
+      <c r="LY1" s="2"/>
+      <c r="LZ1" s="2"/>
+      <c r="MA1" s="2"/>
+      <c r="MB1" s="2"/>
+      <c r="MC1" s="2"/>
+      <c r="MD1" s="2"/>
+      <c r="ME1" s="2"/>
+      <c r="MF1" s="2"/>
+      <c r="MG1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:328">
+    <row r="2" ht="14.25" spans="1:345">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="CB2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="CE2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL2" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="CN2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="CV2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="CW2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="CX2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="CY2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DI2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX2" s="4" t="s">
+      <c r="DK2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>28</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="DU2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="DV2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="DW2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="DX2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="DY2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BD2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="4" t="s">
+      <c r="DZ2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="EA2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="EB2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="EC2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BH2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI2" s="4" t="s">
+      <c r="ED2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="EJ2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EK2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="EM2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="EN2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="EO2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EP2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BK2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL2" s="4" t="s">
+      <c r="EQ2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="ER2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="ES2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="EU2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>28</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>38</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BM2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>27</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="DF2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="DG2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="DH2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="DI2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="DJ2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="DK2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="DL2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="DO2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>27</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>37</v>
-      </c>
-      <c r="DT2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="DU2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="DV2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="DW2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="DY2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="DZ2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="EA2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="EB2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="EC2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="ED2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="EE2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>27</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>37</v>
-      </c>
-      <c r="EJ2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="EK2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="EL2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="EM2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="EN2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="EO2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="EP2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="EQ2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="ER2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="ES2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="EU2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>27</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>37</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="FA2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="FB2" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="FC2" s="4" t="s">
         <v>22</v>
@@ -2520,10 +2572,10 @@
         <v>26</v>
       </c>
       <c r="FH2" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="FI2" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="FJ2" s="4" t="s">
         <v>31</v>
@@ -2535,19 +2587,19 @@
         <v>33</v>
       </c>
       <c r="FM2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="FN2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="FN2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="FO2" t="s">
-        <v>27</v>
+      <c r="FO2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="FP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="FR2" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>38</v>
       </c>
       <c r="FS2" s="4" t="s">
         <v>21</v>
@@ -2568,7 +2620,7 @@
         <v>26</v>
       </c>
       <c r="FY2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="FZ2" s="4" t="s">
         <v>31</v>
@@ -2580,25 +2632,25 @@
         <v>33</v>
       </c>
       <c r="GC2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="GD2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="GE2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="GF2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="GH2" t="s">
-        <v>37</v>
-      </c>
-      <c r="GJ2" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>38</v>
       </c>
       <c r="GK2" s="4" t="s">
         <v>21</v>
@@ -2619,7 +2671,7 @@
         <v>26</v>
       </c>
       <c r="GQ2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="GR2" s="4" t="s">
         <v>31</v>
@@ -2631,22 +2683,22 @@
         <v>33</v>
       </c>
       <c r="GU2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="GV2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="GW2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="GY2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HA2" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>38</v>
       </c>
       <c r="HB2" s="4" t="s">
         <v>21</v>
@@ -2667,7 +2719,7 @@
         <v>26</v>
       </c>
       <c r="HH2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="HI2" s="4" t="s">
         <v>31</v>
@@ -2679,22 +2731,22 @@
         <v>33</v>
       </c>
       <c r="HL2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="HM2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="HM2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="HN2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="HP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HR2" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>38</v>
       </c>
       <c r="HS2" s="5" t="s">
         <v>21</v>
@@ -2706,10 +2758,10 @@
         <v>23</v>
       </c>
       <c r="HV2" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="HW2" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="HX2" s="5" t="s">
         <v>25</v>
@@ -2718,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="HZ2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="IA2" s="5" t="s">
         <v>31</v>
@@ -2730,27 +2782,27 @@
         <v>33</v>
       </c>
       <c r="ID2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="IE2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="IE2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="IF2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="IG2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="IH2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="II2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="IJ2" s="1"/>
-      <c r="IK2" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="IJ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="IK2" s="1"/>
       <c r="IL2" s="5" t="s">
         <v>21</v>
       </c>
@@ -2761,10 +2813,10 @@
         <v>23</v>
       </c>
       <c r="IO2" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="IP2" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="IQ2" s="5" t="s">
         <v>25</v>
@@ -2773,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="IS2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="IT2" s="5" t="s">
         <v>31</v>
@@ -2785,31 +2837,31 @@
         <v>33</v>
       </c>
       <c r="IW2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="IX2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="IX2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="IY2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="IZ2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="JA2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="JB2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="JD2" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="JC2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="JE2" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="JF2" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="JG2" s="5" t="s">
         <v>22</v>
@@ -2818,10 +2870,10 @@
         <v>23</v>
       </c>
       <c r="JI2" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="JJ2" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="JK2" s="5" t="s">
         <v>25</v>
@@ -2830,7 +2882,7 @@
         <v>26</v>
       </c>
       <c r="JM2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="JN2" s="5" t="s">
         <v>31</v>
@@ -2842,31 +2894,31 @@
         <v>33</v>
       </c>
       <c r="JQ2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="JR2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="JR2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="JS2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="JT2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="JU2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="JV2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="JZ2" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="KA2" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="KB2" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="KC2" s="5" t="s">
         <v>22</v>
@@ -2875,10 +2927,10 @@
         <v>23</v>
       </c>
       <c r="KE2" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="KF2" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="KG2" s="5" t="s">
         <v>25</v>
@@ -2887,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="KI2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="KJ2" s="5" t="s">
         <v>31</v>
@@ -2899,37 +2951,37 @@
         <v>33</v>
       </c>
       <c r="KM2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="KN2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="KN2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="KO2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="KP2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="KQ2" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="KR2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="KS2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="KT2" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="KT2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="KU2" s="1"/>
       <c r="KV2" s="1"/>
-      <c r="KX2" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="KW2" s="1"/>
       <c r="KY2" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="KZ2" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="LA2" s="5" t="s">
         <v>22</v>
@@ -2938,10 +2990,10 @@
         <v>23</v>
       </c>
       <c r="LC2" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="LD2" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="LE2" s="5" t="s">
         <v>25</v>
@@ -2950,7 +3002,7 @@
         <v>26</v>
       </c>
       <c r="LG2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="LH2" s="5" t="s">
         <v>31</v>
@@ -2962,27 +3014,69 @@
         <v>33</v>
       </c>
       <c r="LK2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="LL2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="LL2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="LM2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="LN2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="LO2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="LP2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="LQ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>21</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>24</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>25</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>26</v>
+      </c>
+      <c r="LZ2" t="s">
         <v>27</v>
       </c>
-      <c r="LP2" s="1" t="s">
-        <v>37</v>
+      <c r="MA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:325">
+    <row r="3" ht="14.25" spans="1:342">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3003,13 +3097,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>0.7156</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L3" s="4">
         <v>0.7</v>
@@ -3036,7 +3130,7 @@
         <v>0.6715</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W3" s="2">
         <v>0.5</v>
@@ -3066,7 +3160,7 @@
         <v>0.7103</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH3" s="2">
         <v>0.5</v>
@@ -3111,7 +3205,7 @@
         <v>0.7145</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX3" s="2">
         <v>0.5</v>
@@ -3150,7 +3244,7 @@
         <v>0.715</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BL3" s="2">
         <v>0.5</v>
@@ -3189,7 +3283,7 @@
         <v>0.7103</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BZ3" s="2">
         <v>0.5</v>
@@ -3225,13 +3319,13 @@
         <v>0.12</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="CL3">
         <v>0.7186</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO3" s="2">
         <v>0.5</v>
@@ -3267,13 +3361,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="DA3">
         <v>0.7013</v>
       </c>
       <c r="DT3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU3">
         <v>0.5</v>
@@ -3312,7 +3406,7 @@
         <v>0.7193</v>
       </c>
       <c r="EJ3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="EK3">
         <v>0.5</v>
@@ -3348,41 +3442,38 @@
         <v>0.12</v>
       </c>
       <c r="EV3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="EW3">
         <v>0.7177</v>
       </c>
       <c r="EZ3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB3">
-        <v>0.1</v>
-      </c>
-      <c r="FC3" s="6">
+        <v>57</v>
+      </c>
+      <c r="FC3">
+        <v>0.1</v>
+      </c>
+      <c r="FD3" s="6">
         <v>0.0004</v>
       </c>
-      <c r="FD3">
+      <c r="FE3">
         <v>0.9</v>
       </c>
-      <c r="FE3">
-        <v>16</v>
-      </c>
       <c r="FF3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG3">
+        <v>2</v>
+      </c>
+      <c r="FH3">
         <v>3</v>
       </c>
-      <c r="FH3">
+      <c r="FI3">
         <v>300</v>
       </c>
-      <c r="FI3">
-        <v>1</v>
-      </c>
       <c r="FJ3">
         <v>1</v>
       </c>
@@ -3390,41 +3481,41 @@
         <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.12</v>
-      </c>
-      <c r="FN3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="FO3">
+        <v>0.2</v>
+      </c>
+      <c r="FN3">
+        <v>0.12</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="FP3">
         <v>0.7197</v>
       </c>
-      <c r="FR3" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS3">
+      <c r="FS3" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT3">
         <v>0.3</v>
       </c>
-      <c r="FT3" s="6">
+      <c r="FU3" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU3">
-        <v>0.1</v>
-      </c>
       <c r="FV3">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX3">
+        <v>2</v>
+      </c>
+      <c r="FY3">
         <v>100</v>
       </c>
-      <c r="FY3">
-        <v>1</v>
-      </c>
       <c r="FZ3">
         <v>1</v>
       </c>
@@ -3432,46 +3523,46 @@
         <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD3">
+        <v>0.12</v>
+      </c>
+      <c r="GE3">
         <v>0.0001</v>
       </c>
-      <c r="GE3">
+      <c r="GF3">
         <v>0.9</v>
       </c>
-      <c r="GF3" t="s">
-        <v>51</v>
-      </c>
-      <c r="GG3">
+      <c r="GG3" t="s">
+        <v>59</v>
+      </c>
+      <c r="GH3">
         <v>0.7142</v>
       </c>
-      <c r="GJ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="GK3">
+      <c r="GK3" t="s">
+        <v>52</v>
+      </c>
+      <c r="GL3">
         <v>0.25</v>
       </c>
-      <c r="GL3" s="6">
+      <c r="GM3" s="6">
         <v>0.001</v>
       </c>
-      <c r="GM3">
-        <v>0.1</v>
-      </c>
       <c r="GN3">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GO3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GP3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GQ3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GR3">
         <v>1</v>
@@ -3479,35 +3570,35 @@
       <c r="GS3">
         <v>1</v>
       </c>
-      <c r="GW3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="GX3">
+      <c r="GT3">
+        <v>1</v>
+      </c>
+      <c r="GX3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="GY3">
         <v>0.7041</v>
       </c>
-      <c r="HA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="HB3">
+      <c r="HB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="HC3">
         <v>0.25</v>
       </c>
-      <c r="HC3" s="6">
+      <c r="HD3" s="6">
         <v>0.001</v>
       </c>
-      <c r="HD3">
-        <v>0.1</v>
-      </c>
       <c r="HE3">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="HF3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HG3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="HI3">
         <v>1</v>
@@ -3515,32 +3606,32 @@
       <c r="HJ3">
         <v>1</v>
       </c>
-      <c r="HR3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS3" s="1">
+      <c r="HK3">
+        <v>1</v>
+      </c>
+      <c r="HS3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT3" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT3" s="1">
+      <c r="HU3" s="1">
         <v>0.001</v>
       </c>
-      <c r="HU3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW3" s="1">
-        <v>16</v>
+      <c r="HV3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW3" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX3" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA3" s="1">
         <v>1</v>
@@ -3549,106 +3640,106 @@
         <v>1</v>
       </c>
       <c r="IC3" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID3" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE3" s="1">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="IF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="IG3" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="IH3" s="1">
+      <c r="IH3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="II3" s="1">
         <v>0.6957</v>
       </c>
-      <c r="II3" s="1"/>
       <c r="IJ3" s="1"/>
-      <c r="IK3" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="IK3" s="1"/>
       <c r="IL3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="IM3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="IN3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="IO3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="IP3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IR3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IS3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IU3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IV3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IW3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IX3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="IY3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IZ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="JA3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="JB3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="JC3" s="1"/>
+      <c r="JE3" t="s">
+        <v>52</v>
+      </c>
+      <c r="JF3" t="s">
         <v>57</v>
       </c>
-      <c r="IO3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="IP3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="IQ3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="IR3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="IS3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IT3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IU3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IV3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="IW3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="IX3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="IY3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="IZ3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="JA3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="JB3" s="1"/>
-      <c r="JD3" t="s">
-        <v>44</v>
-      </c>
-      <c r="JE3" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF3">
+      <c r="JG3">
         <v>0.25</v>
       </c>
-      <c r="JG3" s="6">
+      <c r="JH3" s="6">
         <v>0.002</v>
       </c>
-      <c r="JH3">
-        <v>0.1</v>
-      </c>
       <c r="JI3">
+        <v>0.1</v>
+      </c>
+      <c r="JJ3">
         <v>300</v>
       </c>
-      <c r="JJ3">
-        <v>16</v>
-      </c>
       <c r="JK3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN3">
         <v>1</v>
@@ -3657,55 +3748,55 @@
         <v>1</v>
       </c>
       <c r="JP3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ3">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS3">
+        <v>0.2</v>
+      </c>
+      <c r="JT3">
         <v>0.8</v>
       </c>
-      <c r="JT3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="JU3">
+      <c r="JU3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="JV3">
         <v>0.7042</v>
       </c>
-      <c r="JV3" t="s">
-        <v>68</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>44</v>
+      <c r="JW3" t="s">
+        <v>76</v>
       </c>
       <c r="KA3" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB3">
+        <v>52</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC3">
         <v>0.6</v>
       </c>
-      <c r="KC3" s="6">
+      <c r="KD3" s="6">
         <v>0.0003</v>
       </c>
-      <c r="KD3">
-        <v>0.1</v>
-      </c>
       <c r="KE3">
+        <v>0.1</v>
+      </c>
+      <c r="KF3">
         <v>300</v>
       </c>
-      <c r="KF3">
-        <v>16</v>
-      </c>
       <c r="KG3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ3">
         <v>1</v>
@@ -3714,55 +3805,55 @@
         <v>1</v>
       </c>
       <c r="KL3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM3">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="KO3">
+        <v>0.2</v>
+      </c>
+      <c r="KP3">
         <v>0.99</v>
       </c>
-      <c r="KP3">
-        <v>1</v>
-      </c>
-      <c r="KQ3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="KR3">
+      <c r="KQ3">
+        <v>1</v>
+      </c>
+      <c r="KR3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="KS3">
         <v>0.6429</v>
       </c>
-      <c r="KX3" t="s">
-        <v>44</v>
-      </c>
       <c r="KY3" t="s">
-        <v>69</v>
-      </c>
-      <c r="KZ3">
+        <v>52</v>
+      </c>
+      <c r="KZ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="LA3">
         <v>0.35</v>
       </c>
-      <c r="LA3" s="6">
+      <c r="LB3" s="6">
         <v>0.001</v>
       </c>
-      <c r="LB3">
-        <v>0.1</v>
-      </c>
       <c r="LC3">
+        <v>0.1</v>
+      </c>
+      <c r="LD3">
         <v>300</v>
       </c>
-      <c r="LD3">
-        <v>16</v>
-      </c>
       <c r="LE3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="LF3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="LG3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="LH3">
         <v>1</v>
@@ -3771,21 +3862,57 @@
         <v>1</v>
       </c>
       <c r="LJ3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="LK3">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="LL3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="LM3">
+        <v>0.2</v>
+      </c>
+      <c r="LN3">
         <v>0.9</v>
       </c>
+      <c r="LS3" t="s">
+        <v>79</v>
+      </c>
+      <c r="LT3" t="s">
+        <v>77</v>
+      </c>
+      <c r="LU3">
+        <v>0.0004</v>
+      </c>
+      <c r="LV3">
+        <v>0.9</v>
+      </c>
+      <c r="LW3">
+        <v>300</v>
+      </c>
+      <c r="LX3">
+        <v>8</v>
+      </c>
+      <c r="LY3">
+        <v>2</v>
+      </c>
+      <c r="MA3">
+        <v>0.1</v>
+      </c>
+      <c r="MB3">
+        <v>1</v>
+      </c>
+      <c r="MC3">
+        <v>1</v>
+      </c>
+      <c r="MD3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="11:305">
+    <row r="4" ht="14.25" spans="11:306">
       <c r="K4" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L4" s="4">
         <v>0.5</v>
@@ -3812,7 +3939,7 @@
         <v>0.7143</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2">
         <v>0.5</v>
@@ -3839,7 +3966,7 @@
         <v>0.9</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="2">
         <v>0.5</v>
@@ -3884,7 +4011,7 @@
         <v>0.7156</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX4" s="2">
         <v>0.5</v>
@@ -3923,7 +4050,7 @@
         <v>0.6984</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BL4" s="2">
         <v>0.5</v>
@@ -3962,7 +4089,7 @@
         <v>0.7103</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BZ4" s="2">
         <v>0.5</v>
@@ -3998,13 +4125,13 @@
         <v>0.12</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="CL4">
         <v>0.7169</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO4" s="2">
         <v>0.5</v>
@@ -4043,7 +4170,7 @@
         <v>0.7068</v>
       </c>
       <c r="DT4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU4">
         <v>0.5</v>
@@ -4079,13 +4206,13 @@
         <v>0.12</v>
       </c>
       <c r="EF4" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="EG4">
         <v>0.7155</v>
       </c>
       <c r="EJ4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="EK4">
         <v>0.1</v>
@@ -4121,41 +4248,38 @@
         <v>0.12</v>
       </c>
       <c r="EV4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="EW4">
         <v>0.7142</v>
       </c>
       <c r="EZ4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA4" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB4">
-        <v>0.1</v>
-      </c>
-      <c r="FC4" s="6">
+        <v>57</v>
+      </c>
+      <c r="FC4">
+        <v>0.1</v>
+      </c>
+      <c r="FD4" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD4">
-        <v>0.1</v>
-      </c>
       <c r="FE4">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH4">
+        <v>10</v>
+      </c>
+      <c r="FI4">
         <v>300</v>
       </c>
-      <c r="FI4">
-        <v>1</v>
-      </c>
       <c r="FJ4">
         <v>1</v>
       </c>
@@ -4163,40 +4287,40 @@
         <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.12</v>
-      </c>
-      <c r="FN4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="FO4">
+        <v>0.2</v>
+      </c>
+      <c r="FN4">
+        <v>0.12</v>
+      </c>
+      <c r="FO4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="FP4">
         <v>0.7219</v>
       </c>
-      <c r="FR4" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS4">
+      <c r="FS4" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT4">
         <v>0.3</v>
       </c>
-      <c r="FT4" s="6">
+      <c r="FU4" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU4">
-        <v>0.1</v>
-      </c>
       <c r="FV4">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ4">
         <v>1</v>
@@ -4205,46 +4329,46 @@
         <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD4">
+        <v>0.12</v>
+      </c>
+      <c r="GE4">
         <v>0.0001</v>
       </c>
-      <c r="GE4">
+      <c r="GF4">
         <v>0.9</v>
       </c>
-      <c r="GF4" t="s">
-        <v>75</v>
-      </c>
-      <c r="GG4">
+      <c r="GG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="GH4">
         <v>0.7118</v>
       </c>
-      <c r="GJ4" t="s">
-        <v>44</v>
-      </c>
-      <c r="GK4">
+      <c r="GK4" t="s">
+        <v>52</v>
+      </c>
+      <c r="GL4">
         <v>0.25</v>
       </c>
-      <c r="GL4" s="6">
+      <c r="GM4" s="6">
         <v>0.0009</v>
       </c>
-      <c r="GM4">
-        <v>0.1</v>
-      </c>
       <c r="GN4">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GO4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GP4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GQ4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GR4">
         <v>1</v>
@@ -4252,38 +4376,38 @@
       <c r="GS4">
         <v>1</v>
       </c>
-      <c r="GW4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="GX4">
+      <c r="GT4">
+        <v>1</v>
+      </c>
+      <c r="GX4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="GY4">
         <v>0.6975</v>
       </c>
-      <c r="HR4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS4" s="1">
+      <c r="HS4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT4" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT4" s="1">
+      <c r="HU4" s="1">
         <v>0.001</v>
       </c>
-      <c r="HU4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW4" s="1">
-        <v>16</v>
+      <c r="HV4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX4" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA4" s="1">
         <v>1</v>
@@ -4292,163 +4416,163 @@
         <v>1</v>
       </c>
       <c r="IC4" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID4" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE4" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG4" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG4" s="1" t="s">
+      <c r="IH4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="II4" s="1">
+        <v>0.7096</v>
+      </c>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="IM4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="IN4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="IO4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="IP4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IQ4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IR4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IS4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="IT4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IU4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IV4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IW4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IX4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="IY4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IZ4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="JA4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="JB4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="JC4" s="1"/>
+      <c r="JE4" t="s">
+        <v>52</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>57</v>
+      </c>
+      <c r="JG4">
+        <v>0.25</v>
+      </c>
+      <c r="JH4" s="6">
+        <v>0.002</v>
+      </c>
+      <c r="JI4">
+        <v>0.1</v>
+      </c>
+      <c r="JJ4">
+        <v>300</v>
+      </c>
+      <c r="JK4">
+        <v>16</v>
+      </c>
+      <c r="JL4">
+        <v>2</v>
+      </c>
+      <c r="JM4">
+        <v>10</v>
+      </c>
+      <c r="JN4">
+        <v>1</v>
+      </c>
+      <c r="JO4">
+        <v>1</v>
+      </c>
+      <c r="JP4">
+        <v>1</v>
+      </c>
+      <c r="JQ4">
+        <v>0.2</v>
+      </c>
+      <c r="JR4">
+        <v>0.12</v>
+      </c>
+      <c r="JS4">
+        <v>0.2</v>
+      </c>
+      <c r="JT4">
+        <v>0.8</v>
+      </c>
+      <c r="JU4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="JV4">
+        <v>0.7138</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>91</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>52</v>
+      </c>
+      <c r="KB4" t="s">
         <v>77</v>
       </c>
-      <c r="IH4" s="1">
-        <v>0.7096</v>
-      </c>
-      <c r="II4" s="1"/>
-      <c r="IJ4" s="1"/>
-      <c r="IK4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="IL4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="IM4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="IN4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="IO4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="IP4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="IQ4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="IR4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="IS4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IT4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IU4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="IV4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="IW4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="IX4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="IY4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="IZ4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="JA4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="JB4" s="1"/>
-      <c r="JD4" t="s">
-        <v>44</v>
-      </c>
-      <c r="JE4" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF4">
-        <v>0.25</v>
-      </c>
-      <c r="JG4" s="6">
-        <v>0.002</v>
-      </c>
-      <c r="JH4">
-        <v>0.1</v>
-      </c>
-      <c r="JI4">
+      <c r="KC4">
+        <v>0.6</v>
+      </c>
+      <c r="KD4" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="KE4">
+        <v>0.1</v>
+      </c>
+      <c r="KF4">
         <v>300</v>
       </c>
-      <c r="JJ4">
-        <v>16</v>
-      </c>
-      <c r="JK4">
-        <v>2</v>
-      </c>
-      <c r="JL4">
-        <v>10</v>
-      </c>
-      <c r="JM4">
-        <v>1</v>
-      </c>
-      <c r="JN4">
-        <v>1</v>
-      </c>
-      <c r="JO4">
-        <v>1</v>
-      </c>
-      <c r="JP4">
-        <v>0.2</v>
-      </c>
-      <c r="JQ4">
-        <v>0.12</v>
-      </c>
-      <c r="JR4">
-        <v>0.2</v>
-      </c>
-      <c r="JS4">
-        <v>0.8</v>
-      </c>
-      <c r="JT4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="JU4">
-        <v>0.7138</v>
-      </c>
-      <c r="JV4" t="s">
-        <v>82</v>
-      </c>
-      <c r="JZ4" t="s">
-        <v>44</v>
-      </c>
-      <c r="KA4" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB4">
-        <v>0.6</v>
-      </c>
-      <c r="KC4" s="6">
-        <v>0.003</v>
-      </c>
-      <c r="KD4">
-        <v>0.1</v>
-      </c>
-      <c r="KE4">
-        <v>300</v>
-      </c>
-      <c r="KF4">
-        <v>16</v>
-      </c>
       <c r="KG4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ4">
         <v>1</v>
@@ -4457,33 +4581,36 @@
         <v>1</v>
       </c>
       <c r="KL4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM4">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN4">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="KO4">
+        <v>0.2</v>
+      </c>
+      <c r="KP4">
         <v>0.99</v>
       </c>
-      <c r="KP4">
-        <v>1</v>
-      </c>
-      <c r="KQ4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="KR4">
+      <c r="KQ4">
+        <v>1</v>
+      </c>
+      <c r="KR4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="KS4">
         <v>0.6824</v>
       </c>
-      <c r="KS4" t="s">
-        <v>84</v>
+      <c r="KT4" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="11:304">
+    <row r="5" ht="14.25" spans="11:305">
       <c r="K5" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L5" s="4">
         <v>0.5</v>
@@ -4510,7 +4637,7 @@
         <v>0.7164</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="2">
         <v>0.5</v>
@@ -4555,7 +4682,7 @@
         <v>0.7184</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX5" s="2">
         <v>0.5</v>
@@ -4594,7 +4721,7 @@
         <v>0.6984</v>
       </c>
       <c r="BY5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BZ5" s="2">
         <v>0.1</v>
@@ -4630,13 +4757,13 @@
         <v>0.12</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="CL5">
         <v>0.7163</v>
       </c>
       <c r="CN5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO5" s="2">
         <v>0.5</v>
@@ -4672,13 +4799,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="DA5">
         <v>0.6931</v>
       </c>
       <c r="DT5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU5">
         <v>0.5</v>
@@ -4714,13 +4841,13 @@
         <v>0.12</v>
       </c>
       <c r="EF5" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="EG5">
         <v>0.7214</v>
       </c>
       <c r="EJ5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="EK5">
         <v>0.1</v>
@@ -4756,44 +4883,41 @@
         <v>0.12</v>
       </c>
       <c r="EV5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="EW5">
         <v>0.7166</v>
       </c>
       <c r="EX5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="EZ5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA5" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB5">
-        <v>0.1</v>
-      </c>
-      <c r="FC5" s="6">
+        <v>57</v>
+      </c>
+      <c r="FC5">
+        <v>0.1</v>
+      </c>
+      <c r="FD5" s="6">
         <v>0.002</v>
       </c>
-      <c r="FD5">
-        <v>0.1</v>
-      </c>
       <c r="FE5">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH5">
+        <v>10</v>
+      </c>
+      <c r="FI5">
         <v>300</v>
       </c>
-      <c r="FI5">
-        <v>1</v>
-      </c>
       <c r="FJ5">
         <v>1</v>
       </c>
@@ -4801,40 +4925,40 @@
         <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.12</v>
-      </c>
-      <c r="FN5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="FO5">
+        <v>0.2</v>
+      </c>
+      <c r="FN5">
+        <v>0.12</v>
+      </c>
+      <c r="FO5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="FP5">
         <v>0.7218</v>
       </c>
-      <c r="FR5" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS5">
+      <c r="FS5" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT5">
         <v>0.3</v>
       </c>
-      <c r="FT5" s="6">
+      <c r="FU5" s="6">
         <v>0.002</v>
       </c>
-      <c r="FU5">
-        <v>0.1</v>
-      </c>
       <c r="FV5">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ5">
         <v>1</v>
@@ -4843,46 +4967,46 @@
         <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD5">
+        <v>0.12</v>
+      </c>
+      <c r="GE5">
         <v>0.0001</v>
       </c>
-      <c r="GE5">
+      <c r="GF5">
         <v>0.9</v>
       </c>
-      <c r="GF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="GG5">
+      <c r="GG5" t="s">
+        <v>100</v>
+      </c>
+      <c r="GH5">
         <v>0.7172</v>
       </c>
-      <c r="GJ5" t="s">
-        <v>44</v>
-      </c>
-      <c r="GK5">
+      <c r="GK5" t="s">
+        <v>52</v>
+      </c>
+      <c r="GL5">
         <v>0.25</v>
       </c>
-      <c r="GL5" s="6">
+      <c r="GM5" s="6">
         <v>0.003</v>
       </c>
-      <c r="GM5">
-        <v>0.1</v>
-      </c>
       <c r="GN5">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GO5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GP5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GQ5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GR5">
         <v>1</v>
@@ -4890,38 +5014,38 @@
       <c r="GS5">
         <v>1</v>
       </c>
-      <c r="GW5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="GX5" s="10">
+      <c r="GT5">
+        <v>1</v>
+      </c>
+      <c r="GX5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="GY5" s="10">
         <v>0.705</v>
       </c>
-      <c r="HR5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS5" s="1">
+      <c r="HS5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT5" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT5" s="1">
+      <c r="HU5" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW5" s="1">
-        <v>16</v>
+      <c r="HV5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX5" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA5" s="1">
         <v>1</v>
@@ -4930,24 +5054,26 @@
         <v>1</v>
       </c>
       <c r="IC5" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID5" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE5" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG5" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="IH5" s="1">
+      <c r="IH5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="II5" s="1">
         <v>0.72</v>
       </c>
-      <c r="II5" s="1"/>
       <c r="IJ5" s="1"/>
       <c r="IK5" s="1"/>
       <c r="IL5" s="1"/>
@@ -4967,35 +5093,33 @@
       <c r="IZ5" s="1"/>
       <c r="JA5" s="1"/>
       <c r="JB5" s="1"/>
-      <c r="JD5" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC5" s="1"/>
       <c r="JE5" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF5">
+        <v>52</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>57</v>
+      </c>
+      <c r="JG5">
         <v>0.25</v>
       </c>
-      <c r="JG5" s="6">
+      <c r="JH5" s="6">
         <v>0.002</v>
       </c>
-      <c r="JH5">
-        <v>0.1</v>
-      </c>
       <c r="JI5">
+        <v>0.1</v>
+      </c>
+      <c r="JJ5">
         <v>300</v>
       </c>
-      <c r="JJ5">
-        <v>16</v>
-      </c>
       <c r="JK5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN5">
         <v>1</v>
@@ -5007,49 +5131,49 @@
         <v>1</v>
       </c>
       <c r="JQ5">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="JR5">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="JS5">
+        <v>1</v>
+      </c>
+      <c r="JT5">
         <v>0.8</v>
       </c>
-      <c r="JT5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="JU5" s="10">
+      <c r="JU5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="JV5" s="10">
         <v>0.009</v>
       </c>
-      <c r="JZ5" t="s">
-        <v>44</v>
-      </c>
       <c r="KA5" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB5">
+        <v>52</v>
+      </c>
+      <c r="KB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC5">
         <v>0.3</v>
       </c>
-      <c r="KC5" s="6">
+      <c r="KD5" s="6">
         <v>0.003</v>
       </c>
-      <c r="KD5">
-        <v>0.1</v>
-      </c>
       <c r="KE5">
+        <v>0.1</v>
+      </c>
+      <c r="KF5">
         <v>300</v>
       </c>
-      <c r="KF5">
-        <v>16</v>
-      </c>
       <c r="KG5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ5">
         <v>1</v>
@@ -5058,30 +5182,33 @@
         <v>1</v>
       </c>
       <c r="KL5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM5">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN5">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="KO5">
+        <v>0.2</v>
+      </c>
+      <c r="KP5">
         <v>0.99</v>
       </c>
-      <c r="KP5">
-        <v>1</v>
-      </c>
-      <c r="KQ5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="KR5">
+      <c r="KQ5">
+        <v>1</v>
+      </c>
+      <c r="KR5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="KS5">
         <v>0.7067</v>
       </c>
     </row>
-    <row r="6" spans="33:304">
+    <row r="6" spans="33:305">
       <c r="AG6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH6" s="2">
         <v>0.5</v>
@@ -5126,7 +5253,7 @@
         <v>0.7089</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX6" s="2">
         <v>0.5</v>
@@ -5165,7 +5292,7 @@
         <v>0.7039</v>
       </c>
       <c r="BY6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BZ6" s="2">
         <v>0.1</v>
@@ -5201,13 +5328,13 @@
         <v>0.12</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="CL6">
         <v>0.71</v>
       </c>
       <c r="CN6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO6" s="2">
         <v>0.5</v>
@@ -5243,13 +5370,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="DA6">
         <v>0.6989</v>
       </c>
       <c r="DT6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU6">
         <v>0.5</v>
@@ -5285,41 +5412,38 @@
         <v>0.12</v>
       </c>
       <c r="EF6" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="EG6">
         <v>0.7201</v>
       </c>
       <c r="EZ6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA6" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB6">
-        <v>0.1</v>
-      </c>
-      <c r="FC6" s="6">
+        <v>57</v>
+      </c>
+      <c r="FC6">
+        <v>0.1</v>
+      </c>
+      <c r="FD6" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD6">
-        <v>0.1</v>
-      </c>
       <c r="FE6">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH6">
+        <v>10</v>
+      </c>
+      <c r="FI6">
         <v>300</v>
       </c>
-      <c r="FI6">
-        <v>1</v>
-      </c>
       <c r="FJ6">
         <v>1</v>
       </c>
@@ -5327,40 +5451,40 @@
         <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.12</v>
-      </c>
-      <c r="FN6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="FO6">
+        <v>0.2</v>
+      </c>
+      <c r="FN6">
+        <v>0.12</v>
+      </c>
+      <c r="FO6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="FP6">
         <v>0.7157</v>
       </c>
-      <c r="FR6" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS6">
+      <c r="FS6" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT6">
         <v>0.3</v>
       </c>
-      <c r="FT6" s="6">
+      <c r="FU6" s="6">
         <v>0.003</v>
       </c>
-      <c r="FU6">
-        <v>0.1</v>
-      </c>
       <c r="FV6">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ6">
         <v>1</v>
@@ -5369,46 +5493,46 @@
         <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD6">
+        <v>0.12</v>
+      </c>
+      <c r="GE6">
         <v>0.0001</v>
       </c>
-      <c r="GE6">
+      <c r="GF6">
         <v>0.9</v>
       </c>
-      <c r="GF6" t="s">
-        <v>99</v>
-      </c>
-      <c r="GG6">
+      <c r="GG6" t="s">
+        <v>108</v>
+      </c>
+      <c r="GH6">
         <v>0.7095</v>
       </c>
-      <c r="GJ6" t="s">
-        <v>44</v>
-      </c>
-      <c r="GK6">
+      <c r="GK6" t="s">
+        <v>52</v>
+      </c>
+      <c r="GL6">
         <v>0.25</v>
       </c>
-      <c r="GL6" s="6">
+      <c r="GM6" s="6">
         <v>0.02</v>
       </c>
-      <c r="GM6">
-        <v>0.1</v>
-      </c>
       <c r="GN6">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="GO6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="GP6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="GQ6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="GR6">
         <v>1</v>
@@ -5416,38 +5540,38 @@
       <c r="GS6">
         <v>1</v>
       </c>
-      <c r="GW6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="GX6">
+      <c r="GT6">
+        <v>1</v>
+      </c>
+      <c r="GX6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="GY6">
         <v>0.6841</v>
       </c>
-      <c r="HR6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS6" s="1">
+      <c r="HS6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT6" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT6" s="1">
+      <c r="HU6" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW6" s="1">
-        <v>16</v>
+      <c r="HV6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX6" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA6" s="1">
         <v>1</v>
@@ -5456,24 +5580,26 @@
         <v>1</v>
       </c>
       <c r="IC6" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID6" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE6" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG6" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="IH6" s="1">
+      <c r="IH6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="II6" s="1">
         <v>0.7261</v>
       </c>
-      <c r="II6" s="1"/>
       <c r="IJ6" s="1"/>
       <c r="IK6" s="1"/>
       <c r="IL6" s="1"/>
@@ -5493,35 +5619,33 @@
       <c r="IZ6" s="1"/>
       <c r="JA6" s="1"/>
       <c r="JB6" s="1"/>
-      <c r="JD6" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC6" s="1"/>
       <c r="JE6" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF6">
+        <v>52</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>57</v>
+      </c>
+      <c r="JG6">
         <v>0.3</v>
       </c>
-      <c r="JG6" s="6">
+      <c r="JH6" s="6">
         <v>0.002</v>
       </c>
-      <c r="JH6">
-        <v>0.1</v>
-      </c>
       <c r="JI6">
+        <v>0.1</v>
+      </c>
+      <c r="JJ6">
         <v>300</v>
       </c>
-      <c r="JJ6">
-        <v>16</v>
-      </c>
       <c r="JK6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN6">
         <v>1</v>
@@ -5530,52 +5654,52 @@
         <v>1</v>
       </c>
       <c r="JP6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR6">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS6">
+        <v>0.2</v>
+      </c>
+      <c r="JT6">
         <v>0.8</v>
       </c>
-      <c r="JT6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="JU6" s="10">
+      <c r="JU6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="JV6" s="10">
         <v>0.711</v>
       </c>
-      <c r="JZ6" t="s">
-        <v>44</v>
-      </c>
       <c r="KA6" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB6">
+        <v>52</v>
+      </c>
+      <c r="KB6" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC6">
         <v>0.35</v>
       </c>
-      <c r="KC6" s="6">
+      <c r="KD6" s="6">
         <v>0.001</v>
       </c>
-      <c r="KD6">
-        <v>0.1</v>
-      </c>
       <c r="KE6">
+        <v>0.1</v>
+      </c>
+      <c r="KF6">
         <v>300</v>
       </c>
-      <c r="KF6">
-        <v>16</v>
-      </c>
       <c r="KG6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ6">
         <v>1</v>
@@ -5584,30 +5708,33 @@
         <v>1</v>
       </c>
       <c r="KL6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN6">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="KO6">
+        <v>0.2</v>
+      </c>
+      <c r="KP6">
         <v>0.99</v>
       </c>
-      <c r="KP6">
-        <v>1</v>
-      </c>
-      <c r="KQ6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="KR6">
+      <c r="KQ6">
+        <v>1</v>
+      </c>
+      <c r="KR6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="KS6">
         <v>0.5687</v>
       </c>
     </row>
-    <row r="7" spans="33:302">
+    <row r="7" spans="33:303">
       <c r="AG7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH7" s="2">
         <v>0.5</v>
@@ -5652,7 +5779,7 @@
         <v>0.7063</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX7" s="2">
         <v>0.5</v>
@@ -5691,7 +5818,7 @@
         <v>0.7036</v>
       </c>
       <c r="BY7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BZ7" s="2">
         <v>0.5</v>
@@ -5727,13 +5854,13 @@
         <v>0.12</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="CL7">
         <v>0.708</v>
       </c>
       <c r="CN7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO7" s="2">
         <v>0.5</v>
@@ -5769,13 +5896,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="DA7">
         <v>0.7073</v>
       </c>
       <c r="DT7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU7">
         <v>0.1</v>
@@ -5811,41 +5938,38 @@
         <v>0.12</v>
       </c>
       <c r="EF7" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="EG7">
         <v>0.7202</v>
       </c>
       <c r="EZ7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA7" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB7">
+        <v>57</v>
+      </c>
+      <c r="FC7">
         <v>0.4</v>
       </c>
-      <c r="FC7" s="6">
+      <c r="FD7" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD7">
-        <v>0.1</v>
-      </c>
       <c r="FE7">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH7">
+        <v>10</v>
+      </c>
+      <c r="FI7">
         <v>300</v>
       </c>
-      <c r="FI7">
-        <v>1</v>
-      </c>
       <c r="FJ7">
         <v>1</v>
       </c>
@@ -5853,40 +5977,40 @@
         <v>1</v>
       </c>
       <c r="FL7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM7">
-        <v>0.12</v>
-      </c>
-      <c r="FN7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="FO7">
+        <v>0.2</v>
+      </c>
+      <c r="FN7">
+        <v>0.12</v>
+      </c>
+      <c r="FO7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="FP7">
         <v>0.7237</v>
       </c>
-      <c r="FR7" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS7">
+      <c r="FS7" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT7">
         <v>0.3</v>
       </c>
-      <c r="FT7" s="6">
+      <c r="FU7" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU7">
-        <v>0.1</v>
-      </c>
       <c r="FV7">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ7">
         <v>1</v>
@@ -5895,49 +6019,49 @@
         <v>1</v>
       </c>
       <c r="GB7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD7">
+        <v>0.12</v>
+      </c>
+      <c r="GE7">
         <v>1e-5</v>
       </c>
-      <c r="GE7">
+      <c r="GF7">
         <v>0.9</v>
       </c>
-      <c r="GF7" t="s">
-        <v>108</v>
-      </c>
-      <c r="GG7">
+      <c r="GG7" t="s">
+        <v>117</v>
+      </c>
+      <c r="GH7">
         <v>0.7065</v>
       </c>
-      <c r="HR7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS7" s="1">
+      <c r="HS7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT7" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT7" s="1">
+      <c r="HU7" s="1">
         <v>0.0025</v>
       </c>
-      <c r="HU7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW7" s="1">
-        <v>16</v>
+      <c r="HV7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW7" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX7" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA7" s="1">
         <v>1</v>
@@ -5946,24 +6070,26 @@
         <v>1</v>
       </c>
       <c r="IC7" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID7" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE7" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG7" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="IH7" s="1">
+      <c r="IH7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="II7" s="1">
         <v>0.7191</v>
       </c>
-      <c r="II7" s="1"/>
       <c r="IJ7" s="1"/>
       <c r="IK7" s="1"/>
       <c r="IL7" s="1"/>
@@ -5983,35 +6109,33 @@
       <c r="IZ7" s="1"/>
       <c r="JA7" s="1"/>
       <c r="JB7" s="1"/>
-      <c r="JD7" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC7" s="1"/>
       <c r="JE7" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF7">
+        <v>52</v>
+      </c>
+      <c r="JF7" t="s">
+        <v>57</v>
+      </c>
+      <c r="JG7">
         <v>0.4</v>
       </c>
-      <c r="JG7" s="6">
+      <c r="JH7" s="6">
         <v>0.002</v>
       </c>
-      <c r="JH7">
-        <v>0.1</v>
-      </c>
       <c r="JI7">
+        <v>0.1</v>
+      </c>
+      <c r="JJ7">
         <v>300</v>
       </c>
-      <c r="JJ7">
-        <v>16</v>
-      </c>
       <c r="JK7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN7">
         <v>1</v>
@@ -6020,52 +6144,52 @@
         <v>1</v>
       </c>
       <c r="JP7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR7">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS7">
+        <v>0.2</v>
+      </c>
+      <c r="JT7">
         <v>0.8</v>
       </c>
-      <c r="JT7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="JU7">
+      <c r="JU7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="JV7">
         <v>0.7145</v>
       </c>
-      <c r="JZ7" t="s">
-        <v>44</v>
-      </c>
       <c r="KA7" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB7">
+        <v>52</v>
+      </c>
+      <c r="KB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC7">
         <v>0.35</v>
       </c>
-      <c r="KC7" s="6">
+      <c r="KD7" s="6">
         <v>0.003</v>
       </c>
-      <c r="KD7">
-        <v>0.1</v>
-      </c>
       <c r="KE7">
+        <v>0.1</v>
+      </c>
+      <c r="KF7">
         <v>300</v>
       </c>
-      <c r="KF7">
-        <v>16</v>
-      </c>
       <c r="KG7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ7">
         <v>1</v>
@@ -6074,24 +6198,27 @@
         <v>1</v>
       </c>
       <c r="KL7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="KO7">
+        <v>0.1</v>
+      </c>
+      <c r="KP7">
         <v>0.99</v>
       </c>
-      <c r="KP7">
+      <c r="KQ7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="33:304">
+    <row r="8" spans="33:305">
       <c r="AG8" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH8" s="2">
         <v>0.5</v>
@@ -6136,7 +6263,7 @@
         <v>0.7037</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AX8" s="2">
         <v>0.5</v>
@@ -6175,7 +6302,7 @@
         <v>0.7104</v>
       </c>
       <c r="CN8" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO8" s="2">
         <v>0.1</v>
@@ -6211,13 +6338,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ8" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="DA8">
         <v>0.6841</v>
       </c>
       <c r="DT8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU8">
         <v>0.1</v>
@@ -6253,41 +6380,38 @@
         <v>0.12</v>
       </c>
       <c r="EF8" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="EG8">
         <v>0.7233</v>
       </c>
       <c r="EZ8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA8" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB8">
+        <v>57</v>
+      </c>
+      <c r="FC8">
         <v>0.3</v>
       </c>
-      <c r="FC8" s="6">
+      <c r="FD8" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD8">
-        <v>0.1</v>
-      </c>
       <c r="FE8">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH8">
+        <v>10</v>
+      </c>
+      <c r="FI8">
         <v>300</v>
       </c>
-      <c r="FI8">
-        <v>1</v>
-      </c>
       <c r="FJ8">
         <v>1</v>
       </c>
@@ -6295,40 +6419,40 @@
         <v>1</v>
       </c>
       <c r="FL8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM8">
-        <v>0.12</v>
-      </c>
-      <c r="FN8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="FO8">
+        <v>0.2</v>
+      </c>
+      <c r="FN8">
+        <v>0.12</v>
+      </c>
+      <c r="FO8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="FP8">
         <v>0.7146</v>
       </c>
-      <c r="FR8" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS8">
+      <c r="FS8" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT8">
         <v>0.3</v>
       </c>
-      <c r="FT8" s="6">
+      <c r="FU8" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU8">
-        <v>0.1</v>
-      </c>
       <c r="FV8">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ8">
         <v>1</v>
@@ -6337,50 +6461,50 @@
         <v>1</v>
       </c>
       <c r="GB8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD8">
+        <v>0.12</v>
+      </c>
+      <c r="GE8">
         <v>0.001</v>
       </c>
-      <c r="GE8">
+      <c r="GF8">
         <v>0.9</v>
       </c>
-      <c r="GF8" t="s">
-        <v>114</v>
-      </c>
-      <c r="GG8">
+      <c r="GG8" t="s">
+        <v>123</v>
+      </c>
+      <c r="GH8">
         <v>0.7033</v>
       </c>
-      <c r="HR8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS8" s="1">
+      <c r="HS8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT8" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT8" s="1">
+      <c r="HU8" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW8" s="1">
-        <v>16</v>
+      <c r="HV8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX8" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY8" s="1">
+        <v>2</v>
+      </c>
+      <c r="HZ8" s="1">
         <v>15</v>
       </c>
-      <c r="HZ8" s="1">
-        <v>1</v>
-      </c>
       <c r="IA8" s="1">
         <v>1</v>
       </c>
@@ -6388,24 +6512,26 @@
         <v>1</v>
       </c>
       <c r="IC8" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID8" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE8" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG8" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="IH8" s="1">
+      <c r="IH8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="II8" s="1">
         <v>0.7166</v>
       </c>
-      <c r="II8" s="1"/>
       <c r="IJ8" s="1"/>
       <c r="IK8" s="1"/>
       <c r="IL8" s="1"/>
@@ -6425,35 +6551,33 @@
       <c r="IZ8" s="1"/>
       <c r="JA8" s="1"/>
       <c r="JB8" s="1"/>
-      <c r="JD8" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC8" s="1"/>
       <c r="JE8" t="s">
-        <v>49</v>
-      </c>
-      <c r="JF8">
+        <v>52</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>57</v>
+      </c>
+      <c r="JG8">
         <v>0.4</v>
       </c>
-      <c r="JG8" s="6">
+      <c r="JH8" s="6">
         <v>0.001</v>
       </c>
-      <c r="JH8">
-        <v>0.1</v>
-      </c>
       <c r="JI8">
+        <v>0.1</v>
+      </c>
+      <c r="JJ8">
         <v>300</v>
       </c>
-      <c r="JJ8">
-        <v>16</v>
-      </c>
       <c r="JK8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN8">
         <v>1</v>
@@ -6462,52 +6586,52 @@
         <v>1</v>
       </c>
       <c r="JP8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR8">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS8">
+        <v>0.2</v>
+      </c>
+      <c r="JT8">
         <v>0.8</v>
       </c>
-      <c r="JT8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="JU8">
+      <c r="JU8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="JV8">
         <v>0.7101</v>
       </c>
-      <c r="JZ8" t="s">
-        <v>44</v>
-      </c>
       <c r="KA8" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB8">
+        <v>52</v>
+      </c>
+      <c r="KB8" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC8">
         <v>0.35</v>
       </c>
-      <c r="KC8" s="6">
+      <c r="KD8" s="6">
         <v>0.003</v>
       </c>
-      <c r="KD8">
-        <v>0.1</v>
-      </c>
       <c r="KE8">
+        <v>0.1</v>
+      </c>
+      <c r="KF8">
         <v>300</v>
       </c>
-      <c r="KF8">
-        <v>16</v>
-      </c>
       <c r="KG8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ8">
         <v>1</v>
@@ -6516,30 +6640,33 @@
         <v>1</v>
       </c>
       <c r="KL8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM8">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN8">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="KO8">
+        <v>0.1</v>
+      </c>
+      <c r="KP8">
         <v>0.99</v>
       </c>
-      <c r="KP8">
+      <c r="KQ8">
         <v>0.5</v>
       </c>
-      <c r="KQ8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="KR8">
+      <c r="KR8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="KS8">
         <v>0.6959</v>
       </c>
     </row>
-    <row r="9" spans="33:304">
+    <row r="9" spans="33:305">
       <c r="AG9" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="2">
         <v>0.5</v>
@@ -6584,7 +6711,7 @@
         <v>0.7087</v>
       </c>
       <c r="CN9" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO9" s="2">
         <v>0.1</v>
@@ -6620,13 +6747,13 @@
         <v>0.12</v>
       </c>
       <c r="CZ9" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="DA9">
         <v>0.7185</v>
       </c>
       <c r="DT9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DU9">
         <v>0.1</v>
@@ -6662,35 +6789,32 @@
         <v>0.12</v>
       </c>
       <c r="EZ9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA9" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB9">
+        <v>57</v>
+      </c>
+      <c r="FC9">
         <v>0.5</v>
       </c>
-      <c r="FC9" s="6">
+      <c r="FD9" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD9">
-        <v>0.1</v>
-      </c>
       <c r="FE9">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH9">
+        <v>10</v>
+      </c>
+      <c r="FI9">
         <v>300</v>
       </c>
-      <c r="FI9">
-        <v>1</v>
-      </c>
       <c r="FJ9">
         <v>1</v>
       </c>
@@ -6698,40 +6822,40 @@
         <v>1</v>
       </c>
       <c r="FL9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM9">
-        <v>0.12</v>
-      </c>
-      <c r="FN9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="FO9">
+        <v>0.2</v>
+      </c>
+      <c r="FN9">
+        <v>0.12</v>
+      </c>
+      <c r="FO9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="FP9">
         <v>0.7199</v>
       </c>
-      <c r="FR9" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS9">
+      <c r="FS9" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT9">
         <v>0.5</v>
       </c>
-      <c r="FT9" s="6">
+      <c r="FU9" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU9">
-        <v>0.1</v>
-      </c>
       <c r="FV9">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ9">
         <v>1</v>
@@ -6740,49 +6864,49 @@
         <v>1</v>
       </c>
       <c r="GB9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC9">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD9">
+        <v>0.12</v>
+      </c>
+      <c r="GE9">
         <v>0.001</v>
       </c>
-      <c r="GE9">
+      <c r="GF9">
         <v>0.9</v>
       </c>
-      <c r="GF9" t="s">
-        <v>119</v>
-      </c>
-      <c r="GG9">
+      <c r="GG9" t="s">
+        <v>128</v>
+      </c>
+      <c r="GH9">
         <v>0.6922</v>
       </c>
-      <c r="HR9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS9" s="1">
+      <c r="HS9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT9" s="1">
         <v>0.3</v>
       </c>
-      <c r="HT9" s="1">
+      <c r="HU9" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW9" s="1">
-        <v>16</v>
+      <c r="HV9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW9" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX9" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA9" s="1">
         <v>1</v>
@@ -6791,24 +6915,26 @@
         <v>1</v>
       </c>
       <c r="IC9" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID9" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE9" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG9" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="IH9" s="1">
+      <c r="IH9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="II9" s="1">
         <v>0.7142</v>
       </c>
-      <c r="II9" s="1"/>
       <c r="IJ9" s="1"/>
       <c r="IK9" s="1"/>
       <c r="IL9" s="1"/>
@@ -6828,35 +6954,33 @@
       <c r="IZ9" s="1"/>
       <c r="JA9" s="1"/>
       <c r="JB9" s="1"/>
-      <c r="JD9" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC9" s="1"/>
       <c r="JE9" t="s">
-        <v>121</v>
-      </c>
-      <c r="JF9">
+        <v>52</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>130</v>
+      </c>
+      <c r="JG9">
         <v>0.4</v>
       </c>
-      <c r="JG9" s="6">
+      <c r="JH9" s="6">
         <v>0.002</v>
       </c>
-      <c r="JH9">
+      <c r="JI9">
         <v>0.5</v>
       </c>
-      <c r="JI9">
+      <c r="JJ9">
         <v>300</v>
       </c>
-      <c r="JJ9">
-        <v>16</v>
-      </c>
       <c r="JK9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN9">
         <v>1</v>
@@ -6865,55 +6989,55 @@
         <v>1</v>
       </c>
       <c r="JP9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ9">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR9">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS9">
+        <v>0.2</v>
+      </c>
+      <c r="JT9">
         <v>0.8</v>
       </c>
-      <c r="JT9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="JU9">
+      <c r="JU9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="JV9">
         <v>0.6701</v>
       </c>
-      <c r="JV9" t="s">
-        <v>123</v>
-      </c>
-      <c r="JZ9" t="s">
-        <v>44</v>
+      <c r="JW9" t="s">
+        <v>132</v>
       </c>
       <c r="KA9" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB9">
+        <v>52</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC9">
         <v>0.35</v>
       </c>
-      <c r="KC9" s="6">
+      <c r="KD9" s="6">
         <v>0.001</v>
       </c>
-      <c r="KD9">
-        <v>0.1</v>
-      </c>
       <c r="KE9">
+        <v>0.1</v>
+      </c>
+      <c r="KF9">
         <v>300</v>
       </c>
-      <c r="KF9">
-        <v>16</v>
-      </c>
       <c r="KG9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ9">
         <v>1</v>
@@ -6922,30 +7046,33 @@
         <v>1</v>
       </c>
       <c r="KL9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM9">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN9">
+        <v>0.12</v>
+      </c>
+      <c r="KO9">
         <v>0.001</v>
       </c>
-      <c r="KO9">
+      <c r="KP9">
         <v>0.99</v>
       </c>
-      <c r="KP9">
+      <c r="KQ9">
         <v>0.5</v>
       </c>
-      <c r="KQ9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="KR9">
+      <c r="KR9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="KS9">
         <v>0.7176</v>
       </c>
     </row>
-    <row r="10" spans="33:304">
+    <row r="10" spans="33:305">
       <c r="AG10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH10" s="2">
         <v>0.5</v>
@@ -6987,10 +7114,10 @@
         <v>0.07</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="CN10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO10" s="2">
         <v>0.1</v>
@@ -7026,41 +7153,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ10" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="DA10">
         <v>0.7215</v>
       </c>
       <c r="EZ10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA10" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB10">
+        <v>57</v>
+      </c>
+      <c r="FC10">
         <v>0.45</v>
       </c>
-      <c r="FC10" s="6">
+      <c r="FD10" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD10">
-        <v>0.1</v>
-      </c>
       <c r="FE10">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH10">
+        <v>10</v>
+      </c>
+      <c r="FI10">
         <v>300</v>
       </c>
-      <c r="FI10">
-        <v>1</v>
-      </c>
       <c r="FJ10">
         <v>1</v>
       </c>
@@ -7068,40 +7192,40 @@
         <v>1</v>
       </c>
       <c r="FL10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM10">
-        <v>0.12</v>
-      </c>
-      <c r="FN10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="FO10">
+        <v>0.2</v>
+      </c>
+      <c r="FN10">
+        <v>0.12</v>
+      </c>
+      <c r="FO10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FP10">
         <v>0.7159</v>
       </c>
-      <c r="FR10" t="s">
-        <v>44</v>
-      </c>
-      <c r="FS10">
+      <c r="FS10" t="s">
+        <v>52</v>
+      </c>
+      <c r="FT10">
         <v>0.3</v>
       </c>
-      <c r="FT10" s="6">
+      <c r="FU10" s="6">
         <v>0.001</v>
       </c>
-      <c r="FU10">
-        <v>0.1</v>
-      </c>
       <c r="FV10">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FW10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FX10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FY10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FZ10">
         <v>1</v>
@@ -7110,49 +7234,49 @@
         <v>1</v>
       </c>
       <c r="GB10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="GC10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="GD10">
+        <v>0.12</v>
+      </c>
+      <c r="GE10">
         <v>0</v>
       </c>
-      <c r="GE10">
+      <c r="GF10">
         <v>0.9</v>
       </c>
-      <c r="GF10" t="s">
-        <v>128</v>
-      </c>
-      <c r="GG10">
+      <c r="GG10" t="s">
+        <v>137</v>
+      </c>
+      <c r="GH10">
         <v>0.7077</v>
       </c>
-      <c r="HR10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS10" s="1">
-        <v>0.2</v>
+      <c r="HS10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="HT10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="HU10" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW10" s="1">
-        <v>16</v>
+      <c r="HV10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX10" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA10" s="1">
         <v>1</v>
@@ -7161,24 +7285,26 @@
         <v>1</v>
       </c>
       <c r="IC10" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID10" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE10" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG10" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="IH10" s="1">
+      <c r="IH10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="II10" s="1">
         <v>0.7179</v>
       </c>
-      <c r="II10" s="1"/>
       <c r="IJ10" s="1"/>
       <c r="IK10" s="1"/>
       <c r="IL10" s="1"/>
@@ -7198,35 +7324,33 @@
       <c r="IZ10" s="1"/>
       <c r="JA10" s="1"/>
       <c r="JB10" s="1"/>
-      <c r="JD10" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC10" s="1"/>
       <c r="JE10" t="s">
-        <v>121</v>
-      </c>
-      <c r="JF10">
+        <v>52</v>
+      </c>
+      <c r="JF10" t="s">
+        <v>130</v>
+      </c>
+      <c r="JG10">
         <v>0.4</v>
       </c>
-      <c r="JG10" s="6">
+      <c r="JH10" s="6">
         <v>0.0005</v>
       </c>
-      <c r="JH10">
+      <c r="JI10">
         <v>0.5</v>
       </c>
-      <c r="JI10">
+      <c r="JJ10">
         <v>300</v>
       </c>
-      <c r="JJ10">
-        <v>16</v>
-      </c>
       <c r="JK10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN10">
         <v>1</v>
@@ -7235,52 +7359,52 @@
         <v>1</v>
       </c>
       <c r="JP10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR10">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS10">
+        <v>0.2</v>
+      </c>
+      <c r="JT10">
         <v>0.8</v>
       </c>
-      <c r="JT10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="JU10">
+      <c r="JU10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="JV10">
         <v>0.6532</v>
       </c>
-      <c r="JZ10" t="s">
-        <v>44</v>
-      </c>
       <c r="KA10" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB10">
+        <v>52</v>
+      </c>
+      <c r="KB10" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC10">
         <v>0.25</v>
       </c>
-      <c r="KC10" s="6">
+      <c r="KD10" s="6">
         <v>0.003</v>
       </c>
-      <c r="KD10">
-        <v>0.1</v>
-      </c>
       <c r="KE10">
+        <v>0.1</v>
+      </c>
+      <c r="KF10">
         <v>300</v>
       </c>
-      <c r="KF10">
-        <v>16</v>
-      </c>
       <c r="KG10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ10">
         <v>1</v>
@@ -7289,30 +7413,33 @@
         <v>1</v>
       </c>
       <c r="KL10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN10">
+        <v>0.12</v>
+      </c>
+      <c r="KO10">
         <v>0.001</v>
       </c>
-      <c r="KO10">
+      <c r="KP10">
         <v>0.99</v>
       </c>
-      <c r="KP10">
+      <c r="KQ10">
         <v>0.5</v>
       </c>
-      <c r="KQ10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="KR10">
+      <c r="KR10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="KS10">
         <v>0.7205</v>
       </c>
     </row>
-    <row r="11" spans="33:304">
+    <row r="11" spans="33:305">
       <c r="AG11" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH11" s="2">
         <v>0.5</v>
@@ -7357,7 +7484,7 @@
         <v>0.6748</v>
       </c>
       <c r="CN11" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO11" s="2">
         <v>0.1</v>
@@ -7393,41 +7520,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ11" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="DA11">
         <v>0.7167</v>
       </c>
       <c r="EZ11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA11" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB11">
+        <v>57</v>
+      </c>
+      <c r="FC11">
         <v>0.6</v>
       </c>
-      <c r="FC11" s="6">
+      <c r="FD11" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD11">
-        <v>0.1</v>
-      </c>
       <c r="FE11">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH11">
+        <v>10</v>
+      </c>
+      <c r="FI11">
         <v>300</v>
       </c>
-      <c r="FI11">
-        <v>1</v>
-      </c>
       <c r="FJ11">
         <v>1</v>
       </c>
@@ -7435,43 +7559,43 @@
         <v>1</v>
       </c>
       <c r="FL11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM11">
-        <v>0.12</v>
-      </c>
-      <c r="FN11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="FO11">
+        <v>0.2</v>
+      </c>
+      <c r="FN11">
+        <v>0.12</v>
+      </c>
+      <c r="FO11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="FP11">
         <v>0.7102</v>
       </c>
-      <c r="HR11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS11" s="1">
-        <v>0.1</v>
+      <c r="HS11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="HT11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HU11" s="1">
         <v>0.001</v>
       </c>
-      <c r="HU11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW11" s="1">
-        <v>16</v>
+      <c r="HV11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX11" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA11" s="1">
         <v>1</v>
@@ -7480,24 +7604,26 @@
         <v>1</v>
       </c>
       <c r="IC11" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID11" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE11" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG11" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="IH11" s="1">
+      <c r="IH11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="II11" s="1">
         <v>0.7165</v>
       </c>
-      <c r="II11" s="1"/>
       <c r="IJ11" s="1"/>
       <c r="IK11" s="1"/>
       <c r="IL11" s="1"/>
@@ -7517,35 +7643,33 @@
       <c r="IZ11" s="1"/>
       <c r="JA11" s="1"/>
       <c r="JB11" s="1"/>
-      <c r="JD11" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC11" s="1"/>
       <c r="JE11" t="s">
-        <v>121</v>
-      </c>
-      <c r="JF11">
+        <v>52</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>130</v>
+      </c>
+      <c r="JG11">
         <v>0.4</v>
       </c>
-      <c r="JG11" s="6">
+      <c r="JH11" s="6">
         <v>0.01</v>
       </c>
-      <c r="JH11">
+      <c r="JI11">
         <v>0.5</v>
       </c>
-      <c r="JI11">
+      <c r="JJ11">
         <v>300</v>
       </c>
-      <c r="JJ11">
-        <v>16</v>
-      </c>
       <c r="JK11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN11">
         <v>1</v>
@@ -7554,49 +7678,49 @@
         <v>1</v>
       </c>
       <c r="JP11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ11">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR11">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS11">
+        <v>0.2</v>
+      </c>
+      <c r="JT11">
         <v>0.8</v>
       </c>
-      <c r="JT11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="JZ11" t="s">
-        <v>44</v>
+      <c r="JU11" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="KA11" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB11">
-        <v>0.2</v>
-      </c>
-      <c r="KC11" s="6">
+        <v>52</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC11">
+        <v>0.2</v>
+      </c>
+      <c r="KD11" s="6">
         <v>0.003</v>
       </c>
-      <c r="KD11">
-        <v>0.1</v>
-      </c>
       <c r="KE11">
+        <v>0.1</v>
+      </c>
+      <c r="KF11">
         <v>300</v>
       </c>
-      <c r="KF11">
-        <v>16</v>
-      </c>
       <c r="KG11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ11">
         <v>1</v>
@@ -7605,30 +7729,33 @@
         <v>1</v>
       </c>
       <c r="KL11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM11">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN11">
+        <v>0.12</v>
+      </c>
+      <c r="KO11">
         <v>0.001</v>
       </c>
-      <c r="KO11">
+      <c r="KP11">
         <v>0.99</v>
       </c>
-      <c r="KP11">
+      <c r="KQ11">
         <v>0.5</v>
       </c>
-      <c r="KQ11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="KR11">
+      <c r="KR11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="KS11">
         <v>0.7108</v>
       </c>
     </row>
-    <row r="12" spans="33:304">
+    <row r="12" spans="33:305">
       <c r="AG12" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH12" s="2">
         <v>0.5</v>
@@ -7673,7 +7800,7 @@
         <v>0.7148</v>
       </c>
       <c r="CN12" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO12" s="2">
         <v>0.1</v>
@@ -7709,41 +7836,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ12" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="DA12">
         <v>0.7182</v>
       </c>
       <c r="EZ12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA12" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB12">
+        <v>57</v>
+      </c>
+      <c r="FC12">
         <v>0.7</v>
       </c>
-      <c r="FC12" s="6">
+      <c r="FD12" s="6">
         <v>0.003</v>
       </c>
-      <c r="FD12">
-        <v>0.1</v>
-      </c>
       <c r="FE12">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH12">
+        <v>10</v>
+      </c>
+      <c r="FI12">
         <v>300</v>
       </c>
-      <c r="FI12">
-        <v>1</v>
-      </c>
       <c r="FJ12">
         <v>1</v>
       </c>
@@ -7751,43 +7875,43 @@
         <v>1</v>
       </c>
       <c r="FL12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM12">
-        <v>0.12</v>
-      </c>
-      <c r="FN12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="FO12">
+        <v>0.2</v>
+      </c>
+      <c r="FN12">
+        <v>0.12</v>
+      </c>
+      <c r="FO12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="FP12">
         <v>0.6887</v>
       </c>
-      <c r="HR12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS12" s="1">
-        <v>0.1</v>
+      <c r="HS12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="HT12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HU12" s="1">
         <v>0.001</v>
       </c>
-      <c r="HU12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW12" s="1">
-        <v>16</v>
+      <c r="HV12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX12" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY12" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA12" s="1">
         <v>1</v>
@@ -7796,24 +7920,26 @@
         <v>1</v>
       </c>
       <c r="IC12" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID12" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE12" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG12" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="IH12" s="1">
+      <c r="IH12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="II12" s="1">
         <v>0.7104</v>
       </c>
-      <c r="II12" s="1"/>
       <c r="IJ12" s="1"/>
       <c r="IK12" s="1"/>
       <c r="IL12" s="1"/>
@@ -7833,35 +7959,33 @@
       <c r="IZ12" s="1"/>
       <c r="JA12" s="1"/>
       <c r="JB12" s="1"/>
-      <c r="JD12" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC12" s="1"/>
       <c r="JE12" t="s">
-        <v>121</v>
-      </c>
-      <c r="JF12">
+        <v>52</v>
+      </c>
+      <c r="JF12" t="s">
+        <v>130</v>
+      </c>
+      <c r="JG12">
         <v>0.4</v>
       </c>
-      <c r="JG12" s="6">
+      <c r="JH12" s="6">
         <v>0.005</v>
       </c>
-      <c r="JH12">
+      <c r="JI12">
         <v>0.5</v>
       </c>
-      <c r="JI12">
+      <c r="JJ12">
         <v>300</v>
       </c>
-      <c r="JJ12">
-        <v>16</v>
-      </c>
       <c r="JK12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="JL12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="JM12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="JN12">
         <v>1</v>
@@ -7870,49 +7994,49 @@
         <v>1</v>
       </c>
       <c r="JP12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="JQ12">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="JR12">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="JS12">
+        <v>0.2</v>
+      </c>
+      <c r="JT12">
         <v>0.8</v>
       </c>
-      <c r="JT12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="JZ12" t="s">
-        <v>44</v>
+      <c r="JU12" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="KA12" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB12">
+        <v>52</v>
+      </c>
+      <c r="KB12" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC12">
         <v>0.25</v>
       </c>
-      <c r="KC12" s="6">
+      <c r="KD12" s="6">
         <v>0.002</v>
       </c>
-      <c r="KD12">
-        <v>0.1</v>
-      </c>
       <c r="KE12">
+        <v>0.1</v>
+      </c>
+      <c r="KF12">
         <v>300</v>
       </c>
-      <c r="KF12">
-        <v>16</v>
-      </c>
       <c r="KG12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ12">
         <v>1</v>
@@ -7921,30 +8045,33 @@
         <v>1</v>
       </c>
       <c r="KL12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM12">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN12">
+        <v>0.12</v>
+      </c>
+      <c r="KO12">
         <v>0.001</v>
       </c>
-      <c r="KO12">
+      <c r="KP12">
         <v>0.99</v>
       </c>
-      <c r="KP12">
+      <c r="KQ12">
         <v>0.5</v>
       </c>
-      <c r="KQ12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="KR12" s="10">
+      <c r="KR12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="KS12" s="10">
         <v>0.721</v>
       </c>
     </row>
-    <row r="13" spans="33:304">
+    <row r="13" spans="33:305">
       <c r="AG13" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH13" s="2">
         <v>0.5</v>
@@ -7989,7 +8116,7 @@
         <v>0.7062</v>
       </c>
       <c r="CN13" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO13" s="2">
         <v>0.1</v>
@@ -8025,44 +8152,41 @@
         <v>0.12</v>
       </c>
       <c r="CZ13" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="DA13" s="10">
         <v>0.716</v>
       </c>
       <c r="DB13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="EZ13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA13" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB13">
+        <v>57</v>
+      </c>
+      <c r="FC13">
         <v>0.7</v>
       </c>
-      <c r="FC13" s="6">
+      <c r="FD13" s="6">
         <v>0.002</v>
       </c>
-      <c r="FD13">
-        <v>0.1</v>
-      </c>
       <c r="FE13">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH13">
+        <v>10</v>
+      </c>
+      <c r="FI13">
         <v>300</v>
       </c>
-      <c r="FI13">
-        <v>1</v>
-      </c>
       <c r="FJ13">
         <v>1</v>
       </c>
@@ -8070,43 +8194,43 @@
         <v>1</v>
       </c>
       <c r="FL13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM13">
-        <v>0.12</v>
-      </c>
-      <c r="FN13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="FO13">
+        <v>0.2</v>
+      </c>
+      <c r="FN13">
+        <v>0.12</v>
+      </c>
+      <c r="FO13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FP13">
         <v>0.6945</v>
       </c>
-      <c r="HR13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS13" s="1">
+      <c r="HS13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT13" s="1">
         <v>0.5</v>
       </c>
-      <c r="HT13" s="1">
+      <c r="HU13" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW13" s="1">
-        <v>16</v>
+      <c r="HV13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX13" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY13" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA13" s="1">
         <v>1</v>
@@ -8115,24 +8239,26 @@
         <v>1</v>
       </c>
       <c r="IC13" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID13" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE13" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG13" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="IH13" s="1">
+      <c r="IH13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="II13" s="1">
         <v>0.7004</v>
       </c>
-      <c r="II13" s="1"/>
       <c r="IJ13" s="1"/>
       <c r="IK13" s="1"/>
       <c r="IL13" s="1"/>
@@ -8152,35 +8278,33 @@
       <c r="IZ13" s="1"/>
       <c r="JA13" s="1"/>
       <c r="JB13" s="1"/>
-      <c r="JZ13" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC13" s="1"/>
       <c r="KA13" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB13">
+        <v>52</v>
+      </c>
+      <c r="KB13" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC13">
         <v>0.25</v>
       </c>
-      <c r="KC13" s="6">
+      <c r="KD13" s="6">
         <v>0.001</v>
       </c>
-      <c r="KD13">
-        <v>0.1</v>
-      </c>
       <c r="KE13">
+        <v>0.1</v>
+      </c>
+      <c r="KF13">
         <v>300</v>
       </c>
-      <c r="KF13">
-        <v>16</v>
-      </c>
       <c r="KG13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ13">
         <v>1</v>
@@ -8189,30 +8313,33 @@
         <v>1</v>
       </c>
       <c r="KL13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="KM13">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="KN13">
+        <v>0.12</v>
+      </c>
+      <c r="KO13">
         <v>0.001</v>
       </c>
-      <c r="KO13">
+      <c r="KP13">
         <v>0.99</v>
       </c>
-      <c r="KP13">
+      <c r="KQ13">
         <v>0.5</v>
       </c>
-      <c r="KQ13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="KR13">
+      <c r="KR13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="KS13">
         <v>0.7216</v>
       </c>
     </row>
-    <row r="14" spans="33:304">
+    <row r="14" spans="33:305">
       <c r="AG14" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH14" s="2">
         <v>0.1</v>
@@ -8257,7 +8384,7 @@
         <v>0.6883</v>
       </c>
       <c r="CN14" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO14" s="2">
         <v>0.1</v>
@@ -8293,41 +8420,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ14" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="DA14">
         <v>0.7148</v>
       </c>
       <c r="EZ14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA14" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB14">
+        <v>57</v>
+      </c>
+      <c r="FC14">
         <v>0.7</v>
       </c>
-      <c r="FC14" s="6">
+      <c r="FD14" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD14">
-        <v>0.1</v>
-      </c>
       <c r="FE14">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH14">
+        <v>10</v>
+      </c>
+      <c r="FI14">
         <v>300</v>
       </c>
-      <c r="FI14">
-        <v>1</v>
-      </c>
       <c r="FJ14">
         <v>1</v>
       </c>
@@ -8335,43 +8459,43 @@
         <v>1</v>
       </c>
       <c r="FL14">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM14">
-        <v>0.12</v>
-      </c>
-      <c r="FN14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="FO14">
+        <v>0.2</v>
+      </c>
+      <c r="FN14">
+        <v>0.12</v>
+      </c>
+      <c r="FO14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FP14">
         <v>0.6785</v>
       </c>
-      <c r="HR14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS14" s="1">
+      <c r="HS14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT14" s="1">
         <v>0.5</v>
       </c>
-      <c r="HT14" s="1">
+      <c r="HU14" s="1">
         <v>0.003</v>
       </c>
-      <c r="HU14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW14" s="1">
-        <v>16</v>
+      <c r="HV14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW14" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX14" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY14" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ14" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA14" s="1">
         <v>1</v>
@@ -8380,24 +8504,26 @@
         <v>1</v>
       </c>
       <c r="IC14" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID14" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE14" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG14" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="IH14" s="1">
+      <c r="IH14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="II14" s="1">
         <v>0.7054</v>
       </c>
-      <c r="II14" s="1"/>
       <c r="IJ14" s="1"/>
       <c r="IK14" s="1"/>
       <c r="IL14" s="1"/>
@@ -8417,32 +8543,30 @@
       <c r="IZ14" s="1"/>
       <c r="JA14" s="1"/>
       <c r="JB14" s="1"/>
-      <c r="JZ14" t="s">
-        <v>44</v>
-      </c>
+      <c r="JC14" s="1"/>
       <c r="KA14" t="s">
-        <v>69</v>
-      </c>
-      <c r="KB14">
+        <v>52</v>
+      </c>
+      <c r="KB14" t="s">
+        <v>77</v>
+      </c>
+      <c r="KC14">
         <v>0.25</v>
       </c>
-      <c r="KD14">
-        <v>0.1</v>
-      </c>
       <c r="KE14">
+        <v>0.1</v>
+      </c>
+      <c r="KF14">
         <v>300</v>
       </c>
-      <c r="KF14">
-        <v>16</v>
-      </c>
       <c r="KG14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="KH14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="KI14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="KJ14">
         <v>1</v>
@@ -8451,30 +8575,33 @@
         <v>1</v>
       </c>
       <c r="KL14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="KM14">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="KN14">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="KO14">
+        <v>0.1</v>
+      </c>
+      <c r="KP14">
         <v>0.99</v>
       </c>
-      <c r="KP14">
+      <c r="KQ14">
         <v>0.5</v>
       </c>
-      <c r="KQ14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="KR14">
+      <c r="KR14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="KS14">
         <v>0.6263</v>
       </c>
     </row>
-    <row r="15" spans="33:262">
+    <row r="15" spans="33:263">
       <c r="AG15" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH15" s="2">
         <v>0.1</v>
@@ -8519,7 +8646,7 @@
         <v>0.714</v>
       </c>
       <c r="CN15" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO15" s="2">
         <v>0.1</v>
@@ -8555,41 +8682,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ15" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="DA15">
         <v>0.7086</v>
       </c>
       <c r="EZ15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA15" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB15">
+        <v>57</v>
+      </c>
+      <c r="FC15">
         <v>0.3</v>
       </c>
-      <c r="FC15" s="6">
+      <c r="FD15" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD15">
-        <v>0.1</v>
-      </c>
       <c r="FE15">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH15">
+        <v>10</v>
+      </c>
+      <c r="FI15">
         <v>300</v>
       </c>
-      <c r="FI15">
-        <v>1</v>
-      </c>
       <c r="FJ15">
         <v>1</v>
       </c>
@@ -8597,43 +8721,43 @@
         <v>1</v>
       </c>
       <c r="FL15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM15">
-        <v>0.12</v>
-      </c>
-      <c r="FN15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FO15">
+        <v>0.2</v>
+      </c>
+      <c r="FN15">
+        <v>0.12</v>
+      </c>
+      <c r="FO15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FP15">
         <v>0.7274</v>
       </c>
-      <c r="HR15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS15" s="1">
+      <c r="HS15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT15" s="1">
         <v>0.5</v>
       </c>
-      <c r="HT15" s="1">
+      <c r="HU15" s="1">
         <v>0.003</v>
       </c>
-      <c r="HU15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW15" s="1">
-        <v>16</v>
+      <c r="HV15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX15" s="1">
-        <v>2</v>
-      </c>
-      <c r="HY15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="HZ15" s="1">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="HY15" s="1">
+        <v>2</v>
+      </c>
+      <c r="HZ15" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="IA15" s="1">
         <v>1</v>
@@ -8642,24 +8766,26 @@
         <v>1</v>
       </c>
       <c r="IC15" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID15" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE15" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG15" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG15" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="IH15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="II15" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="II15" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="IJ15" s="1"/>
       <c r="IK15" s="1"/>
       <c r="IL15" s="1"/>
@@ -8679,10 +8805,11 @@
       <c r="IZ15" s="1"/>
       <c r="JA15" s="1"/>
       <c r="JB15" s="1"/>
+      <c r="JC15" s="1"/>
     </row>
-    <row r="16" spans="33:262">
+    <row r="16" spans="33:263">
       <c r="AG16" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH16" s="2">
         <v>0.1</v>
@@ -8727,7 +8854,7 @@
         <v>0.7225</v>
       </c>
       <c r="CN16" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CO16" s="2">
         <v>0.1</v>
@@ -8763,41 +8890,38 @@
         <v>0.12</v>
       </c>
       <c r="CZ16" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="DA16">
         <v>0.7181</v>
       </c>
       <c r="EZ16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA16" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB16">
+        <v>57</v>
+      </c>
+      <c r="FC16">
         <v>0.3</v>
       </c>
-      <c r="FC16" s="6">
+      <c r="FD16" s="6">
         <v>0.002</v>
       </c>
-      <c r="FD16">
-        <v>0.1</v>
-      </c>
       <c r="FE16">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF16">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH16">
+        <v>10</v>
+      </c>
+      <c r="FI16">
         <v>300</v>
       </c>
-      <c r="FI16">
-        <v>1</v>
-      </c>
       <c r="FJ16">
         <v>1</v>
       </c>
@@ -8805,43 +8929,43 @@
         <v>1</v>
       </c>
       <c r="FL16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM16">
-        <v>0.12</v>
-      </c>
-      <c r="FN16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FO16">
+        <v>0.2</v>
+      </c>
+      <c r="FN16">
+        <v>0.12</v>
+      </c>
+      <c r="FO16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FP16">
         <v>0.7217</v>
       </c>
-      <c r="HR16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS16" s="1">
+      <c r="HS16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT16" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT16" s="1">
+      <c r="HU16" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV16" s="1" t="s">
-        <v>53</v>
+      <c r="HV16" s="1">
+        <v>0.1</v>
       </c>
       <c r="HW16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="HX16" s="1">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="HX16" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="HY16" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA16" s="1">
         <v>1</v>
@@ -8850,24 +8974,26 @@
         <v>1</v>
       </c>
       <c r="IC16" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID16" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE16" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG16" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG16" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="IH16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="II16" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="II16" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="IJ16" s="1"/>
       <c r="IK16" s="1"/>
       <c r="IL16" s="1"/>
@@ -8887,10 +9013,11 @@
       <c r="IZ16" s="1"/>
       <c r="JA16" s="1"/>
       <c r="JB16" s="1"/>
+      <c r="JC16" s="1"/>
     </row>
-    <row r="17" spans="33:262">
+    <row r="17" spans="33:263">
       <c r="AG17" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH17" s="2">
         <v>0.1</v>
@@ -8935,35 +9062,32 @@
         <v>0.7209</v>
       </c>
       <c r="EZ17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA17" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB17">
+        <v>57</v>
+      </c>
+      <c r="FC17">
         <v>0.3</v>
       </c>
-      <c r="FC17" s="6">
+      <c r="FD17" s="6">
         <v>0.0015</v>
       </c>
-      <c r="FD17">
-        <v>0.1</v>
-      </c>
       <c r="FE17">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH17">
+        <v>10</v>
+      </c>
+      <c r="FI17">
         <v>300</v>
       </c>
-      <c r="FI17">
-        <v>1</v>
-      </c>
       <c r="FJ17">
         <v>1</v>
       </c>
@@ -8971,43 +9095,43 @@
         <v>1</v>
       </c>
       <c r="FL17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM17">
-        <v>0.12</v>
-      </c>
-      <c r="FN17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FO17">
+        <v>0.2</v>
+      </c>
+      <c r="FN17">
+        <v>0.12</v>
+      </c>
+      <c r="FO17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FP17">
         <v>0.7184</v>
       </c>
-      <c r="HR17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS17" s="1">
+      <c r="HS17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT17" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT17" s="1">
+      <c r="HU17" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV17" s="1" t="s">
-        <v>158</v>
+      <c r="HV17" s="1">
+        <v>0.1</v>
       </c>
       <c r="HW17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="HX17" s="1">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="HX17" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="HY17" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA17" s="1">
         <v>1</v>
@@ -9016,24 +9140,26 @@
         <v>1</v>
       </c>
       <c r="IC17" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID17" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE17" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG17" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG17" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="IH17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="II17" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="II17" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="IJ17" s="1"/>
       <c r="IK17" s="1"/>
       <c r="IL17" s="1"/>
@@ -9053,10 +9179,11 @@
       <c r="IZ17" s="1"/>
       <c r="JA17" s="1"/>
       <c r="JB17" s="1"/>
+      <c r="JC17" s="1"/>
     </row>
-    <row r="18" spans="33:262">
+    <row r="18" spans="33:263">
       <c r="AG18" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH18" s="2">
         <v>0.1</v>
@@ -9101,35 +9228,32 @@
         <v>0.7158</v>
       </c>
       <c r="EZ18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA18" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB18">
+        <v>57</v>
+      </c>
+      <c r="FC18">
         <v>0.3</v>
       </c>
-      <c r="FC18" s="6">
+      <c r="FD18" s="6">
         <v>0.00095</v>
       </c>
-      <c r="FD18">
-        <v>0.1</v>
-      </c>
       <c r="FE18">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH18">
+        <v>10</v>
+      </c>
+      <c r="FI18">
         <v>300</v>
       </c>
-      <c r="FI18">
-        <v>1</v>
-      </c>
       <c r="FJ18">
         <v>1</v>
       </c>
@@ -9137,43 +9261,43 @@
         <v>1</v>
       </c>
       <c r="FL18">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM18">
-        <v>0.12</v>
-      </c>
-      <c r="FN18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FO18">
+        <v>0.2</v>
+      </c>
+      <c r="FN18">
+        <v>0.12</v>
+      </c>
+      <c r="FO18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP18">
         <v>0.7232</v>
       </c>
-      <c r="HR18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS18" s="1">
+      <c r="HS18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HT18" s="1">
         <v>0.25</v>
       </c>
-      <c r="HT18" s="1">
+      <c r="HU18" s="1">
         <v>0.002</v>
       </c>
-      <c r="HU18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="HV18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="HW18" s="1">
-        <v>16</v>
+      <c r="HV18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="HW18" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="HX18" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="HY18" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="HZ18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="IA18" s="1">
         <v>1</v>
@@ -9182,24 +9306,26 @@
         <v>1</v>
       </c>
       <c r="IC18" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="ID18" s="1">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="IE18" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="IF18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="IG18" s="1">
         <v>0.8</v>
       </c>
-      <c r="IG18" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="IH18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="II18" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="II18" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="IJ18" s="1"/>
       <c r="IK18" s="1"/>
       <c r="IL18" s="1"/>
@@ -9219,10 +9345,11 @@
       <c r="IZ18" s="1"/>
       <c r="JA18" s="1"/>
       <c r="JB18" s="1"/>
+      <c r="JC18" s="1"/>
     </row>
-    <row r="19" spans="33:262">
+    <row r="19" spans="33:263">
       <c r="AG19" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="2">
         <v>0.1</v>
@@ -9267,35 +9394,32 @@
         <v>0.7243</v>
       </c>
       <c r="EZ19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA19" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB19">
+        <v>57</v>
+      </c>
+      <c r="FC19">
         <v>0.3</v>
       </c>
-      <c r="FC19" s="6">
+      <c r="FD19" s="6">
         <v>0.0009</v>
       </c>
-      <c r="FD19">
-        <v>0.1</v>
-      </c>
       <c r="FE19">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF19">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH19">
+        <v>10</v>
+      </c>
+      <c r="FI19">
         <v>300</v>
       </c>
-      <c r="FI19">
-        <v>1</v>
-      </c>
       <c r="FJ19">
         <v>1</v>
       </c>
@@ -9303,63 +9427,65 @@
         <v>1</v>
       </c>
       <c r="FL19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM19">
-        <v>0.12</v>
-      </c>
-      <c r="FN19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FO19">
+        <v>0.2</v>
+      </c>
+      <c r="FN19">
+        <v>0.12</v>
+      </c>
+      <c r="FO19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FP19">
         <v>0.7176</v>
       </c>
-      <c r="HR19" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="HS19" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="HT19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="HU19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="HV19" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="HW19" s="1" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="HX19" s="1" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="HY19" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="HZ19" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="IA19" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="IB19" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="IC19" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="ID19" s="1" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="IE19" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="IF19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="IG19" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="IG19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="IH19" s="1"/>
       <c r="II19" s="1"/>
       <c r="IJ19" s="1"/>
@@ -9381,10 +9507,11 @@
       <c r="IZ19" s="1"/>
       <c r="JA19" s="1"/>
       <c r="JB19" s="1"/>
+      <c r="JC19" s="1"/>
     </row>
-    <row r="20" spans="33:262">
+    <row r="20" spans="33:263">
       <c r="AG20" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH20" s="2">
         <v>0.1</v>
@@ -9429,35 +9556,33 @@
         <v>0.7191</v>
       </c>
       <c r="EZ20" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB20" s="12">
+        <v>57</v>
+      </c>
+      <c r="FB20" s="12"/>
+      <c r="FC20" s="12">
         <v>0.35</v>
       </c>
-      <c r="FC20" s="13">
+      <c r="FD20" s="13">
         <v>0.001</v>
       </c>
-      <c r="FD20" s="12">
-        <v>0.1</v>
-      </c>
       <c r="FE20" s="12">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF20" s="12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG20" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH20" s="12">
+        <v>10</v>
+      </c>
+      <c r="FI20" s="12">
         <v>300</v>
       </c>
-      <c r="FI20" s="12">
-        <v>1</v>
-      </c>
       <c r="FJ20" s="12">
         <v>1</v>
       </c>
@@ -9465,18 +9590,20 @@
         <v>1</v>
       </c>
       <c r="FL20" s="12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM20" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="FN20" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="FO20" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="FN20" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="FO20" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="FP20" s="12">
         <v>0.7282</v>
       </c>
-      <c r="HR20" s="1"/>
       <c r="HS20" s="1"/>
       <c r="HT20" s="1"/>
       <c r="HU20" s="1"/>
@@ -9513,10 +9640,11 @@
       <c r="IZ20" s="1"/>
       <c r="JA20" s="1"/>
       <c r="JB20" s="1"/>
+      <c r="JC20" s="1"/>
     </row>
-    <row r="21" spans="33:262">
+    <row r="21" spans="33:263">
       <c r="AG21" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH21" s="2">
         <v>0.1</v>
@@ -9561,35 +9689,32 @@
         <v>0.72</v>
       </c>
       <c r="EZ21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA21" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB21">
+        <v>57</v>
+      </c>
+      <c r="FC21">
         <v>0.4</v>
       </c>
-      <c r="FC21" s="6">
+      <c r="FD21" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD21">
-        <v>0.1</v>
-      </c>
       <c r="FE21">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF21">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH21">
+        <v>10</v>
+      </c>
+      <c r="FI21">
         <v>300</v>
       </c>
-      <c r="FI21">
-        <v>1</v>
-      </c>
       <c r="FJ21">
         <v>1</v>
       </c>
@@ -9597,18 +9722,20 @@
         <v>1</v>
       </c>
       <c r="FL21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM21">
-        <v>0.12</v>
-      </c>
-      <c r="FN21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO21">
+        <v>0.2</v>
+      </c>
+      <c r="FN21">
+        <v>0.12</v>
+      </c>
+      <c r="FO21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FP21">
         <v>0.7256</v>
       </c>
-      <c r="HR21" s="1"/>
       <c r="HS21" s="1"/>
       <c r="HT21" s="1"/>
       <c r="HU21" s="1"/>
@@ -9645,10 +9772,11 @@
       <c r="IZ21" s="1"/>
       <c r="JA21" s="1"/>
       <c r="JB21" s="1"/>
+      <c r="JC21" s="1"/>
     </row>
-    <row r="22" spans="33:262">
+    <row r="22" spans="33:263">
       <c r="AG22" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH22" s="2">
         <v>0.1</v>
@@ -9693,35 +9821,32 @@
         <v>0.7237</v>
       </c>
       <c r="EZ22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA22" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB22">
+        <v>57</v>
+      </c>
+      <c r="FC22">
         <v>0.25</v>
       </c>
-      <c r="FC22" s="6">
+      <c r="FD22" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD22">
-        <v>0.1</v>
-      </c>
       <c r="FE22">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH22">
+        <v>10</v>
+      </c>
+      <c r="FI22">
         <v>300</v>
       </c>
-      <c r="FI22">
-        <v>1</v>
-      </c>
       <c r="FJ22">
         <v>1</v>
       </c>
@@ -9729,21 +9854,23 @@
         <v>1</v>
       </c>
       <c r="FL22">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM22">
-        <v>0.12</v>
-      </c>
-      <c r="FN22" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO22">
+        <v>0.2</v>
+      </c>
+      <c r="FN22">
+        <v>0.12</v>
+      </c>
+      <c r="FO22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FP22">
         <v>0.7188</v>
       </c>
-      <c r="FP22" t="s">
-        <v>170</v>
-      </c>
-      <c r="HR22" s="1"/>
+      <c r="FQ22" t="s">
+        <v>178</v>
+      </c>
       <c r="HS22" s="1"/>
       <c r="HT22" s="1"/>
       <c r="HU22" s="1"/>
@@ -9780,10 +9907,11 @@
       <c r="IZ22" s="1"/>
       <c r="JA22" s="1"/>
       <c r="JB22" s="1"/>
+      <c r="JC22" s="1"/>
     </row>
-    <row r="23" spans="33:262">
+    <row r="23" spans="33:263">
       <c r="AG23" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH23" s="2">
         <v>0.5</v>
@@ -9825,35 +9953,32 @@
         <v>0.09</v>
       </c>
       <c r="EZ23" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="FA23" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB23">
+        <v>57</v>
+      </c>
+      <c r="FC23">
         <v>0.35</v>
       </c>
-      <c r="FC23" s="6">
+      <c r="FD23" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD23">
-        <v>0.1</v>
-      </c>
       <c r="FE23">
+        <v>0.1</v>
+      </c>
+      <c r="FF23">
         <v>8</v>
       </c>
-      <c r="FF23">
-        <v>2</v>
-      </c>
       <c r="FG23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH23">
+        <v>10</v>
+      </c>
+      <c r="FI23">
         <v>600</v>
       </c>
-      <c r="FI23">
-        <v>1</v>
-      </c>
       <c r="FJ23">
         <v>1</v>
       </c>
@@ -9861,18 +9986,20 @@
         <v>1</v>
       </c>
       <c r="FL23">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM23">
-        <v>0.12</v>
-      </c>
-      <c r="FN23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FO23">
+        <v>0.2</v>
+      </c>
+      <c r="FN23">
+        <v>0.12</v>
+      </c>
+      <c r="FO23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FP23">
         <v>0.6817</v>
       </c>
-      <c r="HR23" s="1"/>
       <c r="HS23" s="1"/>
       <c r="HT23" s="1"/>
       <c r="HU23" s="1"/>
@@ -9909,38 +10036,36 @@
       <c r="IZ23" s="1"/>
       <c r="JA23" s="1"/>
       <c r="JB23" s="1"/>
+      <c r="JC23" s="1"/>
     </row>
-    <row r="24" spans="156:262">
+    <row r="24" spans="156:263">
       <c r="EZ24" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="FA24" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB24">
+        <v>57</v>
+      </c>
+      <c r="FC24">
         <v>0.35</v>
       </c>
-      <c r="FC24" s="6">
+      <c r="FD24" s="6">
         <v>0.0001</v>
       </c>
-      <c r="FD24">
-        <v>0.1</v>
-      </c>
       <c r="FE24">
+        <v>0.1</v>
+      </c>
+      <c r="FF24">
         <v>8</v>
       </c>
-      <c r="FF24">
-        <v>2</v>
-      </c>
       <c r="FG24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH24">
+        <v>10</v>
+      </c>
+      <c r="FI24">
         <v>600</v>
       </c>
-      <c r="FI24">
-        <v>1</v>
-      </c>
       <c r="FJ24">
         <v>1</v>
       </c>
@@ -9948,18 +10073,20 @@
         <v>1</v>
       </c>
       <c r="FL24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM24">
-        <v>0.12</v>
-      </c>
-      <c r="FN24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FO24">
+        <v>0.2</v>
+      </c>
+      <c r="FN24">
+        <v>0.12</v>
+      </c>
+      <c r="FO24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FP24">
         <v>0.6134</v>
       </c>
-      <c r="HR24" s="1"/>
       <c r="HS24" s="1"/>
       <c r="HT24" s="1"/>
       <c r="HU24" s="1"/>
@@ -9996,38 +10123,36 @@
       <c r="IZ24" s="1"/>
       <c r="JA24" s="1"/>
       <c r="JB24" s="1"/>
+      <c r="JC24" s="1"/>
     </row>
-    <row r="25" spans="156:262">
+    <row r="25" spans="156:263">
       <c r="EZ25" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="FA25" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB25">
+        <v>57</v>
+      </c>
+      <c r="FC25">
         <v>0.35</v>
       </c>
-      <c r="FC25" s="6">
+      <c r="FD25" s="6">
         <v>0.0004</v>
       </c>
-      <c r="FD25">
-        <v>0.1</v>
-      </c>
       <c r="FE25">
+        <v>0.1</v>
+      </c>
+      <c r="FF25">
         <v>8</v>
       </c>
-      <c r="FF25">
-        <v>2</v>
-      </c>
       <c r="FG25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH25">
+        <v>10</v>
+      </c>
+      <c r="FI25">
         <v>600</v>
       </c>
-      <c r="FI25">
-        <v>1</v>
-      </c>
       <c r="FJ25">
         <v>1</v>
       </c>
@@ -10035,18 +10160,20 @@
         <v>1</v>
       </c>
       <c r="FL25">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM25">
-        <v>0.12</v>
-      </c>
-      <c r="FN25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FO25">
+        <v>0.2</v>
+      </c>
+      <c r="FN25">
+        <v>0.12</v>
+      </c>
+      <c r="FO25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FP25">
         <v>0.6824</v>
       </c>
-      <c r="HR25" s="1"/>
       <c r="HS25" s="1"/>
       <c r="HT25" s="1"/>
       <c r="HU25" s="1"/>
@@ -10083,38 +10210,36 @@
       <c r="IZ25" s="1"/>
       <c r="JA25" s="1"/>
       <c r="JB25" s="1"/>
+      <c r="JC25" s="1"/>
     </row>
-    <row r="26" spans="156:262">
+    <row r="26" spans="156:263">
       <c r="EZ26" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA26" t="s">
-        <v>49</v>
-      </c>
-      <c r="FB26">
+        <v>57</v>
+      </c>
+      <c r="FC26">
         <v>0.25</v>
       </c>
-      <c r="FC26" s="6">
+      <c r="FD26" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD26">
-        <v>0.1</v>
-      </c>
       <c r="FE26">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF26">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH26">
+        <v>10</v>
+      </c>
+      <c r="FI26">
         <v>300</v>
       </c>
-      <c r="FI26">
-        <v>1</v>
-      </c>
       <c r="FJ26">
         <v>1</v>
       </c>
@@ -10122,18 +10247,20 @@
         <v>1</v>
       </c>
       <c r="FL26">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM26">
-        <v>0.12</v>
-      </c>
-      <c r="FN26" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO26">
+        <v>0.2</v>
+      </c>
+      <c r="FN26">
+        <v>0.12</v>
+      </c>
+      <c r="FO26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FP26">
         <v>0.7188</v>
       </c>
-      <c r="HR26" s="1"/>
       <c r="HS26" s="1"/>
       <c r="HT26" s="1"/>
       <c r="HU26" s="1"/>
@@ -10170,38 +10297,39 @@
       <c r="IZ26" s="1"/>
       <c r="JA26" s="1"/>
       <c r="JB26" s="1"/>
+      <c r="JC26" s="1"/>
     </row>
-    <row r="27" spans="156:262">
+    <row r="27" spans="156:263">
       <c r="EZ27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA27" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB27">
+        <v>130</v>
+      </c>
+      <c r="FB27" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC27">
         <v>0.4</v>
       </c>
-      <c r="FC27" s="6">
+      <c r="FD27" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD27">
+      <c r="FE27">
         <v>0.5</v>
       </c>
-      <c r="FE27">
-        <v>16</v>
-      </c>
       <c r="FF27">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG27">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH27">
+        <v>10</v>
+      </c>
+      <c r="FI27">
         <v>300</v>
       </c>
-      <c r="FI27">
-        <v>1</v>
-      </c>
       <c r="FJ27">
         <v>1</v>
       </c>
@@ -10209,18 +10337,20 @@
         <v>1</v>
       </c>
       <c r="FL27">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM27">
-        <v>0.12</v>
-      </c>
-      <c r="FN27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FO27">
+        <v>0.2</v>
+      </c>
+      <c r="FN27">
+        <v>0.12</v>
+      </c>
+      <c r="FO27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FP27">
         <v>0.6726</v>
       </c>
-      <c r="HR27" s="1"/>
       <c r="HS27" s="1"/>
       <c r="HT27" s="1"/>
       <c r="HU27" s="1"/>
@@ -10257,38 +10387,39 @@
       <c r="IZ27" s="1"/>
       <c r="JA27" s="1"/>
       <c r="JB27" s="1"/>
+      <c r="JC27" s="1"/>
     </row>
-    <row r="28" spans="156:262">
+    <row r="28" spans="156:263">
       <c r="EZ28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA28" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB28">
-        <v>0.2</v>
-      </c>
-      <c r="FC28" s="6">
+        <v>130</v>
+      </c>
+      <c r="FB28" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC28">
+        <v>0.2</v>
+      </c>
+      <c r="FD28" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD28">
+      <c r="FE28">
         <v>0.5</v>
       </c>
-      <c r="FE28">
-        <v>16</v>
-      </c>
       <c r="FF28">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH28">
+        <v>10</v>
+      </c>
+      <c r="FI28">
         <v>300</v>
       </c>
-      <c r="FI28">
-        <v>1</v>
-      </c>
       <c r="FJ28">
         <v>1</v>
       </c>
@@ -10296,18 +10427,20 @@
         <v>1</v>
       </c>
       <c r="FL28">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM28">
-        <v>0.12</v>
-      </c>
-      <c r="FN28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FO28">
+        <v>0.2</v>
+      </c>
+      <c r="FN28">
+        <v>0.12</v>
+      </c>
+      <c r="FO28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FP28">
         <v>0.7051</v>
       </c>
-      <c r="HR28" s="1"/>
       <c r="HS28" s="1"/>
       <c r="HT28" s="1"/>
       <c r="HU28" s="1"/>
@@ -10344,38 +10477,39 @@
       <c r="IZ28" s="1"/>
       <c r="JA28" s="1"/>
       <c r="JB28" s="1"/>
+      <c r="JC28" s="1"/>
     </row>
-    <row r="29" spans="156:262">
+    <row r="29" spans="156:263">
       <c r="EZ29" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA29" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB29">
-        <v>0.1</v>
-      </c>
-      <c r="FC29" s="6">
+        <v>130</v>
+      </c>
+      <c r="FB29" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC29">
+        <v>0.1</v>
+      </c>
+      <c r="FD29" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD29">
+      <c r="FE29">
         <v>0.5</v>
       </c>
-      <c r="FE29">
-        <v>16</v>
-      </c>
       <c r="FF29">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH29">
+        <v>10</v>
+      </c>
+      <c r="FI29">
         <v>300</v>
       </c>
-      <c r="FI29">
-        <v>1</v>
-      </c>
       <c r="FJ29">
         <v>1</v>
       </c>
@@ -10383,18 +10517,20 @@
         <v>1</v>
       </c>
       <c r="FL29">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM29">
-        <v>0.12</v>
-      </c>
-      <c r="FN29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="FO29">
+        <v>0.2</v>
+      </c>
+      <c r="FN29">
+        <v>0.12</v>
+      </c>
+      <c r="FO29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="FP29">
         <v>0.7053</v>
       </c>
-      <c r="HR29" s="1"/>
       <c r="HS29" s="1"/>
       <c r="HT29" s="1"/>
       <c r="HU29" s="1"/>
@@ -10431,38 +10567,39 @@
       <c r="IZ29" s="1"/>
       <c r="JA29" s="1"/>
       <c r="JB29" s="1"/>
+      <c r="JC29" s="1"/>
     </row>
-    <row r="30" spans="156:244">
+    <row r="30" spans="156:245">
       <c r="EZ30" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA30" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB30">
-        <v>0.1</v>
-      </c>
-      <c r="FC30" s="6">
+        <v>130</v>
+      </c>
+      <c r="FB30" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC30">
+        <v>0.1</v>
+      </c>
+      <c r="FD30" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD30">
-        <v>0.1</v>
-      </c>
       <c r="FE30">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF30">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG30">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH30">
+        <v>10</v>
+      </c>
+      <c r="FI30">
         <v>300</v>
       </c>
-      <c r="FI30">
-        <v>1</v>
-      </c>
       <c r="FJ30">
         <v>1</v>
       </c>
@@ -10470,18 +10607,20 @@
         <v>1</v>
       </c>
       <c r="FL30">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM30">
-        <v>0.12</v>
-      </c>
-      <c r="FN30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FO30">
+        <v>0.2</v>
+      </c>
+      <c r="FN30">
+        <v>0.12</v>
+      </c>
+      <c r="FO30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FP30">
         <v>0.7055</v>
       </c>
-      <c r="HR30" s="1"/>
       <c r="HS30" s="1"/>
       <c r="HT30" s="1"/>
       <c r="HU30" s="1"/>
@@ -10500,38 +10639,39 @@
       <c r="IH30" s="1"/>
       <c r="II30" s="1"/>
       <c r="IJ30" s="1"/>
+      <c r="IK30" s="1"/>
     </row>
-    <row r="31" spans="156:244">
+    <row r="31" spans="156:245">
       <c r="EZ31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA31" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB31">
-        <v>0.1</v>
-      </c>
-      <c r="FC31" s="6">
+        <v>130</v>
+      </c>
+      <c r="FB31" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC31">
+        <v>0.1</v>
+      </c>
+      <c r="FD31" s="6">
         <v>0.001</v>
       </c>
-      <c r="FD31">
-        <v>0.1</v>
-      </c>
       <c r="FE31">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF31">
+        <v>16</v>
+      </c>
+      <c r="FG31">
         <v>4</v>
       </c>
-      <c r="FG31">
-        <v>10</v>
-      </c>
       <c r="FH31">
+        <v>10</v>
+      </c>
+      <c r="FI31">
         <v>310</v>
       </c>
-      <c r="FI31">
-        <v>1</v>
-      </c>
       <c r="FJ31">
         <v>1</v>
       </c>
@@ -10539,18 +10679,20 @@
         <v>1</v>
       </c>
       <c r="FL31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM31">
-        <v>0.12</v>
-      </c>
-      <c r="FN31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FO31">
+        <v>0.2</v>
+      </c>
+      <c r="FN31">
+        <v>0.12</v>
+      </c>
+      <c r="FO31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FP31">
         <v>0.7095</v>
       </c>
-      <c r="HR31" s="1"/>
       <c r="HS31" s="1"/>
       <c r="HT31" s="1"/>
       <c r="HU31" s="1"/>
@@ -10569,38 +10711,39 @@
       <c r="IH31" s="1"/>
       <c r="II31" s="1"/>
       <c r="IJ31" s="1"/>
+      <c r="IK31" s="1"/>
     </row>
-    <row r="32" spans="156:244">
+    <row r="32" spans="156:245">
       <c r="EZ32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA32" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB32">
-        <v>0.1</v>
-      </c>
-      <c r="FC32" s="6">
+        <v>130</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC32">
+        <v>0.1</v>
+      </c>
+      <c r="FD32" s="6">
         <v>0.0005</v>
       </c>
-      <c r="FD32">
-        <v>0.1</v>
-      </c>
       <c r="FE32">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="FF32">
+        <v>16</v>
+      </c>
+      <c r="FG32">
         <v>4</v>
       </c>
-      <c r="FG32">
-        <v>10</v>
-      </c>
       <c r="FH32">
+        <v>10</v>
+      </c>
+      <c r="FI32">
         <v>310</v>
       </c>
-      <c r="FI32">
-        <v>1</v>
-      </c>
       <c r="FJ32">
         <v>1</v>
       </c>
@@ -10608,12 +10751,14 @@
         <v>1</v>
       </c>
       <c r="FL32">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM32">
-        <v>0.12</v>
-      </c>
-      <c r="HR32" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="FN32">
+        <v>0.12</v>
+      </c>
       <c r="HS32" s="1"/>
       <c r="HT32" s="1"/>
       <c r="HU32" s="1"/>
@@ -10632,9 +10777,63 @@
       <c r="IH32" s="1"/>
       <c r="II32" s="1"/>
       <c r="IJ32" s="1"/>
+      <c r="IK32" s="1"/>
     </row>
-    <row r="33" spans="226:244">
-      <c r="HR33" s="1"/>
+    <row r="33" spans="156:245">
+      <c r="EZ33" t="s">
+        <v>52</v>
+      </c>
+      <c r="FA33" t="s">
+        <v>57</v>
+      </c>
+      <c r="FB33" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC33">
+        <v>0.35</v>
+      </c>
+      <c r="FD33" s="6">
+        <v>0.001</v>
+      </c>
+      <c r="FE33">
+        <v>0.1</v>
+      </c>
+      <c r="FF33">
+        <v>16</v>
+      </c>
+      <c r="FG33">
+        <v>2</v>
+      </c>
+      <c r="FH33">
+        <v>10</v>
+      </c>
+      <c r="FI33">
+        <v>300</v>
+      </c>
+      <c r="FJ33">
+        <v>1</v>
+      </c>
+      <c r="FK33">
+        <v>1</v>
+      </c>
+      <c r="FL33">
+        <v>1</v>
+      </c>
+      <c r="FM33">
+        <v>0.2</v>
+      </c>
+      <c r="FN33">
+        <v>0.12</v>
+      </c>
+      <c r="FO33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FP33">
+        <v>0.7235</v>
+      </c>
+      <c r="FQ33" s="15">
+        <v>45107</v>
+      </c>
       <c r="HS33" s="1"/>
       <c r="HT33" s="1"/>
       <c r="HU33" s="1"/>
@@ -10653,9 +10852,9 @@
       <c r="IH33" s="1"/>
       <c r="II33" s="1"/>
       <c r="IJ33" s="1"/>
+      <c r="IK33" s="1"/>
     </row>
-    <row r="34" spans="226:244">
-      <c r="HR34" s="1"/>
+    <row r="34" spans="227:245">
       <c r="HS34" s="1"/>
       <c r="HT34" s="1"/>
       <c r="HU34" s="1"/>
@@ -10674,9 +10873,9 @@
       <c r="IH34" s="1"/>
       <c r="II34" s="1"/>
       <c r="IJ34" s="1"/>
+      <c r="IK34" s="1"/>
     </row>
-    <row r="35" spans="226:244">
-      <c r="HR35" s="1"/>
+    <row r="35" spans="227:245">
       <c r="HS35" s="1"/>
       <c r="HT35" s="1"/>
       <c r="HU35" s="1"/>
@@ -10695,9 +10894,9 @@
       <c r="IH35" s="1"/>
       <c r="II35" s="1"/>
       <c r="IJ35" s="1"/>
+      <c r="IK35" s="1"/>
     </row>
-    <row r="36" spans="226:244">
-      <c r="HR36" s="1"/>
+    <row r="36" spans="227:245">
       <c r="HS36" s="1"/>
       <c r="HT36" s="1"/>
       <c r="HU36" s="1"/>
@@ -10716,9 +10915,9 @@
       <c r="IH36" s="1"/>
       <c r="II36" s="1"/>
       <c r="IJ36" s="1"/>
+      <c r="IK36" s="1"/>
     </row>
-    <row r="37" spans="226:244">
-      <c r="HR37" s="1"/>
+    <row r="37" spans="227:245">
       <c r="HS37" s="1"/>
       <c r="HT37" s="1"/>
       <c r="HU37" s="1"/>
@@ -10737,9 +10936,9 @@
       <c r="IH37" s="1"/>
       <c r="II37" s="1"/>
       <c r="IJ37" s="1"/>
+      <c r="IK37" s="1"/>
     </row>
-    <row r="38" spans="226:244">
-      <c r="HR38" s="1"/>
+    <row r="38" spans="227:245">
       <c r="HS38" s="1"/>
       <c r="HT38" s="1"/>
       <c r="HU38" s="1"/>
@@ -10758,10 +10957,11 @@
       <c r="IH38" s="1"/>
       <c r="II38" s="1"/>
       <c r="IJ38" s="1"/>
+      <c r="IK38" s="1"/>
     </row>
-    <row r="39" spans="156:244">
+    <row r="39" spans="156:245">
       <c r="EZ39" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="FA39" s="2"/>
       <c r="FB39" s="2"/>
@@ -10778,7 +10978,7 @@
       <c r="FM39" s="2"/>
       <c r="FN39" s="2"/>
       <c r="FO39" s="2"/>
-      <c r="HR39" s="1"/>
+      <c r="FP39" s="2"/>
       <c r="HS39" s="1"/>
       <c r="HT39" s="1"/>
       <c r="HU39" s="1"/>
@@ -10797,38 +10997,39 @@
       <c r="IH39" s="1"/>
       <c r="II39" s="1"/>
       <c r="IJ39" s="1"/>
+      <c r="IK39" s="1"/>
     </row>
-    <row r="40" spans="156:244">
+    <row r="40" spans="156:245">
       <c r="EZ40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA40" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB40">
+        <v>130</v>
+      </c>
+      <c r="FB40" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC40">
         <v>0.25</v>
       </c>
-      <c r="FC40" s="6">
+      <c r="FD40" s="6">
         <v>0.0001</v>
       </c>
-      <c r="FD40">
+      <c r="FE40">
         <v>0.5</v>
       </c>
-      <c r="FE40">
-        <v>16</v>
-      </c>
       <c r="FF40">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH40">
+        <v>10</v>
+      </c>
+      <c r="FI40">
         <v>300</v>
       </c>
-      <c r="FI40">
-        <v>1</v>
-      </c>
       <c r="FJ40">
         <v>1</v>
       </c>
@@ -10836,18 +11037,20 @@
         <v>1</v>
       </c>
       <c r="FL40">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM40">
-        <v>0.12</v>
-      </c>
-      <c r="FN40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO40">
+        <v>0.2</v>
+      </c>
+      <c r="FN40">
+        <v>0.12</v>
+      </c>
+      <c r="FO40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FP40">
         <v>0.6582</v>
       </c>
-      <c r="HR40" s="1"/>
       <c r="HS40" s="1"/>
       <c r="HT40" s="1"/>
       <c r="HU40" s="1"/>
@@ -10866,38 +11069,39 @@
       <c r="IH40" s="1"/>
       <c r="II40" s="1"/>
       <c r="IJ40" s="1"/>
+      <c r="IK40" s="1"/>
     </row>
-    <row r="41" spans="156:171">
+    <row r="41" spans="156:172">
       <c r="EZ41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA41" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB41">
+        <v>130</v>
+      </c>
+      <c r="FB41" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC41">
         <v>0.25</v>
       </c>
-      <c r="FC41" s="6">
+      <c r="FD41" s="6">
         <v>0.0004</v>
       </c>
-      <c r="FD41">
+      <c r="FE41">
         <v>0.5</v>
       </c>
-      <c r="FE41">
-        <v>16</v>
-      </c>
       <c r="FF41">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH41">
+        <v>10</v>
+      </c>
+      <c r="FI41">
         <v>300</v>
       </c>
-      <c r="FI41">
-        <v>1</v>
-      </c>
       <c r="FJ41">
         <v>1</v>
       </c>
@@ -10905,49 +11109,52 @@
         <v>1</v>
       </c>
       <c r="FL41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM41">
-        <v>0.12</v>
-      </c>
-      <c r="FN41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FO41">
+        <v>0.2</v>
+      </c>
+      <c r="FN41">
+        <v>0.12</v>
+      </c>
+      <c r="FO41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FP41">
         <v>0.6801</v>
       </c>
     </row>
-    <row r="42" spans="156:171">
+    <row r="42" spans="156:172">
       <c r="EZ42" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="FA42" t="s">
-        <v>121</v>
-      </c>
-      <c r="FB42">
+        <v>130</v>
+      </c>
+      <c r="FB42" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC42">
         <v>0.25</v>
       </c>
-      <c r="FC42" s="6">
+      <c r="FD42" s="6">
         <v>0.0008</v>
       </c>
-      <c r="FD42">
+      <c r="FE42">
         <v>0.5</v>
       </c>
-      <c r="FE42">
-        <v>16</v>
-      </c>
       <c r="FF42">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="FG42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FH42">
+        <v>10</v>
+      </c>
+      <c r="FI42">
         <v>300</v>
       </c>
-      <c r="FI42">
-        <v>1</v>
-      </c>
       <c r="FJ42">
         <v>1</v>
       </c>
@@ -10955,20 +11162,23 @@
         <v>1</v>
       </c>
       <c r="FL42">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="FM42">
-        <v>0.12</v>
-      </c>
-      <c r="FN42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO42">
+        <v>0.2</v>
+      </c>
+      <c r="FN42">
+        <v>0.12</v>
+      </c>
+      <c r="FO42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FP42">
         <v>0.6931</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="V1:AE1"/>
@@ -10980,22 +11190,23 @@
     <mergeCell ref="DD1:DR1"/>
     <mergeCell ref="DT1:EG1"/>
     <mergeCell ref="EJ1:EW1"/>
-    <mergeCell ref="EZ1:FP1"/>
-    <mergeCell ref="FR1:GH1"/>
-    <mergeCell ref="GJ1:GY1"/>
-    <mergeCell ref="HA1:HP1"/>
-    <mergeCell ref="HR1:II1"/>
-    <mergeCell ref="IK1:JB1"/>
-    <mergeCell ref="JD1:JV1"/>
-    <mergeCell ref="JZ1:KS1"/>
-    <mergeCell ref="KX1:LP1"/>
-    <mergeCell ref="EZ39:FO39"/>
+    <mergeCell ref="EZ1:FQ1"/>
+    <mergeCell ref="FS1:GI1"/>
+    <mergeCell ref="GK1:GZ1"/>
+    <mergeCell ref="HB1:HQ1"/>
+    <mergeCell ref="HS1:IJ1"/>
+    <mergeCell ref="IL1:JC1"/>
+    <mergeCell ref="JE1:JW1"/>
+    <mergeCell ref="KA1:KT1"/>
+    <mergeCell ref="KY1:LQ1"/>
+    <mergeCell ref="LS1:MG1"/>
+    <mergeCell ref="EZ39:FP39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="HY15 IH15" numberStoredAsText="1"/>
+    <ignoredError sqref="HZ15 II15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
